--- a/uurrooster.xlsx
+++ b/uurrooster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LUCA-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3FDD7B7-8290-4ADE-8F48-92D451847281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4ECBE3-215D-4607-999B-5D4B3011F741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="29" activeTab="40" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="4" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="94">
   <si>
     <t>Week</t>
   </si>
@@ -172,9 +172,6 @@
   </si>
   <si>
     <t>C15</t>
-  </si>
-  <si>
-    <t>Uurrooster ontbreekt? Vakantie?</t>
   </si>
   <si>
     <t>Design geschiedenis</t>
@@ -283,6 +280,84 @@
   </si>
   <si>
     <t>Examenresultaten bekendmaking</t>
+  </si>
+  <si>
+    <t>Intro</t>
+  </si>
+  <si>
+    <t>Design thinking of niet?</t>
+  </si>
+  <si>
+    <t>Groep A &amp; B: Sessie discover</t>
+  </si>
+  <si>
+    <t>Groep C &amp; D: Sessie discover</t>
+  </si>
+  <si>
+    <t>ABCD: Magneetweek</t>
+  </si>
+  <si>
+    <t>A&amp;B: Sessie define</t>
+  </si>
+  <si>
+    <t>C&amp;D: Sessie define</t>
+  </si>
+  <si>
+    <t>A&amp;B: Sessie deliver</t>
+  </si>
+  <si>
+    <t>Sessie deliver</t>
+  </si>
+  <si>
+    <t>A&amp;B: Deadline: concept pitch</t>
+  </si>
+  <si>
+    <t>C&amp;D: Deadline: concept pitch</t>
+  </si>
+  <si>
+    <t>Examenperiode</t>
+  </si>
+  <si>
+    <t>C&amp;D: Sessie deliver</t>
+  </si>
+  <si>
+    <t>A&amp;B</t>
+  </si>
+  <si>
+    <t>C&amp;D</t>
+  </si>
+  <si>
+    <t>C&amp;D: Soft opleverdatum</t>
+  </si>
+  <si>
+    <t>Maar wel design thinking</t>
+  </si>
+  <si>
+    <t>A&amp;B: Softopleverdatum</t>
+  </si>
+  <si>
+    <t>C&amp;D: opleverdatum</t>
+  </si>
+  <si>
+    <t>A&amp;B: Opleverdatum</t>
+  </si>
+  <si>
+    <t>Nog niks voor design thinking uurrooster, ook updaten</t>
+  </si>
+  <si>
+    <t>ABCD: Meeting project owner</t>
+  </si>
+  <si>
+    <t>Design thinking planning maken want super confusing</t>
+  </si>
+  <si>
+    <t>Groep</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Ik ben groep C, dus design thinking in de namiddag, en teken in de ochtend denkik.</t>
   </si>
 </sst>
 </file>
@@ -420,7 +495,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -458,6 +533,15 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="20% - Accent2" xfId="3" builtinId="34"/>
@@ -469,7 +553,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="261">
+  <dxfs count="245">
     <dxf>
       <font>
         <color theme="1"/>
@@ -1261,41 +1345,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="1"/>
       </font>
@@ -2077,41 +2126,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="1"/>
       </font>
@@ -2248,41 +2262,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="1"/>
       </font>
@@ -2612,13 +2591,6 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3085,7 +3057,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4C488EF-F955-47A9-AAA7-D1CD5EF9B327}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -3097,8 +3069,16 @@
       <c r="A1" t="s">
         <v>21</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="23">
         <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -3111,7 +3091,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3352,7 +3332,9 @@
       <c r="A18" s="3">
         <v>0.625</v>
       </c>
-      <c r="B18" s="5"/>
+      <c r="B18" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
       <c r="E18" s="11"/>
@@ -3433,7 +3415,7 @@
     </row>
     <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
-      <c r="B28" s="16"/>
+      <c r="B28" s="22"/>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
@@ -3505,22 +3487,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="227" priority="9">
+    <cfRule type="expression" dxfId="212" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="226" priority="8">
+    <cfRule type="expression" dxfId="211" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="225" priority="1">
+    <cfRule type="expression" dxfId="210" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="224" priority="7">
+    <cfRule type="expression" dxfId="209" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3533,7 +3515,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3789,7 +3771,9 @@
       <c r="A18" s="3">
         <v>0.625</v>
       </c>
-      <c r="B18" s="5"/>
+      <c r="B18" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
       <c r="E18" s="11"/>
@@ -3951,22 +3935,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="223" priority="10">
+    <cfRule type="expression" dxfId="208" priority="10">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="222" priority="9">
+    <cfRule type="expression" dxfId="207" priority="9">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="221" priority="1">
+    <cfRule type="expression" dxfId="206" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="220" priority="8">
+    <cfRule type="expression" dxfId="205" priority="8">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3979,7 +3963,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4220,7 +4204,9 @@
       <c r="A18" s="3">
         <v>0.625</v>
       </c>
-      <c r="B18" s="5"/>
+      <c r="B18" s="6" t="s">
+        <v>76</v>
+      </c>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
       <c r="E18" s="11"/>
@@ -4373,22 +4359,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="219" priority="15">
+    <cfRule type="expression" dxfId="204" priority="15">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="218" priority="14">
+    <cfRule type="expression" dxfId="203" priority="14">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="217" priority="1">
+    <cfRule type="expression" dxfId="202" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="216" priority="13">
+    <cfRule type="expression" dxfId="201" priority="13">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4400,8 +4386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D165ECF-F851-45C4-9910-4A8BC8B13718}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4653,11 +4639,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>0.625</v>
       </c>
-      <c r="B18" s="5"/>
+      <c r="B18" s="21" t="s">
+        <v>77</v>
+      </c>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
       <c r="E18" s="11"/>
@@ -4819,22 +4807,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="215" priority="16">
+    <cfRule type="expression" dxfId="200" priority="16">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="214" priority="15">
+    <cfRule type="expression" dxfId="199" priority="15">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="213" priority="1">
+    <cfRule type="expression" dxfId="198" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="212" priority="14">
+    <cfRule type="expression" dxfId="197" priority="14">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4847,7 +4835,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5084,11 +5072,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>0.625</v>
       </c>
-      <c r="B18" s="5"/>
+      <c r="B18" s="21" t="s">
+        <v>78</v>
+      </c>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
       <c r="E18" s="11"/>
@@ -5241,22 +5231,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="211" priority="13">
+    <cfRule type="expression" dxfId="196" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="210" priority="12">
+    <cfRule type="expression" dxfId="195" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="209" priority="1">
+    <cfRule type="expression" dxfId="194" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="208" priority="11">
+    <cfRule type="expression" dxfId="193" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5269,7 +5259,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5592,19 +5582,19 @@
     <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -5673,22 +5663,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="207" priority="13">
+    <cfRule type="expression" dxfId="192" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="206" priority="12">
+    <cfRule type="expression" dxfId="191" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="205" priority="1">
+    <cfRule type="expression" dxfId="190" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="204" priority="11">
+    <cfRule type="expression" dxfId="189" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6024,19 +6014,19 @@
     <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -6105,48 +6095,23 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="203" priority="18">
+    <cfRule type="expression" dxfId="188" priority="18">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="202" priority="17">
+    <cfRule type="expression" dxfId="187" priority="17">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="201" priority="6">
+    <cfRule type="expression" dxfId="186" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B29:F36">
-    <cfRule type="expression" dxfId="200" priority="16">
-      <formula>NOT(ISBLANK(B29))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28">
-    <cfRule type="expression" dxfId="199" priority="5">
+  <conditionalFormatting sqref="B28:F36">
+    <cfRule type="expression" dxfId="185" priority="1">
       <formula>NOT(ISBLANK(B28))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="198" priority="4">
-      <formula>NOT(ISBLANK(C28))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
-    <cfRule type="expression" dxfId="197" priority="3">
-      <formula>NOT(ISBLANK(D28))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="expression" dxfId="196" priority="2">
-      <formula>NOT(ISBLANK(E28))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
-    <cfRule type="expression" dxfId="195" priority="1">
-      <formula>NOT(ISBLANK(F28))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6480,13 +6445,21 @@
     </row>
     <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
-      <c r="B28" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
+      <c r="B28" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
@@ -6554,22 +6527,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="194" priority="13">
+    <cfRule type="expression" dxfId="184" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="193" priority="12">
+    <cfRule type="expression" dxfId="183" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="192" priority="1">
+    <cfRule type="expression" dxfId="182" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="191" priority="11">
+    <cfRule type="expression" dxfId="181" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6579,430 +6552,6 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A79B1A04-F46B-4F28-AC40-C23EF67608FF}">
-  <dimension ref="A1:I36"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="6" width="20.7109375" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="64.5" x14ac:dyDescent="0.95">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4">
-        <v>17</v>
-      </c>
-      <c r="D1" s="18">
-        <f>C1/Data!B1</f>
-        <v>0.42499999999999999</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="8">
-        <f>DATE(2024,9,23) + ((C1-1)*7)</f>
-        <v>45670</v>
-      </c>
-      <c r="C3" s="8">
-        <f>B3+1</f>
-        <v>45671</v>
-      </c>
-      <c r="D3" s="8">
-        <f>C3+1</f>
-        <v>45672</v>
-      </c>
-      <c r="E3" s="8">
-        <f>D3+1</f>
-        <v>45673</v>
-      </c>
-      <c r="F3" s="8">
-        <f>E3+1</f>
-        <v>45674</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>0.375</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>0.39583333333333298</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="D6" s="5"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>0.41666666666666702</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="D7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="H7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>0.4375</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="D8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="H8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
-        <v>0.44791666666666669</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="D9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>0.45833333333333398</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="D10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>0.47916666666666702</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>0.53125</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>0.54166666666666696</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>0.5625</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>0.58333333333333304</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>0.60416666666666696</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>0.625</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>0.64583333333333304</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>0.6875</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>0.70833333333333304</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>0.72916666666666696</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="F24" s="5"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>0.76041666666666663</v>
-      </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="F25" s="5"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-    </row>
-    <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-    </row>
-    <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-    </row>
-    <row r="30" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-    </row>
-    <row r="31" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-    </row>
-    <row r="32" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-    </row>
-    <row r="33" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-    </row>
-    <row r="34" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-    </row>
-    <row r="35" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-    </row>
-    <row r="36" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="190" priority="13">
-      <formula>B$3 &lt; TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="189" priority="12">
-      <formula>B3 = TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="188" priority="1">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="187" priority="11">
-      <formula>NOT(ISBLANK(B28))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2541638-04C8-411C-9550-9517F44E2AF8}">
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -7022,11 +6571,11 @@
         <v>0</v>
       </c>
       <c r="C1" s="4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D1" s="18">
         <f>C1/Data!B1</f>
-        <v>0.45</v>
+        <v>0.42499999999999999</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -7054,23 +6603,23 @@
       <c r="A3" s="1"/>
       <c r="B3" s="8">
         <f>DATE(2024,9,23) + ((C1-1)*7)</f>
-        <v>45677</v>
+        <v>45670</v>
       </c>
       <c r="C3" s="8">
         <f>B3+1</f>
-        <v>45678</v>
+        <v>45671</v>
       </c>
       <c r="D3" s="8">
         <f>C3+1</f>
-        <v>45679</v>
+        <v>45672</v>
       </c>
       <c r="E3" s="8">
         <f>D3+1</f>
-        <v>45680</v>
+        <v>45673</v>
       </c>
       <c r="F3" s="8">
         <f>E3+1</f>
-        <v>45681</v>
+        <v>45674</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>8</v>
@@ -7328,20 +6877,20 @@
     </row>
     <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
-      <c r="B28" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>43</v>
+      <c r="B28" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -7410,22 +6959,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="186" priority="13">
+    <cfRule type="expression" dxfId="180" priority="18">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="185" priority="12">
+    <cfRule type="expression" dxfId="179" priority="17">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="184" priority="1">
+    <cfRule type="expression" dxfId="178" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="183" priority="11">
+    <cfRule type="expression" dxfId="177" priority="1">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7433,12 +6982,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2541638-04C8-411C-9550-9517F44E2AF8}">
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7454,6 +7003,438 @@
         <v>0</v>
       </c>
       <c r="C1" s="4">
+        <v>18</v>
+      </c>
+      <c r="D1" s="18">
+        <f>C1/Data!B1</f>
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="8">
+        <f>DATE(2024,9,23) + ((C1-1)*7)</f>
+        <v>45677</v>
+      </c>
+      <c r="C3" s="8">
+        <f>B3+1</f>
+        <v>45678</v>
+      </c>
+      <c r="D3" s="8">
+        <f>C3+1</f>
+        <v>45679</v>
+      </c>
+      <c r="E3" s="8">
+        <f>D3+1</f>
+        <v>45680</v>
+      </c>
+      <c r="F3" s="8">
+        <f>E3+1</f>
+        <v>45681</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>0.39583333333333298</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="D6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="D7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="H7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="D8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="H8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="D9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>0.45833333333333398</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="D10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>0.53125</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>0.54166666666666696</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>0.64583333333333304</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>0.72916666666666696</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+    </row>
+    <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+    </row>
+    <row r="30" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+    </row>
+    <row r="31" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+    </row>
+    <row r="32" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="11"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+    </row>
+    <row r="33" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="11"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+    </row>
+    <row r="34" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="11"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+    </row>
+    <row r="35" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="11"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+    </row>
+    <row r="36" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="11"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:F3">
+    <cfRule type="expression" dxfId="176" priority="13">
+      <formula>B$3 &lt; TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:F3">
+    <cfRule type="expression" dxfId="175" priority="12">
+      <formula>B3 = TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:F25">
+    <cfRule type="expression" dxfId="174" priority="1">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:F36">
+    <cfRule type="expression" dxfId="173" priority="11">
+      <formula>NOT(ISBLANK(B28))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="6" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="64.5" x14ac:dyDescent="0.95">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4">
         <v>1</v>
       </c>
       <c r="D1" s="18">
@@ -7648,7 +7629,7 @@
         <v>13</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>13</v>
@@ -7658,7 +7639,9 @@
       <c r="A18" s="3">
         <v>0.625</v>
       </c>
-      <c r="B18" s="5"/>
+      <c r="B18" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
       <c r="E18" s="20"/>
@@ -7691,7 +7674,7 @@
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="E21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F21" s="5"/>
     </row>
@@ -7702,7 +7685,7 @@
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="E22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F22" s="5"/>
     </row>
@@ -7764,28 +7747,32 @@
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
       <c r="E29" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F29" s="19"/>
     </row>
     <row r="30" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
-      <c r="B30" s="19"/>
+      <c r="B30" s="19" t="s">
+        <v>90</v>
+      </c>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
       <c r="E30" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F30" s="19"/>
     </row>
     <row r="31" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
-      <c r="B31" s="19"/>
+      <c r="B31" s="19" t="s">
+        <v>93</v>
+      </c>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
@@ -7834,22 +7821,22 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="260" priority="14">
+    <cfRule type="expression" dxfId="244" priority="14">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="259" priority="6">
+    <cfRule type="expression" dxfId="243" priority="6">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="258" priority="15">
+    <cfRule type="expression" dxfId="242" priority="15">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="257" priority="1">
+    <cfRule type="expression" dxfId="241" priority="1">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8185,19 +8172,19 @@
     <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -8266,48 +8253,23 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="182" priority="18">
+    <cfRule type="expression" dxfId="172" priority="18">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="181" priority="17">
+    <cfRule type="expression" dxfId="171" priority="17">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="180" priority="6">
+    <cfRule type="expression" dxfId="170" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B29:F36">
-    <cfRule type="expression" dxfId="179" priority="16">
-      <formula>NOT(ISBLANK(B29))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28">
-    <cfRule type="expression" dxfId="178" priority="5">
+  <conditionalFormatting sqref="B28:F36">
+    <cfRule type="expression" dxfId="169" priority="1">
       <formula>NOT(ISBLANK(B28))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="177" priority="4">
-      <formula>NOT(ISBLANK(C28))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
-    <cfRule type="expression" dxfId="176" priority="3">
-      <formula>NOT(ISBLANK(D28))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="expression" dxfId="175" priority="2">
-      <formula>NOT(ISBLANK(E28))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
-    <cfRule type="expression" dxfId="174" priority="1">
-      <formula>NOT(ISBLANK(F28))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8642,37 +8604,37 @@
     <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" s="16" t="s">
         <v>44</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -8681,10 +8643,10 @@
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
       <c r="E30" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" s="19" t="s">
         <v>66</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -8737,22 +8699,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="173" priority="13">
+    <cfRule type="expression" dxfId="168" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="172" priority="12">
+    <cfRule type="expression" dxfId="167" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="171" priority="1">
+    <cfRule type="expression" dxfId="166" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="170" priority="11">
+    <cfRule type="expression" dxfId="165" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8765,7 +8727,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8931,7 +8893,7 @@
       <c r="B10" s="7"/>
       <c r="C10" s="11"/>
       <c r="D10" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="5"/>
@@ -8993,7 +8955,7 @@
         <v>12</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>22</v>
@@ -9013,7 +8975,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="5" t="s">
@@ -9024,7 +8986,9 @@
       <c r="A18" s="3">
         <v>0.625</v>
       </c>
-      <c r="B18" s="5"/>
+      <c r="B18" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="11"/>
@@ -9057,7 +9021,7 @@
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>26</v>
@@ -9071,7 +9035,7 @@
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>27</v>
@@ -9124,7 +9088,7 @@
     <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
@@ -9197,42 +9161,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:B25">
-    <cfRule type="expression" dxfId="169" priority="15">
+    <cfRule type="expression" dxfId="164" priority="15">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="168" priority="20">
+    <cfRule type="expression" dxfId="163" priority="20">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="167" priority="19">
+    <cfRule type="expression" dxfId="162" priority="19">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="166" priority="18">
+    <cfRule type="expression" dxfId="161" priority="18">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="165" priority="6">
+    <cfRule type="expression" dxfId="160" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="164" priority="21">
+    <cfRule type="expression" dxfId="159" priority="21">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="163" priority="14">
+    <cfRule type="expression" dxfId="158" priority="14">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F25">
-    <cfRule type="expression" dxfId="162" priority="1">
+    <cfRule type="expression" dxfId="157" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9245,7 +9209,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21:E25"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9402,7 +9366,7 @@
       <c r="B10" s="7"/>
       <c r="C10" s="11"/>
       <c r="D10" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="5"/>
@@ -9458,7 +9422,7 @@
         <v>12</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>22</v>
@@ -9478,7 +9442,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="5" t="s">
@@ -9489,7 +9453,9 @@
       <c r="A18" s="3">
         <v>0.625</v>
       </c>
-      <c r="B18" s="5"/>
+      <c r="B18" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="11"/>
@@ -9522,7 +9488,7 @@
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F21" s="5"/>
     </row>
@@ -9533,7 +9499,7 @@
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F22" s="5"/>
     </row>
@@ -9651,47 +9617,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:B25">
-    <cfRule type="expression" dxfId="161" priority="12">
+    <cfRule type="expression" dxfId="156" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="160" priority="17">
+    <cfRule type="expression" dxfId="155" priority="17">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="159" priority="16">
+    <cfRule type="expression" dxfId="154" priority="16">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="158" priority="15">
+    <cfRule type="expression" dxfId="153" priority="15">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="157" priority="7">
+    <cfRule type="expression" dxfId="152" priority="7">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="156" priority="18">
+    <cfRule type="expression" dxfId="151" priority="18">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="155" priority="11">
+    <cfRule type="expression" dxfId="150" priority="11">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E20">
-    <cfRule type="expression" dxfId="154" priority="1">
+    <cfRule type="expression" dxfId="149" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F25">
-    <cfRule type="expression" dxfId="153" priority="13">
+    <cfRule type="expression" dxfId="148" priority="13">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9704,7 +9670,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9870,7 +9836,7 @@
       <c r="B10" s="7"/>
       <c r="C10" s="11"/>
       <c r="D10" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="5"/>
@@ -9932,7 +9898,7 @@
         <v>12</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>22</v>
@@ -9952,7 +9918,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="5" t="s">
@@ -9963,7 +9929,9 @@
       <c r="A18" s="3">
         <v>0.625</v>
       </c>
-      <c r="B18" s="5"/>
+      <c r="B18" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="11"/>
@@ -9996,7 +9964,7 @@
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>26</v>
@@ -10010,7 +9978,7 @@
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>27</v>
@@ -10065,7 +10033,7 @@
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
       <c r="D28" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
@@ -10136,42 +10104,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:B25">
-    <cfRule type="expression" dxfId="152" priority="13">
+    <cfRule type="expression" dxfId="147" priority="13">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="151" priority="18">
+    <cfRule type="expression" dxfId="146" priority="18">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="150" priority="17">
+    <cfRule type="expression" dxfId="145" priority="17">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="149" priority="16">
+    <cfRule type="expression" dxfId="144" priority="16">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="148" priority="9">
+    <cfRule type="expression" dxfId="143" priority="9">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="147" priority="19">
+    <cfRule type="expression" dxfId="142" priority="19">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="146" priority="12">
+    <cfRule type="expression" dxfId="141" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F25">
-    <cfRule type="expression" dxfId="145" priority="1">
+    <cfRule type="expression" dxfId="140" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10184,7 +10152,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10341,7 +10309,7 @@
       <c r="B10" s="7"/>
       <c r="C10" s="11"/>
       <c r="D10" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="5"/>
@@ -10397,7 +10365,7 @@
         <v>12</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>22</v>
@@ -10417,7 +10385,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="5" t="s">
@@ -10428,7 +10396,9 @@
       <c r="A18" s="3">
         <v>0.625</v>
       </c>
-      <c r="B18" s="5"/>
+      <c r="B18" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="11"/>
@@ -10461,7 +10431,7 @@
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F21" s="5"/>
     </row>
@@ -10472,7 +10442,7 @@
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F22" s="5"/>
     </row>
@@ -10590,47 +10560,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:B25">
-    <cfRule type="expression" dxfId="144" priority="6">
+    <cfRule type="expression" dxfId="139" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="143" priority="11">
+    <cfRule type="expression" dxfId="138" priority="11">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="142" priority="10">
+    <cfRule type="expression" dxfId="137" priority="10">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="141" priority="9">
+    <cfRule type="expression" dxfId="136" priority="9">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="140" priority="2">
+    <cfRule type="expression" dxfId="135" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="139" priority="12">
+    <cfRule type="expression" dxfId="134" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="138" priority="5">
+    <cfRule type="expression" dxfId="133" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E20">
-    <cfRule type="expression" dxfId="137" priority="1">
+    <cfRule type="expression" dxfId="132" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F25">
-    <cfRule type="expression" dxfId="136" priority="7">
+    <cfRule type="expression" dxfId="131" priority="7">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10643,7 +10613,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B25"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10809,7 +10779,7 @@
       <c r="B10" s="7"/>
       <c r="C10" s="11"/>
       <c r="D10" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="5"/>
@@ -10871,7 +10841,7 @@
         <v>12</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>22</v>
@@ -10891,7 +10861,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="5" t="s">
@@ -10902,7 +10872,9 @@
       <c r="A18" s="3">
         <v>0.625</v>
       </c>
-      <c r="B18" s="5"/>
+      <c r="B18" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="11"/>
@@ -10935,7 +10907,7 @@
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>26</v>
@@ -10949,7 +10921,7 @@
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>27</v>
@@ -11073,42 +11045,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:B25">
-    <cfRule type="expression" dxfId="135" priority="13">
+    <cfRule type="expression" dxfId="130" priority="13">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="134" priority="18">
+    <cfRule type="expression" dxfId="129" priority="18">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="133" priority="17">
+    <cfRule type="expression" dxfId="128" priority="17">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="132" priority="16">
+    <cfRule type="expression" dxfId="127" priority="16">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="131" priority="9">
+    <cfRule type="expression" dxfId="126" priority="9">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="130" priority="19">
+    <cfRule type="expression" dxfId="125" priority="19">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="129" priority="12">
+    <cfRule type="expression" dxfId="124" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F25">
-    <cfRule type="expression" dxfId="128" priority="1">
+    <cfRule type="expression" dxfId="123" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11121,7 +11093,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11278,7 +11250,7 @@
       <c r="B10" s="7"/>
       <c r="C10" s="11"/>
       <c r="D10" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="5"/>
@@ -11334,7 +11306,7 @@
         <v>12</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>22</v>
@@ -11354,7 +11326,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="5" t="s">
@@ -11365,7 +11337,9 @@
       <c r="A18" s="3">
         <v>0.625</v>
       </c>
-      <c r="B18" s="5"/>
+      <c r="B18" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="11"/>
@@ -11398,7 +11372,7 @@
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F21" s="5"/>
     </row>
@@ -11409,7 +11383,7 @@
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F22" s="5"/>
     </row>
@@ -11527,47 +11501,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:B25">
-    <cfRule type="expression" dxfId="127" priority="6">
+    <cfRule type="expression" dxfId="122" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="126" priority="11">
+    <cfRule type="expression" dxfId="121" priority="11">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="125" priority="10">
+    <cfRule type="expression" dxfId="120" priority="10">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="124" priority="9">
+    <cfRule type="expression" dxfId="119" priority="9">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="123" priority="2">
+    <cfRule type="expression" dxfId="118" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="122" priority="12">
+    <cfRule type="expression" dxfId="117" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="121" priority="5">
+    <cfRule type="expression" dxfId="116" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E20">
-    <cfRule type="expression" dxfId="120" priority="1">
+    <cfRule type="expression" dxfId="115" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F25">
-    <cfRule type="expression" dxfId="119" priority="7">
+    <cfRule type="expression" dxfId="114" priority="7">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11580,7 +11554,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E25"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11746,7 +11720,7 @@
       <c r="B10" s="7"/>
       <c r="C10" s="11"/>
       <c r="D10" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="5"/>
@@ -11808,7 +11782,7 @@
         <v>12</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>22</v>
@@ -11828,7 +11802,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="5" t="s">
@@ -11839,7 +11813,9 @@
       <c r="A18" s="3">
         <v>0.625</v>
       </c>
-      <c r="B18" s="5"/>
+      <c r="B18" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="11"/>
@@ -11872,7 +11848,7 @@
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>26</v>
@@ -11886,7 +11862,7 @@
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>27</v>
@@ -12010,42 +11986,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:B25">
-    <cfRule type="expression" dxfId="118" priority="11">
+    <cfRule type="expression" dxfId="113" priority="11">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="117" priority="16">
+    <cfRule type="expression" dxfId="112" priority="16">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="116" priority="15">
+    <cfRule type="expression" dxfId="111" priority="15">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="115" priority="14">
+    <cfRule type="expression" dxfId="110" priority="14">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="114" priority="8">
+    <cfRule type="expression" dxfId="109" priority="8">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="113" priority="17">
+    <cfRule type="expression" dxfId="108" priority="17">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="112" priority="10">
+    <cfRule type="expression" dxfId="107" priority="10">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F25">
-    <cfRule type="expression" dxfId="111" priority="1">
+    <cfRule type="expression" dxfId="106" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12058,7 +12034,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12215,7 +12191,7 @@
       <c r="B10" s="7"/>
       <c r="C10" s="11"/>
       <c r="D10" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="5"/>
@@ -12271,7 +12247,7 @@
         <v>12</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>22</v>
@@ -12291,18 +12267,20 @@
         <v>13</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>0.625</v>
       </c>
-      <c r="B18" s="5"/>
+      <c r="B18" s="21" t="s">
+        <v>83</v>
+      </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="11"/>
@@ -12335,7 +12313,7 @@
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F21" s="5"/>
     </row>
@@ -12346,7 +12324,7 @@
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F22" s="5"/>
     </row>
@@ -12393,7 +12371,7 @@
     <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
@@ -12402,7 +12380,9 @@
     </row>
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
-      <c r="B29" s="17"/>
+      <c r="B29" s="16" t="s">
+        <v>84</v>
+      </c>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
       <c r="E29" s="17"/>
@@ -12466,37 +12446,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="110" priority="11">
+    <cfRule type="expression" dxfId="105" priority="11">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="109" priority="10">
+    <cfRule type="expression" dxfId="104" priority="10">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="108" priority="6">
+    <cfRule type="expression" dxfId="103" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="107" priority="9">
+    <cfRule type="expression" dxfId="102" priority="9">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="106" priority="2">
+    <cfRule type="expression" dxfId="101" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="105" priority="5">
+    <cfRule type="expression" dxfId="100" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E20">
-    <cfRule type="expression" dxfId="104" priority="1">
+    <cfRule type="expression" dxfId="99" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12509,7 +12489,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12846,7 +12826,9 @@
     </row>
     <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
-      <c r="B28" s="16"/>
+      <c r="B28" s="16" t="s">
+        <v>69</v>
+      </c>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
       <c r="E28" s="16" t="s">
@@ -12920,22 +12902,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="256" priority="4">
+    <cfRule type="expression" dxfId="240" priority="4">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="255" priority="3">
+    <cfRule type="expression" dxfId="239" priority="3">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="254" priority="1">
+    <cfRule type="expression" dxfId="238" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="253" priority="2">
+    <cfRule type="expression" dxfId="237" priority="2">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12948,7 +12930,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13105,7 +13087,7 @@
       <c r="B10" s="7"/>
       <c r="C10" s="11"/>
       <c r="D10" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="5"/>
@@ -13161,7 +13143,7 @@
         <v>12</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>22</v>
@@ -13181,7 +13163,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="5" t="s">
@@ -13225,7 +13207,7 @@
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F21" s="5"/>
     </row>
@@ -13236,7 +13218,7 @@
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F22" s="5"/>
     </row>
@@ -13283,19 +13265,19 @@
     <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13364,37 +13346,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="103" priority="11">
+    <cfRule type="expression" dxfId="98" priority="11">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="102" priority="10">
+    <cfRule type="expression" dxfId="97" priority="10">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="101" priority="6">
+    <cfRule type="expression" dxfId="96" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="100" priority="9">
+    <cfRule type="expression" dxfId="95" priority="9">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="99" priority="2">
+    <cfRule type="expression" dxfId="94" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="98" priority="5">
+    <cfRule type="expression" dxfId="93" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E20">
-    <cfRule type="expression" dxfId="97" priority="1">
+    <cfRule type="expression" dxfId="92" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13564,7 +13546,7 @@
       <c r="B10" s="7"/>
       <c r="C10" s="11"/>
       <c r="D10" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="5"/>
@@ -13620,7 +13602,7 @@
         <v>12</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>22</v>
@@ -13640,7 +13622,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="5" t="s">
@@ -13684,7 +13666,7 @@
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F21" s="5"/>
     </row>
@@ -13695,7 +13677,7 @@
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F22" s="5"/>
     </row>
@@ -13742,19 +13724,19 @@
     <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13823,63 +13805,38 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="96" priority="16">
+    <cfRule type="expression" dxfId="91" priority="16">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="95" priority="15">
+    <cfRule type="expression" dxfId="90" priority="15">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="94" priority="11">
+    <cfRule type="expression" dxfId="89" priority="11">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B29:F36">
-    <cfRule type="expression" dxfId="93" priority="14">
-      <formula>NOT(ISBLANK(B29))</formula>
+  <conditionalFormatting sqref="B28:F36">
+    <cfRule type="expression" dxfId="88" priority="1">
+      <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="92" priority="7">
+    <cfRule type="expression" dxfId="87" priority="7">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="91" priority="10">
+    <cfRule type="expression" dxfId="86" priority="10">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E20">
-    <cfRule type="expression" dxfId="90" priority="6">
+    <cfRule type="expression" dxfId="85" priority="6">
       <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28">
-    <cfRule type="expression" dxfId="89" priority="5">
-      <formula>NOT(ISBLANK(B28))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="88" priority="4">
-      <formula>NOT(ISBLANK(C28))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
-    <cfRule type="expression" dxfId="87" priority="3">
-      <formula>NOT(ISBLANK(D28))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="expression" dxfId="86" priority="2">
-      <formula>NOT(ISBLANK(E28))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
-    <cfRule type="expression" dxfId="85" priority="1">
-      <formula>NOT(ISBLANK(F28))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13891,7 +13848,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14046,7 +14003,7 @@
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="5"/>
@@ -14102,7 +14059,7 @@
         <v>12</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>22</v>
@@ -14119,7 +14076,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="5" t="s">
@@ -14159,7 +14116,7 @@
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>26</v>
@@ -14172,7 +14129,7 @@
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>27</v>
@@ -14222,19 +14179,19 @@
     <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="16" t="s">
-        <v>50</v>
-      </c>
       <c r="D28" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -14341,7 +14298,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14495,7 +14452,7 @@
       <c r="B10" s="7"/>
       <c r="C10" s="11"/>
       <c r="D10" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F10" s="5"/>
     </row>
@@ -14547,7 +14504,7 @@
         <v>12</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -14564,17 +14521,19 @@
         <v>13</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>0.625</v>
       </c>
-      <c r="B18" s="5"/>
+      <c r="B18" s="21" t="s">
+        <v>85</v>
+      </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="F18" s="5"/>
@@ -14604,7 +14563,7 @@
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F21" s="5"/>
     </row>
@@ -14615,7 +14574,7 @@
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F22" s="5"/>
     </row>
@@ -14665,7 +14624,7 @@
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
       <c r="E28" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F28" s="16"/>
     </row>
@@ -14783,7 +14742,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F26"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14949,7 +14908,7 @@
       <c r="B10" s="7"/>
       <c r="C10" s="11"/>
       <c r="D10" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="5"/>
@@ -15011,7 +14970,7 @@
         <v>12</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>22</v>
@@ -15031,7 +14990,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="5" t="s">
@@ -15042,7 +15001,9 @@
       <c r="A18" s="3">
         <v>0.625</v>
       </c>
-      <c r="B18" s="5"/>
+      <c r="B18" s="21" t="s">
+        <v>86</v>
+      </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="11"/>
@@ -15075,7 +15036,7 @@
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>26</v>
@@ -15089,7 +15050,7 @@
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>27</v>
@@ -15261,7 +15222,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15418,7 +15379,7 @@
       <c r="B10" s="7"/>
       <c r="C10" s="11"/>
       <c r="D10" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="5"/>
@@ -15474,7 +15435,7 @@
         <v>12</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>22</v>
@@ -15494,7 +15455,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="5" t="s">
@@ -15505,7 +15466,9 @@
       <c r="A18" s="3">
         <v>0.625</v>
       </c>
-      <c r="B18" s="5"/>
+      <c r="B18" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="11"/>
@@ -15538,7 +15501,7 @@
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F21" s="5"/>
     </row>
@@ -15549,7 +15512,7 @@
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F22" s="5"/>
     </row>
@@ -15720,7 +15683,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15877,7 +15840,7 @@
       <c r="B10" s="7"/>
       <c r="C10" s="11"/>
       <c r="D10" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="5"/>
@@ -15933,7 +15896,7 @@
         <v>12</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>22</v>
@@ -15953,7 +15916,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="5" t="s">
@@ -15997,7 +15960,7 @@
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F21" s="5"/>
     </row>
@@ -16008,7 +15971,7 @@
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F22" s="5"/>
     </row>
@@ -16055,7 +16018,7 @@
     <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
@@ -16064,7 +16027,9 @@
     </row>
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
-      <c r="B29" s="17"/>
+      <c r="B29" s="19" t="s">
+        <v>88</v>
+      </c>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
       <c r="E29" s="17"/>
@@ -16338,7 +16303,7 @@
       <c r="B10" s="7"/>
       <c r="C10" s="11"/>
       <c r="D10" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="5"/>
@@ -16394,7 +16359,7 @@
         <v>12</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>22</v>
@@ -16414,7 +16379,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="5" t="s">
@@ -16458,7 +16423,7 @@
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F21" s="5"/>
     </row>
@@ -16469,7 +16434,7 @@
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F22" s="5"/>
     </row>
@@ -16516,15 +16481,15 @@
     <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
       <c r="E28" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -16803,7 +16768,7 @@
       <c r="B10" s="7"/>
       <c r="C10" s="11"/>
       <c r="D10" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="5"/>
@@ -16859,7 +16824,7 @@
         <v>12</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>22</v>
@@ -16879,7 +16844,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="5" t="s">
@@ -16923,7 +16888,7 @@
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F21" s="5"/>
     </row>
@@ -16934,7 +16899,7 @@
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F22" s="5"/>
     </row>
@@ -16981,7 +16946,7 @@
     <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
@@ -17107,7 +17072,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17264,7 +17229,7 @@
       <c r="B10" s="7"/>
       <c r="C10" s="11"/>
       <c r="D10" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="5"/>
@@ -17320,7 +17285,7 @@
         <v>12</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>22</v>
@@ -17340,7 +17305,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="5" t="s">
@@ -17384,7 +17349,7 @@
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F21" s="5"/>
     </row>
@@ -17395,7 +17360,7 @@
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F22" s="5"/>
     </row>
@@ -17442,25 +17407,25 @@
     <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
@@ -17578,7 +17543,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17806,11 +17771,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>0.625</v>
       </c>
-      <c r="B18" s="5"/>
+      <c r="B18" s="21" t="s">
+        <v>89</v>
+      </c>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
       <c r="E18" s="11"/>
@@ -17963,22 +17930,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="252" priority="4">
+    <cfRule type="expression" dxfId="236" priority="4">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="251" priority="3">
+    <cfRule type="expression" dxfId="235" priority="3">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="250" priority="1">
+    <cfRule type="expression" dxfId="234" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="249" priority="2">
+    <cfRule type="expression" dxfId="233" priority="2">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18148,7 +18115,7 @@
       <c r="B10" s="7"/>
       <c r="C10" s="11"/>
       <c r="D10" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="5"/>
@@ -18204,7 +18171,7 @@
         <v>12</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>22</v>
@@ -18224,7 +18191,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="5" t="s">
@@ -18268,7 +18235,7 @@
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F21" s="5"/>
     </row>
@@ -18279,7 +18246,7 @@
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F22" s="5"/>
     </row>
@@ -18326,25 +18293,25 @@
     <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
@@ -18461,7 +18428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74C43CB4-B152-466E-8983-87AA7D25B35F}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -18619,7 +18586,7 @@
       <c r="B10" s="7"/>
       <c r="C10" s="11"/>
       <c r="D10" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="5"/>
@@ -18675,7 +18642,7 @@
         <v>12</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>22</v>
@@ -18695,7 +18662,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="5" t="s">
@@ -18739,7 +18706,7 @@
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F21" s="5"/>
     </row>
@@ -18750,7 +18717,7 @@
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F22" s="5"/>
     </row>
@@ -18797,15 +18764,15 @@
     <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
       <c r="E28" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -18815,7 +18782,7 @@
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
       <c r="F29" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -18929,7 +18896,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19172,11 +19139,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>0.625</v>
       </c>
-      <c r="B18" s="5"/>
+      <c r="B18" s="21" t="s">
+        <v>70</v>
+      </c>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
       <c r="E18" s="11"/>
@@ -19268,12 +19237,12 @@
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
       <c r="F28" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -19342,31 +19311,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="248" priority="5">
+    <cfRule type="expression" dxfId="232" priority="5">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="247" priority="4">
+    <cfRule type="expression" dxfId="231" priority="4">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="246" priority="2">
+    <cfRule type="expression" dxfId="230" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B29:F36 B28 D28:F28">
-    <cfRule type="expression" dxfId="245" priority="3">
+  <conditionalFormatting sqref="B28:F36">
+    <cfRule type="expression" dxfId="229" priority="1">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="244" priority="1">
-      <formula>NOT(ISBLANK(C28))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -19375,7 +19340,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19603,11 +19568,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>0.625</v>
       </c>
-      <c r="B18" s="5"/>
+      <c r="B18" s="21" t="s">
+        <v>71</v>
+      </c>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
       <c r="E18" s="11"/>
@@ -19758,24 +19725,24 @@
       <c r="F36" s="17"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B28:E28 B29:F36">
+    <cfRule type="expression" dxfId="228" priority="3">
+      <formula>NOT(ISBLANK(B28))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="243" priority="4">
+    <cfRule type="expression" dxfId="227" priority="5">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="242" priority="3">
+    <cfRule type="expression" dxfId="226" priority="4">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="241" priority="1">
+    <cfRule type="expression" dxfId="225" priority="1">
       <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29:F36 B28:E28">
-    <cfRule type="expression" dxfId="240" priority="2">
-      <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19784,6 +19751,787 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCC8A23D-1378-435A-885F-A51D730BDF9D}">
+  <dimension ref="A1:I36"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="6" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="64.5" x14ac:dyDescent="0.95">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4">
+        <v>6</v>
+      </c>
+      <c r="D1" s="18">
+        <f>C1/Data!B1</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="8">
+        <f>DATE(2024,9,23) + ((C1-1)*7)</f>
+        <v>45593</v>
+      </c>
+      <c r="C3" s="8">
+        <f>B3+1</f>
+        <v>45594</v>
+      </c>
+      <c r="D3" s="8">
+        <f>C3+1</f>
+        <v>45595</v>
+      </c>
+      <c r="E3" s="8">
+        <f>D3+1</f>
+        <v>45596</v>
+      </c>
+      <c r="F3" s="8">
+        <f>E3+1</f>
+        <v>45597</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>0.39583333333333298</v>
+      </c>
+      <c r="B6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="H7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="H8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="D9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>0.45833333333333398</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="D10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="11"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>0.53125</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="11"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>0.54166666666666696</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="11"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="11"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>0.64583333333333304</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="11"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="11"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>0.72916666666666696</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+    </row>
+    <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+    </row>
+    <row r="30" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+    </row>
+    <row r="31" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+    </row>
+    <row r="32" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="11"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+    </row>
+    <row r="33" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="11"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+    </row>
+    <row r="34" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="11"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+    </row>
+    <row r="35" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="11"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+    </row>
+    <row r="36" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="11"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:F3">
+    <cfRule type="expression" dxfId="224" priority="4">
+      <formula>B$3 &lt; TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:F3">
+    <cfRule type="expression" dxfId="223" priority="3">
+      <formula>B3 = TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:F25">
+    <cfRule type="expression" dxfId="222" priority="1">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:F36">
+    <cfRule type="expression" dxfId="221" priority="2">
+      <formula>NOT(ISBLANK(B28))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A96EABB-B1C3-43B9-AECA-9B0905F8E959}">
+  <dimension ref="A1:I36"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="6" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="64.5" x14ac:dyDescent="0.95">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4">
+        <v>7</v>
+      </c>
+      <c r="D1" s="18">
+        <f>C1/Data!B1</f>
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="8">
+        <f>DATE(2024,9,23) + ((C1-1)*7)</f>
+        <v>45600</v>
+      </c>
+      <c r="C3" s="8">
+        <f>B3+1</f>
+        <v>45601</v>
+      </c>
+      <c r="D3" s="8">
+        <f>C3+1</f>
+        <v>45602</v>
+      </c>
+      <c r="E3" s="8">
+        <f>D3+1</f>
+        <v>45603</v>
+      </c>
+      <c r="F3" s="8">
+        <f>E3+1</f>
+        <v>45604</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>0.39583333333333298</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="D7" s="5"/>
+      <c r="H7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="D8" s="5"/>
+      <c r="H8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="D9" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>0.45833333333333398</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="D10" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>0.53125</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>0.54166666666666696</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>0.64583333333333304</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>0.72916666666666696</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+    </row>
+    <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="16"/>
+    </row>
+    <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+    </row>
+    <row r="30" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+    </row>
+    <row r="31" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+    </row>
+    <row r="32" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="11"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+    </row>
+    <row r="33" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="11"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+    </row>
+    <row r="34" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="11"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+    </row>
+    <row r="35" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="11"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+    </row>
+    <row r="36" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="11"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:F3">
+    <cfRule type="expression" dxfId="220" priority="4">
+      <formula>B$3 &lt; TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:F3">
+    <cfRule type="expression" dxfId="219" priority="3">
+      <formula>B3 = TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:F25">
+    <cfRule type="expression" dxfId="218" priority="1">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:F36">
+    <cfRule type="expression" dxfId="217" priority="2">
+      <formula>NOT(ISBLANK(B28))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F26818F-6F37-424F-AADD-481E51211030}">
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -19803,11 +20551,11 @@
         <v>0</v>
       </c>
       <c r="C1" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D1" s="18">
         <f>C1/Data!B1</f>
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -19835,23 +20583,23 @@
       <c r="A3" s="1"/>
       <c r="B3" s="8">
         <f>DATE(2024,9,23) + ((C1-1)*7)</f>
-        <v>45593</v>
+        <v>45607</v>
       </c>
       <c r="C3" s="8">
         <f>B3+1</f>
-        <v>45594</v>
+        <v>45608</v>
       </c>
       <c r="D3" s="8">
         <f>C3+1</f>
-        <v>45595</v>
+        <v>45609</v>
       </c>
       <c r="E3" s="8">
         <f>D3+1</f>
-        <v>45596</v>
+        <v>45610</v>
       </c>
       <c r="F3" s="8">
         <f>E3+1</f>
-        <v>45597</v>
+        <v>45611</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>8</v>
@@ -19861,8 +20609,14 @@
       <c r="A4" s="3">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>11</v>
+      <c r="D4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>10</v>
@@ -19872,8 +20626,14 @@
       <c r="A5" s="3">
         <v>0.375</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>7</v>
+      <c r="D5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="H5" s="11" t="s">
         <v>25</v>
@@ -19883,13 +20643,17 @@
       <c r="A6" s="3">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B7" s="7"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
       <c r="H7" s="1" t="s">
         <v>18</v>
       </c>
@@ -19899,7 +20663,9 @@
       <c r="A8" s="3">
         <v>0.4375</v>
       </c>
-      <c r="B8" s="7"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
       <c r="H8" s="1" t="s">
         <v>19</v>
       </c>
@@ -19911,65 +20677,68 @@
       <c r="A9" s="10">
         <v>0.44791666666666669</v>
       </c>
-      <c r="B9" s="7"/>
       <c r="D9" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>24</v>
       </c>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>0.45833333333333398</v>
       </c>
-      <c r="B10" s="7"/>
       <c r="D10" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="11"/>
+      <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B11" s="7"/>
       <c r="D11" s="5"/>
       <c r="E11" s="11"/>
+      <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>0.5</v>
       </c>
-      <c r="B12" s="7"/>
       <c r="D12" s="5"/>
       <c r="E12" s="11"/>
+      <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>0.53125</v>
       </c>
-      <c r="B13" s="7"/>
       <c r="D13" s="5"/>
       <c r="E13" s="11"/>
+      <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>0.54166666666666696</v>
       </c>
+      <c r="E14" s="6" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>0.5625</v>
       </c>
+      <c r="E15" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
@@ -19978,15 +20747,15 @@
       </c>
       <c r="E16" s="12" t="s">
         <v>22</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="C17" s="5" t="s">
         <v>13</v>
       </c>
@@ -19994,68 +20763,80 @@
         <v>13</v>
       </c>
       <c r="E17" s="11"/>
+      <c r="F17" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>0.625</v>
       </c>
-      <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
       <c r="E18" s="11"/>
+      <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="7"/>
       <c r="E19" s="11"/>
+      <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="7"/>
       <c r="E20" s="11"/>
+      <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>0.6875</v>
       </c>
-      <c r="B21" s="5"/>
       <c r="C21" s="5"/>
+      <c r="E21" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B22" s="5"/>
       <c r="C22" s="5"/>
+      <c r="E22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>0.72916666666666696</v>
       </c>
-      <c r="B23" s="5"/>
       <c r="C23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>0.75</v>
       </c>
-      <c r="B24" s="5"/>
       <c r="C24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>0.76041666666666663</v>
       </c>
-      <c r="B25" s="5"/>
       <c r="C25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
@@ -20072,21 +20853,13 @@
     </row>
     <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
-      <c r="B28" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F28" s="19" t="s">
+      <c r="B28" s="19" t="s">
         <v>40</v>
       </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
     </row>
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
@@ -20154,824 +20927,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="239" priority="4">
+    <cfRule type="expression" dxfId="216" priority="7">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="238" priority="3">
+    <cfRule type="expression" dxfId="215" priority="6">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="237" priority="1">
+    <cfRule type="expression" dxfId="214" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="236" priority="2">
-      <formula>NOT(ISBLANK(B28))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A96EABB-B1C3-43B9-AECA-9B0905F8E959}">
-  <dimension ref="A1:I36"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="6" width="20.7109375" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="64.5" x14ac:dyDescent="0.95">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4">
-        <v>7</v>
-      </c>
-      <c r="D1" s="18">
-        <f>C1/Data!B1</f>
-        <v>0.17499999999999999</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="8">
-        <f>DATE(2024,9,23) + ((C1-1)*7)</f>
-        <v>45600</v>
-      </c>
-      <c r="C3" s="8">
-        <f>B3+1</f>
-        <v>45601</v>
-      </c>
-      <c r="D3" s="8">
-        <f>C3+1</f>
-        <v>45602</v>
-      </c>
-      <c r="E3" s="8">
-        <f>D3+1</f>
-        <v>45603</v>
-      </c>
-      <c r="F3" s="8">
-        <f>E3+1</f>
-        <v>45604</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>0.375</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>0.39583333333333298</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>0.41666666666666702</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="D7" s="5"/>
-      <c r="H7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>0.4375</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="D8" s="5"/>
-      <c r="H8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
-        <v>0.44791666666666669</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="D9" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>0.45833333333333398</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="D10" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>0.47916666666666702</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>0.53125</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>0.54166666666666696</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>0.5625</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>0.58333333333333304</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>0.60416666666666696</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>0.625</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="7"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>0.64583333333333304</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="7"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="7"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>0.6875</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>0.70833333333333304</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>0.72916666666666696</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>0.76041666666666663</v>
-      </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-    </row>
-    <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F28" s="16"/>
-    </row>
-    <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-    </row>
-    <row r="30" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-    </row>
-    <row r="31" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-    </row>
-    <row r="32" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-    </row>
-    <row r="33" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-    </row>
-    <row r="34" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-    </row>
-    <row r="35" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-    </row>
-    <row r="36" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="235" priority="4">
-      <formula>B$3 &lt; TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="234" priority="3">
-      <formula>B3 = TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="233" priority="1">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="232" priority="2">
-      <formula>NOT(ISBLANK(B28))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F26818F-6F37-424F-AADD-481E51211030}">
-  <dimension ref="A1:I36"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="6" width="20.7109375" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="64.5" x14ac:dyDescent="0.95">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4">
-        <v>8</v>
-      </c>
-      <c r="D1" s="18">
-        <f>C1/Data!B1</f>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="8">
-        <f>DATE(2024,9,23) + ((C1-1)*7)</f>
-        <v>45607</v>
-      </c>
-      <c r="C3" s="8">
-        <f>B3+1</f>
-        <v>45608</v>
-      </c>
-      <c r="D3" s="8">
-        <f>C3+1</f>
-        <v>45609</v>
-      </c>
-      <c r="E3" s="8">
-        <f>D3+1</f>
-        <v>45610</v>
-      </c>
-      <c r="F3" s="8">
-        <f>E3+1</f>
-        <v>45611</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>0.375</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>0.39583333333333298</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>0.41666666666666702</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="H7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>0.4375</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="H8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
-        <v>0.44791666666666669</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>0.45833333333333398</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>0.47916666666666702</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>0.53125</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>0.54166666666666696</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>0.5625</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>0.58333333333333304</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>0.60416666666666696</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>0.625</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>0.64583333333333304</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>0.6875</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="E21" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>0.70833333333333304</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="E22" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>0.72916666666666696</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>0.76041666666666663</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-    </row>
-    <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-    </row>
-    <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-    </row>
-    <row r="30" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-    </row>
-    <row r="31" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-    </row>
-    <row r="32" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-    </row>
-    <row r="33" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-    </row>
-    <row r="34" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-    </row>
-    <row r="35" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-    </row>
-    <row r="36" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="231" priority="7">
-      <formula>B$3 &lt; TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="230" priority="6">
-      <formula>B3 = TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="229" priority="1">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="228" priority="5">
+    <cfRule type="expression" dxfId="213" priority="5">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/uurrooster.xlsx
+++ b/uurrooster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LUCA-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4ECBE3-215D-4607-999B-5D4B3011F741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D5D87E-7E52-41A4-91C8-4E16560702BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="99">
   <si>
     <t>Week</t>
   </si>
@@ -358,6 +358,21 @@
   </si>
   <si>
     <t>Ik ben groep C, dus design thinking in de namiddag, en teken in de ochtend denkik.</t>
+  </si>
+  <si>
+    <t>Tekenen updaten wanneer ik echt en nie echt moet gaan</t>
+  </si>
+  <si>
+    <t>Design thinking alleen wanneer mijn groep heeft markeren</t>
+  </si>
+  <si>
+    <t>Github opzetten op laptop</t>
+  </si>
+  <si>
+    <t>Is tekenen op dezelfde week als design thinking altijd?</t>
+  </si>
+  <si>
+    <t>Startup folder op laptop updaten</t>
   </si>
 </sst>
 </file>
@@ -7418,8 +7433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7780,7 +7795,9 @@
     </row>
     <row r="32" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
-      <c r="B32" s="19"/>
+      <c r="B32" s="19" t="s">
+        <v>94</v>
+      </c>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
@@ -7788,7 +7805,9 @@
     </row>
     <row r="33" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
-      <c r="B33" s="19"/>
+      <c r="B33" s="19" t="s">
+        <v>95</v>
+      </c>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
@@ -7796,7 +7815,9 @@
     </row>
     <row r="34" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
-      <c r="B34" s="19"/>
+      <c r="B34" s="19" t="s">
+        <v>96</v>
+      </c>
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
       <c r="E34" s="19"/>
@@ -7804,7 +7825,9 @@
     </row>
     <row r="35" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
-      <c r="B35" s="19"/>
+      <c r="B35" s="19" t="s">
+        <v>97</v>
+      </c>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
@@ -7812,7 +7835,9 @@
     </row>
     <row r="36" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
-      <c r="B36" s="19"/>
+      <c r="B36" s="19" t="s">
+        <v>98</v>
+      </c>
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>
       <c r="E36" s="19"/>

--- a/uurrooster.xlsx
+++ b/uurrooster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LUCA-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D5D87E-7E52-41A4-91C8-4E16560702BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03E0B9A-E5D1-493B-AEB5-D0B287E14970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="100">
   <si>
     <t>Week</t>
   </si>
@@ -374,6 +374,9 @@
   <si>
     <t>Startup folder op laptop updaten</t>
   </si>
+  <si>
+    <t>Design thinking is in ter beken? Updaten op uurrooster</t>
+  </si>
 </sst>
 </file>
 
@@ -510,7 +513,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -556,6 +559,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -7433,8 +7439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7743,8 +7749,8 @@
     </row>
     <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
-      <c r="B28" s="16" t="s">
-        <v>23</v>
+      <c r="B28" s="24" t="s">
+        <v>37</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>23</v>
@@ -7762,7 +7768,7 @@
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="19" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
@@ -7774,7 +7780,7 @@
     <row r="30" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="19" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
@@ -7786,7 +7792,7 @@
     <row r="31" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
@@ -7796,7 +7802,7 @@
     <row r="32" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
@@ -7805,8 +7811,8 @@
     </row>
     <row r="33" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
-      <c r="B33" s="19" t="s">
-        <v>95</v>
+      <c r="B33" s="24" t="s">
+        <v>96</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
@@ -7816,7 +7822,7 @@
     <row r="34" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="19" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
@@ -7825,8 +7831,8 @@
     </row>
     <row r="35" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
-      <c r="B35" s="19" t="s">
-        <v>97</v>
+      <c r="B35" s="24" t="s">
+        <v>98</v>
       </c>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
@@ -7836,7 +7842,7 @@
     <row r="36" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>

--- a/uurrooster.xlsx
+++ b/uurrooster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LUCA-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03E0B9A-E5D1-493B-AEB5-D0B287E14970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C86CBC3-47F7-4D7C-9164-81154BFDE0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="98">
   <si>
     <t>Week</t>
   </si>
@@ -348,16 +348,10 @@
     <t>ABCD: Meeting project owner</t>
   </si>
   <si>
-    <t>Design thinking planning maken want super confusing</t>
-  </si>
-  <si>
     <t>Groep</t>
   </si>
   <si>
     <t>C</t>
-  </si>
-  <si>
-    <t>Ik ben groep C, dus design thinking in de namiddag, en teken in de ochtend denkik.</t>
   </si>
   <si>
     <t>Tekenen updaten wanneer ik echt en nie echt moet gaan</t>
@@ -369,13 +363,13 @@
     <t>Github opzetten op laptop</t>
   </si>
   <si>
-    <t>Is tekenen op dezelfde week als design thinking altijd?</t>
-  </si>
-  <si>
     <t>Startup folder op laptop updaten</t>
   </si>
   <si>
     <t>Design thinking is in ter beken? Updaten op uurrooster</t>
+  </si>
+  <si>
+    <t>Design thinking planning maken</t>
   </si>
 </sst>
 </file>
@@ -576,6 +570,13 @@
   </cellStyles>
   <dxfs count="245">
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="1"/>
       </font>
@@ -2748,13 +2749,6 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3096,10 +3090,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>91</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -3508,22 +3502,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="212" priority="9">
+    <cfRule type="expression" dxfId="213" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="211" priority="8">
+    <cfRule type="expression" dxfId="212" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="210" priority="1">
+    <cfRule type="expression" dxfId="211" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="209" priority="7">
+    <cfRule type="expression" dxfId="210" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3956,22 +3950,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="208" priority="10">
+    <cfRule type="expression" dxfId="209" priority="10">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="207" priority="9">
+    <cfRule type="expression" dxfId="208" priority="9">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="206" priority="1">
+    <cfRule type="expression" dxfId="207" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="205" priority="8">
+    <cfRule type="expression" dxfId="206" priority="8">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4380,22 +4374,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="204" priority="15">
+    <cfRule type="expression" dxfId="205" priority="15">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="203" priority="14">
+    <cfRule type="expression" dxfId="204" priority="14">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="202" priority="1">
+    <cfRule type="expression" dxfId="203" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="201" priority="13">
+    <cfRule type="expression" dxfId="202" priority="13">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4828,22 +4822,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="200" priority="16">
+    <cfRule type="expression" dxfId="201" priority="16">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="199" priority="15">
+    <cfRule type="expression" dxfId="200" priority="15">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="198" priority="1">
+    <cfRule type="expression" dxfId="199" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="197" priority="14">
+    <cfRule type="expression" dxfId="198" priority="14">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5252,22 +5246,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="196" priority="13">
+    <cfRule type="expression" dxfId="197" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="195" priority="12">
+    <cfRule type="expression" dxfId="196" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="194" priority="1">
+    <cfRule type="expression" dxfId="195" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="193" priority="11">
+    <cfRule type="expression" dxfId="194" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5684,22 +5678,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="192" priority="13">
+    <cfRule type="expression" dxfId="193" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="191" priority="12">
+    <cfRule type="expression" dxfId="192" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="190" priority="1">
+    <cfRule type="expression" dxfId="191" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="189" priority="11">
+    <cfRule type="expression" dxfId="190" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6116,22 +6110,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="188" priority="18">
+    <cfRule type="expression" dxfId="189" priority="18">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="187" priority="17">
+    <cfRule type="expression" dxfId="188" priority="17">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="186" priority="6">
+    <cfRule type="expression" dxfId="187" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="185" priority="1">
+    <cfRule type="expression" dxfId="186" priority="1">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6548,22 +6542,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="184" priority="13">
+    <cfRule type="expression" dxfId="185" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="183" priority="12">
+    <cfRule type="expression" dxfId="184" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="182" priority="1">
+    <cfRule type="expression" dxfId="183" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="181" priority="11">
+    <cfRule type="expression" dxfId="182" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6980,22 +6974,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="180" priority="18">
+    <cfRule type="expression" dxfId="181" priority="18">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="179" priority="17">
+    <cfRule type="expression" dxfId="180" priority="17">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="178" priority="6">
+    <cfRule type="expression" dxfId="179" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="177" priority="1">
+    <cfRule type="expression" dxfId="178" priority="1">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7412,22 +7406,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="176" priority="13">
+    <cfRule type="expression" dxfId="177" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="175" priority="12">
+    <cfRule type="expression" dxfId="176" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="174" priority="1">
+    <cfRule type="expression" dxfId="175" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="173" priority="11">
+    <cfRule type="expression" dxfId="174" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7767,53 +7761,55 @@
     </row>
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
-      <c r="B29" s="19" t="s">
-        <v>90</v>
+      <c r="B29" s="24" t="s">
+        <v>94</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
       <c r="E29" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="F29" s="19"/>
+      <c r="F29" s="19" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="30" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
-      <c r="B30" s="19" t="s">
-        <v>93</v>
+      <c r="B30" s="24" t="s">
+        <v>95</v>
       </c>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
       <c r="E30" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="F30" s="19"/>
+      <c r="F30" s="19" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="31" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
-      <c r="B31" s="19" t="s">
-        <v>94</v>
-      </c>
+      <c r="B31" s="19"/>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
+      <c r="F31" s="19" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="32" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
-      <c r="B32" s="19" t="s">
-        <v>95</v>
-      </c>
+      <c r="B32" s="19"/>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
+      <c r="F32" s="19" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="33" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
-      <c r="B33" s="24" t="s">
-        <v>96</v>
-      </c>
+      <c r="B33" s="19"/>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
@@ -7821,9 +7817,7 @@
     </row>
     <row r="34" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
-      <c r="B34" s="19" t="s">
-        <v>97</v>
-      </c>
+      <c r="B34" s="19"/>
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
       <c r="E34" s="19"/>
@@ -7831,9 +7825,7 @@
     </row>
     <row r="35" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
-      <c r="B35" s="24" t="s">
-        <v>98</v>
-      </c>
+      <c r="B35" s="19"/>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
@@ -7841,9 +7833,7 @@
     </row>
     <row r="36" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
-      <c r="B36" s="19" t="s">
-        <v>99</v>
-      </c>
+      <c r="B36" s="19"/>
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>
       <c r="E36" s="19"/>
@@ -7867,7 +7857,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="241" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8284,22 +8274,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="172" priority="18">
+    <cfRule type="expression" dxfId="173" priority="18">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="171" priority="17">
+    <cfRule type="expression" dxfId="172" priority="17">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="170" priority="6">
+    <cfRule type="expression" dxfId="171" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="169" priority="1">
+    <cfRule type="expression" dxfId="170" priority="1">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8730,22 +8720,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="168" priority="13">
+    <cfRule type="expression" dxfId="169" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="167" priority="12">
+    <cfRule type="expression" dxfId="168" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="166" priority="1">
+    <cfRule type="expression" dxfId="167" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="165" priority="11">
+    <cfRule type="expression" dxfId="166" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9192,42 +9182,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:B25">
-    <cfRule type="expression" dxfId="164" priority="15">
+    <cfRule type="expression" dxfId="165" priority="15">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="163" priority="20">
+    <cfRule type="expression" dxfId="164" priority="20">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="162" priority="19">
+    <cfRule type="expression" dxfId="163" priority="19">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="161" priority="18">
+    <cfRule type="expression" dxfId="162" priority="18">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="160" priority="6">
+    <cfRule type="expression" dxfId="161" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="159" priority="21">
+    <cfRule type="expression" dxfId="160" priority="21">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="158" priority="14">
+    <cfRule type="expression" dxfId="159" priority="14">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F25">
-    <cfRule type="expression" dxfId="157" priority="1">
+    <cfRule type="expression" dxfId="158" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9648,47 +9638,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:B25">
-    <cfRule type="expression" dxfId="156" priority="12">
+    <cfRule type="expression" dxfId="157" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="155" priority="17">
+    <cfRule type="expression" dxfId="156" priority="17">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="154" priority="16">
+    <cfRule type="expression" dxfId="155" priority="16">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="153" priority="15">
+    <cfRule type="expression" dxfId="154" priority="15">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="152" priority="7">
+    <cfRule type="expression" dxfId="153" priority="7">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="151" priority="18">
+    <cfRule type="expression" dxfId="152" priority="18">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="150" priority="11">
+    <cfRule type="expression" dxfId="151" priority="11">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E20">
-    <cfRule type="expression" dxfId="149" priority="1">
+    <cfRule type="expression" dxfId="150" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F25">
-    <cfRule type="expression" dxfId="148" priority="13">
+    <cfRule type="expression" dxfId="149" priority="13">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10135,42 +10125,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:B25">
-    <cfRule type="expression" dxfId="147" priority="13">
+    <cfRule type="expression" dxfId="148" priority="13">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="146" priority="18">
+    <cfRule type="expression" dxfId="147" priority="18">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="145" priority="17">
+    <cfRule type="expression" dxfId="146" priority="17">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="144" priority="16">
+    <cfRule type="expression" dxfId="145" priority="16">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="143" priority="9">
+    <cfRule type="expression" dxfId="144" priority="9">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="142" priority="19">
+    <cfRule type="expression" dxfId="143" priority="19">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="141" priority="12">
+    <cfRule type="expression" dxfId="142" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F25">
-    <cfRule type="expression" dxfId="140" priority="1">
+    <cfRule type="expression" dxfId="141" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10591,47 +10581,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:B25">
-    <cfRule type="expression" dxfId="139" priority="6">
+    <cfRule type="expression" dxfId="140" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="138" priority="11">
+    <cfRule type="expression" dxfId="139" priority="11">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="137" priority="10">
+    <cfRule type="expression" dxfId="138" priority="10">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="136" priority="9">
+    <cfRule type="expression" dxfId="137" priority="9">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="135" priority="2">
+    <cfRule type="expression" dxfId="136" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="134" priority="12">
+    <cfRule type="expression" dxfId="135" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="133" priority="5">
+    <cfRule type="expression" dxfId="134" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E20">
-    <cfRule type="expression" dxfId="132" priority="1">
+    <cfRule type="expression" dxfId="133" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F25">
-    <cfRule type="expression" dxfId="131" priority="7">
+    <cfRule type="expression" dxfId="132" priority="7">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11076,42 +11066,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:B25">
-    <cfRule type="expression" dxfId="130" priority="13">
+    <cfRule type="expression" dxfId="131" priority="13">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="129" priority="18">
+    <cfRule type="expression" dxfId="130" priority="18">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="128" priority="17">
+    <cfRule type="expression" dxfId="129" priority="17">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="127" priority="16">
+    <cfRule type="expression" dxfId="128" priority="16">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="126" priority="9">
+    <cfRule type="expression" dxfId="127" priority="9">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="125" priority="19">
+    <cfRule type="expression" dxfId="126" priority="19">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="124" priority="12">
+    <cfRule type="expression" dxfId="125" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F25">
-    <cfRule type="expression" dxfId="123" priority="1">
+    <cfRule type="expression" dxfId="124" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11532,47 +11522,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:B25">
-    <cfRule type="expression" dxfId="122" priority="6">
+    <cfRule type="expression" dxfId="123" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="121" priority="11">
+    <cfRule type="expression" dxfId="122" priority="11">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="120" priority="10">
+    <cfRule type="expression" dxfId="121" priority="10">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="119" priority="9">
+    <cfRule type="expression" dxfId="120" priority="9">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="118" priority="2">
+    <cfRule type="expression" dxfId="119" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="117" priority="12">
+    <cfRule type="expression" dxfId="118" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="116" priority="5">
+    <cfRule type="expression" dxfId="117" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E20">
-    <cfRule type="expression" dxfId="115" priority="1">
+    <cfRule type="expression" dxfId="116" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F25">
-    <cfRule type="expression" dxfId="114" priority="7">
+    <cfRule type="expression" dxfId="115" priority="7">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12017,42 +12007,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:B25">
-    <cfRule type="expression" dxfId="113" priority="11">
+    <cfRule type="expression" dxfId="114" priority="11">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="112" priority="16">
+    <cfRule type="expression" dxfId="113" priority="16">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="111" priority="15">
+    <cfRule type="expression" dxfId="112" priority="15">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="110" priority="14">
+    <cfRule type="expression" dxfId="111" priority="14">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="109" priority="8">
+    <cfRule type="expression" dxfId="110" priority="8">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="108" priority="17">
+    <cfRule type="expression" dxfId="109" priority="17">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="107" priority="10">
+    <cfRule type="expression" dxfId="108" priority="10">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F25">
-    <cfRule type="expression" dxfId="106" priority="1">
+    <cfRule type="expression" dxfId="107" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12477,37 +12467,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="105" priority="11">
+    <cfRule type="expression" dxfId="106" priority="11">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="104" priority="10">
+    <cfRule type="expression" dxfId="105" priority="10">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="103" priority="6">
+    <cfRule type="expression" dxfId="104" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="102" priority="9">
+    <cfRule type="expression" dxfId="103" priority="9">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="101" priority="2">
+    <cfRule type="expression" dxfId="102" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="100" priority="5">
+    <cfRule type="expression" dxfId="101" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E20">
-    <cfRule type="expression" dxfId="99" priority="1">
+    <cfRule type="expression" dxfId="100" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12933,22 +12923,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="240" priority="4">
+    <cfRule type="expression" dxfId="241" priority="4">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="239" priority="3">
+    <cfRule type="expression" dxfId="240" priority="3">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="238" priority="1">
+    <cfRule type="expression" dxfId="239" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="237" priority="2">
+    <cfRule type="expression" dxfId="238" priority="2">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13377,37 +13367,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="98" priority="11">
+    <cfRule type="expression" dxfId="99" priority="11">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="97" priority="10">
+    <cfRule type="expression" dxfId="98" priority="10">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="96" priority="6">
+    <cfRule type="expression" dxfId="97" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="95" priority="9">
+    <cfRule type="expression" dxfId="96" priority="9">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="94" priority="2">
+    <cfRule type="expression" dxfId="95" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="93" priority="5">
+    <cfRule type="expression" dxfId="94" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E20">
-    <cfRule type="expression" dxfId="92" priority="1">
+    <cfRule type="expression" dxfId="93" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13836,37 +13826,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="91" priority="16">
+    <cfRule type="expression" dxfId="92" priority="16">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="90" priority="15">
+    <cfRule type="expression" dxfId="91" priority="15">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="89" priority="11">
+    <cfRule type="expression" dxfId="90" priority="11">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="88" priority="1">
+    <cfRule type="expression" dxfId="89" priority="1">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="87" priority="7">
+    <cfRule type="expression" dxfId="88" priority="7">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="86" priority="10">
+    <cfRule type="expression" dxfId="87" priority="10">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E20">
-    <cfRule type="expression" dxfId="85" priority="6">
+    <cfRule type="expression" dxfId="86" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14291,32 +14281,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="84" priority="18">
+    <cfRule type="expression" dxfId="85" priority="18">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="83" priority="17">
+    <cfRule type="expression" dxfId="84" priority="17">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="82" priority="1">
+    <cfRule type="expression" dxfId="83" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="81" priority="16">
+    <cfRule type="expression" dxfId="82" priority="16">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="80" priority="9">
+    <cfRule type="expression" dxfId="81" priority="9">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="79" priority="12">
+    <cfRule type="expression" dxfId="80" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14725,42 +14715,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:D25">
-    <cfRule type="expression" dxfId="78" priority="7">
+    <cfRule type="expression" dxfId="79" priority="7">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="77" priority="23">
+    <cfRule type="expression" dxfId="78" priority="23">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="76" priority="22">
+    <cfRule type="expression" dxfId="77" priority="22">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="75" priority="21">
+    <cfRule type="expression" dxfId="76" priority="21">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="74" priority="15">
+    <cfRule type="expression" dxfId="75" priority="15">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="73" priority="17">
+    <cfRule type="expression" dxfId="74" priority="17">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E26">
-    <cfRule type="expression" dxfId="72" priority="1">
+    <cfRule type="expression" dxfId="73" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F25">
-    <cfRule type="expression" dxfId="71" priority="19">
+    <cfRule type="expression" dxfId="72" priority="19">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15205,42 +15195,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:D25">
-    <cfRule type="expression" dxfId="70" priority="17">
+    <cfRule type="expression" dxfId="71" priority="17">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="69" priority="25">
+    <cfRule type="expression" dxfId="70" priority="25">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="68" priority="24">
+    <cfRule type="expression" dxfId="69" priority="24">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="67" priority="23">
+    <cfRule type="expression" dxfId="68" priority="23">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="66" priority="18">
+    <cfRule type="expression" dxfId="67" priority="18">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="65" priority="20">
+    <cfRule type="expression" dxfId="66" priority="20">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E26">
-    <cfRule type="expression" dxfId="64" priority="4">
+    <cfRule type="expression" dxfId="65" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F25">
-    <cfRule type="expression" dxfId="63" priority="1">
+    <cfRule type="expression" dxfId="64" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15661,47 +15651,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:D25">
-    <cfRule type="expression" dxfId="62" priority="19">
+    <cfRule type="expression" dxfId="63" priority="19">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="61" priority="27">
+    <cfRule type="expression" dxfId="62" priority="27">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="60" priority="26">
+    <cfRule type="expression" dxfId="61" priority="26">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="59" priority="25">
+    <cfRule type="expression" dxfId="60" priority="25">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="58" priority="20">
+    <cfRule type="expression" dxfId="59" priority="20">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="57" priority="22">
+    <cfRule type="expression" dxfId="58" priority="22">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E20">
-    <cfRule type="expression" dxfId="56" priority="1">
+    <cfRule type="expression" dxfId="57" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="55" priority="13">
+    <cfRule type="expression" dxfId="56" priority="13">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F25">
-    <cfRule type="expression" dxfId="54" priority="10">
+    <cfRule type="expression" dxfId="55" priority="10">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16124,47 +16114,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:D25">
-    <cfRule type="expression" dxfId="53" priority="4">
+    <cfRule type="expression" dxfId="54" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="52" priority="9">
+    <cfRule type="expression" dxfId="53" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="51" priority="8">
+    <cfRule type="expression" dxfId="52" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="50" priority="7">
+    <cfRule type="expression" dxfId="51" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="49" priority="5">
+    <cfRule type="expression" dxfId="50" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="48" priority="6">
+    <cfRule type="expression" dxfId="49" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E20">
-    <cfRule type="expression" dxfId="47" priority="1">
+    <cfRule type="expression" dxfId="48" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="46" priority="3">
+    <cfRule type="expression" dxfId="47" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F25">
-    <cfRule type="expression" dxfId="45" priority="2">
+    <cfRule type="expression" dxfId="46" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16589,47 +16579,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:D25">
-    <cfRule type="expression" dxfId="44" priority="4">
+    <cfRule type="expression" dxfId="45" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="43" priority="9">
+    <cfRule type="expression" dxfId="44" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="42" priority="8">
+    <cfRule type="expression" dxfId="43" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="41" priority="7">
+    <cfRule type="expression" dxfId="42" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="40" priority="5">
+    <cfRule type="expression" dxfId="41" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="39" priority="6">
+    <cfRule type="expression" dxfId="40" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E20">
-    <cfRule type="expression" dxfId="38" priority="1">
+    <cfRule type="expression" dxfId="39" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="37" priority="3">
+    <cfRule type="expression" dxfId="38" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F25">
-    <cfRule type="expression" dxfId="36" priority="2">
+    <cfRule type="expression" dxfId="37" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17050,47 +17040,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:D25">
-    <cfRule type="expression" dxfId="35" priority="4">
+    <cfRule type="expression" dxfId="36" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="34" priority="9">
+    <cfRule type="expression" dxfId="35" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="33" priority="8">
+    <cfRule type="expression" dxfId="34" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="32" priority="7">
+    <cfRule type="expression" dxfId="33" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="31" priority="5">
+    <cfRule type="expression" dxfId="32" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="30" priority="6">
+    <cfRule type="expression" dxfId="31" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E20">
-    <cfRule type="expression" dxfId="29" priority="1">
+    <cfRule type="expression" dxfId="30" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="28" priority="3">
+    <cfRule type="expression" dxfId="29" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F25">
-    <cfRule type="expression" dxfId="27" priority="2">
+    <cfRule type="expression" dxfId="28" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17521,47 +17511,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:D25">
-    <cfRule type="expression" dxfId="26" priority="4">
+    <cfRule type="expression" dxfId="27" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="25" priority="9">
+    <cfRule type="expression" dxfId="26" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="24" priority="8">
+    <cfRule type="expression" dxfId="25" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="23" priority="7">
+    <cfRule type="expression" dxfId="24" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="22" priority="5">
+    <cfRule type="expression" dxfId="23" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="21" priority="6">
+    <cfRule type="expression" dxfId="22" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E20">
-    <cfRule type="expression" dxfId="20" priority="1">
+    <cfRule type="expression" dxfId="21" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="19" priority="3">
+    <cfRule type="expression" dxfId="20" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F25">
-    <cfRule type="expression" dxfId="18" priority="2">
+    <cfRule type="expression" dxfId="19" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17961,22 +17951,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="236" priority="4">
+    <cfRule type="expression" dxfId="237" priority="4">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="235" priority="3">
+    <cfRule type="expression" dxfId="236" priority="3">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="234" priority="1">
+    <cfRule type="expression" dxfId="235" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="233" priority="2">
+    <cfRule type="expression" dxfId="234" priority="2">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18407,47 +18397,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:D25">
-    <cfRule type="expression" dxfId="17" priority="4">
+    <cfRule type="expression" dxfId="18" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="16" priority="9">
+    <cfRule type="expression" dxfId="17" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="15" priority="8">
+    <cfRule type="expression" dxfId="16" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="14" priority="7">
+    <cfRule type="expression" dxfId="15" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="13" priority="5">
+    <cfRule type="expression" dxfId="14" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="12" priority="6">
+    <cfRule type="expression" dxfId="13" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E20">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="12" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="10" priority="3">
+    <cfRule type="expression" dxfId="11" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F25">
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18874,47 +18864,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:D25">
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="9" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="7" priority="9">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="6" priority="8">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E20">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F25">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19342,22 +19332,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="232" priority="5">
+    <cfRule type="expression" dxfId="233" priority="5">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="231" priority="4">
+    <cfRule type="expression" dxfId="232" priority="4">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="230" priority="2">
+    <cfRule type="expression" dxfId="231" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="229" priority="1">
+    <cfRule type="expression" dxfId="230" priority="1">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19757,22 +19747,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B28:E28 B29:F36">
-    <cfRule type="expression" dxfId="228" priority="3">
+    <cfRule type="expression" dxfId="229" priority="3">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="227" priority="5">
+    <cfRule type="expression" dxfId="228" priority="5">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="226" priority="4">
+    <cfRule type="expression" dxfId="227" priority="4">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="225" priority="1">
+    <cfRule type="expression" dxfId="226" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20154,22 +20144,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="224" priority="4">
+    <cfRule type="expression" dxfId="225" priority="4">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="223" priority="3">
+    <cfRule type="expression" dxfId="224" priority="3">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="222" priority="1">
+    <cfRule type="expression" dxfId="223" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="221" priority="2">
+    <cfRule type="expression" dxfId="222" priority="2">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20538,22 +20528,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="220" priority="4">
+    <cfRule type="expression" dxfId="221" priority="4">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="219" priority="3">
+    <cfRule type="expression" dxfId="220" priority="3">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="218" priority="1">
+    <cfRule type="expression" dxfId="219" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="217" priority="2">
+    <cfRule type="expression" dxfId="218" priority="2">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20958,22 +20948,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="216" priority="7">
+    <cfRule type="expression" dxfId="217" priority="7">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="215" priority="6">
+    <cfRule type="expression" dxfId="216" priority="6">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="214" priority="1">
+    <cfRule type="expression" dxfId="215" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="213" priority="5">
+    <cfRule type="expression" dxfId="214" priority="5">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/uurrooster.xlsx
+++ b/uurrooster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LUCA-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C86CBC3-47F7-4D7C-9164-81154BFDE0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23C7EC5-8708-4021-902A-7C9E4376BAF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -570,13 +570,6 @@
   </cellStyles>
   <dxfs count="245">
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="1"/>
       </font>
@@ -2749,6 +2742,13 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3502,22 +3502,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="213" priority="9">
+    <cfRule type="expression" dxfId="212" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="212" priority="8">
+    <cfRule type="expression" dxfId="211" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="211" priority="1">
+    <cfRule type="expression" dxfId="210" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="210" priority="7">
+    <cfRule type="expression" dxfId="209" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3950,22 +3950,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="209" priority="10">
+    <cfRule type="expression" dxfId="208" priority="10">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="208" priority="9">
+    <cfRule type="expression" dxfId="207" priority="9">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="207" priority="1">
+    <cfRule type="expression" dxfId="206" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="206" priority="8">
+    <cfRule type="expression" dxfId="205" priority="8">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4374,22 +4374,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="205" priority="15">
+    <cfRule type="expression" dxfId="204" priority="15">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="204" priority="14">
+    <cfRule type="expression" dxfId="203" priority="14">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="203" priority="1">
+    <cfRule type="expression" dxfId="202" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="202" priority="13">
+    <cfRule type="expression" dxfId="201" priority="13">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4822,22 +4822,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="201" priority="16">
+    <cfRule type="expression" dxfId="200" priority="16">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="200" priority="15">
+    <cfRule type="expression" dxfId="199" priority="15">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="199" priority="1">
+    <cfRule type="expression" dxfId="198" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="198" priority="14">
+    <cfRule type="expression" dxfId="197" priority="14">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5246,22 +5246,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="197" priority="13">
+    <cfRule type="expression" dxfId="196" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="196" priority="12">
+    <cfRule type="expression" dxfId="195" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="195" priority="1">
+    <cfRule type="expression" dxfId="194" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="194" priority="11">
+    <cfRule type="expression" dxfId="193" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5678,22 +5678,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="193" priority="13">
+    <cfRule type="expression" dxfId="192" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="192" priority="12">
+    <cfRule type="expression" dxfId="191" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="191" priority="1">
+    <cfRule type="expression" dxfId="190" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="190" priority="11">
+    <cfRule type="expression" dxfId="189" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6110,22 +6110,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="189" priority="18">
+    <cfRule type="expression" dxfId="188" priority="18">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="188" priority="17">
+    <cfRule type="expression" dxfId="187" priority="17">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="187" priority="6">
+    <cfRule type="expression" dxfId="186" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="186" priority="1">
+    <cfRule type="expression" dxfId="185" priority="1">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6542,22 +6542,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="185" priority="13">
+    <cfRule type="expression" dxfId="184" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="184" priority="12">
+    <cfRule type="expression" dxfId="183" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="183" priority="1">
+    <cfRule type="expression" dxfId="182" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="182" priority="11">
+    <cfRule type="expression" dxfId="181" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6974,22 +6974,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="181" priority="18">
+    <cfRule type="expression" dxfId="180" priority="18">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="180" priority="17">
+    <cfRule type="expression" dxfId="179" priority="17">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="179" priority="6">
+    <cfRule type="expression" dxfId="178" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="178" priority="1">
+    <cfRule type="expression" dxfId="177" priority="1">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7406,22 +7406,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="177" priority="13">
+    <cfRule type="expression" dxfId="176" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="176" priority="12">
+    <cfRule type="expression" dxfId="175" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="175" priority="1">
+    <cfRule type="expression" dxfId="174" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="174" priority="11">
+    <cfRule type="expression" dxfId="173" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7433,8 +7433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7563,7 +7563,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -7624,7 +7624,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -7857,7 +7857,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="241" priority="1">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8274,22 +8274,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="173" priority="18">
+    <cfRule type="expression" dxfId="172" priority="18">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="172" priority="17">
+    <cfRule type="expression" dxfId="171" priority="17">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="171" priority="6">
+    <cfRule type="expression" dxfId="170" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="170" priority="1">
+    <cfRule type="expression" dxfId="169" priority="1">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8720,22 +8720,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="169" priority="13">
+    <cfRule type="expression" dxfId="168" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="168" priority="12">
+    <cfRule type="expression" dxfId="167" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="167" priority="1">
+    <cfRule type="expression" dxfId="166" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="166" priority="11">
+    <cfRule type="expression" dxfId="165" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9182,42 +9182,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:B25">
-    <cfRule type="expression" dxfId="165" priority="15">
+    <cfRule type="expression" dxfId="164" priority="15">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="164" priority="20">
+    <cfRule type="expression" dxfId="163" priority="20">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="163" priority="19">
+    <cfRule type="expression" dxfId="162" priority="19">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="162" priority="18">
+    <cfRule type="expression" dxfId="161" priority="18">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="161" priority="6">
+    <cfRule type="expression" dxfId="160" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="160" priority="21">
+    <cfRule type="expression" dxfId="159" priority="21">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="159" priority="14">
+    <cfRule type="expression" dxfId="158" priority="14">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F25">
-    <cfRule type="expression" dxfId="158" priority="1">
+    <cfRule type="expression" dxfId="157" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9638,47 +9638,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:B25">
-    <cfRule type="expression" dxfId="157" priority="12">
+    <cfRule type="expression" dxfId="156" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="156" priority="17">
+    <cfRule type="expression" dxfId="155" priority="17">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="155" priority="16">
+    <cfRule type="expression" dxfId="154" priority="16">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="154" priority="15">
+    <cfRule type="expression" dxfId="153" priority="15">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="153" priority="7">
+    <cfRule type="expression" dxfId="152" priority="7">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="152" priority="18">
+    <cfRule type="expression" dxfId="151" priority="18">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="151" priority="11">
+    <cfRule type="expression" dxfId="150" priority="11">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E20">
-    <cfRule type="expression" dxfId="150" priority="1">
+    <cfRule type="expression" dxfId="149" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F25">
-    <cfRule type="expression" dxfId="149" priority="13">
+    <cfRule type="expression" dxfId="148" priority="13">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10125,42 +10125,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:B25">
-    <cfRule type="expression" dxfId="148" priority="13">
+    <cfRule type="expression" dxfId="147" priority="13">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="147" priority="18">
+    <cfRule type="expression" dxfId="146" priority="18">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="146" priority="17">
+    <cfRule type="expression" dxfId="145" priority="17">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="145" priority="16">
+    <cfRule type="expression" dxfId="144" priority="16">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="144" priority="9">
+    <cfRule type="expression" dxfId="143" priority="9">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="143" priority="19">
+    <cfRule type="expression" dxfId="142" priority="19">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="142" priority="12">
+    <cfRule type="expression" dxfId="141" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F25">
-    <cfRule type="expression" dxfId="141" priority="1">
+    <cfRule type="expression" dxfId="140" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10581,47 +10581,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:B25">
-    <cfRule type="expression" dxfId="140" priority="6">
+    <cfRule type="expression" dxfId="139" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="139" priority="11">
+    <cfRule type="expression" dxfId="138" priority="11">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="138" priority="10">
+    <cfRule type="expression" dxfId="137" priority="10">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="137" priority="9">
+    <cfRule type="expression" dxfId="136" priority="9">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="136" priority="2">
+    <cfRule type="expression" dxfId="135" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="135" priority="12">
+    <cfRule type="expression" dxfId="134" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="134" priority="5">
+    <cfRule type="expression" dxfId="133" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E20">
-    <cfRule type="expression" dxfId="133" priority="1">
+    <cfRule type="expression" dxfId="132" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F25">
-    <cfRule type="expression" dxfId="132" priority="7">
+    <cfRule type="expression" dxfId="131" priority="7">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11066,42 +11066,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:B25">
-    <cfRule type="expression" dxfId="131" priority="13">
+    <cfRule type="expression" dxfId="130" priority="13">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="130" priority="18">
+    <cfRule type="expression" dxfId="129" priority="18">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="129" priority="17">
+    <cfRule type="expression" dxfId="128" priority="17">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="128" priority="16">
+    <cfRule type="expression" dxfId="127" priority="16">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="127" priority="9">
+    <cfRule type="expression" dxfId="126" priority="9">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="126" priority="19">
+    <cfRule type="expression" dxfId="125" priority="19">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="125" priority="12">
+    <cfRule type="expression" dxfId="124" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F25">
-    <cfRule type="expression" dxfId="124" priority="1">
+    <cfRule type="expression" dxfId="123" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11522,47 +11522,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:B25">
-    <cfRule type="expression" dxfId="123" priority="6">
+    <cfRule type="expression" dxfId="122" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="122" priority="11">
+    <cfRule type="expression" dxfId="121" priority="11">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="121" priority="10">
+    <cfRule type="expression" dxfId="120" priority="10">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="120" priority="9">
+    <cfRule type="expression" dxfId="119" priority="9">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="119" priority="2">
+    <cfRule type="expression" dxfId="118" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="118" priority="12">
+    <cfRule type="expression" dxfId="117" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="117" priority="5">
+    <cfRule type="expression" dxfId="116" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E20">
-    <cfRule type="expression" dxfId="116" priority="1">
+    <cfRule type="expression" dxfId="115" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F25">
-    <cfRule type="expression" dxfId="115" priority="7">
+    <cfRule type="expression" dxfId="114" priority="7">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12007,42 +12007,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:B25">
-    <cfRule type="expression" dxfId="114" priority="11">
+    <cfRule type="expression" dxfId="113" priority="11">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="113" priority="16">
+    <cfRule type="expression" dxfId="112" priority="16">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="112" priority="15">
+    <cfRule type="expression" dxfId="111" priority="15">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="111" priority="14">
+    <cfRule type="expression" dxfId="110" priority="14">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="110" priority="8">
+    <cfRule type="expression" dxfId="109" priority="8">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="109" priority="17">
+    <cfRule type="expression" dxfId="108" priority="17">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="108" priority="10">
+    <cfRule type="expression" dxfId="107" priority="10">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F25">
-    <cfRule type="expression" dxfId="107" priority="1">
+    <cfRule type="expression" dxfId="106" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12467,37 +12467,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="106" priority="11">
+    <cfRule type="expression" dxfId="105" priority="11">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="105" priority="10">
+    <cfRule type="expression" dxfId="104" priority="10">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="104" priority="6">
+    <cfRule type="expression" dxfId="103" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="103" priority="9">
+    <cfRule type="expression" dxfId="102" priority="9">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="102" priority="2">
+    <cfRule type="expression" dxfId="101" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="101" priority="5">
+    <cfRule type="expression" dxfId="100" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E20">
-    <cfRule type="expression" dxfId="100" priority="1">
+    <cfRule type="expression" dxfId="99" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12923,22 +12923,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="241" priority="4">
+    <cfRule type="expression" dxfId="240" priority="4">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="240" priority="3">
+    <cfRule type="expression" dxfId="239" priority="3">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="239" priority="1">
+    <cfRule type="expression" dxfId="238" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="238" priority="2">
+    <cfRule type="expression" dxfId="237" priority="2">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13367,37 +13367,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="99" priority="11">
+    <cfRule type="expression" dxfId="98" priority="11">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="98" priority="10">
+    <cfRule type="expression" dxfId="97" priority="10">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="97" priority="6">
+    <cfRule type="expression" dxfId="96" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="96" priority="9">
+    <cfRule type="expression" dxfId="95" priority="9">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="95" priority="2">
+    <cfRule type="expression" dxfId="94" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="94" priority="5">
+    <cfRule type="expression" dxfId="93" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E20">
-    <cfRule type="expression" dxfId="93" priority="1">
+    <cfRule type="expression" dxfId="92" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13826,37 +13826,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="92" priority="16">
+    <cfRule type="expression" dxfId="91" priority="16">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="91" priority="15">
+    <cfRule type="expression" dxfId="90" priority="15">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="90" priority="11">
+    <cfRule type="expression" dxfId="89" priority="11">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="89" priority="1">
+    <cfRule type="expression" dxfId="88" priority="1">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="88" priority="7">
+    <cfRule type="expression" dxfId="87" priority="7">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="87" priority="10">
+    <cfRule type="expression" dxfId="86" priority="10">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E20">
-    <cfRule type="expression" dxfId="86" priority="6">
+    <cfRule type="expression" dxfId="85" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14281,32 +14281,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="85" priority="18">
+    <cfRule type="expression" dxfId="84" priority="18">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="84" priority="17">
+    <cfRule type="expression" dxfId="83" priority="17">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="83" priority="1">
+    <cfRule type="expression" dxfId="82" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="82" priority="16">
+    <cfRule type="expression" dxfId="81" priority="16">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="81" priority="9">
+    <cfRule type="expression" dxfId="80" priority="9">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="80" priority="12">
+    <cfRule type="expression" dxfId="79" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14715,42 +14715,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:D25">
-    <cfRule type="expression" dxfId="79" priority="7">
+    <cfRule type="expression" dxfId="78" priority="7">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="78" priority="23">
+    <cfRule type="expression" dxfId="77" priority="23">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="77" priority="22">
+    <cfRule type="expression" dxfId="76" priority="22">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="76" priority="21">
+    <cfRule type="expression" dxfId="75" priority="21">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="75" priority="15">
+    <cfRule type="expression" dxfId="74" priority="15">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="74" priority="17">
+    <cfRule type="expression" dxfId="73" priority="17">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E26">
-    <cfRule type="expression" dxfId="73" priority="1">
+    <cfRule type="expression" dxfId="72" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F25">
-    <cfRule type="expression" dxfId="72" priority="19">
+    <cfRule type="expression" dxfId="71" priority="19">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15195,42 +15195,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:D25">
-    <cfRule type="expression" dxfId="71" priority="17">
+    <cfRule type="expression" dxfId="70" priority="17">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="70" priority="25">
+    <cfRule type="expression" dxfId="69" priority="25">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="69" priority="24">
+    <cfRule type="expression" dxfId="68" priority="24">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="68" priority="23">
+    <cfRule type="expression" dxfId="67" priority="23">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="67" priority="18">
+    <cfRule type="expression" dxfId="66" priority="18">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="66" priority="20">
+    <cfRule type="expression" dxfId="65" priority="20">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E26">
-    <cfRule type="expression" dxfId="65" priority="4">
+    <cfRule type="expression" dxfId="64" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F25">
-    <cfRule type="expression" dxfId="64" priority="1">
+    <cfRule type="expression" dxfId="63" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15651,47 +15651,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:D25">
-    <cfRule type="expression" dxfId="63" priority="19">
+    <cfRule type="expression" dxfId="62" priority="19">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="62" priority="27">
+    <cfRule type="expression" dxfId="61" priority="27">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="61" priority="26">
+    <cfRule type="expression" dxfId="60" priority="26">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="60" priority="25">
+    <cfRule type="expression" dxfId="59" priority="25">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="59" priority="20">
+    <cfRule type="expression" dxfId="58" priority="20">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="58" priority="22">
+    <cfRule type="expression" dxfId="57" priority="22">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E20">
-    <cfRule type="expression" dxfId="57" priority="1">
+    <cfRule type="expression" dxfId="56" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="56" priority="13">
+    <cfRule type="expression" dxfId="55" priority="13">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F25">
-    <cfRule type="expression" dxfId="55" priority="10">
+    <cfRule type="expression" dxfId="54" priority="10">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16114,47 +16114,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:D25">
-    <cfRule type="expression" dxfId="54" priority="4">
+    <cfRule type="expression" dxfId="53" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="53" priority="9">
+    <cfRule type="expression" dxfId="52" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="52" priority="8">
+    <cfRule type="expression" dxfId="51" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="51" priority="7">
+    <cfRule type="expression" dxfId="50" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="50" priority="5">
+    <cfRule type="expression" dxfId="49" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="49" priority="6">
+    <cfRule type="expression" dxfId="48" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E20">
-    <cfRule type="expression" dxfId="48" priority="1">
+    <cfRule type="expression" dxfId="47" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="47" priority="3">
+    <cfRule type="expression" dxfId="46" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F25">
-    <cfRule type="expression" dxfId="46" priority="2">
+    <cfRule type="expression" dxfId="45" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16579,47 +16579,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:D25">
-    <cfRule type="expression" dxfId="45" priority="4">
+    <cfRule type="expression" dxfId="44" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="44" priority="9">
+    <cfRule type="expression" dxfId="43" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="43" priority="8">
+    <cfRule type="expression" dxfId="42" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="42" priority="7">
+    <cfRule type="expression" dxfId="41" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="41" priority="5">
+    <cfRule type="expression" dxfId="40" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="40" priority="6">
+    <cfRule type="expression" dxfId="39" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E20">
-    <cfRule type="expression" dxfId="39" priority="1">
+    <cfRule type="expression" dxfId="38" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="38" priority="3">
+    <cfRule type="expression" dxfId="37" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F25">
-    <cfRule type="expression" dxfId="37" priority="2">
+    <cfRule type="expression" dxfId="36" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17040,47 +17040,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:D25">
-    <cfRule type="expression" dxfId="36" priority="4">
+    <cfRule type="expression" dxfId="35" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="35" priority="9">
+    <cfRule type="expression" dxfId="34" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="34" priority="8">
+    <cfRule type="expression" dxfId="33" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="33" priority="7">
+    <cfRule type="expression" dxfId="32" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="32" priority="5">
+    <cfRule type="expression" dxfId="31" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="31" priority="6">
+    <cfRule type="expression" dxfId="30" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E20">
-    <cfRule type="expression" dxfId="30" priority="1">
+    <cfRule type="expression" dxfId="29" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="29" priority="3">
+    <cfRule type="expression" dxfId="28" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F25">
-    <cfRule type="expression" dxfId="28" priority="2">
+    <cfRule type="expression" dxfId="27" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17511,47 +17511,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:D25">
-    <cfRule type="expression" dxfId="27" priority="4">
+    <cfRule type="expression" dxfId="26" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="26" priority="9">
+    <cfRule type="expression" dxfId="25" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="25" priority="8">
+    <cfRule type="expression" dxfId="24" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="24" priority="7">
+    <cfRule type="expression" dxfId="23" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="23" priority="5">
+    <cfRule type="expression" dxfId="22" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="22" priority="6">
+    <cfRule type="expression" dxfId="21" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E20">
-    <cfRule type="expression" dxfId="21" priority="1">
+    <cfRule type="expression" dxfId="20" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="20" priority="3">
+    <cfRule type="expression" dxfId="19" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F25">
-    <cfRule type="expression" dxfId="19" priority="2">
+    <cfRule type="expression" dxfId="18" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17951,22 +17951,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="237" priority="4">
+    <cfRule type="expression" dxfId="236" priority="4">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="236" priority="3">
+    <cfRule type="expression" dxfId="235" priority="3">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="235" priority="1">
+    <cfRule type="expression" dxfId="234" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="234" priority="2">
+    <cfRule type="expression" dxfId="233" priority="2">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18397,47 +18397,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:D25">
-    <cfRule type="expression" dxfId="18" priority="4">
+    <cfRule type="expression" dxfId="17" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="17" priority="9">
+    <cfRule type="expression" dxfId="16" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="16" priority="8">
+    <cfRule type="expression" dxfId="15" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="15" priority="7">
+    <cfRule type="expression" dxfId="14" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="14" priority="5">
+    <cfRule type="expression" dxfId="13" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="13" priority="6">
+    <cfRule type="expression" dxfId="12" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E20">
-    <cfRule type="expression" dxfId="12" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="11" priority="3">
+    <cfRule type="expression" dxfId="10" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F25">
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18864,47 +18864,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:D25">
-    <cfRule type="expression" dxfId="9" priority="4">
+    <cfRule type="expression" dxfId="8" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="7" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="6" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E20">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F25">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19332,22 +19332,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="233" priority="5">
+    <cfRule type="expression" dxfId="232" priority="5">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="232" priority="4">
+    <cfRule type="expression" dxfId="231" priority="4">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="231" priority="2">
+    <cfRule type="expression" dxfId="230" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="230" priority="1">
+    <cfRule type="expression" dxfId="229" priority="1">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19747,22 +19747,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B28:E28 B29:F36">
-    <cfRule type="expression" dxfId="229" priority="3">
+    <cfRule type="expression" dxfId="228" priority="3">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="228" priority="5">
+    <cfRule type="expression" dxfId="227" priority="5">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="227" priority="4">
+    <cfRule type="expression" dxfId="226" priority="4">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="226" priority="1">
+    <cfRule type="expression" dxfId="225" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20144,22 +20144,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="225" priority="4">
+    <cfRule type="expression" dxfId="224" priority="4">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="224" priority="3">
+    <cfRule type="expression" dxfId="223" priority="3">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="223" priority="1">
+    <cfRule type="expression" dxfId="222" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="222" priority="2">
+    <cfRule type="expression" dxfId="221" priority="2">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20528,22 +20528,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="221" priority="4">
+    <cfRule type="expression" dxfId="220" priority="4">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="220" priority="3">
+    <cfRule type="expression" dxfId="219" priority="3">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="219" priority="1">
+    <cfRule type="expression" dxfId="218" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="218" priority="2">
+    <cfRule type="expression" dxfId="217" priority="2">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20948,22 +20948,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="217" priority="7">
+    <cfRule type="expression" dxfId="216" priority="7">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="216" priority="6">
+    <cfRule type="expression" dxfId="215" priority="6">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="215" priority="1">
+    <cfRule type="expression" dxfId="214" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="214" priority="5">
+    <cfRule type="expression" dxfId="213" priority="5">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/uurrooster.xlsx
+++ b/uurrooster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LUCA-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23C7EC5-8708-4021-902A-7C9E4376BAF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68263528-D154-475F-90A8-5FC2C419BF5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="99">
   <si>
     <t>Week</t>
   </si>
@@ -370,6 +370,9 @@
   </si>
   <si>
     <t>Design thinking planning maken</t>
+  </si>
+  <si>
+    <t>Crossmedia beeld &amp; tekst en webdesign juist swappen op ander weken</t>
   </si>
 </sst>
 </file>
@@ -7433,8 +7436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7813,7 +7816,9 @@
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
+      <c r="F33" s="19" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="34" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>

--- a/uurrooster.xlsx
+++ b/uurrooster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LUCA-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68263528-D154-475F-90A8-5FC2C419BF5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21000487-6D7E-4516-B534-ADA7416AEE70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7436,8 +7436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19366,7 +19366,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19780,7 +19780,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="E28" sqref="B28:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20177,7 +20177,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20561,7 +20561,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/uurrooster.xlsx
+++ b/uurrooster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LUCA-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21000487-6D7E-4516-B534-ADA7416AEE70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5C2984-F2F6-447F-9B36-8711BC3CD0A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -571,17 +571,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="245">
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="217">
     <dxf>
       <font>
         <color theme="1"/>
@@ -687,26 +677,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
@@ -771,26 +741,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
@@ -855,26 +805,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
@@ -939,26 +869,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
@@ -1023,26 +933,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
@@ -1107,26 +997,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
@@ -1181,26 +1051,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
@@ -1383,16 +1233,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
@@ -1447,16 +1287,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
@@ -1511,16 +1341,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
@@ -1585,16 +1405,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
@@ -1659,26 +1469,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
@@ -1743,16 +1533,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
@@ -1817,26 +1597,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
@@ -1901,16 +1661,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
@@ -1975,26 +1725,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
@@ -2015,16 +1745,6 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3109,7 +2829,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3256,7 +2976,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -3322,7 +3042,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -3505,22 +3225,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="212" priority="9">
+    <cfRule type="expression" dxfId="184" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="211" priority="8">
+    <cfRule type="expression" dxfId="183" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="210" priority="1">
+  <conditionalFormatting sqref="B4:F6 B7:D7 F7 B8:F25">
+    <cfRule type="expression" dxfId="182" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="209" priority="7">
+    <cfRule type="expression" dxfId="181" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3533,7 +3253,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3689,7 +3409,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -3761,7 +3481,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -3953,22 +3673,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="208" priority="10">
+    <cfRule type="expression" dxfId="180" priority="10">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="207" priority="9">
+    <cfRule type="expression" dxfId="179" priority="9">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="206" priority="1">
+  <conditionalFormatting sqref="B15:F25 B14:E14 B4:F13">
+    <cfRule type="expression" dxfId="178" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="205" priority="8">
+    <cfRule type="expression" dxfId="177" priority="8">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3981,7 +3701,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4128,7 +3848,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -4194,7 +3914,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -4377,22 +4097,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="204" priority="15">
+    <cfRule type="expression" dxfId="176" priority="15">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="203" priority="14">
+    <cfRule type="expression" dxfId="175" priority="14">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="202" priority="1">
+  <conditionalFormatting sqref="B16:F25 B15:E15 B4:F14">
+    <cfRule type="expression" dxfId="174" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="201" priority="13">
+    <cfRule type="expression" dxfId="173" priority="13">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4405,7 +4125,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4561,7 +4281,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -4633,7 +4353,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -4825,22 +4545,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="200" priority="16">
+    <cfRule type="expression" dxfId="172" priority="16">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="199" priority="15">
+    <cfRule type="expression" dxfId="171" priority="15">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="198" priority="1">
+  <conditionalFormatting sqref="B16:F25 B15:E15 B4:F14">
+    <cfRule type="expression" dxfId="170" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="197" priority="14">
+    <cfRule type="expression" dxfId="169" priority="14">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4853,7 +4573,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5000,7 +4720,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -5066,7 +4786,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -5249,22 +4969,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="196" priority="13">
+    <cfRule type="expression" dxfId="168" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="195" priority="12">
+    <cfRule type="expression" dxfId="167" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="194" priority="1">
+  <conditionalFormatting sqref="B16:F25 B15:D15 F15 B4:F14">
+    <cfRule type="expression" dxfId="166" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="193" priority="11">
+    <cfRule type="expression" dxfId="165" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5277,7 +4997,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5412,7 +5132,7 @@
         <v>19</v>
       </c>
       <c r="I8" s="14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -5424,7 +5144,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -5490,7 +5210,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -5681,22 +5401,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="192" priority="13">
+    <cfRule type="expression" dxfId="164" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="191" priority="12">
+    <cfRule type="expression" dxfId="163" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="190" priority="1">
+    <cfRule type="expression" dxfId="162" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="189" priority="11">
+    <cfRule type="expression" dxfId="161" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5709,7 +5429,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5856,7 +5576,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -5922,7 +5642,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -6113,22 +5833,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="188" priority="18">
+    <cfRule type="expression" dxfId="160" priority="18">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="187" priority="17">
+    <cfRule type="expression" dxfId="159" priority="17">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="186" priority="6">
+    <cfRule type="expression" dxfId="158" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="185" priority="1">
+    <cfRule type="expression" dxfId="157" priority="1">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6141,7 +5861,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6288,7 +6008,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -6354,7 +6074,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -6545,22 +6265,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="184" priority="13">
+    <cfRule type="expression" dxfId="156" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="183" priority="12">
+    <cfRule type="expression" dxfId="155" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="182" priority="1">
+  <conditionalFormatting sqref="B4:F7 B8:D8 F8 B9:F25">
+    <cfRule type="expression" dxfId="154" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="181" priority="11">
+    <cfRule type="expression" dxfId="153" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6573,7 +6293,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6720,7 +6440,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -6786,7 +6506,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -6977,22 +6697,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="180" priority="18">
+    <cfRule type="expression" dxfId="152" priority="18">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="179" priority="17">
+    <cfRule type="expression" dxfId="151" priority="17">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="178" priority="6">
+  <conditionalFormatting sqref="B4:F14 B15:D15 F15 B16:F25">
+    <cfRule type="expression" dxfId="150" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="177" priority="1">
+    <cfRule type="expression" dxfId="149" priority="1">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7005,7 +6725,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7152,7 +6872,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -7218,7 +6938,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -7409,22 +7129,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="176" priority="13">
+    <cfRule type="expression" dxfId="148" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="175" priority="12">
+    <cfRule type="expression" dxfId="147" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="174" priority="1">
+  <conditionalFormatting sqref="B16:F25 B15:D15 F15 B4:F14">
+    <cfRule type="expression" dxfId="146" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="173" priority="11">
+    <cfRule type="expression" dxfId="145" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7437,7 +7157,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7767,7 +7487,9 @@
       <c r="B29" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="19"/>
+      <c r="C29" s="24" t="s">
+        <v>98</v>
+      </c>
       <c r="D29" s="19"/>
       <c r="E29" s="19" t="s">
         <v>61</v>
@@ -7816,9 +7538,7 @@
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
-      <c r="F33" s="19" t="s">
-        <v>98</v>
-      </c>
+      <c r="F33" s="19"/>
     </row>
     <row r="34" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
@@ -7847,22 +7567,22 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="244" priority="14">
+    <cfRule type="expression" dxfId="216" priority="14">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="243" priority="6">
+    <cfRule type="expression" dxfId="215" priority="6">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="242" priority="15">
+    <cfRule type="expression" dxfId="214" priority="15">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="241" priority="1">
+    <cfRule type="expression" dxfId="213" priority="1">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7875,7 +7595,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8022,7 +7742,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -8088,7 +7808,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -8279,22 +7999,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="172" priority="18">
+    <cfRule type="expression" dxfId="144" priority="18">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="171" priority="17">
+    <cfRule type="expression" dxfId="143" priority="17">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="170" priority="6">
+  <conditionalFormatting sqref="B15:F25 B14:D14 F14 B4:F13">
+    <cfRule type="expression" dxfId="142" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="169" priority="1">
+    <cfRule type="expression" dxfId="141" priority="1">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8307,7 +8027,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8454,7 +8174,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -8520,7 +8240,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -8725,22 +8445,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="168" priority="13">
+    <cfRule type="expression" dxfId="140" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="167" priority="12">
+    <cfRule type="expression" dxfId="139" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="166" priority="1">
+  <conditionalFormatting sqref="B15:F25 B14:D14 F14 B4:F13">
+    <cfRule type="expression" dxfId="138" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="165" priority="11">
+    <cfRule type="expression" dxfId="137" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8753,7 +8473,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8908,7 +8628,7 @@
         <v>30</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -8984,7 +8704,7 @@
         <v>32</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -9186,43 +8906,38 @@
       <c r="F36" s="17"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B4:B25">
-    <cfRule type="expression" dxfId="164" priority="15">
+  <conditionalFormatting sqref="B4:B25 E16:F25 E15 E4:F14">
+    <cfRule type="expression" dxfId="136" priority="15">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="163" priority="20">
+    <cfRule type="expression" dxfId="135" priority="20">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="162" priority="19">
+    <cfRule type="expression" dxfId="134" priority="19">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="161" priority="18">
+    <cfRule type="expression" dxfId="133" priority="18">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="160" priority="6">
+    <cfRule type="expression" dxfId="132" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="159" priority="21">
+    <cfRule type="expression" dxfId="131" priority="21">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="158" priority="14">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:F25">
-    <cfRule type="expression" dxfId="157" priority="1">
+    <cfRule type="expression" dxfId="130" priority="14">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9235,7 +8950,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9381,7 +9096,7 @@
         <v>30</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -9451,7 +9166,7 @@
         <v>32</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -9642,48 +9357,38 @@
       <c r="F36" s="17"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B4:B25">
-    <cfRule type="expression" dxfId="156" priority="12">
+  <conditionalFormatting sqref="B4:B25 F4:F14 F16:F25 E9:E20">
+    <cfRule type="expression" dxfId="129" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="155" priority="17">
+    <cfRule type="expression" dxfId="128" priority="17">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="154" priority="16">
+    <cfRule type="expression" dxfId="127" priority="16">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="153" priority="15">
+    <cfRule type="expression" dxfId="126" priority="15">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="152" priority="7">
+    <cfRule type="expression" dxfId="125" priority="7">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="151" priority="18">
+    <cfRule type="expression" dxfId="124" priority="18">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="150" priority="11">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9:E20">
-    <cfRule type="expression" dxfId="149" priority="1">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F25">
-    <cfRule type="expression" dxfId="148" priority="13">
+    <cfRule type="expression" dxfId="123" priority="11">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9696,7 +9401,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9851,7 +9556,7 @@
         <v>30</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -9927,7 +9632,7 @@
         <v>32</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -10129,43 +9834,38 @@
       <c r="F36" s="17"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B4:B25">
-    <cfRule type="expression" dxfId="147" priority="13">
+  <conditionalFormatting sqref="B4:B25 E4:F13 E14 E15:F25">
+    <cfRule type="expression" dxfId="122" priority="13">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="146" priority="18">
+    <cfRule type="expression" dxfId="121" priority="18">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="145" priority="17">
+    <cfRule type="expression" dxfId="120" priority="17">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="144" priority="16">
+    <cfRule type="expression" dxfId="119" priority="16">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="143" priority="9">
+    <cfRule type="expression" dxfId="118" priority="9">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="142" priority="19">
+    <cfRule type="expression" dxfId="117" priority="19">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="141" priority="12">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:F25">
-    <cfRule type="expression" dxfId="140" priority="1">
+    <cfRule type="expression" dxfId="116" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10178,7 +9878,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10324,7 +10024,7 @@
         <v>30</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -10394,7 +10094,7 @@
         <v>32</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -10585,48 +10285,38 @@
       <c r="F36" s="17"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B4:B25">
-    <cfRule type="expression" dxfId="139" priority="6">
+  <conditionalFormatting sqref="B4:B25 F4:F14 F16:F25 E9:E20">
+    <cfRule type="expression" dxfId="115" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="138" priority="11">
+    <cfRule type="expression" dxfId="114" priority="11">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="137" priority="10">
+    <cfRule type="expression" dxfId="113" priority="10">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="136" priority="9">
+    <cfRule type="expression" dxfId="112" priority="9">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="135" priority="2">
+    <cfRule type="expression" dxfId="111" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="134" priority="12">
+    <cfRule type="expression" dxfId="110" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="133" priority="5">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9:E20">
-    <cfRule type="expression" dxfId="132" priority="1">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F25">
-    <cfRule type="expression" dxfId="131" priority="7">
+    <cfRule type="expression" dxfId="109" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10639,7 +10329,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10794,7 +10484,7 @@
         <v>30</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -10870,7 +10560,7 @@
         <v>32</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -11070,43 +10760,38 @@
       <c r="F36" s="17"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B4:B25">
-    <cfRule type="expression" dxfId="130" priority="13">
+  <conditionalFormatting sqref="B4:B25 E16:F25 E15 E4:F14">
+    <cfRule type="expression" dxfId="108" priority="13">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="129" priority="18">
+    <cfRule type="expression" dxfId="107" priority="18">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="128" priority="17">
+    <cfRule type="expression" dxfId="106" priority="17">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="127" priority="16">
+    <cfRule type="expression" dxfId="105" priority="16">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="126" priority="9">
+    <cfRule type="expression" dxfId="104" priority="9">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="125" priority="19">
+    <cfRule type="expression" dxfId="103" priority="19">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="124" priority="12">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:F25">
-    <cfRule type="expression" dxfId="123" priority="1">
+    <cfRule type="expression" dxfId="102" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11119,7 +10804,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11265,7 +10950,7 @@
         <v>30</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -11335,7 +11020,7 @@
         <v>32</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -11526,48 +11211,38 @@
       <c r="F36" s="17"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B4:B25">
-    <cfRule type="expression" dxfId="122" priority="6">
+  <conditionalFormatting sqref="B4:B25 F4:F13 F15:F25 E9:E20">
+    <cfRule type="expression" dxfId="101" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="121" priority="11">
+    <cfRule type="expression" dxfId="100" priority="11">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="120" priority="10">
+    <cfRule type="expression" dxfId="99" priority="10">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="119" priority="9">
+    <cfRule type="expression" dxfId="98" priority="9">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="118" priority="2">
+    <cfRule type="expression" dxfId="97" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="117" priority="12">
+    <cfRule type="expression" dxfId="96" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="116" priority="5">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9:E20">
-    <cfRule type="expression" dxfId="115" priority="1">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F25">
-    <cfRule type="expression" dxfId="114" priority="7">
+    <cfRule type="expression" dxfId="95" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11580,7 +11255,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11735,7 +11410,7 @@
         <v>30</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -11811,7 +11486,7 @@
         <v>32</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -12011,43 +11686,38 @@
       <c r="F36" s="17"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B4:B25">
-    <cfRule type="expression" dxfId="113" priority="11">
+  <conditionalFormatting sqref="B4:B25 E15:F25 E14 E4:F13">
+    <cfRule type="expression" dxfId="94" priority="11">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="112" priority="16">
+    <cfRule type="expression" dxfId="93" priority="16">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="111" priority="15">
+    <cfRule type="expression" dxfId="92" priority="15">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="110" priority="14">
+    <cfRule type="expression" dxfId="91" priority="14">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="109" priority="8">
+    <cfRule type="expression" dxfId="90" priority="8">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="108" priority="17">
+    <cfRule type="expression" dxfId="89" priority="17">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="107" priority="10">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:F25">
-    <cfRule type="expression" dxfId="106" priority="1">
+    <cfRule type="expression" dxfId="88" priority="10">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12060,7 +11730,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12206,7 +11876,7 @@
         <v>30</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -12276,7 +11946,7 @@
         <v>32</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -12472,37 +12142,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="105" priority="11">
+    <cfRule type="expression" dxfId="87" priority="11">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="104" priority="10">
+    <cfRule type="expression" dxfId="86" priority="10">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="103" priority="6">
+    <cfRule type="expression" dxfId="85" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="102" priority="9">
+    <cfRule type="expression" dxfId="84" priority="9">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="101" priority="2">
+    <cfRule type="expression" dxfId="83" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="100" priority="5">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9:E20">
-    <cfRule type="expression" dxfId="99" priority="1">
+    <cfRule type="expression" dxfId="82" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12514,8 +12179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E8F0BC9-EDE6-4632-8A0A-D46DEAFA1848}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12662,7 +12327,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -12734,7 +12399,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -12928,22 +12593,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="240" priority="4">
+    <cfRule type="expression" dxfId="212" priority="4">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="239" priority="3">
+    <cfRule type="expression" dxfId="211" priority="3">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="238" priority="1">
+    <cfRule type="expression" dxfId="210" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="237" priority="2">
+    <cfRule type="expression" dxfId="209" priority="2">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12956,7 +12621,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13102,7 +12767,7 @@
         <v>30</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -13172,7 +12837,7 @@
         <v>32</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -13372,37 +13037,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="98" priority="11">
+    <cfRule type="expression" dxfId="81" priority="11">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="97" priority="10">
+    <cfRule type="expression" dxfId="80" priority="10">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="96" priority="6">
+    <cfRule type="expression" dxfId="79" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="95" priority="9">
+    <cfRule type="expression" dxfId="78" priority="9">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="94" priority="2">
+    <cfRule type="expression" dxfId="77" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="93" priority="5">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9:E20">
-    <cfRule type="expression" dxfId="92" priority="1">
+    <cfRule type="expression" dxfId="76" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13415,7 +13075,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13561,7 +13221,7 @@
         <v>30</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -13631,7 +13291,7 @@
         <v>32</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -13831,37 +13491,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="91" priority="16">
+    <cfRule type="expression" dxfId="75" priority="16">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="90" priority="15">
+    <cfRule type="expression" dxfId="74" priority="15">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="89" priority="11">
+    <cfRule type="expression" dxfId="73" priority="11">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="88" priority="1">
+    <cfRule type="expression" dxfId="72" priority="1">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="87" priority="7">
+    <cfRule type="expression" dxfId="71" priority="7">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="86" priority="10">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9:E20">
-    <cfRule type="expression" dxfId="85" priority="6">
+    <cfRule type="expression" dxfId="70" priority="10">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13874,7 +13529,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14019,7 +13674,7 @@
         <v>30</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -14088,7 +13743,7 @@
         <v>32</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -14286,32 +13941,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="84" priority="18">
+    <cfRule type="expression" dxfId="69" priority="18">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="83" priority="17">
+    <cfRule type="expression" dxfId="68" priority="17">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="82" priority="1">
+  <conditionalFormatting sqref="B4:F13 B14:E14 B15:F25">
+    <cfRule type="expression" dxfId="67" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="81" priority="16">
+    <cfRule type="expression" dxfId="66" priority="16">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="80" priority="9">
+    <cfRule type="expression" dxfId="65" priority="9">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="79" priority="12">
+    <cfRule type="expression" dxfId="64" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14720,42 +14375,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:D25">
-    <cfRule type="expression" dxfId="78" priority="7">
+    <cfRule type="expression" dxfId="63" priority="7">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="77" priority="23">
+    <cfRule type="expression" dxfId="62" priority="23">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="76" priority="22">
+    <cfRule type="expression" dxfId="61" priority="22">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="75" priority="21">
+    <cfRule type="expression" dxfId="60" priority="21">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="74" priority="15">
+    <cfRule type="expression" dxfId="59" priority="15">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="73" priority="17">
+    <cfRule type="expression" dxfId="58" priority="17">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E26">
-    <cfRule type="expression" dxfId="72" priority="1">
+    <cfRule type="expression" dxfId="57" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F25">
-    <cfRule type="expression" dxfId="71" priority="19">
+    <cfRule type="expression" dxfId="56" priority="19">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14768,7 +14423,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14923,7 +14578,7 @@
         <v>30</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -14999,7 +14654,7 @@
         <v>32</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -15199,43 +14854,33 @@
       <c r="F36" s="17"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B4:D25">
-    <cfRule type="expression" dxfId="70" priority="17">
+  <conditionalFormatting sqref="B4:D25 F4:F14 F16:F25 E4:E26">
+    <cfRule type="expression" dxfId="55" priority="17">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="69" priority="25">
+    <cfRule type="expression" dxfId="54" priority="25">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="68" priority="24">
+    <cfRule type="expression" dxfId="53" priority="24">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="67" priority="23">
+    <cfRule type="expression" dxfId="52" priority="23">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="66" priority="18">
+    <cfRule type="expression" dxfId="51" priority="18">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="65" priority="20">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E26">
-    <cfRule type="expression" dxfId="64" priority="4">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F25">
-    <cfRule type="expression" dxfId="63" priority="1">
+    <cfRule type="expression" dxfId="50" priority="20">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15248,7 +14893,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15394,7 +15039,7 @@
         <v>30</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -15464,7 +15109,7 @@
         <v>32</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -15655,48 +15300,38 @@
       <c r="F36" s="17"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B4:D25">
-    <cfRule type="expression" dxfId="62" priority="19">
+  <conditionalFormatting sqref="B4:D25 F4:F14 F16:F25 E4:E20">
+    <cfRule type="expression" dxfId="49" priority="19">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="61" priority="27">
+    <cfRule type="expression" dxfId="48" priority="27">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="60" priority="26">
+    <cfRule type="expression" dxfId="47" priority="26">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="59" priority="25">
+    <cfRule type="expression" dxfId="46" priority="25">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="58" priority="20">
+    <cfRule type="expression" dxfId="45" priority="20">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="57" priority="22">
+    <cfRule type="expression" dxfId="44" priority="22">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E20">
-    <cfRule type="expression" dxfId="56" priority="1">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="55" priority="13">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F25">
-    <cfRule type="expression" dxfId="54" priority="10">
+    <cfRule type="expression" dxfId="43" priority="13">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15709,7 +15344,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15855,7 +15490,7 @@
         <v>30</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -15925,7 +15560,7 @@
         <v>32</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -16118,48 +15753,38 @@
       <c r="F36" s="17"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B4:D25">
-    <cfRule type="expression" dxfId="53" priority="4">
+  <conditionalFormatting sqref="B4:D25 F4:F13 F15:F25 E4:E20">
+    <cfRule type="expression" dxfId="42" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="52" priority="9">
+    <cfRule type="expression" dxfId="41" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="51" priority="8">
+    <cfRule type="expression" dxfId="40" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="50" priority="7">
+    <cfRule type="expression" dxfId="39" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="49" priority="5">
+    <cfRule type="expression" dxfId="38" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="48" priority="6">
+    <cfRule type="expression" dxfId="37" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E20">
-    <cfRule type="expression" dxfId="47" priority="1">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="46" priority="3">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F25">
-    <cfRule type="expression" dxfId="45" priority="2">
+    <cfRule type="expression" dxfId="36" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16172,7 +15797,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16318,7 +15943,7 @@
         <v>30</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -16388,7 +16013,7 @@
         <v>32</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -16583,48 +16208,38 @@
       <c r="F36" s="17"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B4:D25">
-    <cfRule type="expression" dxfId="44" priority="4">
+  <conditionalFormatting sqref="B4:D25 F4:F14 F16:F25 E4:E20">
+    <cfRule type="expression" dxfId="35" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="43" priority="9">
+    <cfRule type="expression" dxfId="34" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="42" priority="8">
+    <cfRule type="expression" dxfId="33" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="41" priority="7">
+    <cfRule type="expression" dxfId="32" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="40" priority="5">
+    <cfRule type="expression" dxfId="31" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="39" priority="6">
+    <cfRule type="expression" dxfId="30" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E20">
-    <cfRule type="expression" dxfId="38" priority="1">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="37" priority="3">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F25">
-    <cfRule type="expression" dxfId="36" priority="2">
+    <cfRule type="expression" dxfId="29" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16637,7 +16252,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16783,7 +16398,7 @@
         <v>30</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -16853,7 +16468,7 @@
         <v>32</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -17044,48 +16659,38 @@
       <c r="F36" s="17"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B4:D25">
-    <cfRule type="expression" dxfId="35" priority="4">
+  <conditionalFormatting sqref="B4:D25 F4:F14 F16:F25 E4:E20">
+    <cfRule type="expression" dxfId="28" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="34" priority="9">
+    <cfRule type="expression" dxfId="27" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="33" priority="8">
+    <cfRule type="expression" dxfId="26" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="32" priority="7">
+    <cfRule type="expression" dxfId="25" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="31" priority="5">
+    <cfRule type="expression" dxfId="24" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="30" priority="6">
+    <cfRule type="expression" dxfId="23" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E20">
-    <cfRule type="expression" dxfId="29" priority="1">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="28" priority="3">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F25">
-    <cfRule type="expression" dxfId="27" priority="2">
+    <cfRule type="expression" dxfId="22" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17098,7 +16703,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17244,7 +16849,7 @@
         <v>30</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -17314,7 +16919,7 @@
         <v>32</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -17515,48 +17120,38 @@
       <c r="F36" s="19"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B4:D25">
-    <cfRule type="expression" dxfId="26" priority="4">
+  <conditionalFormatting sqref="B4:D25 F4:F14 F16:F25 E4:E20">
+    <cfRule type="expression" dxfId="21" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="25" priority="9">
+    <cfRule type="expression" dxfId="20" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="24" priority="8">
+    <cfRule type="expression" dxfId="19" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="23" priority="7">
+    <cfRule type="expression" dxfId="18" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="22" priority="5">
+    <cfRule type="expression" dxfId="17" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="21" priority="6">
+    <cfRule type="expression" dxfId="16" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E20">
-    <cfRule type="expression" dxfId="20" priority="1">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="19" priority="3">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F25">
-    <cfRule type="expression" dxfId="18" priority="2">
+    <cfRule type="expression" dxfId="15" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17569,7 +17164,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17707,7 +17302,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -17773,7 +17368,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -17956,22 +17551,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="236" priority="4">
+    <cfRule type="expression" dxfId="208" priority="4">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="235" priority="3">
+    <cfRule type="expression" dxfId="207" priority="3">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="234" priority="1">
+    <cfRule type="expression" dxfId="206" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="233" priority="2">
+    <cfRule type="expression" dxfId="205" priority="2">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17984,7 +17579,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18130,7 +17725,7 @@
         <v>30</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -18200,7 +17795,7 @@
         <v>32</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -18401,48 +17996,38 @@
       <c r="F36" s="19"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B4:D25">
-    <cfRule type="expression" dxfId="17" priority="4">
+  <conditionalFormatting sqref="B4:D25 F4:F14 F16:F25 E4:E20">
+    <cfRule type="expression" dxfId="14" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="16" priority="9">
+    <cfRule type="expression" dxfId="13" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="15" priority="8">
+    <cfRule type="expression" dxfId="12" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="14" priority="7">
+    <cfRule type="expression" dxfId="11" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="13" priority="5">
+    <cfRule type="expression" dxfId="10" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="12" priority="6">
+    <cfRule type="expression" dxfId="9" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E20">
-    <cfRule type="expression" dxfId="11" priority="1">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="10" priority="3">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F25">
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="8" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18455,7 +18040,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18601,7 +18186,7 @@
         <v>30</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -18671,7 +18256,7 @@
         <v>32</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -18868,38 +18453,33 @@
       <c r="F36" s="19"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B4:D25">
-    <cfRule type="expression" dxfId="8" priority="4">
+  <conditionalFormatting sqref="B4:D25 E15:E20 E4:E13">
+    <cfRule type="expression" dxfId="7" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="7" priority="9">
+    <cfRule type="expression" dxfId="6" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="6" priority="8">
+    <cfRule type="expression" dxfId="5" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="4" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="3" priority="6">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E20">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="2" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18922,7 +18502,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19069,7 +18649,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -19141,7 +18721,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -19337,22 +18917,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="232" priority="5">
+    <cfRule type="expression" dxfId="204" priority="5">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="231" priority="4">
+    <cfRule type="expression" dxfId="203" priority="4">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="230" priority="2">
+    <cfRule type="expression" dxfId="202" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="229" priority="1">
+    <cfRule type="expression" dxfId="201" priority="1">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19366,7 +18946,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19504,7 +19084,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -19570,7 +19150,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -19752,22 +19332,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B28:E28 B29:F36">
-    <cfRule type="expression" dxfId="228" priority="3">
+    <cfRule type="expression" dxfId="200" priority="3">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="227" priority="5">
+    <cfRule type="expression" dxfId="199" priority="5">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="226" priority="4">
+    <cfRule type="expression" dxfId="198" priority="4">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="225" priority="1">
+    <cfRule type="expression" dxfId="197" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19780,7 +19360,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E28" sqref="B28:E28"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19909,7 +19489,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -19970,7 +19550,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -20149,22 +19729,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="224" priority="4">
+    <cfRule type="expression" dxfId="196" priority="4">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="223" priority="3">
+    <cfRule type="expression" dxfId="195" priority="3">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="222" priority="1">
+    <cfRule type="expression" dxfId="194" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="221" priority="2">
+    <cfRule type="expression" dxfId="193" priority="2">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20533,22 +20113,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="220" priority="4">
+    <cfRule type="expression" dxfId="192" priority="4">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="219" priority="3">
+    <cfRule type="expression" dxfId="191" priority="3">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="218" priority="1">
+    <cfRule type="expression" dxfId="190" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="217" priority="2">
+    <cfRule type="expression" dxfId="189" priority="2">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20561,7 +20141,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20707,7 +20287,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -20772,7 +20352,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -20953,22 +20533,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="216" priority="7">
+    <cfRule type="expression" dxfId="188" priority="7">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="215" priority="6">
+    <cfRule type="expression" dxfId="187" priority="6">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="214" priority="1">
+    <cfRule type="expression" dxfId="186" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="213" priority="5">
+    <cfRule type="expression" dxfId="185" priority="5">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/uurrooster.xlsx
+++ b/uurrooster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sethv\Documents\GitHub\LUCA-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EABFFAA-9F59-4ACE-A79D-BE780A75A974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162CCCB7-AA40-4FE4-A3C6-02EC16DE5EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="108">
   <si>
     <t>Week</t>
   </si>
@@ -373,6 +373,33 @@
   </si>
   <si>
     <t>Crossmedia beeld &amp; tekst en webdesign juist swappen op ander weken</t>
+  </si>
+  <si>
+    <t>ticket afprinten just in case + op gsm zetten</t>
+  </si>
+  <si>
+    <t>algemene info studio digital deadlines opschrijven</t>
+  </si>
+  <si>
+    <t>Eerste opdracht studio digitaal</t>
+  </si>
+  <si>
+    <t>Tips &amp; tricks after effects inside de ochtend</t>
+  </si>
+  <si>
+    <t>Werken in de studio</t>
+  </si>
+  <si>
+    <t>Feedback animatie #1</t>
+  </si>
+  <si>
+    <t>Feedback animatie 2&amp;3</t>
+  </si>
+  <si>
+    <t>Feedback animatie 4, 5, 6</t>
+  </si>
+  <si>
+    <t>In de ochtend aan animaties werken en inschrijven feedback morgen als ik al iets heb</t>
   </si>
 </sst>
 </file>
@@ -7146,8 +7173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7480,7 +7507,7 @@
       <c r="C29" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="19"/>
+      <c r="D29" s="16"/>
       <c r="E29" s="19" t="s">
         <v>61</v>
       </c>
@@ -7493,7 +7520,9 @@
       <c r="B30" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="C30" s="19"/>
+      <c r="C30" s="19" t="s">
+        <v>100</v>
+      </c>
       <c r="D30" s="19"/>
       <c r="E30" s="19" t="s">
         <v>59</v>
@@ -7505,9 +7534,13 @@
     <row r="31" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="11"/>
       <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
+      <c r="C31" s="19" t="s">
+        <v>101</v>
+      </c>
       <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
+      <c r="E31" s="16" t="s">
+        <v>99</v>
+      </c>
       <c r="F31" s="19" t="s">
         <v>93</v>
       </c>
@@ -7517,7 +7550,9 @@
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
+      <c r="E32" s="19" t="s">
+        <v>107</v>
+      </c>
       <c r="F32" s="19" t="s">
         <v>96</v>
       </c>
@@ -7528,7 +7563,9 @@
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
+      <c r="F33" s="19" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="34" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="11"/>
@@ -12169,8 +12206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E8F0BC9-EDE6-4632-8A0A-D46DEAFA1848}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -12510,12 +12547,16 @@
       <c r="B28" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="16"/>
+      <c r="C28" s="16" t="s">
+        <v>103</v>
+      </c>
       <c r="D28" s="16"/>
       <c r="E28" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="16"/>
+      <c r="F28" s="16" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="11"/>
@@ -17149,7 +17190,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -17468,7 +17509,9 @@
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
+      <c r="F28" s="16" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="11"/>
@@ -18486,8 +18529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BECB010-7B12-49C5-982D-18AE879FB3BF}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -18839,7 +18882,9 @@
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="11"/>
       <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
+      <c r="C29" s="17" t="s">
+        <v>106</v>
+      </c>
       <c r="D29" s="17"/>
       <c r="E29" s="17"/>
       <c r="F29" s="17"/>

--- a/uurrooster.xlsx
+++ b/uurrooster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LUCA-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C1FF63-8D21-4465-99B6-86C070A8B7F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA97210-AF09-448E-86D5-C030DD747D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7177,7 +7177,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/uurrooster.xlsx
+++ b/uurrooster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sethv\Documents\GitHub\LUCA-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFF516A-953A-4A1A-9A50-070A9CC29538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C833CC-25ED-4E7D-BAA4-BD542208BF27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -591,7 +591,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -643,6 +643,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="20% - Accent2" xfId="3" builtinId="34"/>
@@ -7249,8 +7250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="89" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7272,6 +7273,7 @@
         <f>C1/Data!B2</f>
         <v>2.5000000000000001E-2</v>
       </c>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
@@ -7565,7 +7567,7 @@
       <c r="C28" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="22" t="s">
         <v>104</v>
       </c>
       <c r="E28" s="16" t="s">
@@ -12284,8 +12286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E8F0BC9-EDE6-4632-8A0A-D46DEAFA1848}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -17268,7 +17270,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/uurrooster.xlsx
+++ b/uurrooster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LUCA-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0329040A-ADD5-4DF7-8D9F-D76024098919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCD6505-9AAA-4DDC-B3CB-903BC8A889DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -261,9 +261,6 @@
     <t>Valt weg wegens US BY NIGHT</t>
   </si>
   <si>
-    <t>US BY NIGHT: studentenkaart + ticket</t>
-  </si>
-  <si>
     <t>Info-avond internationalisering</t>
   </si>
   <si>
@@ -437,6 +434,9 @@
   </si>
   <si>
     <t>mail sturen naar marketing voor gb</t>
+  </si>
+  <si>
+    <t>US BY NIGHT: studentenkaart + ticket afprinten op gsm!!</t>
   </si>
 </sst>
 </file>
@@ -2886,10 +2886,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>111</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2902,18 +2902,18 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>113</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -3168,7 +3168,7 @@
         <v>0.625</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
@@ -3607,7 +3607,7 @@
         <v>0.625</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
@@ -4040,7 +4040,7 @@
         <v>0.625</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
@@ -4479,7 +4479,7 @@
         <v>0.625</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
@@ -4912,7 +4912,7 @@
         <v>0.625</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
@@ -6281,19 +6281,19 @@
     <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -6713,19 +6713,19 @@
     <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -7253,8 +7253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="89" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="89" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7476,7 +7476,7 @@
         <v>0.625</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
@@ -7568,10 +7568,10 @@
         <v>37</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E28" s="16" t="s">
         <v>23</v>
@@ -7583,23 +7583,23 @@
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D29" s="19"/>
       <c r="E29" s="19" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C30" s="23"/>
       <c r="D30" s="19"/>
@@ -7607,7 +7607,7 @@
         <v>59</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -7616,10 +7616,10 @@
       <c r="C31" s="23"/>
       <c r="D31" s="19"/>
       <c r="E31" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -7628,10 +7628,10 @@
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
       <c r="E32" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -7640,10 +7640,10 @@
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
       <c r="E33" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -7653,7 +7653,7 @@
       <c r="D34" s="19"/>
       <c r="E34" s="19"/>
       <c r="F34" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -7663,7 +7663,7 @@
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
       <c r="F35" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -7673,7 +7673,7 @@
       <c r="D36" s="19"/>
       <c r="E36" s="19"/>
       <c r="F36" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -8480,19 +8480,19 @@
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -8501,10 +8501,10 @@
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
       <c r="E30" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" s="19" t="s">
         <v>65</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -8845,7 +8845,7 @@
         <v>0.625</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -9307,7 +9307,7 @@
         <v>0.625</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -9773,7 +9773,7 @@
         <v>0.625</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -10235,7 +10235,7 @@
         <v>0.625</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -10701,7 +10701,7 @@
         <v>0.625</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -11161,7 +11161,7 @@
         <v>0.625</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -11627,7 +11627,7 @@
         <v>0.625</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -12087,7 +12087,7 @@
         <v>0.625</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -12189,7 +12189,7 @@
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
@@ -12630,17 +12630,17 @@
     <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -14324,7 +14324,7 @@
         <v>0.625</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -14794,7 +14794,7 @@
         <v>0.625</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -15249,7 +15249,7 @@
         <v>0.625</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -15800,7 +15800,7 @@
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
@@ -17508,7 +17508,7 @@
         <v>0.625</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
@@ -17595,7 +17595,7 @@
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
       <c r="F28" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -18493,7 +18493,7 @@
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
       <c r="E28" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F28" s="16" t="s">
         <v>56</v>
@@ -18506,7 +18506,7 @@
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
       <c r="F29" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -18863,7 +18863,7 @@
         <v>0.625</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
@@ -18956,19 +18956,19 @@
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
       <c r="F28" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="17"/>
@@ -19294,7 +19294,7 @@
         <v>0.625</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
@@ -19688,7 +19688,7 @@
         <v>0.625</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
@@ -20083,7 +20083,7 @@
         <v>0.625</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>

--- a/uurrooster.xlsx
+++ b/uurrooster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LUCA-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCD6505-9AAA-4DDC-B3CB-903BC8A889DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A950E1D-3D0D-4095-B382-545DCA9C7B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="117">
   <si>
     <t>Week</t>
   </si>
@@ -369,9 +369,6 @@
     <t>Crossmedia beeld &amp; tekst en webdesign juist swappen op ander weken</t>
   </si>
   <si>
-    <t>ticket afprinten just in case + op gsm zetten</t>
-  </si>
-  <si>
     <t>Werken in de studio</t>
   </si>
   <si>
@@ -436,7 +433,13 @@
     <t>mail sturen naar marketing voor gb</t>
   </si>
   <si>
-    <t>US BY NIGHT: studentenkaart + ticket afprinten op gsm!!</t>
+    <t>US BY NIGHT: studentenkaart + ticket op gsm!!</t>
+  </si>
+  <si>
+    <t>CM:Webdesign</t>
+  </si>
+  <si>
+    <t>Crossmedia updaten voor volgende week, ze staan omgewisseld</t>
   </si>
 </sst>
 </file>
@@ -658,7 +661,87 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="216">
+  <dxfs count="222">
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="1"/>
@@ -2146,16 +2229,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
       </font>
@@ -2549,16 +2622,6 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2886,10 +2949,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>110</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2905,15 +2968,15 @@
         <v>89</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>112</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2926,7 +2989,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3073,7 +3136,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -3139,7 +3202,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -3322,23 +3385,28 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="183" priority="9">
+    <cfRule type="expression" dxfId="190" priority="10">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="182" priority="8">
+    <cfRule type="expression" dxfId="189" priority="9">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:F6 B7:D7 F7 B8:F25">
-    <cfRule type="expression" dxfId="181" priority="1">
+  <conditionalFormatting sqref="B4:F6 B7:D7 F7 B8:F8 B10:F25 B9:D9 F9">
+    <cfRule type="expression" dxfId="188" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="180" priority="7">
+    <cfRule type="expression" dxfId="187" priority="8">
       <formula>NOT(ISBLANK(B28))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3350,7 +3418,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3506,7 +3574,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -3578,7 +3646,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -3770,22 +3838,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="179" priority="10">
+    <cfRule type="expression" dxfId="186" priority="10">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="178" priority="9">
+    <cfRule type="expression" dxfId="185" priority="9">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:F13 B14:E14 B15:F25">
-    <cfRule type="expression" dxfId="177" priority="1">
+  <conditionalFormatting sqref="B14:E14 B15:F25 B4:F13">
+    <cfRule type="expression" dxfId="184" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="176" priority="8">
+    <cfRule type="expression" dxfId="183" priority="8">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3798,7 +3866,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3945,7 +4013,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -4011,7 +4079,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -4194,22 +4262,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="175" priority="15">
+    <cfRule type="expression" dxfId="182" priority="15">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="174" priority="14">
+    <cfRule type="expression" dxfId="181" priority="14">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:F14 B15:E15 B16:F25">
-    <cfRule type="expression" dxfId="173" priority="1">
+  <conditionalFormatting sqref="B15:E15 B16:F25 B4:F14">
+    <cfRule type="expression" dxfId="180" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="172" priority="13">
+    <cfRule type="expression" dxfId="179" priority="13">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4222,7 +4290,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4378,7 +4446,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -4450,7 +4518,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -4642,22 +4710,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="171" priority="16">
+    <cfRule type="expression" dxfId="178" priority="16">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="170" priority="15">
+    <cfRule type="expression" dxfId="177" priority="15">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:F14 B15:E15 B16:F25">
-    <cfRule type="expression" dxfId="169" priority="1">
+  <conditionalFormatting sqref="B15:E15 B16:F25 B4:F14">
+    <cfRule type="expression" dxfId="176" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="168" priority="14">
+    <cfRule type="expression" dxfId="175" priority="14">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4670,7 +4738,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4817,7 +4885,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -4883,7 +4951,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -4997,7 +5065,9 @@
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
+      <c r="E28" s="16" t="s">
+        <v>116</v>
+      </c>
       <c r="F28" s="16"/>
     </row>
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -5066,22 +5136,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="167" priority="13">
+    <cfRule type="expression" dxfId="174" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="166" priority="12">
+    <cfRule type="expression" dxfId="173" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:F14 B15:D15 F15 B16:F25">
-    <cfRule type="expression" dxfId="165" priority="1">
+  <conditionalFormatting sqref="B15:D15 F15 B16:F25 B4:F14">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="164" priority="11">
+    <cfRule type="expression" dxfId="172" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5094,7 +5164,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5307,7 +5377,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -5498,22 +5568,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="163" priority="13">
+    <cfRule type="expression" dxfId="171" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="162" priority="12">
+    <cfRule type="expression" dxfId="170" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="161" priority="1">
+    <cfRule type="expression" dxfId="169" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="160" priority="11">
+    <cfRule type="expression" dxfId="168" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5526,7 +5596,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5930,22 +6000,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="159" priority="18">
+    <cfRule type="expression" dxfId="167" priority="18">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="158" priority="17">
+    <cfRule type="expression" dxfId="166" priority="17">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="157" priority="6">
+    <cfRule type="expression" dxfId="165" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="156" priority="1">
+    <cfRule type="expression" dxfId="164" priority="1">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6362,22 +6432,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="155" priority="13">
+    <cfRule type="expression" dxfId="163" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="154" priority="12">
+    <cfRule type="expression" dxfId="162" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F7 B8:D8 F8 B9:F25">
-    <cfRule type="expression" dxfId="153" priority="1">
+    <cfRule type="expression" dxfId="161" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="152" priority="11">
+    <cfRule type="expression" dxfId="160" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6794,22 +6864,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="151" priority="18">
+    <cfRule type="expression" dxfId="159" priority="18">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="150" priority="17">
+    <cfRule type="expression" dxfId="158" priority="17">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F14 B15:D15 F15 B16:F25">
-    <cfRule type="expression" dxfId="149" priority="6">
+    <cfRule type="expression" dxfId="157" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="148" priority="1">
+    <cfRule type="expression" dxfId="156" priority="1">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7226,22 +7296,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="147" priority="13">
+    <cfRule type="expression" dxfId="155" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="146" priority="12">
+    <cfRule type="expression" dxfId="154" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F14 B15:D15 F15 B16:F25">
-    <cfRule type="expression" dxfId="145" priority="1">
+    <cfRule type="expression" dxfId="153" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="144" priority="11">
+    <cfRule type="expression" dxfId="152" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7253,8 +7323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="89" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7384,7 +7454,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>22</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -7445,7 +7515,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -7531,6 +7601,9 @@
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
+      <c r="E23" t="s">
+        <v>59</v>
+      </c>
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -7568,10 +7641,10 @@
         <v>37</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E28" s="16" t="s">
         <v>23</v>
@@ -7589,8 +7662,8 @@
         <v>96</v>
       </c>
       <c r="D29" s="19"/>
-      <c r="E29" s="19" t="s">
-        <v>115</v>
+      <c r="E29" s="23" t="s">
+        <v>114</v>
       </c>
       <c r="F29" s="19" t="s">
         <v>95</v>
@@ -7603,8 +7676,8 @@
       </c>
       <c r="C30" s="23"/>
       <c r="D30" s="19"/>
-      <c r="E30" s="19" t="s">
-        <v>59</v>
+      <c r="E30" s="16" t="s">
+        <v>101</v>
       </c>
       <c r="F30" s="19" t="s">
         <v>90</v>
@@ -7615,9 +7688,7 @@
       <c r="B31" s="19"/>
       <c r="C31" s="23"/>
       <c r="D31" s="19"/>
-      <c r="E31" s="16" t="s">
-        <v>97</v>
-      </c>
+      <c r="E31" s="19"/>
       <c r="F31" s="19" t="s">
         <v>91</v>
       </c>
@@ -7627,9 +7698,7 @@
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
-      <c r="E32" s="19" t="s">
-        <v>102</v>
-      </c>
+      <c r="E32" s="19"/>
       <c r="F32" s="19" t="s">
         <v>94</v>
       </c>
@@ -7639,11 +7708,9 @@
       <c r="B33" s="19"/>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
-      <c r="E33" s="19" t="s">
-        <v>114</v>
-      </c>
+      <c r="E33" s="19"/>
       <c r="F33" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -7653,7 +7720,7 @@
       <c r="D34" s="19"/>
       <c r="E34" s="19"/>
       <c r="F34" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -7663,7 +7730,7 @@
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
       <c r="F35" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -7673,32 +7740,33 @@
       <c r="D36" s="19"/>
       <c r="E36" s="19"/>
       <c r="F36" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="215" priority="14">
+    <cfRule type="expression" dxfId="221" priority="14">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="214" priority="6">
+    <cfRule type="expression" dxfId="220" priority="6">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="213" priority="15">
+    <cfRule type="expression" dxfId="7" priority="15">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="212" priority="1">
+    <cfRule type="expression" dxfId="219" priority="1">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8111,22 +8179,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="143" priority="18">
+    <cfRule type="expression" dxfId="151" priority="18">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="142" priority="17">
+    <cfRule type="expression" dxfId="150" priority="17">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F13 B14:D14 F14 B15:F25">
-    <cfRule type="expression" dxfId="141" priority="6">
+    <cfRule type="expression" dxfId="149" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="140" priority="1">
+    <cfRule type="expression" dxfId="148" priority="1">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8557,22 +8625,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="139" priority="13">
+    <cfRule type="expression" dxfId="147" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="138" priority="12">
+    <cfRule type="expression" dxfId="146" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F13 B14:D14 F14 B15:F25">
-    <cfRule type="expression" dxfId="137" priority="1">
+    <cfRule type="expression" dxfId="145" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="136" priority="11">
+    <cfRule type="expression" dxfId="144" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9019,37 +9087,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="135" priority="20">
+    <cfRule type="expression" dxfId="143" priority="20">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="134" priority="19">
+    <cfRule type="expression" dxfId="142" priority="19">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="133" priority="18">
+    <cfRule type="expression" dxfId="141" priority="18">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="132" priority="6">
+    <cfRule type="expression" dxfId="140" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="131" priority="21">
+    <cfRule type="expression" dxfId="139" priority="21">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="130" priority="14">
+    <cfRule type="expression" dxfId="138" priority="14">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F14 B4:B25 E15 E16:F25">
-    <cfRule type="expression" dxfId="129" priority="15">
+    <cfRule type="expression" dxfId="137" priority="15">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9470,37 +9538,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="128" priority="17">
+    <cfRule type="expression" dxfId="136" priority="17">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="127" priority="16">
+    <cfRule type="expression" dxfId="135" priority="16">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="126" priority="15">
+    <cfRule type="expression" dxfId="134" priority="15">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="125" priority="7">
+    <cfRule type="expression" dxfId="133" priority="7">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="124" priority="18">
+    <cfRule type="expression" dxfId="132" priority="18">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="123" priority="11">
+    <cfRule type="expression" dxfId="131" priority="11">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F14 B4:B25 E9:E20 F16:F25">
-    <cfRule type="expression" dxfId="122" priority="12">
+    <cfRule type="expression" dxfId="130" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9947,37 +10015,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="121" priority="18">
+    <cfRule type="expression" dxfId="129" priority="18">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="120" priority="17">
+    <cfRule type="expression" dxfId="128" priority="17">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="119" priority="16">
+    <cfRule type="expression" dxfId="127" priority="16">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="118" priority="9">
+    <cfRule type="expression" dxfId="126" priority="9">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="117" priority="19">
+    <cfRule type="expression" dxfId="125" priority="19">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="116" priority="12">
+    <cfRule type="expression" dxfId="124" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F13 B4:B25 E14 E15:F25">
-    <cfRule type="expression" dxfId="115" priority="13">
+    <cfRule type="expression" dxfId="123" priority="13">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10398,37 +10466,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="114" priority="11">
+    <cfRule type="expression" dxfId="122" priority="11">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="113" priority="10">
+    <cfRule type="expression" dxfId="121" priority="10">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="112" priority="9">
+    <cfRule type="expression" dxfId="120" priority="9">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="111" priority="2">
+    <cfRule type="expression" dxfId="119" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="110" priority="12">
+    <cfRule type="expression" dxfId="118" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="109" priority="5">
+    <cfRule type="expression" dxfId="117" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F14 B4:B25 E9:E20 F16:F25">
-    <cfRule type="expression" dxfId="108" priority="6">
+    <cfRule type="expression" dxfId="116" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10873,37 +10941,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="107" priority="18">
+    <cfRule type="expression" dxfId="115" priority="18">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="106" priority="17">
+    <cfRule type="expression" dxfId="114" priority="17">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="105" priority="16">
+    <cfRule type="expression" dxfId="113" priority="16">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="104" priority="9">
+    <cfRule type="expression" dxfId="112" priority="9">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="103" priority="19">
+    <cfRule type="expression" dxfId="111" priority="19">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="102" priority="12">
+    <cfRule type="expression" dxfId="110" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F14 B4:B25 E15 E16:F25">
-    <cfRule type="expression" dxfId="101" priority="13">
+    <cfRule type="expression" dxfId="109" priority="13">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11324,37 +11392,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="100" priority="11">
+    <cfRule type="expression" dxfId="108" priority="11">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="99" priority="10">
+    <cfRule type="expression" dxfId="107" priority="10">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="98" priority="9">
+    <cfRule type="expression" dxfId="106" priority="9">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="97" priority="2">
+    <cfRule type="expression" dxfId="105" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="96" priority="12">
+    <cfRule type="expression" dxfId="104" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="95" priority="5">
+    <cfRule type="expression" dxfId="103" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F13 B4:B25 E9:E20 F15:F25">
-    <cfRule type="expression" dxfId="94" priority="6">
+    <cfRule type="expression" dxfId="102" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11799,37 +11867,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="93" priority="16">
+    <cfRule type="expression" dxfId="101" priority="16">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="92" priority="15">
+    <cfRule type="expression" dxfId="100" priority="15">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="91" priority="14">
+    <cfRule type="expression" dxfId="99" priority="14">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="90" priority="8">
+    <cfRule type="expression" dxfId="98" priority="8">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="89" priority="17">
+    <cfRule type="expression" dxfId="97" priority="17">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="88" priority="10">
+    <cfRule type="expression" dxfId="96" priority="10">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F13 B4:B25 E14 E15:F25">
-    <cfRule type="expression" dxfId="87" priority="11">
+    <cfRule type="expression" dxfId="95" priority="11">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12254,32 +12322,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="86" priority="11">
+    <cfRule type="expression" dxfId="94" priority="11">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="85" priority="10">
+    <cfRule type="expression" dxfId="93" priority="10">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="84" priority="6">
+    <cfRule type="expression" dxfId="92" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="83" priority="9">
+    <cfRule type="expression" dxfId="91" priority="9">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="82" priority="2">
+    <cfRule type="expression" dxfId="90" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="81" priority="5">
+    <cfRule type="expression" dxfId="89" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12292,7 +12360,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12439,7 +12507,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -12511,7 +12579,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -12633,19 +12701,21 @@
         <v>68</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
-      <c r="B29" s="17"/>
+      <c r="B29" s="17" t="s">
+        <v>113</v>
+      </c>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
       <c r="E29" s="17"/>
@@ -12709,22 +12779,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="211" priority="4">
+    <cfRule type="expression" dxfId="218" priority="4">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="210" priority="3">
+    <cfRule type="expression" dxfId="217" priority="3">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="209" priority="1">
+    <cfRule type="expression" dxfId="216" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="208" priority="2">
+    <cfRule type="expression" dxfId="215" priority="2">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13153,32 +13223,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="80" priority="11">
+    <cfRule type="expression" dxfId="88" priority="11">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="79" priority="10">
+    <cfRule type="expression" dxfId="87" priority="10">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="78" priority="6">
+    <cfRule type="expression" dxfId="86" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="77" priority="9">
+    <cfRule type="expression" dxfId="85" priority="9">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="76" priority="2">
+    <cfRule type="expression" dxfId="84" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="75" priority="5">
+    <cfRule type="expression" dxfId="83" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13607,32 +13677,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="74" priority="16">
+    <cfRule type="expression" dxfId="82" priority="16">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="73" priority="15">
+    <cfRule type="expression" dxfId="81" priority="15">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="72" priority="11">
+    <cfRule type="expression" dxfId="80" priority="11">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="71" priority="1">
+    <cfRule type="expression" dxfId="79" priority="1">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="70" priority="7">
+    <cfRule type="expression" dxfId="78" priority="7">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="69" priority="10">
+    <cfRule type="expression" dxfId="77" priority="10">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14057,27 +14127,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="68" priority="18">
+    <cfRule type="expression" dxfId="76" priority="18">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="67" priority="17">
+    <cfRule type="expression" dxfId="75" priority="17">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F13 B14:E14 B15:F25">
-    <cfRule type="expression" dxfId="66" priority="1">
+    <cfRule type="expression" dxfId="74" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="65" priority="16">
+    <cfRule type="expression" dxfId="73" priority="16">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="64" priority="12">
+    <cfRule type="expression" dxfId="72" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14486,42 +14556,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:D25">
-    <cfRule type="expression" dxfId="63" priority="7">
+    <cfRule type="expression" dxfId="71" priority="7">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="62" priority="23">
+    <cfRule type="expression" dxfId="70" priority="23">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="61" priority="22">
+    <cfRule type="expression" dxfId="69" priority="22">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="60" priority="21">
+    <cfRule type="expression" dxfId="68" priority="21">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="59" priority="15">
+    <cfRule type="expression" dxfId="67" priority="15">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="58" priority="17">
+    <cfRule type="expression" dxfId="66" priority="17">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E26">
-    <cfRule type="expression" dxfId="57" priority="1">
+    <cfRule type="expression" dxfId="65" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F25">
-    <cfRule type="expression" dxfId="56" priority="19">
+    <cfRule type="expression" dxfId="64" priority="19">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14966,32 +15036,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="55" priority="25">
+    <cfRule type="expression" dxfId="63" priority="25">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="54" priority="24">
+    <cfRule type="expression" dxfId="62" priority="24">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="53" priority="23">
+    <cfRule type="expression" dxfId="61" priority="23">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="52" priority="18">
+    <cfRule type="expression" dxfId="60" priority="18">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="51" priority="20">
+    <cfRule type="expression" dxfId="59" priority="20">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F14 B4:D25 E4:E26 F16:F25">
-    <cfRule type="expression" dxfId="50" priority="17">
+    <cfRule type="expression" dxfId="58" priority="17">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15412,37 +15482,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="49" priority="27">
+    <cfRule type="expression" dxfId="57" priority="27">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="48" priority="26">
+    <cfRule type="expression" dxfId="56" priority="26">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="47" priority="25">
+    <cfRule type="expression" dxfId="55" priority="25">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="46" priority="20">
+    <cfRule type="expression" dxfId="54" priority="20">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="45" priority="22">
+    <cfRule type="expression" dxfId="53" priority="22">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="44" priority="13">
+    <cfRule type="expression" dxfId="52" priority="13">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F14 E4:E20 B4:D25 F16:F25">
-    <cfRule type="expression" dxfId="43" priority="19">
+    <cfRule type="expression" dxfId="51" priority="19">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15865,37 +15935,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="42" priority="9">
+    <cfRule type="expression" dxfId="50" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="41" priority="8">
+    <cfRule type="expression" dxfId="49" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="40" priority="7">
+    <cfRule type="expression" dxfId="48" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="39" priority="5">
+    <cfRule type="expression" dxfId="47" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="38" priority="6">
+    <cfRule type="expression" dxfId="46" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="37" priority="3">
+    <cfRule type="expression" dxfId="45" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F13 E4:E20 B4:D25 F15:F25">
-    <cfRule type="expression" dxfId="36" priority="4">
+    <cfRule type="expression" dxfId="44" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16320,37 +16390,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="35" priority="9">
+    <cfRule type="expression" dxfId="43" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="34" priority="8">
+    <cfRule type="expression" dxfId="42" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="33" priority="7">
+    <cfRule type="expression" dxfId="41" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="32" priority="5">
+    <cfRule type="expression" dxfId="40" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="31" priority="6">
+    <cfRule type="expression" dxfId="39" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="30" priority="3">
+    <cfRule type="expression" dxfId="38" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F14 E4:E20 B4:D25 F16:F25">
-    <cfRule type="expression" dxfId="29" priority="4">
+    <cfRule type="expression" dxfId="37" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16771,37 +16841,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="28" priority="9">
+    <cfRule type="expression" dxfId="36" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="27" priority="8">
+    <cfRule type="expression" dxfId="35" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="26" priority="7">
+    <cfRule type="expression" dxfId="34" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="25" priority="5">
+    <cfRule type="expression" dxfId="33" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="24" priority="6">
+    <cfRule type="expression" dxfId="32" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="23" priority="3">
+    <cfRule type="expression" dxfId="31" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F14 E4:E20 B4:D25 F16:F25">
-    <cfRule type="expression" dxfId="22" priority="4">
+    <cfRule type="expression" dxfId="30" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17232,37 +17302,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="21" priority="9">
+    <cfRule type="expression" dxfId="29" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="20" priority="8">
+    <cfRule type="expression" dxfId="28" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="19" priority="7">
+    <cfRule type="expression" dxfId="27" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="18" priority="5">
+    <cfRule type="expression" dxfId="26" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="17" priority="6">
+    <cfRule type="expression" dxfId="25" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="16" priority="3">
+    <cfRule type="expression" dxfId="24" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F14 E4:E20 B4:D25 F16:F25">
-    <cfRule type="expression" dxfId="15" priority="4">
+    <cfRule type="expression" dxfId="23" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17275,7 +17345,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17413,7 +17483,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -17479,7 +17549,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -17595,7 +17665,7 @@
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
       <c r="F28" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -17664,22 +17734,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="207" priority="4">
+    <cfRule type="expression" dxfId="214" priority="4">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="206" priority="3">
+    <cfRule type="expression" dxfId="213" priority="3">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="205" priority="1">
+    <cfRule type="expression" dxfId="212" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="204" priority="2">
+    <cfRule type="expression" dxfId="211" priority="2">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18110,37 +18180,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="14" priority="9">
+    <cfRule type="expression" dxfId="22" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="13" priority="8">
+    <cfRule type="expression" dxfId="21" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="12" priority="7">
+    <cfRule type="expression" dxfId="20" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="11" priority="5">
+    <cfRule type="expression" dxfId="19" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="10" priority="6">
+    <cfRule type="expression" dxfId="18" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="17" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F14 E4:E20 B4:D25 F16:F25">
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="16" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18567,42 +18637,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="7" priority="9">
+    <cfRule type="expression" dxfId="15" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="6" priority="8">
+    <cfRule type="expression" dxfId="14" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="13" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="12" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="11" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E13 B4:D25 E15:E20">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="10" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="9" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F25">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18614,8 +18684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BECB010-7B12-49C5-982D-18AE879FB3BF}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18762,7 +18832,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -18834,7 +18904,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -18968,7 +19038,7 @@
       <c r="A29" s="11"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="17"/>
@@ -19032,23 +19102,28 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="203" priority="5">
+    <cfRule type="expression" dxfId="210" priority="6">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="202" priority="4">
+    <cfRule type="expression" dxfId="209" priority="5">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="201" priority="2">
+  <conditionalFormatting sqref="B4:F8 B10:F25 B9:D9 F9">
+    <cfRule type="expression" dxfId="208" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="200" priority="1">
+    <cfRule type="expression" dxfId="207" priority="2">
       <formula>NOT(ISBLANK(B28))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19061,7 +19136,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19199,7 +19274,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -19265,7 +19340,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -19380,6 +19455,7 @@
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
     </row>
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
@@ -19446,23 +19522,28 @@
       <c r="F36" s="17"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B28:E28 B29:F36">
-    <cfRule type="expression" dxfId="199" priority="3">
+  <conditionalFormatting sqref="B28:F36">
+    <cfRule type="expression" dxfId="206" priority="4">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="198" priority="5">
+    <cfRule type="expression" dxfId="205" priority="6">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="197" priority="4">
+    <cfRule type="expression" dxfId="204" priority="5">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="196" priority="1">
+  <conditionalFormatting sqref="B4:F8 B10:F25 B9:D9 F9">
+    <cfRule type="expression" dxfId="203" priority="2">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19475,7 +19556,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19604,7 +19685,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -19665,7 +19746,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -19844,23 +19925,28 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="195" priority="4">
+    <cfRule type="expression" dxfId="202" priority="5">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="194" priority="3">
+    <cfRule type="expression" dxfId="201" priority="4">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="193" priority="1">
+  <conditionalFormatting sqref="B4:F8 B10:F25 B9:D9 F9">
+    <cfRule type="expression" dxfId="200" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="192" priority="2">
+    <cfRule type="expression" dxfId="199" priority="3">
       <formula>NOT(ISBLANK(B28))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20228,22 +20314,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="191" priority="4">
+    <cfRule type="expression" dxfId="198" priority="4">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="190" priority="3">
+    <cfRule type="expression" dxfId="197" priority="3">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="189" priority="1">
+    <cfRule type="expression" dxfId="196" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="188" priority="2">
+    <cfRule type="expression" dxfId="195" priority="2">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20256,7 +20342,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20402,7 +20488,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -20467,7 +20553,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -20648,23 +20734,28 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="187" priority="7">
+    <cfRule type="expression" dxfId="194" priority="8">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="186" priority="6">
+    <cfRule type="expression" dxfId="193" priority="7">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="185" priority="1">
+  <conditionalFormatting sqref="B4:F8 B10:F25 B9:D9 F9">
+    <cfRule type="expression" dxfId="192" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="184" priority="5">
+    <cfRule type="expression" dxfId="191" priority="6">
       <formula>NOT(ISBLANK(B28))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/uurrooster.xlsx
+++ b/uurrooster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LUCA-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A950E1D-3D0D-4095-B382-545DCA9C7B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E7C570-ED12-4B4E-AAB3-CD069B739508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="117">
   <si>
     <t>Week</t>
   </si>
@@ -661,87 +661,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="222">
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="217">
     <dxf>
       <font>
         <color theme="1"/>
@@ -2229,6 +2149,16 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
       </font>
@@ -2365,6 +2295,16 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
       </font>
@@ -2483,6 +2423,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="1"/>
       </font>
@@ -2517,13 +2464,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="1"/>
       </font>
@@ -2622,6 +2562,16 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3385,28 +3335,28 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="190" priority="10">
+    <cfRule type="expression" dxfId="184" priority="10">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="189" priority="9">
+    <cfRule type="expression" dxfId="183" priority="9">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:F6 B7:D7 F7 B8:F8 B10:F25 B9:D9 F9">
-    <cfRule type="expression" dxfId="188" priority="2">
+  <conditionalFormatting sqref="B4:F6 B7:D7 F7">
+    <cfRule type="expression" dxfId="182" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B8:F25">
+    <cfRule type="expression" dxfId="181" priority="1">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="187" priority="8">
+    <cfRule type="expression" dxfId="180" priority="8">
       <formula>NOT(ISBLANK(B28))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3838,22 +3788,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="186" priority="10">
+    <cfRule type="expression" dxfId="179" priority="10">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="185" priority="9">
+    <cfRule type="expression" dxfId="178" priority="9">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14:E14 B15:F25 B4:F13">
-    <cfRule type="expression" dxfId="184" priority="1">
+  <conditionalFormatting sqref="B4:F13 B14:E14 B15:F25">
+    <cfRule type="expression" dxfId="177" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="183" priority="8">
+    <cfRule type="expression" dxfId="176" priority="8">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4262,22 +4212,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="182" priority="15">
+    <cfRule type="expression" dxfId="175" priority="15">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="181" priority="14">
+    <cfRule type="expression" dxfId="174" priority="14">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15:E15 B16:F25 B4:F14">
-    <cfRule type="expression" dxfId="180" priority="1">
+  <conditionalFormatting sqref="B4:F14 B15:E15 B16:F25">
+    <cfRule type="expression" dxfId="173" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="179" priority="13">
+    <cfRule type="expression" dxfId="172" priority="13">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4710,22 +4660,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="178" priority="16">
+    <cfRule type="expression" dxfId="171" priority="16">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="177" priority="15">
+    <cfRule type="expression" dxfId="170" priority="15">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15:E15 B16:F25 B4:F14">
-    <cfRule type="expression" dxfId="176" priority="1">
+  <conditionalFormatting sqref="B4:F14 B15:E15 B16:F25">
+    <cfRule type="expression" dxfId="169" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="175" priority="14">
+    <cfRule type="expression" dxfId="168" priority="14">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5136,22 +5086,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="174" priority="13">
+    <cfRule type="expression" dxfId="167" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="173" priority="12">
+    <cfRule type="expression" dxfId="166" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15:D15 F15 B16:F25 B4:F14">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="B4:F14 B15:D15 F15 B16:F25">
+    <cfRule type="expression" dxfId="165" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="172" priority="11">
+    <cfRule type="expression" dxfId="164" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5568,22 +5518,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="171" priority="13">
+    <cfRule type="expression" dxfId="163" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="170" priority="12">
+    <cfRule type="expression" dxfId="162" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="169" priority="1">
+    <cfRule type="expression" dxfId="161" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="168" priority="11">
+    <cfRule type="expression" dxfId="160" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6000,22 +5950,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="167" priority="18">
+    <cfRule type="expression" dxfId="159" priority="18">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="166" priority="17">
+    <cfRule type="expression" dxfId="158" priority="17">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="165" priority="6">
+    <cfRule type="expression" dxfId="157" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="164" priority="1">
+    <cfRule type="expression" dxfId="156" priority="1">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6432,22 +6382,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="163" priority="13">
+    <cfRule type="expression" dxfId="155" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="162" priority="12">
+    <cfRule type="expression" dxfId="154" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F7 B8:D8 F8 B9:F25">
-    <cfRule type="expression" dxfId="161" priority="1">
+    <cfRule type="expression" dxfId="153" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="160" priority="11">
+    <cfRule type="expression" dxfId="152" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6864,22 +6814,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="159" priority="18">
+    <cfRule type="expression" dxfId="151" priority="18">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="158" priority="17">
+    <cfRule type="expression" dxfId="150" priority="17">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F14 B15:D15 F15 B16:F25">
-    <cfRule type="expression" dxfId="157" priority="6">
+    <cfRule type="expression" dxfId="149" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="156" priority="1">
+    <cfRule type="expression" dxfId="148" priority="1">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7296,22 +7246,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="155" priority="13">
+    <cfRule type="expression" dxfId="147" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="154" priority="12">
+    <cfRule type="expression" dxfId="146" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F14 B15:D15 F15 B16:F25">
-    <cfRule type="expression" dxfId="153" priority="1">
+    <cfRule type="expression" dxfId="145" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="152" priority="11">
+    <cfRule type="expression" dxfId="144" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7324,7 +7274,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7647,7 +7597,7 @@
         <v>102</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="F28" s="16" t="s">
         <v>23</v>
@@ -7676,9 +7626,7 @@
       </c>
       <c r="C30" s="23"/>
       <c r="D30" s="19"/>
-      <c r="E30" s="16" t="s">
-        <v>101</v>
-      </c>
+      <c r="E30" s="19"/>
       <c r="F30" s="19" t="s">
         <v>90</v>
       </c>
@@ -7746,22 +7694,22 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="221" priority="14">
+    <cfRule type="expression" dxfId="216" priority="14">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="220" priority="6">
+    <cfRule type="expression" dxfId="215" priority="6">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="7" priority="15">
+    <cfRule type="expression" dxfId="214" priority="15">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="219" priority="1">
+    <cfRule type="expression" dxfId="213" priority="1">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8179,22 +8127,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="151" priority="18">
+    <cfRule type="expression" dxfId="143" priority="18">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="150" priority="17">
+    <cfRule type="expression" dxfId="142" priority="17">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F13 B14:D14 F14 B15:F25">
-    <cfRule type="expression" dxfId="149" priority="6">
+    <cfRule type="expression" dxfId="141" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="148" priority="1">
+    <cfRule type="expression" dxfId="140" priority="1">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8625,22 +8573,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="147" priority="13">
+    <cfRule type="expression" dxfId="139" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="146" priority="12">
+    <cfRule type="expression" dxfId="138" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F13 B14:D14 F14 B15:F25">
-    <cfRule type="expression" dxfId="145" priority="1">
+    <cfRule type="expression" dxfId="137" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="144" priority="11">
+    <cfRule type="expression" dxfId="136" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9087,37 +9035,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="143" priority="20">
+    <cfRule type="expression" dxfId="135" priority="20">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="142" priority="19">
+    <cfRule type="expression" dxfId="134" priority="19">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="141" priority="18">
+    <cfRule type="expression" dxfId="133" priority="18">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="140" priority="6">
+    <cfRule type="expression" dxfId="132" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="139" priority="21">
+    <cfRule type="expression" dxfId="131" priority="21">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="138" priority="14">
+    <cfRule type="expression" dxfId="130" priority="14">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F14 B4:B25 E15 E16:F25">
-    <cfRule type="expression" dxfId="137" priority="15">
+    <cfRule type="expression" dxfId="129" priority="15">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9538,37 +9486,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="136" priority="17">
+    <cfRule type="expression" dxfId="128" priority="17">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="135" priority="16">
+    <cfRule type="expression" dxfId="127" priority="16">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="134" priority="15">
+    <cfRule type="expression" dxfId="126" priority="15">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="133" priority="7">
+    <cfRule type="expression" dxfId="125" priority="7">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="132" priority="18">
+    <cfRule type="expression" dxfId="124" priority="18">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="131" priority="11">
+    <cfRule type="expression" dxfId="123" priority="11">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F14 B4:B25 E9:E20 F16:F25">
-    <cfRule type="expression" dxfId="130" priority="12">
+    <cfRule type="expression" dxfId="122" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10015,37 +9963,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="129" priority="18">
+    <cfRule type="expression" dxfId="121" priority="18">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="128" priority="17">
+    <cfRule type="expression" dxfId="120" priority="17">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="127" priority="16">
+    <cfRule type="expression" dxfId="119" priority="16">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="126" priority="9">
+    <cfRule type="expression" dxfId="118" priority="9">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="125" priority="19">
+    <cfRule type="expression" dxfId="117" priority="19">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="124" priority="12">
+    <cfRule type="expression" dxfId="116" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F13 B4:B25 E14 E15:F25">
-    <cfRule type="expression" dxfId="123" priority="13">
+    <cfRule type="expression" dxfId="115" priority="13">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10466,37 +10414,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="122" priority="11">
+    <cfRule type="expression" dxfId="114" priority="11">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="121" priority="10">
+    <cfRule type="expression" dxfId="113" priority="10">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="120" priority="9">
+    <cfRule type="expression" dxfId="112" priority="9">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="119" priority="2">
+    <cfRule type="expression" dxfId="111" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="118" priority="12">
+    <cfRule type="expression" dxfId="110" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="117" priority="5">
+    <cfRule type="expression" dxfId="109" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F14 B4:B25 E9:E20 F16:F25">
-    <cfRule type="expression" dxfId="116" priority="6">
+    <cfRule type="expression" dxfId="108" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10941,37 +10889,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="115" priority="18">
+    <cfRule type="expression" dxfId="107" priority="18">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="114" priority="17">
+    <cfRule type="expression" dxfId="106" priority="17">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="113" priority="16">
+    <cfRule type="expression" dxfId="105" priority="16">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="112" priority="9">
+    <cfRule type="expression" dxfId="104" priority="9">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="111" priority="19">
+    <cfRule type="expression" dxfId="103" priority="19">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="110" priority="12">
+    <cfRule type="expression" dxfId="102" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F14 B4:B25 E15 E16:F25">
-    <cfRule type="expression" dxfId="109" priority="13">
+    <cfRule type="expression" dxfId="101" priority="13">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11392,37 +11340,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="108" priority="11">
+    <cfRule type="expression" dxfId="100" priority="11">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="107" priority="10">
+    <cfRule type="expression" dxfId="99" priority="10">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="106" priority="9">
+    <cfRule type="expression" dxfId="98" priority="9">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="105" priority="2">
+    <cfRule type="expression" dxfId="97" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="104" priority="12">
+    <cfRule type="expression" dxfId="96" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="103" priority="5">
+    <cfRule type="expression" dxfId="95" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F13 B4:B25 E9:E20 F15:F25">
-    <cfRule type="expression" dxfId="102" priority="6">
+    <cfRule type="expression" dxfId="94" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11867,37 +11815,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="101" priority="16">
+    <cfRule type="expression" dxfId="93" priority="16">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="100" priority="15">
+    <cfRule type="expression" dxfId="92" priority="15">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="99" priority="14">
+    <cfRule type="expression" dxfId="91" priority="14">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="98" priority="8">
+    <cfRule type="expression" dxfId="90" priority="8">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="97" priority="17">
+    <cfRule type="expression" dxfId="89" priority="17">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="96" priority="10">
+    <cfRule type="expression" dxfId="88" priority="10">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F13 B4:B25 E14 E15:F25">
-    <cfRule type="expression" dxfId="95" priority="11">
+    <cfRule type="expression" dxfId="87" priority="11">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12322,32 +12270,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="94" priority="11">
+    <cfRule type="expression" dxfId="86" priority="11">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="93" priority="10">
+    <cfRule type="expression" dxfId="85" priority="10">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="92" priority="6">
+    <cfRule type="expression" dxfId="84" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="91" priority="9">
+    <cfRule type="expression" dxfId="83" priority="9">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="90" priority="2">
+    <cfRule type="expression" dxfId="82" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="89" priority="5">
+    <cfRule type="expression" dxfId="81" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12779,22 +12727,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="218" priority="4">
+    <cfRule type="expression" dxfId="212" priority="4">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="217" priority="3">
+    <cfRule type="expression" dxfId="211" priority="3">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="216" priority="1">
+    <cfRule type="expression" dxfId="210" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="215" priority="2">
+    <cfRule type="expression" dxfId="209" priority="2">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13223,32 +13171,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="88" priority="11">
+    <cfRule type="expression" dxfId="80" priority="11">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="87" priority="10">
+    <cfRule type="expression" dxfId="79" priority="10">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="86" priority="6">
+    <cfRule type="expression" dxfId="78" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="85" priority="9">
+    <cfRule type="expression" dxfId="77" priority="9">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="84" priority="2">
+    <cfRule type="expression" dxfId="76" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="83" priority="5">
+    <cfRule type="expression" dxfId="75" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13677,32 +13625,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="82" priority="16">
+    <cfRule type="expression" dxfId="74" priority="16">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="81" priority="15">
+    <cfRule type="expression" dxfId="73" priority="15">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="80" priority="11">
+    <cfRule type="expression" dxfId="72" priority="11">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="79" priority="1">
+    <cfRule type="expression" dxfId="71" priority="1">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="78" priority="7">
+    <cfRule type="expression" dxfId="70" priority="7">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="77" priority="10">
+    <cfRule type="expression" dxfId="69" priority="10">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14127,27 +14075,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="76" priority="18">
+    <cfRule type="expression" dxfId="68" priority="18">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="75" priority="17">
+    <cfRule type="expression" dxfId="67" priority="17">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F13 B14:E14 B15:F25">
-    <cfRule type="expression" dxfId="74" priority="1">
+    <cfRule type="expression" dxfId="66" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="73" priority="16">
+    <cfRule type="expression" dxfId="65" priority="16">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="72" priority="12">
+    <cfRule type="expression" dxfId="64" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14556,42 +14504,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:D25">
-    <cfRule type="expression" dxfId="71" priority="7">
+    <cfRule type="expression" dxfId="63" priority="7">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="70" priority="23">
+    <cfRule type="expression" dxfId="62" priority="23">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="69" priority="22">
+    <cfRule type="expression" dxfId="61" priority="22">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="68" priority="21">
+    <cfRule type="expression" dxfId="60" priority="21">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="67" priority="15">
+    <cfRule type="expression" dxfId="59" priority="15">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="66" priority="17">
+    <cfRule type="expression" dxfId="58" priority="17">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E26">
-    <cfRule type="expression" dxfId="65" priority="1">
+    <cfRule type="expression" dxfId="57" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F25">
-    <cfRule type="expression" dxfId="64" priority="19">
+    <cfRule type="expression" dxfId="56" priority="19">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15036,32 +14984,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="63" priority="25">
+    <cfRule type="expression" dxfId="55" priority="25">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="62" priority="24">
+    <cfRule type="expression" dxfId="54" priority="24">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="61" priority="23">
+    <cfRule type="expression" dxfId="53" priority="23">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="60" priority="18">
+    <cfRule type="expression" dxfId="52" priority="18">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="59" priority="20">
+    <cfRule type="expression" dxfId="51" priority="20">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F14 B4:D25 E4:E26 F16:F25">
-    <cfRule type="expression" dxfId="58" priority="17">
+    <cfRule type="expression" dxfId="50" priority="17">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15482,37 +15430,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="57" priority="27">
+    <cfRule type="expression" dxfId="49" priority="27">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="56" priority="26">
+    <cfRule type="expression" dxfId="48" priority="26">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="55" priority="25">
+    <cfRule type="expression" dxfId="47" priority="25">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="54" priority="20">
+    <cfRule type="expression" dxfId="46" priority="20">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="53" priority="22">
+    <cfRule type="expression" dxfId="45" priority="22">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="52" priority="13">
+    <cfRule type="expression" dxfId="44" priority="13">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F14 E4:E20 B4:D25 F16:F25">
-    <cfRule type="expression" dxfId="51" priority="19">
+    <cfRule type="expression" dxfId="43" priority="19">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15935,37 +15883,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="50" priority="9">
+    <cfRule type="expression" dxfId="42" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="49" priority="8">
+    <cfRule type="expression" dxfId="41" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="48" priority="7">
+    <cfRule type="expression" dxfId="40" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="47" priority="5">
+    <cfRule type="expression" dxfId="39" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="46" priority="6">
+    <cfRule type="expression" dxfId="38" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="45" priority="3">
+    <cfRule type="expression" dxfId="37" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F13 E4:E20 B4:D25 F15:F25">
-    <cfRule type="expression" dxfId="44" priority="4">
+    <cfRule type="expression" dxfId="36" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16390,37 +16338,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="43" priority="9">
+    <cfRule type="expression" dxfId="35" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="42" priority="8">
+    <cfRule type="expression" dxfId="34" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="41" priority="7">
+    <cfRule type="expression" dxfId="33" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="40" priority="5">
+    <cfRule type="expression" dxfId="32" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="39" priority="6">
+    <cfRule type="expression" dxfId="31" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="38" priority="3">
+    <cfRule type="expression" dxfId="30" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F14 E4:E20 B4:D25 F16:F25">
-    <cfRule type="expression" dxfId="37" priority="4">
+    <cfRule type="expression" dxfId="29" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16841,37 +16789,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="36" priority="9">
+    <cfRule type="expression" dxfId="28" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="35" priority="8">
+    <cfRule type="expression" dxfId="27" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="34" priority="7">
+    <cfRule type="expression" dxfId="26" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="33" priority="5">
+    <cfRule type="expression" dxfId="25" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="32" priority="6">
+    <cfRule type="expression" dxfId="24" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="31" priority="3">
+    <cfRule type="expression" dxfId="23" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F14 E4:E20 B4:D25 F16:F25">
-    <cfRule type="expression" dxfId="30" priority="4">
+    <cfRule type="expression" dxfId="22" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17302,37 +17250,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="29" priority="9">
+    <cfRule type="expression" dxfId="21" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="28" priority="8">
+    <cfRule type="expression" dxfId="20" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="27" priority="7">
+    <cfRule type="expression" dxfId="19" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="26" priority="5">
+    <cfRule type="expression" dxfId="18" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="25" priority="6">
+    <cfRule type="expression" dxfId="17" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="24" priority="3">
+    <cfRule type="expression" dxfId="16" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F14 E4:E20 B4:D25 F16:F25">
-    <cfRule type="expression" dxfId="23" priority="4">
+    <cfRule type="expression" dxfId="15" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17734,22 +17682,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="214" priority="4">
+    <cfRule type="expression" dxfId="208" priority="4">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="213" priority="3">
+    <cfRule type="expression" dxfId="207" priority="3">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="212" priority="1">
+    <cfRule type="expression" dxfId="206" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="211" priority="2">
+    <cfRule type="expression" dxfId="205" priority="2">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18180,37 +18128,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="22" priority="9">
+    <cfRule type="expression" dxfId="14" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="21" priority="8">
+    <cfRule type="expression" dxfId="13" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="20" priority="7">
+    <cfRule type="expression" dxfId="12" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="19" priority="5">
+    <cfRule type="expression" dxfId="11" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="18" priority="6">
+    <cfRule type="expression" dxfId="10" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="17" priority="3">
+    <cfRule type="expression" dxfId="9" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F14 E4:E20 B4:D25 F16:F25">
-    <cfRule type="expression" dxfId="16" priority="4">
+    <cfRule type="expression" dxfId="8" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18637,42 +18585,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="15" priority="9">
+    <cfRule type="expression" dxfId="7" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="14" priority="8">
+    <cfRule type="expression" dxfId="6" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="13" priority="7">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="12" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="11" priority="6">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E13 B4:D25 E15:E20">
-    <cfRule type="expression" dxfId="10" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F25">
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19102,28 +19050,23 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="210" priority="6">
+    <cfRule type="expression" dxfId="204" priority="6">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="209" priority="5">
+    <cfRule type="expression" dxfId="203" priority="5">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:F8 B10:F25 B9:D9 F9">
-    <cfRule type="expression" dxfId="208" priority="3">
+  <conditionalFormatting sqref="B4:F25">
+    <cfRule type="expression" dxfId="202" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="207" priority="2">
+    <cfRule type="expression" dxfId="201" priority="2">
       <formula>NOT(ISBLANK(B28))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="5" priority="1">
-      <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19522,29 +19465,24 @@
       <c r="F36" s="17"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:F3">
+    <cfRule type="expression" dxfId="200" priority="6">
+      <formula>B$3 &lt; TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:F3">
+    <cfRule type="expression" dxfId="199" priority="5">
+      <formula>B3 = TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:F25">
+    <cfRule type="expression" dxfId="198" priority="1">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="206" priority="4">
+    <cfRule type="expression" dxfId="197" priority="4">
       <formula>NOT(ISBLANK(B28))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="205" priority="6">
-      <formula>B$3 &lt; TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="204" priority="5">
-      <formula>B3 = TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:F8 B10:F25 B9:D9 F9">
-    <cfRule type="expression" dxfId="203" priority="2">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="4" priority="1">
-      <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19925,28 +19863,23 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="202" priority="5">
+    <cfRule type="expression" dxfId="196" priority="5">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="201" priority="4">
+    <cfRule type="expression" dxfId="195" priority="4">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:F8 B10:F25 B9:D9 F9">
-    <cfRule type="expression" dxfId="200" priority="2">
+  <conditionalFormatting sqref="B4:F25">
+    <cfRule type="expression" dxfId="194" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="199" priority="3">
+    <cfRule type="expression" dxfId="193" priority="3">
       <formula>NOT(ISBLANK(B28))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="3" priority="1">
-      <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20314,22 +20247,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="198" priority="4">
+    <cfRule type="expression" dxfId="192" priority="4">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="197" priority="3">
+    <cfRule type="expression" dxfId="191" priority="3">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="196" priority="1">
+    <cfRule type="expression" dxfId="190" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="195" priority="2">
+    <cfRule type="expression" dxfId="189" priority="2">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20734,28 +20667,23 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="194" priority="8">
+    <cfRule type="expression" dxfId="188" priority="8">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="193" priority="7">
+    <cfRule type="expression" dxfId="187" priority="7">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:F8 B10:F25 B9:D9 F9">
-    <cfRule type="expression" dxfId="192" priority="2">
+  <conditionalFormatting sqref="B4:F25">
+    <cfRule type="expression" dxfId="186" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="191" priority="6">
+    <cfRule type="expression" dxfId="185" priority="6">
       <formula>NOT(ISBLANK(B28))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/uurrooster.xlsx
+++ b/uurrooster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sethv\Documents\GitHub\LUCA-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019B398F-0BE1-4480-A122-180E0347BEE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF1C815-116E-430C-9219-FB34AC5C05AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="4" r:id="rId1"/>
@@ -56,7 +56,6 @@
     <sheet name="Week 40" sheetId="44" r:id="rId41"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -77,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="125">
   <si>
     <t>Week</t>
   </si>
@@ -451,6 +450,21 @@
   <si>
     <t>Ingeschreven voor feedback!!</t>
   </si>
+  <si>
+    <t>Eerste les tekenen (A voormiddag, B namiddag)</t>
+  </si>
+  <si>
+    <t>20tal vellen tekenpapier nodig hebben - min A4 - en potlood, stift en pen, indien mogelijk verschillende diktes van elk…</t>
+  </si>
+  <si>
+    <t>Eerste les tekenen (C voormiddag, D namiddag)</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>KIP FEEDBACK ANIMATIE HEBBEN STUDIO DIGITAAL</t>
+  </si>
 </sst>
 </file>
 
@@ -607,7 +621,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -663,6 +677,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="4" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="20% - Accent2" xfId="3" builtinId="34"/>
@@ -674,7 +691,14 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="220">
+  <dxfs count="221">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="1"/>
@@ -3369,27 +3393,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="184" priority="10">
+    <cfRule type="expression" dxfId="185" priority="10">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="183" priority="9">
+    <cfRule type="expression" dxfId="184" priority="9">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F6 B7:D7 F7">
-    <cfRule type="expression" dxfId="182" priority="2">
+    <cfRule type="expression" dxfId="183" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:F25">
-    <cfRule type="expression" dxfId="181" priority="1">
+    <cfRule type="expression" dxfId="182" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="180" priority="8">
+    <cfRule type="expression" dxfId="181" priority="8">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3822,22 +3846,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="179" priority="10">
+    <cfRule type="expression" dxfId="180" priority="10">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="178" priority="9">
+    <cfRule type="expression" dxfId="179" priority="9">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F13 B14:E14 B15:F25">
-    <cfRule type="expression" dxfId="177" priority="1">
+    <cfRule type="expression" dxfId="178" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="176" priority="8">
+    <cfRule type="expression" dxfId="177" priority="8">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4246,22 +4270,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="175" priority="15">
+    <cfRule type="expression" dxfId="176" priority="15">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="174" priority="14">
+    <cfRule type="expression" dxfId="175" priority="14">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F14 B15:E15 B16:F25">
-    <cfRule type="expression" dxfId="173" priority="1">
+    <cfRule type="expression" dxfId="174" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="172" priority="13">
+    <cfRule type="expression" dxfId="173" priority="13">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4694,22 +4718,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="171" priority="16">
+    <cfRule type="expression" dxfId="172" priority="16">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="170" priority="15">
+    <cfRule type="expression" dxfId="171" priority="15">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F14 B15:E15 B16:F25">
-    <cfRule type="expression" dxfId="169" priority="1">
+    <cfRule type="expression" dxfId="170" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="168" priority="14">
+    <cfRule type="expression" dxfId="169" priority="14">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5120,22 +5144,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="167" priority="13">
+    <cfRule type="expression" dxfId="168" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="166" priority="12">
+    <cfRule type="expression" dxfId="167" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F14 B15:D15 F15 B16:F25">
-    <cfRule type="expression" dxfId="165" priority="1">
+    <cfRule type="expression" dxfId="166" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="164" priority="11">
+    <cfRule type="expression" dxfId="165" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5552,22 +5576,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="163" priority="13">
+    <cfRule type="expression" dxfId="164" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="162" priority="12">
+    <cfRule type="expression" dxfId="163" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="161" priority="1">
+    <cfRule type="expression" dxfId="162" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="160" priority="11">
+    <cfRule type="expression" dxfId="161" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5984,22 +6008,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="159" priority="18">
+    <cfRule type="expression" dxfId="160" priority="18">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="158" priority="17">
+    <cfRule type="expression" dxfId="159" priority="17">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="157" priority="6">
+    <cfRule type="expression" dxfId="158" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="156" priority="1">
+    <cfRule type="expression" dxfId="157" priority="1">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6416,22 +6440,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="155" priority="13">
+    <cfRule type="expression" dxfId="156" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="154" priority="12">
+    <cfRule type="expression" dxfId="155" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F7 B8:D8 F8 B9:F25">
-    <cfRule type="expression" dxfId="153" priority="1">
+    <cfRule type="expression" dxfId="154" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="152" priority="11">
+    <cfRule type="expression" dxfId="153" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6848,22 +6872,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="151" priority="18">
+    <cfRule type="expression" dxfId="152" priority="18">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="150" priority="17">
+    <cfRule type="expression" dxfId="151" priority="17">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F14 B15:D15 F15 B16:F25">
-    <cfRule type="expression" dxfId="149" priority="6">
+    <cfRule type="expression" dxfId="150" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="148" priority="1">
+    <cfRule type="expression" dxfId="149" priority="1">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7280,22 +7304,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="147" priority="13">
+    <cfRule type="expression" dxfId="148" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="146" priority="12">
+    <cfRule type="expression" dxfId="147" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F14 B15:D15 F15 B16:F25">
-    <cfRule type="expression" dxfId="145" priority="1">
+    <cfRule type="expression" dxfId="146" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="144" priority="11">
+    <cfRule type="expression" dxfId="145" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7307,8 +7331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="89" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView zoomScale="89" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7716,22 +7740,22 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="219" priority="17">
+    <cfRule type="expression" dxfId="220" priority="17">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="218" priority="9">
+    <cfRule type="expression" dxfId="219" priority="9">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="217" priority="18">
+    <cfRule type="expression" dxfId="218" priority="18">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="216" priority="1">
+    <cfRule type="expression" dxfId="217" priority="1">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8149,22 +8173,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="143" priority="18">
+    <cfRule type="expression" dxfId="144" priority="18">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="142" priority="17">
+    <cfRule type="expression" dxfId="143" priority="17">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F13 B14:D14 F14 B15:F25">
-    <cfRule type="expression" dxfId="141" priority="6">
+    <cfRule type="expression" dxfId="142" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="140" priority="1">
+    <cfRule type="expression" dxfId="141" priority="1">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8595,22 +8619,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="139" priority="13">
+    <cfRule type="expression" dxfId="140" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="138" priority="12">
+    <cfRule type="expression" dxfId="139" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F13 B14:D14 F14 B15:F25">
-    <cfRule type="expression" dxfId="137" priority="1">
+    <cfRule type="expression" dxfId="138" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="136" priority="11">
+    <cfRule type="expression" dxfId="137" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9057,37 +9081,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="135" priority="20">
+    <cfRule type="expression" dxfId="136" priority="20">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="134" priority="19">
+    <cfRule type="expression" dxfId="135" priority="19">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="133" priority="18">
+    <cfRule type="expression" dxfId="134" priority="18">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="132" priority="6">
+    <cfRule type="expression" dxfId="133" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="131" priority="21">
+    <cfRule type="expression" dxfId="132" priority="21">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="130" priority="14">
+    <cfRule type="expression" dxfId="131" priority="14">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F14 B4:B25 E15 E16:F25">
-    <cfRule type="expression" dxfId="129" priority="15">
+    <cfRule type="expression" dxfId="130" priority="15">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9508,37 +9532,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="128" priority="17">
+    <cfRule type="expression" dxfId="129" priority="17">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="127" priority="16">
+    <cfRule type="expression" dxfId="128" priority="16">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="126" priority="15">
+    <cfRule type="expression" dxfId="127" priority="15">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="125" priority="7">
+    <cfRule type="expression" dxfId="126" priority="7">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="124" priority="18">
+    <cfRule type="expression" dxfId="125" priority="18">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="123" priority="11">
+    <cfRule type="expression" dxfId="124" priority="11">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F14 B4:B25 E9:E20 F16:F25">
-    <cfRule type="expression" dxfId="122" priority="12">
+    <cfRule type="expression" dxfId="123" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9985,37 +10009,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="121" priority="18">
+    <cfRule type="expression" dxfId="122" priority="18">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="120" priority="17">
+    <cfRule type="expression" dxfId="121" priority="17">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="119" priority="16">
+    <cfRule type="expression" dxfId="120" priority="16">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="118" priority="9">
+    <cfRule type="expression" dxfId="119" priority="9">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="117" priority="19">
+    <cfRule type="expression" dxfId="118" priority="19">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="116" priority="12">
+    <cfRule type="expression" dxfId="117" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F13 B4:B25 E14 E15:F25">
-    <cfRule type="expression" dxfId="115" priority="13">
+    <cfRule type="expression" dxfId="116" priority="13">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10436,37 +10460,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="114" priority="11">
+    <cfRule type="expression" dxfId="115" priority="11">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="113" priority="10">
+    <cfRule type="expression" dxfId="114" priority="10">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="112" priority="9">
+    <cfRule type="expression" dxfId="113" priority="9">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="111" priority="2">
+    <cfRule type="expression" dxfId="112" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="110" priority="12">
+    <cfRule type="expression" dxfId="111" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="109" priority="5">
+    <cfRule type="expression" dxfId="110" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F14 B4:B25 E9:E20 F16:F25">
-    <cfRule type="expression" dxfId="108" priority="6">
+    <cfRule type="expression" dxfId="109" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10911,37 +10935,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="107" priority="18">
+    <cfRule type="expression" dxfId="108" priority="18">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="106" priority="17">
+    <cfRule type="expression" dxfId="107" priority="17">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="105" priority="16">
+    <cfRule type="expression" dxfId="106" priority="16">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="104" priority="9">
+    <cfRule type="expression" dxfId="105" priority="9">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="103" priority="19">
+    <cfRule type="expression" dxfId="104" priority="19">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="102" priority="12">
+    <cfRule type="expression" dxfId="103" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F14 B4:B25 E15 E16:F25">
-    <cfRule type="expression" dxfId="101" priority="13">
+    <cfRule type="expression" dxfId="102" priority="13">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11362,37 +11386,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="100" priority="11">
+    <cfRule type="expression" dxfId="101" priority="11">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="99" priority="10">
+    <cfRule type="expression" dxfId="100" priority="10">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="98" priority="9">
+    <cfRule type="expression" dxfId="99" priority="9">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="97" priority="2">
+    <cfRule type="expression" dxfId="98" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="96" priority="12">
+    <cfRule type="expression" dxfId="97" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="95" priority="5">
+    <cfRule type="expression" dxfId="96" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F13 B4:B25 E9:E20 F15:F25">
-    <cfRule type="expression" dxfId="94" priority="6">
+    <cfRule type="expression" dxfId="95" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11837,37 +11861,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="93" priority="16">
+    <cfRule type="expression" dxfId="94" priority="16">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="92" priority="15">
+    <cfRule type="expression" dxfId="93" priority="15">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="91" priority="14">
+    <cfRule type="expression" dxfId="92" priority="14">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="90" priority="8">
+    <cfRule type="expression" dxfId="91" priority="8">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="89" priority="17">
+    <cfRule type="expression" dxfId="90" priority="17">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="88" priority="10">
+    <cfRule type="expression" dxfId="89" priority="10">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F13 B4:B25 E14 E15:F25">
-    <cfRule type="expression" dxfId="87" priority="11">
+    <cfRule type="expression" dxfId="88" priority="11">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12292,32 +12316,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="86" priority="11">
+    <cfRule type="expression" dxfId="87" priority="11">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="85" priority="10">
+    <cfRule type="expression" dxfId="86" priority="10">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="84" priority="6">
+    <cfRule type="expression" dxfId="85" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="83" priority="9">
+    <cfRule type="expression" dxfId="84" priority="9">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="82" priority="2">
+    <cfRule type="expression" dxfId="83" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="81" priority="5">
+    <cfRule type="expression" dxfId="82" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12329,8 +12353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E8F0BC9-EDE6-4632-8A0A-D46DEAFA1848}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView zoomScale="65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -12722,7 +12746,9 @@
       <c r="B31" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="19"/>
+      <c r="C31" s="19" t="s">
+        <v>124</v>
+      </c>
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
       <c r="F31" s="19"/>
@@ -12779,37 +12805,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B29:B35">
-    <cfRule type="expression" dxfId="215" priority="1">
+    <cfRule type="expression" dxfId="216" priority="1">
       <formula>NOT(ISBLANK(B29))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:C28 C30:F35 B36:F36">
-    <cfRule type="expression" dxfId="214" priority="10">
+    <cfRule type="expression" dxfId="215" priority="10">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="213" priority="12">
+    <cfRule type="expression" dxfId="214" priority="12">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="212" priority="11">
+    <cfRule type="expression" dxfId="213" priority="11">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="211" priority="9">
+    <cfRule type="expression" dxfId="212" priority="9">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="210" priority="7">
+    <cfRule type="expression" dxfId="211" priority="7">
       <formula>NOT(ISBLANK(C29))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:F29">
-    <cfRule type="expression" dxfId="209" priority="5">
+    <cfRule type="expression" dxfId="210" priority="5">
       <formula>NOT(ISBLANK(D28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13238,32 +13264,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="80" priority="11">
+    <cfRule type="expression" dxfId="81" priority="11">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="79" priority="10">
+    <cfRule type="expression" dxfId="80" priority="10">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="78" priority="6">
+    <cfRule type="expression" dxfId="79" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="77" priority="9">
+    <cfRule type="expression" dxfId="78" priority="9">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="76" priority="2">
+    <cfRule type="expression" dxfId="77" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="75" priority="5">
+    <cfRule type="expression" dxfId="76" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13692,32 +13718,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="74" priority="16">
+    <cfRule type="expression" dxfId="75" priority="16">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="73" priority="15">
+    <cfRule type="expression" dxfId="74" priority="15">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="72" priority="11">
+    <cfRule type="expression" dxfId="73" priority="11">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="71" priority="1">
+    <cfRule type="expression" dxfId="72" priority="1">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="70" priority="7">
+    <cfRule type="expression" dxfId="71" priority="7">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="69" priority="10">
+    <cfRule type="expression" dxfId="70" priority="10">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14142,27 +14168,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="68" priority="18">
+    <cfRule type="expression" dxfId="69" priority="18">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="67" priority="17">
+    <cfRule type="expression" dxfId="68" priority="17">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F13 B14:E14 B15:F25">
-    <cfRule type="expression" dxfId="66" priority="1">
+    <cfRule type="expression" dxfId="67" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="65" priority="16">
+    <cfRule type="expression" dxfId="66" priority="16">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="64" priority="12">
+    <cfRule type="expression" dxfId="65" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14571,42 +14597,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:D25">
-    <cfRule type="expression" dxfId="63" priority="7">
+    <cfRule type="expression" dxfId="64" priority="7">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="62" priority="23">
+    <cfRule type="expression" dxfId="63" priority="23">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="61" priority="22">
+    <cfRule type="expression" dxfId="62" priority="22">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="60" priority="21">
+    <cfRule type="expression" dxfId="61" priority="21">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="59" priority="15">
+    <cfRule type="expression" dxfId="60" priority="15">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="58" priority="17">
+    <cfRule type="expression" dxfId="59" priority="17">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E26">
-    <cfRule type="expression" dxfId="57" priority="1">
+    <cfRule type="expression" dxfId="58" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F25">
-    <cfRule type="expression" dxfId="56" priority="19">
+    <cfRule type="expression" dxfId="57" priority="19">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15051,32 +15077,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="55" priority="25">
+    <cfRule type="expression" dxfId="56" priority="25">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="54" priority="24">
+    <cfRule type="expression" dxfId="55" priority="24">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="53" priority="23">
+    <cfRule type="expression" dxfId="54" priority="23">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="52" priority="18">
+    <cfRule type="expression" dxfId="53" priority="18">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="51" priority="20">
+    <cfRule type="expression" dxfId="52" priority="20">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F14 B4:D25 E4:E26 F16:F25">
-    <cfRule type="expression" dxfId="50" priority="17">
+    <cfRule type="expression" dxfId="51" priority="17">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15497,37 +15523,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="49" priority="27">
+    <cfRule type="expression" dxfId="50" priority="27">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="48" priority="26">
+    <cfRule type="expression" dxfId="49" priority="26">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="47" priority="25">
+    <cfRule type="expression" dxfId="48" priority="25">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="46" priority="20">
+    <cfRule type="expression" dxfId="47" priority="20">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="45" priority="22">
+    <cfRule type="expression" dxfId="46" priority="22">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="44" priority="13">
+    <cfRule type="expression" dxfId="45" priority="13">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F14 E4:E20 B4:D25 F16:F25">
-    <cfRule type="expression" dxfId="43" priority="19">
+    <cfRule type="expression" dxfId="44" priority="19">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15950,37 +15976,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="42" priority="9">
+    <cfRule type="expression" dxfId="43" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="41" priority="8">
+    <cfRule type="expression" dxfId="42" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="40" priority="7">
+    <cfRule type="expression" dxfId="41" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="39" priority="5">
+    <cfRule type="expression" dxfId="40" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="38" priority="6">
+    <cfRule type="expression" dxfId="39" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="37" priority="3">
+    <cfRule type="expression" dxfId="38" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F13 E4:E20 B4:D25 F15:F25">
-    <cfRule type="expression" dxfId="36" priority="4">
+    <cfRule type="expression" dxfId="37" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16405,37 +16431,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="35" priority="9">
+    <cfRule type="expression" dxfId="36" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="34" priority="8">
+    <cfRule type="expression" dxfId="35" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="33" priority="7">
+    <cfRule type="expression" dxfId="34" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="32" priority="5">
+    <cfRule type="expression" dxfId="33" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="31" priority="6">
+    <cfRule type="expression" dxfId="32" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="30" priority="3">
+    <cfRule type="expression" dxfId="31" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F14 E4:E20 B4:D25 F16:F25">
-    <cfRule type="expression" dxfId="29" priority="4">
+    <cfRule type="expression" dxfId="30" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16856,37 +16882,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="28" priority="9">
+    <cfRule type="expression" dxfId="29" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="27" priority="8">
+    <cfRule type="expression" dxfId="28" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="26" priority="7">
+    <cfRule type="expression" dxfId="27" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="25" priority="5">
+    <cfRule type="expression" dxfId="26" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="24" priority="6">
+    <cfRule type="expression" dxfId="25" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="23" priority="3">
+    <cfRule type="expression" dxfId="24" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F14 E4:E20 B4:D25 F16:F25">
-    <cfRule type="expression" dxfId="22" priority="4">
+    <cfRule type="expression" dxfId="23" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17317,37 +17343,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="21" priority="9">
+    <cfRule type="expression" dxfId="22" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="20" priority="8">
+    <cfRule type="expression" dxfId="21" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="19" priority="7">
+    <cfRule type="expression" dxfId="20" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="18" priority="5">
+    <cfRule type="expression" dxfId="19" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="17" priority="6">
+    <cfRule type="expression" dxfId="18" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="16" priority="3">
+    <cfRule type="expression" dxfId="17" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F14 E4:E20 B4:D25 F16:F25">
-    <cfRule type="expression" dxfId="15" priority="4">
+    <cfRule type="expression" dxfId="16" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17359,8 +17385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141CA38B-DB7C-48AD-8513-9BED1D5E19BB}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView zoomScale="70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -17667,11 +17693,11 @@
       <c r="A27" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
     </row>
     <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="15"/>
@@ -17687,86 +17713,90 @@
     </row>
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="11"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
+      <c r="B29" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
     </row>
     <row r="30" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="11"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
+      <c r="B30" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
     </row>
     <row r="31" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="11"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
     </row>
     <row r="32" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="11"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
     </row>
     <row r="33" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="11"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
     </row>
     <row r="34" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="11"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
     </row>
     <row r="35" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="11"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
     </row>
     <row r="36" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="11"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="208" priority="4">
+    <cfRule type="expression" dxfId="209" priority="4">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="207" priority="3">
+    <cfRule type="expression" dxfId="208" priority="3">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="206" priority="1">
+    <cfRule type="expression" dxfId="207" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="205" priority="2">
+    <cfRule type="expression" dxfId="206" priority="2">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18197,37 +18227,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="14" priority="9">
+    <cfRule type="expression" dxfId="15" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="13" priority="8">
+    <cfRule type="expression" dxfId="14" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="12" priority="7">
+    <cfRule type="expression" dxfId="13" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="11" priority="5">
+    <cfRule type="expression" dxfId="12" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="10" priority="6">
+    <cfRule type="expression" dxfId="11" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="10" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F14 E4:E20 B4:D25 F16:F25">
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="9" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18654,42 +18684,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="7" priority="9">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="6" priority="8">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E13 B4:D25 E15:E20">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F25">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18701,8 +18731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BECB010-7B12-49C5-982D-18AE879FB3BF}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="63" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView zoomScale="63" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -19041,7 +19071,9 @@
     </row>
     <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="15"/>
-      <c r="B28" s="16"/>
+      <c r="B28" s="19" t="s">
+        <v>122</v>
+      </c>
       <c r="C28" s="16" t="s">
         <v>61</v>
       </c>
@@ -19053,7 +19085,9 @@
     </row>
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="11"/>
-      <c r="B29" s="19"/>
+      <c r="B29" s="19" t="s">
+        <v>121</v>
+      </c>
       <c r="C29" s="19" t="s">
         <v>100</v>
       </c>
@@ -19121,22 +19155,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
+    <cfRule type="expression" dxfId="205" priority="7">
+      <formula>B$3 &lt; TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:F3">
     <cfRule type="expression" dxfId="204" priority="6">
-      <formula>B$3 &lt; TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="203" priority="5">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="202" priority="1">
+    <cfRule type="expression" dxfId="203" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="201" priority="2">
+  <conditionalFormatting sqref="B30:F36 C28:F29">
+    <cfRule type="expression" dxfId="202" priority="3">
+      <formula>NOT(ISBLANK(B28))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:B29">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19150,7 +19189,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -19465,7 +19504,9 @@
     </row>
     <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="15"/>
-      <c r="B28" s="16"/>
+      <c r="B28" s="16" t="s">
+        <v>123</v>
+      </c>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
@@ -19537,22 +19578,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="200" priority="6">
+    <cfRule type="expression" dxfId="201" priority="6">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="199" priority="5">
+    <cfRule type="expression" dxfId="200" priority="5">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="198" priority="1">
+    <cfRule type="expression" dxfId="199" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="197" priority="4">
+    <cfRule type="expression" dxfId="198" priority="4">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19934,22 +19975,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="196" priority="5">
+    <cfRule type="expression" dxfId="197" priority="5">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="195" priority="4">
+    <cfRule type="expression" dxfId="196" priority="4">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="194" priority="1">
+    <cfRule type="expression" dxfId="195" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="193" priority="3">
+    <cfRule type="expression" dxfId="194" priority="3">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20318,22 +20359,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="192" priority="4">
+    <cfRule type="expression" dxfId="193" priority="4">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="191" priority="3">
+    <cfRule type="expression" dxfId="192" priority="3">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="190" priority="1">
+    <cfRule type="expression" dxfId="191" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="189" priority="2">
+    <cfRule type="expression" dxfId="190" priority="2">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20738,22 +20779,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="188" priority="8">
+    <cfRule type="expression" dxfId="189" priority="8">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="187" priority="7">
+    <cfRule type="expression" dxfId="188" priority="7">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="186" priority="1">
+    <cfRule type="expression" dxfId="187" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="185" priority="6">
+    <cfRule type="expression" dxfId="186" priority="6">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/uurrooster.xlsx
+++ b/uurrooster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LUCA-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E7C570-ED12-4B4E-AAB3-CD069B739508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE6A1D6-63AF-4043-ACF1-A59EBBC38A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="4" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="118">
   <si>
     <t>Week</t>
   </si>
@@ -282,9 +282,6 @@
     <t>Intro</t>
   </si>
   <si>
-    <t>Design thinking of niet?</t>
-  </si>
-  <si>
     <t>Groep A &amp; B: Sessie discover</t>
   </si>
   <si>
@@ -440,6 +437,12 @@
   </si>
   <si>
     <t>Crossmedia updaten voor volgende week, ze staan omgewisseld</t>
+  </si>
+  <si>
+    <t>Design thinking of niet? + waar + voormiddag?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azza meeten 12.45u korenmarkt </t>
   </si>
 </sst>
 </file>
@@ -661,7 +664,14 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="217">
+  <dxfs count="220">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="1"/>
@@ -2521,6 +2531,20 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2899,10 +2923,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>109</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2915,18 +2939,18 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>111</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -3181,7 +3205,7 @@
         <v>0.625</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
@@ -3335,27 +3359,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="184" priority="10">
+    <cfRule type="expression" dxfId="185" priority="10">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="183" priority="9">
+    <cfRule type="expression" dxfId="184" priority="9">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F6 B7:D7 F7">
-    <cfRule type="expression" dxfId="182" priority="2">
+    <cfRule type="expression" dxfId="183" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:F25">
-    <cfRule type="expression" dxfId="181" priority="1">
+    <cfRule type="expression" dxfId="182" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="180" priority="8">
+    <cfRule type="expression" dxfId="181" priority="8">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3625,7 +3649,7 @@
         <v>0.625</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
@@ -3788,22 +3812,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="179" priority="10">
+    <cfRule type="expression" dxfId="180" priority="10">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="178" priority="9">
+    <cfRule type="expression" dxfId="179" priority="9">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F13 B14:E14 B15:F25">
-    <cfRule type="expression" dxfId="177" priority="1">
+    <cfRule type="expression" dxfId="178" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="176" priority="8">
+    <cfRule type="expression" dxfId="177" priority="8">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4058,7 +4082,7 @@
         <v>0.625</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
@@ -4212,22 +4236,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="175" priority="15">
+    <cfRule type="expression" dxfId="176" priority="15">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="174" priority="14">
+    <cfRule type="expression" dxfId="175" priority="14">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F14 B15:E15 B16:F25">
-    <cfRule type="expression" dxfId="173" priority="1">
+    <cfRule type="expression" dxfId="174" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="172" priority="13">
+    <cfRule type="expression" dxfId="173" priority="13">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4497,7 +4521,7 @@
         <v>0.625</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
@@ -4660,22 +4684,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="171" priority="16">
+    <cfRule type="expression" dxfId="172" priority="16">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="170" priority="15">
+    <cfRule type="expression" dxfId="171" priority="15">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F14 B15:E15 B16:F25">
-    <cfRule type="expression" dxfId="169" priority="1">
+    <cfRule type="expression" dxfId="170" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="168" priority="14">
+    <cfRule type="expression" dxfId="169" priority="14">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4930,7 +4954,7 @@
         <v>0.625</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
@@ -5016,7 +5040,7 @@
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
       <c r="E28" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F28" s="16"/>
     </row>
@@ -5086,22 +5110,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="167" priority="13">
+    <cfRule type="expression" dxfId="168" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="166" priority="12">
+    <cfRule type="expression" dxfId="167" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F14 B15:D15 F15 B16:F25">
-    <cfRule type="expression" dxfId="165" priority="1">
+    <cfRule type="expression" dxfId="166" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="164" priority="11">
+    <cfRule type="expression" dxfId="165" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5518,22 +5542,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="163" priority="13">
+    <cfRule type="expression" dxfId="164" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="162" priority="12">
+    <cfRule type="expression" dxfId="163" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="161" priority="1">
+    <cfRule type="expression" dxfId="162" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="160" priority="11">
+    <cfRule type="expression" dxfId="161" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5950,22 +5974,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="159" priority="18">
+    <cfRule type="expression" dxfId="160" priority="18">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="158" priority="17">
+    <cfRule type="expression" dxfId="159" priority="17">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="157" priority="6">
+    <cfRule type="expression" dxfId="158" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="156" priority="1">
+    <cfRule type="expression" dxfId="157" priority="1">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6301,19 +6325,19 @@
     <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -6382,22 +6406,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="155" priority="13">
+    <cfRule type="expression" dxfId="156" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="154" priority="12">
+    <cfRule type="expression" dxfId="155" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F7 B8:D8 F8 B9:F25">
-    <cfRule type="expression" dxfId="153" priority="1">
+    <cfRule type="expression" dxfId="154" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="152" priority="11">
+    <cfRule type="expression" dxfId="153" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6733,19 +6757,19 @@
     <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -6814,22 +6838,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="151" priority="18">
+    <cfRule type="expression" dxfId="152" priority="18">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="150" priority="17">
+    <cfRule type="expression" dxfId="151" priority="17">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F14 B15:D15 F15 B16:F25">
-    <cfRule type="expression" dxfId="149" priority="6">
+    <cfRule type="expression" dxfId="150" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="148" priority="1">
+    <cfRule type="expression" dxfId="149" priority="1">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7246,22 +7270,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="147" priority="13">
+    <cfRule type="expression" dxfId="148" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="146" priority="12">
+    <cfRule type="expression" dxfId="147" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F14 B15:D15 F15 B16:F25">
-    <cfRule type="expression" dxfId="145" priority="1">
+    <cfRule type="expression" dxfId="146" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="144" priority="11">
+    <cfRule type="expression" dxfId="145" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7273,8 +7297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A3" zoomScale="89" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31:F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7404,7 +7428,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -7591,44 +7615,44 @@
         <v>37</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="E28" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="F28" s="16" t="s">
-        <v>23</v>
+      <c r="E28" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D29" s="19"/>
       <c r="E29" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>95</v>
+        <v>113</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C30" s="23"/>
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>
-      <c r="F30" s="19" t="s">
-        <v>90</v>
+      <c r="F30" s="23" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -7637,9 +7661,7 @@
       <c r="C31" s="23"/>
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
-      <c r="F31" s="19" t="s">
-        <v>91</v>
-      </c>
+      <c r="F31" s="19"/>
     </row>
     <row r="32" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
@@ -7647,9 +7669,7 @@
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
-      <c r="F32" s="19" t="s">
-        <v>94</v>
-      </c>
+      <c r="F32" s="19"/>
     </row>
     <row r="33" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
@@ -7657,9 +7677,7 @@
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
-      <c r="F33" s="19" t="s">
-        <v>105</v>
-      </c>
+      <c r="F33" s="19"/>
     </row>
     <row r="34" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
@@ -7667,9 +7685,7 @@
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
       <c r="E34" s="19"/>
-      <c r="F34" s="19" t="s">
-        <v>104</v>
-      </c>
+      <c r="F34" s="19"/>
     </row>
     <row r="35" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
@@ -7677,9 +7693,7 @@
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
-      <c r="F35" s="19" t="s">
-        <v>106</v>
-      </c>
+      <c r="F35" s="19"/>
     </row>
     <row r="36" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
@@ -7687,29 +7701,27 @@
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>
       <c r="E36" s="19"/>
-      <c r="F36" s="19" t="s">
-        <v>107</v>
-      </c>
+      <c r="F36" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="216" priority="14">
+    <cfRule type="expression" dxfId="219" priority="14">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="215" priority="6">
+    <cfRule type="expression" dxfId="218" priority="6">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="214" priority="15">
+    <cfRule type="expression" dxfId="217" priority="15">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="213" priority="1">
+    <cfRule type="expression" dxfId="216" priority="1">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8127,22 +8139,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="143" priority="18">
+    <cfRule type="expression" dxfId="144" priority="18">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="142" priority="17">
+    <cfRule type="expression" dxfId="143" priority="17">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F13 B14:D14 F14 B15:F25">
-    <cfRule type="expression" dxfId="141" priority="6">
+    <cfRule type="expression" dxfId="142" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="140" priority="1">
+    <cfRule type="expression" dxfId="141" priority="1">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8573,22 +8585,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="139" priority="13">
+    <cfRule type="expression" dxfId="140" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="138" priority="12">
+    <cfRule type="expression" dxfId="139" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F13 B14:D14 F14 B15:F25">
-    <cfRule type="expression" dxfId="137" priority="1">
+    <cfRule type="expression" dxfId="138" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="136" priority="11">
+    <cfRule type="expression" dxfId="137" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8861,7 +8873,7 @@
         <v>0.625</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -9035,37 +9047,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="135" priority="20">
+    <cfRule type="expression" dxfId="136" priority="20">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="134" priority="19">
+    <cfRule type="expression" dxfId="135" priority="19">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="133" priority="18">
+    <cfRule type="expression" dxfId="134" priority="18">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="132" priority="6">
+    <cfRule type="expression" dxfId="133" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="131" priority="21">
+    <cfRule type="expression" dxfId="132" priority="21">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="130" priority="14">
+    <cfRule type="expression" dxfId="131" priority="14">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F14 B4:B25 E15 E16:F25">
-    <cfRule type="expression" dxfId="129" priority="15">
+    <cfRule type="expression" dxfId="130" priority="15">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9323,7 +9335,7 @@
         <v>0.625</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -9486,37 +9498,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="128" priority="17">
+    <cfRule type="expression" dxfId="129" priority="17">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="127" priority="16">
+    <cfRule type="expression" dxfId="128" priority="16">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="126" priority="15">
+    <cfRule type="expression" dxfId="127" priority="15">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="125" priority="7">
+    <cfRule type="expression" dxfId="126" priority="7">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="124" priority="18">
+    <cfRule type="expression" dxfId="125" priority="18">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="123" priority="11">
+    <cfRule type="expression" dxfId="124" priority="11">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F14 B4:B25 E9:E20 F16:F25">
-    <cfRule type="expression" dxfId="122" priority="12">
+    <cfRule type="expression" dxfId="123" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9789,7 +9801,7 @@
         <v>0.625</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -9963,37 +9975,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="121" priority="18">
+    <cfRule type="expression" dxfId="122" priority="18">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="120" priority="17">
+    <cfRule type="expression" dxfId="121" priority="17">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="119" priority="16">
+    <cfRule type="expression" dxfId="120" priority="16">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="118" priority="9">
+    <cfRule type="expression" dxfId="119" priority="9">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="117" priority="19">
+    <cfRule type="expression" dxfId="118" priority="19">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="116" priority="12">
+    <cfRule type="expression" dxfId="117" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F13 B4:B25 E14 E15:F25">
-    <cfRule type="expression" dxfId="115" priority="13">
+    <cfRule type="expression" dxfId="116" priority="13">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10251,7 +10263,7 @@
         <v>0.625</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -10414,37 +10426,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="114" priority="11">
+    <cfRule type="expression" dxfId="115" priority="11">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="113" priority="10">
+    <cfRule type="expression" dxfId="114" priority="10">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="112" priority="9">
+    <cfRule type="expression" dxfId="113" priority="9">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="111" priority="2">
+    <cfRule type="expression" dxfId="112" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="110" priority="12">
+    <cfRule type="expression" dxfId="111" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="109" priority="5">
+    <cfRule type="expression" dxfId="110" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F14 B4:B25 E9:E20 F16:F25">
-    <cfRule type="expression" dxfId="108" priority="6">
+    <cfRule type="expression" dxfId="109" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10717,7 +10729,7 @@
         <v>0.625</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -10889,37 +10901,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="107" priority="18">
+    <cfRule type="expression" dxfId="108" priority="18">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="106" priority="17">
+    <cfRule type="expression" dxfId="107" priority="17">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="105" priority="16">
+    <cfRule type="expression" dxfId="106" priority="16">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="104" priority="9">
+    <cfRule type="expression" dxfId="105" priority="9">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="103" priority="19">
+    <cfRule type="expression" dxfId="104" priority="19">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="102" priority="12">
+    <cfRule type="expression" dxfId="103" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F14 B4:B25 E15 E16:F25">
-    <cfRule type="expression" dxfId="101" priority="13">
+    <cfRule type="expression" dxfId="102" priority="13">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11177,7 +11189,7 @@
         <v>0.625</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -11340,37 +11352,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="100" priority="11">
+    <cfRule type="expression" dxfId="101" priority="11">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="99" priority="10">
+    <cfRule type="expression" dxfId="100" priority="10">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="98" priority="9">
+    <cfRule type="expression" dxfId="99" priority="9">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="97" priority="2">
+    <cfRule type="expression" dxfId="98" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="96" priority="12">
+    <cfRule type="expression" dxfId="97" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="95" priority="5">
+    <cfRule type="expression" dxfId="96" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F13 B4:B25 E9:E20 F15:F25">
-    <cfRule type="expression" dxfId="94" priority="6">
+    <cfRule type="expression" dxfId="95" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11643,7 +11655,7 @@
         <v>0.625</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -11815,37 +11827,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="93" priority="16">
+    <cfRule type="expression" dxfId="94" priority="16">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="92" priority="15">
+    <cfRule type="expression" dxfId="93" priority="15">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="91" priority="14">
+    <cfRule type="expression" dxfId="92" priority="14">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="90" priority="8">
+    <cfRule type="expression" dxfId="91" priority="8">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="89" priority="17">
+    <cfRule type="expression" dxfId="90" priority="17">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="88" priority="10">
+    <cfRule type="expression" dxfId="89" priority="10">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F13 B4:B25 E14 E15:F25">
-    <cfRule type="expression" dxfId="87" priority="11">
+    <cfRule type="expression" dxfId="88" priority="11">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12103,7 +12115,7 @@
         <v>0.625</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -12205,7 +12217,7 @@
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
@@ -12270,32 +12282,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="86" priority="11">
+    <cfRule type="expression" dxfId="87" priority="11">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="85" priority="10">
+    <cfRule type="expression" dxfId="86" priority="10">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="84" priority="6">
+    <cfRule type="expression" dxfId="85" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="83" priority="9">
+    <cfRule type="expression" dxfId="84" priority="9">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="82" priority="2">
+    <cfRule type="expression" dxfId="83" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="81" priority="5">
+    <cfRule type="expression" dxfId="82" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12307,8 +12319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E8F0BC9-EDE6-4632-8A0A-D46DEAFA1848}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12488,11 +12500,14 @@
       <c r="E12" s="11"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>0.53125</v>
       </c>
       <c r="B13" s="7"/>
+      <c r="C13" s="19" t="s">
+        <v>117</v>
+      </c>
       <c r="D13" s="5"/>
       <c r="E13" s="11"/>
       <c r="F13" s="5"/>
@@ -12646,104 +12661,133 @@
     <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="16" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
-      <c r="B29" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
+      <c r="B29" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
     </row>
     <row r="30" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
+      <c r="B30" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
     </row>
     <row r="31" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
+      <c r="B31" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
     </row>
     <row r="32" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
+      <c r="B32" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
     </row>
     <row r="33" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
+      <c r="B33" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
     </row>
     <row r="34" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
+      <c r="B34" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
     </row>
     <row r="35" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
+      <c r="B35" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
     </row>
     <row r="36" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="212" priority="4">
+    <cfRule type="expression" dxfId="215" priority="7">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
+    <cfRule type="expression" dxfId="214" priority="6">
+      <formula>B3 = TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:F12 B14:F25 B13 D13:F13">
+    <cfRule type="expression" dxfId="213" priority="4">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:F29 B36:F36 C30:F35">
+    <cfRule type="expression" dxfId="212" priority="5">
+      <formula>NOT(ISBLANK(B28))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30:B34">
     <cfRule type="expression" dxfId="211" priority="3">
-      <formula>B3 = TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="210" priority="1">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="209" priority="2">
-      <formula>NOT(ISBLANK(B28))</formula>
+      <formula>NOT(ISBLANK(B30))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35">
+    <cfRule type="expression" dxfId="210" priority="2">
+      <formula>NOT(ISBLANK(B35))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>NOT(ISBLANK(C13))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13171,32 +13215,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="80" priority="11">
+    <cfRule type="expression" dxfId="81" priority="11">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="79" priority="10">
+    <cfRule type="expression" dxfId="80" priority="10">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="78" priority="6">
+    <cfRule type="expression" dxfId="79" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="77" priority="9">
+    <cfRule type="expression" dxfId="78" priority="9">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="76" priority="2">
+    <cfRule type="expression" dxfId="77" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="75" priority="5">
+    <cfRule type="expression" dxfId="76" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13625,32 +13669,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="74" priority="16">
+    <cfRule type="expression" dxfId="75" priority="16">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="73" priority="15">
+    <cfRule type="expression" dxfId="74" priority="15">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="72" priority="11">
+    <cfRule type="expression" dxfId="73" priority="11">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="71" priority="1">
+    <cfRule type="expression" dxfId="72" priority="1">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="70" priority="7">
+    <cfRule type="expression" dxfId="71" priority="7">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="69" priority="10">
+    <cfRule type="expression" dxfId="70" priority="10">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14075,27 +14119,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="68" priority="18">
+    <cfRule type="expression" dxfId="69" priority="18">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="67" priority="17">
+    <cfRule type="expression" dxfId="68" priority="17">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F13 B14:E14 B15:F25">
-    <cfRule type="expression" dxfId="66" priority="1">
+    <cfRule type="expression" dxfId="67" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="65" priority="16">
+    <cfRule type="expression" dxfId="66" priority="16">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="64" priority="12">
+    <cfRule type="expression" dxfId="65" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14342,7 +14386,7 @@
         <v>0.625</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -14504,42 +14548,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:D25">
-    <cfRule type="expression" dxfId="63" priority="7">
+    <cfRule type="expression" dxfId="64" priority="7">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="62" priority="23">
+    <cfRule type="expression" dxfId="63" priority="23">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="61" priority="22">
+    <cfRule type="expression" dxfId="62" priority="22">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="60" priority="21">
+    <cfRule type="expression" dxfId="61" priority="21">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="59" priority="15">
+    <cfRule type="expression" dxfId="60" priority="15">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="58" priority="17">
+    <cfRule type="expression" dxfId="59" priority="17">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E26">
-    <cfRule type="expression" dxfId="57" priority="1">
+    <cfRule type="expression" dxfId="58" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F25">
-    <cfRule type="expression" dxfId="56" priority="19">
+    <cfRule type="expression" dxfId="57" priority="19">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14812,7 +14856,7 @@
         <v>0.625</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -14984,32 +15028,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="55" priority="25">
+    <cfRule type="expression" dxfId="56" priority="25">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="54" priority="24">
+    <cfRule type="expression" dxfId="55" priority="24">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="53" priority="23">
+    <cfRule type="expression" dxfId="54" priority="23">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="52" priority="18">
+    <cfRule type="expression" dxfId="53" priority="18">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="51" priority="20">
+    <cfRule type="expression" dxfId="52" priority="20">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F14 B4:D25 E4:E26 F16:F25">
-    <cfRule type="expression" dxfId="50" priority="17">
+    <cfRule type="expression" dxfId="51" priority="17">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15267,7 +15311,7 @@
         <v>0.625</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -15430,37 +15474,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="49" priority="27">
+    <cfRule type="expression" dxfId="50" priority="27">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="48" priority="26">
+    <cfRule type="expression" dxfId="49" priority="26">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="47" priority="25">
+    <cfRule type="expression" dxfId="48" priority="25">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="46" priority="20">
+    <cfRule type="expression" dxfId="47" priority="20">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="45" priority="22">
+    <cfRule type="expression" dxfId="46" priority="22">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="44" priority="13">
+    <cfRule type="expression" dxfId="45" priority="13">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F14 E4:E20 B4:D25 F16:F25">
-    <cfRule type="expression" dxfId="43" priority="19">
+    <cfRule type="expression" dxfId="44" priority="19">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15818,7 +15862,7 @@
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
@@ -15883,37 +15927,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="42" priority="9">
+    <cfRule type="expression" dxfId="43" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="41" priority="8">
+    <cfRule type="expression" dxfId="42" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="40" priority="7">
+    <cfRule type="expression" dxfId="41" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="39" priority="5">
+    <cfRule type="expression" dxfId="40" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="38" priority="6">
+    <cfRule type="expression" dxfId="39" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="37" priority="3">
+    <cfRule type="expression" dxfId="38" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F13 E4:E20 B4:D25 F15:F25">
-    <cfRule type="expression" dxfId="36" priority="4">
+    <cfRule type="expression" dxfId="37" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16338,37 +16382,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="35" priority="9">
+    <cfRule type="expression" dxfId="36" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="34" priority="8">
+    <cfRule type="expression" dxfId="35" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="33" priority="7">
+    <cfRule type="expression" dxfId="34" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="32" priority="5">
+    <cfRule type="expression" dxfId="33" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="31" priority="6">
+    <cfRule type="expression" dxfId="32" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="30" priority="3">
+    <cfRule type="expression" dxfId="31" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F14 E4:E20 B4:D25 F16:F25">
-    <cfRule type="expression" dxfId="29" priority="4">
+    <cfRule type="expression" dxfId="30" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16789,37 +16833,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="28" priority="9">
+    <cfRule type="expression" dxfId="29" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="27" priority="8">
+    <cfRule type="expression" dxfId="28" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="26" priority="7">
+    <cfRule type="expression" dxfId="27" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="25" priority="5">
+    <cfRule type="expression" dxfId="26" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="24" priority="6">
+    <cfRule type="expression" dxfId="25" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="23" priority="3">
+    <cfRule type="expression" dxfId="24" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F14 E4:E20 B4:D25 F16:F25">
-    <cfRule type="expression" dxfId="22" priority="4">
+    <cfRule type="expression" dxfId="23" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17250,37 +17294,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="21" priority="9">
+    <cfRule type="expression" dxfId="22" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="20" priority="8">
+    <cfRule type="expression" dxfId="21" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="19" priority="7">
+    <cfRule type="expression" dxfId="20" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="18" priority="5">
+    <cfRule type="expression" dxfId="19" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="17" priority="6">
+    <cfRule type="expression" dxfId="18" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="16" priority="3">
+    <cfRule type="expression" dxfId="17" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F14 E4:E20 B4:D25 F16:F25">
-    <cfRule type="expression" dxfId="15" priority="4">
+    <cfRule type="expression" dxfId="16" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17526,7 +17570,7 @@
         <v>0.625</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
@@ -17613,7 +17657,7 @@
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
       <c r="F28" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -17682,22 +17726,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="208" priority="4">
+    <cfRule type="expression" dxfId="209" priority="4">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="207" priority="3">
+    <cfRule type="expression" dxfId="208" priority="3">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="206" priority="1">
+    <cfRule type="expression" dxfId="207" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="205" priority="2">
+    <cfRule type="expression" dxfId="206" priority="2">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18128,37 +18172,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="14" priority="9">
+    <cfRule type="expression" dxfId="15" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="13" priority="8">
+    <cfRule type="expression" dxfId="14" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="12" priority="7">
+    <cfRule type="expression" dxfId="13" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="11" priority="5">
+    <cfRule type="expression" dxfId="12" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="10" priority="6">
+    <cfRule type="expression" dxfId="11" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="10" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F14 E4:E20 B4:D25 F16:F25">
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="9" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18585,42 +18629,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="7" priority="9">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="6" priority="8">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E13 B4:D25 E15:E20">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F25">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18881,7 +18925,7 @@
         <v>0.625</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
@@ -18986,7 +19030,7 @@
       <c r="A29" s="11"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="17"/>
@@ -19050,22 +19094,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="204" priority="6">
+    <cfRule type="expression" dxfId="205" priority="6">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="203" priority="5">
+    <cfRule type="expression" dxfId="204" priority="5">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="202" priority="1">
+    <cfRule type="expression" dxfId="203" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="201" priority="2">
+    <cfRule type="expression" dxfId="202" priority="2">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19312,7 +19356,7 @@
         <v>0.625</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
@@ -19466,22 +19510,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="200" priority="6">
+    <cfRule type="expression" dxfId="201" priority="6">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="199" priority="5">
+    <cfRule type="expression" dxfId="200" priority="5">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="198" priority="1">
+    <cfRule type="expression" dxfId="199" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="197" priority="4">
+    <cfRule type="expression" dxfId="198" priority="4">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19707,7 +19751,7 @@
         <v>0.625</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
@@ -19863,22 +19907,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="196" priority="5">
+    <cfRule type="expression" dxfId="197" priority="5">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="195" priority="4">
+    <cfRule type="expression" dxfId="196" priority="4">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="194" priority="1">
+    <cfRule type="expression" dxfId="195" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="193" priority="3">
+    <cfRule type="expression" dxfId="194" priority="3">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20102,7 +20146,7 @@
         <v>0.625</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
@@ -20247,22 +20291,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="192" priority="4">
+    <cfRule type="expression" dxfId="193" priority="4">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="191" priority="3">
+    <cfRule type="expression" dxfId="192" priority="3">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="190" priority="1">
+    <cfRule type="expression" dxfId="191" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="189" priority="2">
+    <cfRule type="expression" dxfId="190" priority="2">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20667,22 +20711,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="188" priority="8">
+    <cfRule type="expression" dxfId="189" priority="8">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="187" priority="7">
+    <cfRule type="expression" dxfId="188" priority="7">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="186" priority="1">
+    <cfRule type="expression" dxfId="187" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="185" priority="6">
+    <cfRule type="expression" dxfId="186" priority="6">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/uurrooster.xlsx
+++ b/uurrooster.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sethv\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LUCA-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDF3B89-3401-4881-9E8E-F336410E802C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2195AF16-60AE-43D0-9BA9-0CC70D9A009D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="4" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1453" uniqueCount="126">
   <si>
     <t>Week</t>
   </si>
@@ -427,9 +427,6 @@
     </r>
   </si>
   <si>
-    <t>mail sturen naar marketing voor gb</t>
-  </si>
-  <si>
     <t>US BY NIGHT: studentenkaart + ticket op gsm!!</t>
   </si>
   <si>
@@ -445,9 +442,6 @@
     <t xml:space="preserve">Azza meeten 12.45u korenmarkt </t>
   </si>
   <si>
-    <t>KIP FEEDBACK ANIMATIE HEBBEN STUDIO DIGITAAL</t>
-  </si>
-  <si>
     <t>Groepen zouden moeten verdeeld zijn ABCD</t>
   </si>
   <si>
@@ -461,6 +455,18 @@
   </si>
   <si>
     <t>Deadline opdracht studio digitaal (indienen op drive!)</t>
+  </si>
+  <si>
+    <t>Kip animatie feedback (tussen 14-18u)</t>
+  </si>
+  <si>
+    <t>mail sturen naar marketing voor GB</t>
+  </si>
+  <si>
+    <t>Geen school</t>
+  </si>
+  <si>
+    <t>Kip animatie maken</t>
   </si>
 </sst>
 </file>
@@ -618,7 +624,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -671,21 +677,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="20% - Accent2" xfId="3" builtinId="34"/>
@@ -5059,7 +5050,7 @@
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
       <c r="E28" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F28" s="16"/>
     </row>
@@ -7316,7 +7307,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView zoomScale="89" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="89" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
@@ -7447,7 +7438,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -7656,7 +7647,7 @@
       </c>
       <c r="D29" s="19"/>
       <c r="E29" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F29" s="23" t="s">
         <v>103</v>
@@ -12338,8 +12329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E8F0BC9-EDE6-4632-8A0A-D46DEAFA1848}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12413,9 +12404,6 @@
       <c r="A4" s="3">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="E4" s="6" t="s">
         <v>26</v>
       </c>
@@ -12430,9 +12418,6 @@
       <c r="A5" s="3">
         <v>0.375</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>7</v>
-      </c>
       <c r="E5" s="5" t="s">
         <v>27</v>
       </c>
@@ -12447,7 +12432,6 @@
       <c r="A6" s="3">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B6" s="7"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
     </row>
@@ -12455,7 +12439,6 @@
       <c r="A7" s="3">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B7" s="7"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="H7" s="1" t="s">
@@ -12467,7 +12450,6 @@
       <c r="A8" s="3">
         <v>0.4375</v>
       </c>
-      <c r="B8" s="7"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="H8" s="1" t="s">
@@ -12481,7 +12463,6 @@
       <c r="A9" s="10">
         <v>0.44791666666666669</v>
       </c>
-      <c r="B9" s="7"/>
       <c r="D9" s="6" t="s">
         <v>14</v>
       </c>
@@ -12494,7 +12475,6 @@
       <c r="A10" s="3">
         <v>0.45833333333333398</v>
       </c>
-      <c r="B10" s="7"/>
       <c r="D10" s="5" t="s">
         <v>16</v>
       </c>
@@ -12505,7 +12485,6 @@
       <c r="A11" s="3">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B11" s="7"/>
       <c r="D11" s="5"/>
       <c r="E11" s="11"/>
       <c r="F11" s="5"/>
@@ -12514,7 +12493,6 @@
       <c r="A12" s="3">
         <v>0.5</v>
       </c>
-      <c r="B12" s="7"/>
       <c r="D12" s="5"/>
       <c r="E12" s="11"/>
       <c r="F12" s="5"/>
@@ -12523,9 +12501,8 @@
       <c r="A13" s="3">
         <v>0.53125</v>
       </c>
-      <c r="B13" s="7"/>
       <c r="C13" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="11"/>
@@ -12551,9 +12528,6 @@
       <c r="A16" s="3">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
@@ -12571,9 +12545,6 @@
       <c r="A17" s="3">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="C17" s="5" t="s">
         <v>13</v>
       </c>
@@ -12589,7 +12560,6 @@
       <c r="A18" s="3">
         <v>0.625</v>
       </c>
-      <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
       <c r="E18" s="11"/>
@@ -12599,7 +12569,6 @@
       <c r="A19" s="3">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="7"/>
       <c r="E19" s="11"/>
@@ -12609,7 +12578,6 @@
       <c r="A20" s="3">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="7"/>
       <c r="E20" s="11"/>
@@ -12619,7 +12587,6 @@
       <c r="A21" s="3">
         <v>0.6875</v>
       </c>
-      <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="E21" s="6" t="s">
         <v>26</v>
@@ -12630,7 +12597,6 @@
       <c r="A22" s="3">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="E22" s="5" t="s">
         <v>27</v>
@@ -12641,7 +12607,6 @@
       <c r="A23" s="3">
         <v>0.72916666666666696</v>
       </c>
-      <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -12650,7 +12615,6 @@
       <c r="A24" s="3">
         <v>0.75</v>
       </c>
-      <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -12659,7 +12623,6 @@
       <c r="A25" s="3">
         <v>0.76041666666666663</v>
       </c>
-      <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -12679,8 +12642,8 @@
     </row>
     <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
-      <c r="B28" s="16" t="s">
-        <v>116</v>
+      <c r="B28" s="22" t="s">
+        <v>115</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>96</v>
@@ -12697,11 +12660,11 @@
     </row>
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
-      <c r="B29" s="19" t="s">
-        <v>112</v>
+      <c r="B29" s="23" t="s">
+        <v>124</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D29" s="19"/>
       <c r="E29" s="16" t="s">
@@ -12713,23 +12676,25 @@
     </row>
     <row r="30" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
-      <c r="B30" s="16" t="s">
-        <v>23</v>
+      <c r="B30" s="19" t="s">
+        <v>123</v>
       </c>
       <c r="C30" s="16" t="s">
         <v>23</v>
       </c>
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
+      <c r="F30" s="19" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="31" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C31" s="28" t="s">
-        <v>118</v>
+        <v>125</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>122</v>
       </c>
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
@@ -12737,9 +12702,7 @@
     </row>
     <row r="32" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
-      <c r="B32" s="19" t="s">
-        <v>89</v>
-      </c>
+      <c r="B32" s="19"/>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
@@ -12747,9 +12710,7 @@
     </row>
     <row r="33" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
-      <c r="B33" s="19" t="s">
-        <v>90</v>
-      </c>
+      <c r="B33" s="19"/>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
@@ -12757,9 +12718,7 @@
     </row>
     <row r="34" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
-      <c r="B34" s="19" t="s">
-        <v>93</v>
-      </c>
+      <c r="B34" s="19"/>
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
       <c r="E34" s="19"/>
@@ -12767,9 +12726,7 @@
     </row>
     <row r="35" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
-      <c r="B35" s="19" t="s">
-        <v>106</v>
-      </c>
+      <c r="B35" s="19"/>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
@@ -12785,31 +12742,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="213" priority="7">
+    <cfRule type="expression" dxfId="213" priority="8">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="212" priority="6">
+    <cfRule type="expression" dxfId="212" priority="7">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:F12 B13 D13:F13 B14:F25">
-    <cfRule type="expression" dxfId="211" priority="4">
+  <conditionalFormatting sqref="B4:F12 B4:B13 D13:F13 B14:F15 C16:F25">
+    <cfRule type="expression" dxfId="211" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="210" priority="2">
+    <cfRule type="expression" dxfId="210" priority="1">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="209" priority="1">
+    <cfRule type="expression" dxfId="209" priority="2">
       <formula>NOT(ISBLANK(C13))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -17356,7 +17314,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:B30"/>
+      <selection activeCell="B31" sqref="B31:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17672,7 +17630,7 @@
     <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
@@ -17683,8 +17641,8 @@
     </row>
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
-      <c r="B29" s="29" t="s">
-        <v>120</v>
+      <c r="B29" s="19" t="s">
+        <v>118</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
@@ -17693,8 +17651,8 @@
     </row>
     <row r="30" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
-      <c r="B30" s="29" t="s">
-        <v>121</v>
+      <c r="B30" s="19" t="s">
+        <v>119</v>
       </c>
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
@@ -17703,7 +17661,9 @@
     </row>
     <row r="31" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
-      <c r="B31" s="17"/>
+      <c r="B31" s="19" t="s">
+        <v>94</v>
+      </c>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
       <c r="E31" s="17"/>
@@ -17711,7 +17671,9 @@
     </row>
     <row r="32" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
-      <c r="B32" s="17"/>
+      <c r="B32" s="19" t="s">
+        <v>89</v>
+      </c>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
       <c r="E32" s="17"/>
@@ -17719,7 +17681,9 @@
     </row>
     <row r="33" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
-      <c r="B33" s="17"/>
+      <c r="B33" s="19" t="s">
+        <v>90</v>
+      </c>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
       <c r="E33" s="17"/>
@@ -17727,7 +17691,9 @@
     </row>
     <row r="34" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
-      <c r="B34" s="17"/>
+      <c r="B34" s="19" t="s">
+        <v>93</v>
+      </c>
       <c r="C34" s="17"/>
       <c r="D34" s="17"/>
       <c r="E34" s="17"/>
@@ -17751,22 +17717,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="208" priority="4">
+    <cfRule type="expression" dxfId="208" priority="5">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="207" priority="3">
+    <cfRule type="expression" dxfId="207" priority="4">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="206" priority="1">
+    <cfRule type="expression" dxfId="206" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="205" priority="2">
+    <cfRule type="expression" dxfId="205" priority="1">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19041,10 +19007,10 @@
     </row>
     <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
-      <c r="B28" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="C28" s="30" t="s">
+      <c r="B28" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" s="16" t="s">
         <v>61</v>
       </c>
       <c r="D28" s="16"/>
@@ -19055,16 +19021,16 @@
     </row>
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
-      <c r="B29" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="C29" s="31" t="s">
+      <c r="B29" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29" s="19" t="s">
         <v>99</v>
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="17"/>
-      <c r="F29" s="32" t="s">
-        <v>123</v>
+      <c r="F29" s="19" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">

--- a/uurrooster.xlsx
+++ b/uurrooster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LUCA-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2195AF16-60AE-43D0-9BA9-0CC70D9A009D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD17E9AA-E3CA-423C-B977-E926783B3348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="4" r:id="rId1"/>
@@ -688,7 +688,35 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="218">
+  <dxfs count="223">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="1"/>
@@ -2548,6 +2576,13 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3369,27 +3404,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="184" priority="10">
+    <cfRule type="expression" dxfId="188" priority="10">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="183" priority="9">
+    <cfRule type="expression" dxfId="187" priority="9">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F6 B7:D7 F7">
-    <cfRule type="expression" dxfId="182" priority="2">
+    <cfRule type="expression" dxfId="186" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:F25">
-    <cfRule type="expression" dxfId="181" priority="1">
+    <cfRule type="expression" dxfId="185" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="180" priority="8">
+    <cfRule type="expression" dxfId="184" priority="8">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3822,22 +3857,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="179" priority="10">
+    <cfRule type="expression" dxfId="183" priority="10">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="178" priority="9">
+    <cfRule type="expression" dxfId="182" priority="9">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F13 B14:E14 B15:F25">
-    <cfRule type="expression" dxfId="177" priority="1">
+    <cfRule type="expression" dxfId="181" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="176" priority="8">
+    <cfRule type="expression" dxfId="180" priority="8">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4246,22 +4281,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="175" priority="15">
+    <cfRule type="expression" dxfId="179" priority="15">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="174" priority="14">
+    <cfRule type="expression" dxfId="178" priority="14">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F14 B15:E15 B16:F25">
-    <cfRule type="expression" dxfId="173" priority="1">
+    <cfRule type="expression" dxfId="177" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="172" priority="13">
+    <cfRule type="expression" dxfId="176" priority="13">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4694,22 +4729,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="171" priority="16">
+    <cfRule type="expression" dxfId="175" priority="16">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="170" priority="15">
+    <cfRule type="expression" dxfId="174" priority="15">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F14 B15:E15 B16:F25">
-    <cfRule type="expression" dxfId="169" priority="1">
+    <cfRule type="expression" dxfId="173" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="168" priority="14">
+    <cfRule type="expression" dxfId="172" priority="14">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5120,22 +5155,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="167" priority="13">
+    <cfRule type="expression" dxfId="171" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="166" priority="12">
+    <cfRule type="expression" dxfId="170" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F14 B15:D15 F15 B16:F25">
-    <cfRule type="expression" dxfId="165" priority="1">
+    <cfRule type="expression" dxfId="169" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="164" priority="11">
+    <cfRule type="expression" dxfId="168" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5552,22 +5587,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="163" priority="13">
+    <cfRule type="expression" dxfId="167" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="162" priority="12">
+    <cfRule type="expression" dxfId="166" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="161" priority="1">
+    <cfRule type="expression" dxfId="165" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="160" priority="11">
+    <cfRule type="expression" dxfId="164" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5984,22 +6019,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="159" priority="18">
+    <cfRule type="expression" dxfId="163" priority="18">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="158" priority="17">
+    <cfRule type="expression" dxfId="162" priority="17">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="157" priority="6">
+    <cfRule type="expression" dxfId="161" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="156" priority="1">
+    <cfRule type="expression" dxfId="160" priority="1">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6416,22 +6451,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="155" priority="13">
+    <cfRule type="expression" dxfId="159" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="154" priority="12">
+    <cfRule type="expression" dxfId="158" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F7 B8:D8 F8 B9:F25">
-    <cfRule type="expression" dxfId="153" priority="1">
+    <cfRule type="expression" dxfId="157" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="152" priority="11">
+    <cfRule type="expression" dxfId="156" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6848,22 +6883,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="151" priority="18">
+    <cfRule type="expression" dxfId="155" priority="18">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="150" priority="17">
+    <cfRule type="expression" dxfId="154" priority="17">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F14 B15:D15 F15 B16:F25">
-    <cfRule type="expression" dxfId="149" priority="6">
+    <cfRule type="expression" dxfId="153" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="148" priority="1">
+    <cfRule type="expression" dxfId="152" priority="1">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7280,22 +7315,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="147" priority="13">
+    <cfRule type="expression" dxfId="151" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="146" priority="12">
+    <cfRule type="expression" dxfId="150" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F14 B15:D15 F15 B16:F25">
-    <cfRule type="expression" dxfId="145" priority="1">
+    <cfRule type="expression" dxfId="149" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="144" priority="11">
+    <cfRule type="expression" dxfId="148" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7716,22 +7751,22 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="217" priority="14">
+    <cfRule type="expression" dxfId="222" priority="14">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="216" priority="6">
+    <cfRule type="expression" dxfId="221" priority="6">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="215" priority="15">
+    <cfRule type="expression" dxfId="220" priority="15">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="214" priority="1">
+    <cfRule type="expression" dxfId="219" priority="1">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8149,22 +8184,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="143" priority="18">
+    <cfRule type="expression" dxfId="147" priority="18">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="142" priority="17">
+    <cfRule type="expression" dxfId="146" priority="17">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F13 B14:D14 F14 B15:F25">
-    <cfRule type="expression" dxfId="141" priority="6">
+    <cfRule type="expression" dxfId="145" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="140" priority="1">
+    <cfRule type="expression" dxfId="144" priority="1">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8595,22 +8630,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="139" priority="13">
+    <cfRule type="expression" dxfId="143" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="138" priority="12">
+    <cfRule type="expression" dxfId="142" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F13 B14:D14 F14 B15:F25">
-    <cfRule type="expression" dxfId="137" priority="1">
+    <cfRule type="expression" dxfId="141" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="136" priority="11">
+    <cfRule type="expression" dxfId="140" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9057,37 +9092,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="135" priority="20">
+    <cfRule type="expression" dxfId="139" priority="20">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="134" priority="19">
+    <cfRule type="expression" dxfId="138" priority="19">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="133" priority="18">
+    <cfRule type="expression" dxfId="137" priority="18">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="132" priority="6">
+    <cfRule type="expression" dxfId="136" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="131" priority="21">
+    <cfRule type="expression" dxfId="135" priority="21">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="130" priority="14">
+    <cfRule type="expression" dxfId="134" priority="14">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F14 B4:B25 E15 E16:F25">
-    <cfRule type="expression" dxfId="129" priority="15">
+    <cfRule type="expression" dxfId="133" priority="15">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9508,37 +9543,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="128" priority="17">
+    <cfRule type="expression" dxfId="132" priority="17">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="127" priority="16">
+    <cfRule type="expression" dxfId="131" priority="16">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="126" priority="15">
+    <cfRule type="expression" dxfId="130" priority="15">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="125" priority="7">
+    <cfRule type="expression" dxfId="129" priority="7">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="124" priority="18">
+    <cfRule type="expression" dxfId="128" priority="18">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="123" priority="11">
+    <cfRule type="expression" dxfId="127" priority="11">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F14 B4:B25 E9:E20 F16:F25">
-    <cfRule type="expression" dxfId="122" priority="12">
+    <cfRule type="expression" dxfId="126" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9985,37 +10020,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="121" priority="18">
+    <cfRule type="expression" dxfId="125" priority="18">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="120" priority="17">
+    <cfRule type="expression" dxfId="124" priority="17">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="119" priority="16">
+    <cfRule type="expression" dxfId="123" priority="16">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="118" priority="9">
+    <cfRule type="expression" dxfId="122" priority="9">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="117" priority="19">
+    <cfRule type="expression" dxfId="121" priority="19">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="116" priority="12">
+    <cfRule type="expression" dxfId="120" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F13 B4:B25 E14 E15:F25">
-    <cfRule type="expression" dxfId="115" priority="13">
+    <cfRule type="expression" dxfId="119" priority="13">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10436,37 +10471,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="114" priority="11">
+    <cfRule type="expression" dxfId="118" priority="11">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="113" priority="10">
+    <cfRule type="expression" dxfId="117" priority="10">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="112" priority="9">
+    <cfRule type="expression" dxfId="116" priority="9">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="111" priority="2">
+    <cfRule type="expression" dxfId="115" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="110" priority="12">
+    <cfRule type="expression" dxfId="114" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="109" priority="5">
+    <cfRule type="expression" dxfId="113" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F14 B4:B25 E9:E20 F16:F25">
-    <cfRule type="expression" dxfId="108" priority="6">
+    <cfRule type="expression" dxfId="112" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10911,37 +10946,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="107" priority="18">
+    <cfRule type="expression" dxfId="111" priority="18">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="106" priority="17">
+    <cfRule type="expression" dxfId="110" priority="17">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="105" priority="16">
+    <cfRule type="expression" dxfId="109" priority="16">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="104" priority="9">
+    <cfRule type="expression" dxfId="108" priority="9">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="103" priority="19">
+    <cfRule type="expression" dxfId="107" priority="19">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="102" priority="12">
+    <cfRule type="expression" dxfId="106" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F14 B4:B25 E15 E16:F25">
-    <cfRule type="expression" dxfId="101" priority="13">
+    <cfRule type="expression" dxfId="105" priority="13">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11362,37 +11397,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="100" priority="11">
+    <cfRule type="expression" dxfId="104" priority="11">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="99" priority="10">
+    <cfRule type="expression" dxfId="103" priority="10">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="98" priority="9">
+    <cfRule type="expression" dxfId="102" priority="9">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="97" priority="2">
+    <cfRule type="expression" dxfId="101" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="96" priority="12">
+    <cfRule type="expression" dxfId="100" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="95" priority="5">
+    <cfRule type="expression" dxfId="99" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F13 B4:B25 E9:E20 F15:F25">
-    <cfRule type="expression" dxfId="94" priority="6">
+    <cfRule type="expression" dxfId="98" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11837,37 +11872,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="93" priority="16">
+    <cfRule type="expression" dxfId="97" priority="16">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="92" priority="15">
+    <cfRule type="expression" dxfId="96" priority="15">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="91" priority="14">
+    <cfRule type="expression" dxfId="95" priority="14">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="90" priority="8">
+    <cfRule type="expression" dxfId="94" priority="8">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="89" priority="17">
+    <cfRule type="expression" dxfId="93" priority="17">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="88" priority="10">
+    <cfRule type="expression" dxfId="92" priority="10">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F13 B4:B25 E14 E15:F25">
-    <cfRule type="expression" dxfId="87" priority="11">
+    <cfRule type="expression" dxfId="91" priority="11">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12292,32 +12327,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="86" priority="11">
+    <cfRule type="expression" dxfId="90" priority="11">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="85" priority="10">
+    <cfRule type="expression" dxfId="89" priority="10">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="84" priority="6">
+    <cfRule type="expression" dxfId="88" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="83" priority="9">
+    <cfRule type="expression" dxfId="87" priority="9">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="82" priority="2">
+    <cfRule type="expression" dxfId="86" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="81" priority="5">
+    <cfRule type="expression" dxfId="85" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12329,8 +12364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E8F0BC9-EDE6-4632-8A0A-D46DEAFA1848}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12702,7 +12737,9 @@
     </row>
     <row r="32" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
-      <c r="B32" s="19"/>
+      <c r="B32" s="19" t="s">
+        <v>94</v>
+      </c>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
@@ -12710,7 +12747,9 @@
     </row>
     <row r="33" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
-      <c r="B33" s="19"/>
+      <c r="B33" s="19" t="s">
+        <v>89</v>
+      </c>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
@@ -12718,7 +12757,9 @@
     </row>
     <row r="34" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
-      <c r="B34" s="19"/>
+      <c r="B34" s="19" t="s">
+        <v>90</v>
+      </c>
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
       <c r="E34" s="19"/>
@@ -12726,7 +12767,9 @@
     </row>
     <row r="35" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
-      <c r="B35" s="19"/>
+      <c r="B35" s="19" t="s">
+        <v>93</v>
+      </c>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
@@ -12742,28 +12785,33 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="213" priority="8">
+    <cfRule type="expression" dxfId="218" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="212" priority="7">
+    <cfRule type="expression" dxfId="217" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F12 B4:B13 D13:F13 B14:F15 C16:F25">
-    <cfRule type="expression" dxfId="211" priority="5">
+    <cfRule type="expression" dxfId="216" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="210" priority="1">
+  <conditionalFormatting sqref="B28:F31 B36:F36 C32:F35">
+    <cfRule type="expression" dxfId="215" priority="2">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="209" priority="2">
+    <cfRule type="expression" dxfId="214" priority="3">
       <formula>NOT(ISBLANK(C13))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32:B35">
+    <cfRule type="expression" dxfId="213" priority="1">
+      <formula>NOT(ISBLANK(B32))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13192,32 +13240,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="80" priority="11">
+    <cfRule type="expression" dxfId="84" priority="11">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="79" priority="10">
+    <cfRule type="expression" dxfId="83" priority="10">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="78" priority="6">
+    <cfRule type="expression" dxfId="82" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="77" priority="9">
+    <cfRule type="expression" dxfId="81" priority="9">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="76" priority="2">
+    <cfRule type="expression" dxfId="80" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="75" priority="5">
+    <cfRule type="expression" dxfId="79" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13646,32 +13694,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="74" priority="16">
+    <cfRule type="expression" dxfId="78" priority="16">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="73" priority="15">
+    <cfRule type="expression" dxfId="77" priority="15">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="72" priority="11">
+    <cfRule type="expression" dxfId="76" priority="11">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="71" priority="1">
+    <cfRule type="expression" dxfId="75" priority="1">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="70" priority="7">
+    <cfRule type="expression" dxfId="74" priority="7">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="69" priority="10">
+    <cfRule type="expression" dxfId="73" priority="10">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14096,27 +14144,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="68" priority="18">
+    <cfRule type="expression" dxfId="72" priority="18">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="67" priority="17">
+    <cfRule type="expression" dxfId="71" priority="17">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F13 B14:E14 B15:F25">
-    <cfRule type="expression" dxfId="66" priority="1">
+    <cfRule type="expression" dxfId="70" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="65" priority="16">
+    <cfRule type="expression" dxfId="69" priority="16">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="64" priority="12">
+    <cfRule type="expression" dxfId="68" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14525,42 +14573,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:D25">
-    <cfRule type="expression" dxfId="63" priority="7">
+    <cfRule type="expression" dxfId="67" priority="7">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="62" priority="23">
+    <cfRule type="expression" dxfId="66" priority="23">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="61" priority="22">
+    <cfRule type="expression" dxfId="65" priority="22">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="60" priority="21">
+    <cfRule type="expression" dxfId="64" priority="21">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="59" priority="15">
+    <cfRule type="expression" dxfId="63" priority="15">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="58" priority="17">
+    <cfRule type="expression" dxfId="62" priority="17">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E26">
-    <cfRule type="expression" dxfId="57" priority="1">
+    <cfRule type="expression" dxfId="61" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F25">
-    <cfRule type="expression" dxfId="56" priority="19">
+    <cfRule type="expression" dxfId="60" priority="19">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15005,32 +15053,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="55" priority="25">
+    <cfRule type="expression" dxfId="59" priority="25">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="54" priority="24">
+    <cfRule type="expression" dxfId="58" priority="24">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="53" priority="23">
+    <cfRule type="expression" dxfId="57" priority="23">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="52" priority="18">
+    <cfRule type="expression" dxfId="56" priority="18">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="51" priority="20">
+    <cfRule type="expression" dxfId="55" priority="20">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F14 B4:D25 E4:E26 F16:F25">
-    <cfRule type="expression" dxfId="50" priority="17">
+    <cfRule type="expression" dxfId="54" priority="17">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15451,37 +15499,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="49" priority="27">
+    <cfRule type="expression" dxfId="53" priority="27">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="48" priority="26">
+    <cfRule type="expression" dxfId="52" priority="26">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="47" priority="25">
+    <cfRule type="expression" dxfId="51" priority="25">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="46" priority="20">
+    <cfRule type="expression" dxfId="50" priority="20">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="45" priority="22">
+    <cfRule type="expression" dxfId="49" priority="22">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="44" priority="13">
+    <cfRule type="expression" dxfId="48" priority="13">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F14 E4:E20 B4:D25 F16:F25">
-    <cfRule type="expression" dxfId="43" priority="19">
+    <cfRule type="expression" dxfId="47" priority="19">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15904,37 +15952,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="42" priority="9">
+    <cfRule type="expression" dxfId="46" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="41" priority="8">
+    <cfRule type="expression" dxfId="45" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="40" priority="7">
+    <cfRule type="expression" dxfId="44" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="39" priority="5">
+    <cfRule type="expression" dxfId="43" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="38" priority="6">
+    <cfRule type="expression" dxfId="42" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="37" priority="3">
+    <cfRule type="expression" dxfId="41" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F13 E4:E20 B4:D25 F15:F25">
-    <cfRule type="expression" dxfId="36" priority="4">
+    <cfRule type="expression" dxfId="40" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16359,37 +16407,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="35" priority="9">
+    <cfRule type="expression" dxfId="39" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="34" priority="8">
+    <cfRule type="expression" dxfId="38" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="33" priority="7">
+    <cfRule type="expression" dxfId="37" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="32" priority="5">
+    <cfRule type="expression" dxfId="36" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="31" priority="6">
+    <cfRule type="expression" dxfId="35" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="30" priority="3">
+    <cfRule type="expression" dxfId="34" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F14 E4:E20 B4:D25 F16:F25">
-    <cfRule type="expression" dxfId="29" priority="4">
+    <cfRule type="expression" dxfId="33" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16810,37 +16858,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="28" priority="9">
+    <cfRule type="expression" dxfId="32" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="27" priority="8">
+    <cfRule type="expression" dxfId="31" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="26" priority="7">
+    <cfRule type="expression" dxfId="30" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="25" priority="5">
+    <cfRule type="expression" dxfId="29" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="24" priority="6">
+    <cfRule type="expression" dxfId="28" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="23" priority="3">
+    <cfRule type="expression" dxfId="27" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F14 E4:E20 B4:D25 F16:F25">
-    <cfRule type="expression" dxfId="22" priority="4">
+    <cfRule type="expression" dxfId="26" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17271,37 +17319,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="21" priority="9">
+    <cfRule type="expression" dxfId="25" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="20" priority="8">
+    <cfRule type="expression" dxfId="24" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="19" priority="7">
+    <cfRule type="expression" dxfId="23" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="18" priority="5">
+    <cfRule type="expression" dxfId="22" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="17" priority="6">
+    <cfRule type="expression" dxfId="21" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="16" priority="3">
+    <cfRule type="expression" dxfId="20" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F14 E4:E20 B4:D25 F16:F25">
-    <cfRule type="expression" dxfId="15" priority="4">
+    <cfRule type="expression" dxfId="19" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17313,8 +17361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141CA38B-DB7C-48AD-8513-9BED1D5E19BB}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:B34"/>
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17629,7 +17677,7 @@
     </row>
     <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="22" t="s">
         <v>117</v>
       </c>
       <c r="C28" s="16"/>
@@ -17661,9 +17709,7 @@
     </row>
     <row r="31" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
-      <c r="B31" s="19" t="s">
-        <v>94</v>
-      </c>
+      <c r="B31" s="17"/>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
       <c r="E31" s="17"/>
@@ -17671,9 +17717,7 @@
     </row>
     <row r="32" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
-      <c r="B32" s="19" t="s">
-        <v>89</v>
-      </c>
+      <c r="B32" s="17"/>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
       <c r="E32" s="17"/>
@@ -17681,9 +17725,7 @@
     </row>
     <row r="33" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
-      <c r="B33" s="19" t="s">
-        <v>90</v>
-      </c>
+      <c r="B33" s="17"/>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
       <c r="E33" s="17"/>
@@ -17691,9 +17733,7 @@
     </row>
     <row r="34" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
-      <c r="B34" s="19" t="s">
-        <v>93</v>
-      </c>
+      <c r="B34" s="17"/>
       <c r="C34" s="17"/>
       <c r="D34" s="17"/>
       <c r="E34" s="17"/>
@@ -17717,23 +17757,43 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="208" priority="5">
+    <cfRule type="expression" dxfId="212" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="207" priority="4">
+    <cfRule type="expression" dxfId="211" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="206" priority="2">
+    <cfRule type="expression" dxfId="210" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="205" priority="1">
+  <conditionalFormatting sqref="B28:F30 B35:F36 C31:F34">
+    <cfRule type="expression" dxfId="209" priority="5">
       <formula>NOT(ISBLANK(B28))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B31">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>NOT(ISBLANK(B31))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>NOT(ISBLANK(B32))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>NOT(ISBLANK(B33))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>NOT(ISBLANK(B34))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18163,37 +18223,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="14" priority="9">
+    <cfRule type="expression" dxfId="18" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="13" priority="8">
+    <cfRule type="expression" dxfId="17" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="12" priority="7">
+    <cfRule type="expression" dxfId="16" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="11" priority="5">
+    <cfRule type="expression" dxfId="15" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="10" priority="6">
+    <cfRule type="expression" dxfId="14" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="13" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F14 E4:E20 B4:D25 F16:F25">
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="12" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18620,42 +18680,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="7" priority="9">
+    <cfRule type="expression" dxfId="11" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="6" priority="8">
+    <cfRule type="expression" dxfId="10" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="9" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="8" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="7" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E13 B4:D25 E15:E20">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="6" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F25">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18668,7 +18728,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19091,22 +19151,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="204" priority="6">
+    <cfRule type="expression" dxfId="208" priority="6">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="203" priority="5">
+    <cfRule type="expression" dxfId="207" priority="5">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="202" priority="1">
+    <cfRule type="expression" dxfId="206" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="201" priority="2">
+    <cfRule type="expression" dxfId="205" priority="2">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19507,22 +19567,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="200" priority="6">
+    <cfRule type="expression" dxfId="204" priority="6">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="199" priority="5">
+    <cfRule type="expression" dxfId="203" priority="5">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="198" priority="1">
+    <cfRule type="expression" dxfId="202" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="197" priority="4">
+    <cfRule type="expression" dxfId="201" priority="4">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19904,22 +19964,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="196" priority="5">
+    <cfRule type="expression" dxfId="200" priority="5">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="195" priority="4">
+    <cfRule type="expression" dxfId="199" priority="4">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="194" priority="1">
+    <cfRule type="expression" dxfId="198" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="193" priority="3">
+    <cfRule type="expression" dxfId="197" priority="3">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20288,22 +20348,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="192" priority="4">
+    <cfRule type="expression" dxfId="196" priority="4">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="191" priority="3">
+    <cfRule type="expression" dxfId="195" priority="3">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="190" priority="1">
+    <cfRule type="expression" dxfId="194" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="189" priority="2">
+    <cfRule type="expression" dxfId="193" priority="2">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20708,22 +20768,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="188" priority="8">
+    <cfRule type="expression" dxfId="192" priority="8">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="187" priority="7">
+    <cfRule type="expression" dxfId="191" priority="7">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="186" priority="1">
+    <cfRule type="expression" dxfId="190" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="185" priority="6">
+    <cfRule type="expression" dxfId="189" priority="6">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/uurrooster.xlsx
+++ b/uurrooster.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LUCA-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD17E9AA-E3CA-423C-B977-E926783B3348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54198ED-703C-4C67-9BAB-BBDF0D9F9D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1453" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="120">
   <si>
     <t>Week</t>
   </si>
@@ -147,9 +147,6 @@
     <t>CM: Beeld &amp; tekst</t>
   </si>
   <si>
-    <t>Inschrijven CM: webdesign (10:45)</t>
-  </si>
-  <si>
     <t>CM: Webdesign</t>
   </si>
   <si>
@@ -184,9 +181,6 @@
   </si>
   <si>
     <t>Culturele thema's</t>
-  </si>
-  <si>
-    <t>Uurrooster ontbreekt op toledo, vakantie?</t>
   </si>
   <si>
     <t>Start van de lessen</t>
@@ -282,28 +276,13 @@
     <t>Intro</t>
   </si>
   <si>
-    <t>Groep A &amp; B: Sessie discover</t>
-  </si>
-  <si>
     <t>Groep C &amp; D: Sessie discover</t>
-  </si>
-  <si>
-    <t>ABCD: Magneetweek</t>
-  </si>
-  <si>
-    <t>A&amp;B: Sessie define</t>
   </si>
   <si>
     <t>C&amp;D: Sessie define</t>
   </si>
   <si>
-    <t>A&amp;B: Sessie deliver</t>
-  </si>
-  <si>
     <t>Sessie deliver</t>
-  </si>
-  <si>
-    <t>A&amp;B: Deadline: concept pitch</t>
   </si>
   <si>
     <t>C&amp;D: Deadline: concept pitch</t>
@@ -315,28 +294,16 @@
     <t>C&amp;D: Sessie deliver</t>
   </si>
   <si>
-    <t>A&amp;B</t>
-  </si>
-  <si>
     <t>C&amp;D</t>
   </si>
   <si>
     <t>C&amp;D: Soft opleverdatum</t>
   </si>
   <si>
-    <t>Maar wel design thinking</t>
-  </si>
-  <si>
-    <t>A&amp;B: Softopleverdatum</t>
-  </si>
-  <si>
     <t>C&amp;D: opleverdatum</t>
   </si>
   <si>
     <t>A&amp;B: Opleverdatum</t>
-  </si>
-  <si>
-    <t>Nog niks voor design thinking uurrooster, ook updaten</t>
   </si>
   <si>
     <t>ABCD: Meeting project owner</t>
@@ -355,9 +322,6 @@
   </si>
   <si>
     <t>Startup folder op laptop updaten</t>
-  </si>
-  <si>
-    <t>Design thinking is in ter beken? Updaten op uurrooster</t>
   </si>
   <si>
     <t>Design thinking planning maken</t>
@@ -397,9 +361,6 @@
   </si>
   <si>
     <t>algemene info studio digital deadlines opschrijven in google doc</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
   <si>
     <t>Data</t>
@@ -445,9 +406,6 @@
     <t>Groepen zouden moeten verdeeld zijn ABCD</t>
   </si>
   <si>
-    <t>Eerste les tekenen (A voormiddag, B namiddag)</t>
-  </si>
-  <si>
     <t>20tal vellen tekenpapier nodig hebben - min A4 - en potlood, stift en pen, indien mogelijk verschillende diktes van elk…</t>
   </si>
   <si>
@@ -460,13 +418,37 @@
     <t>Kip animatie feedback (tussen 14-18u)</t>
   </si>
   <si>
-    <t>mail sturen naar marketing voor GB</t>
-  </si>
-  <si>
     <t>Geen school</t>
   </si>
   <si>
     <t>Kip animatie maken</t>
+  </si>
+  <si>
+    <t>Is webdesign hybride/online? Anders uitschrijven</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Design thinking waarschijnlijk in voormiddag</t>
+  </si>
+  <si>
+    <t>Uurrooster ontbreekt op toledo?</t>
+  </si>
+  <si>
+    <t>Feedback verdieping</t>
+  </si>
+  <si>
+    <t>Nog niks voor design thinking uurrooster + tekenen, ook updaten</t>
+  </si>
+  <si>
+    <t>Eerste les</t>
+  </si>
+  <si>
+    <t>Design thinking niet duidelijk voormiddag of namiddag?</t>
+  </si>
+  <si>
+    <t>Inschrijven CM: webdesign (16:00)</t>
   </si>
 </sst>
 </file>
@@ -688,35 +670,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="223">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="228">
     <dxf>
       <font>
         <color theme="1"/>
@@ -1368,6 +1322,16 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
@@ -1422,6 +1386,16 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
@@ -1476,6 +1450,16 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
@@ -1614,6 +1598,16 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
@@ -1870,6 +1864,16 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
@@ -1958,6 +1962,16 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
@@ -1992,6 +2006,16 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
@@ -2350,16 +2374,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
       </font>
@@ -2580,9 +2594,42 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
       <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2956,8 +3003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4C488EF-F955-47A9-AAA7-D1CD5EF9B327}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2968,10 +3015,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2984,18 +3031,18 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -3008,7 +3055,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B5" sqref="B5:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3082,11 +3129,8 @@
       <c r="A4" s="3">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="D4" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>12</v>
@@ -3099,24 +3143,26 @@
       <c r="A5" s="3">
         <v>0.375</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>7</v>
+      <c r="B5" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="D6" s="5"/>
       <c r="F6" s="5"/>
     </row>
@@ -3124,7 +3170,9 @@
       <c r="A7" s="3">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B7" s="7"/>
+      <c r="B7" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="D7" s="5"/>
       <c r="F7" s="5"/>
       <c r="H7" s="1" t="s">
@@ -3136,7 +3184,7 @@
       <c r="A8" s="3">
         <v>0.4375</v>
       </c>
-      <c r="B8" s="7"/>
+      <c r="B8" s="5"/>
       <c r="D8" s="5"/>
       <c r="F8" s="5"/>
       <c r="H8" s="1" t="s">
@@ -3150,12 +3198,12 @@
       <c r="A9" s="10">
         <v>0.44791666666666669</v>
       </c>
-      <c r="B9" s="7"/>
+      <c r="B9" s="5"/>
       <c r="D9" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -3163,7 +3211,7 @@
       <c r="A10" s="3">
         <v>0.45833333333333398</v>
       </c>
-      <c r="B10" s="7"/>
+      <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
         <v>16</v>
       </c>
@@ -3174,7 +3222,7 @@
       <c r="A11" s="3">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B11" s="7"/>
+      <c r="B11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="11"/>
       <c r="F11" s="5"/>
@@ -3183,7 +3231,7 @@
       <c r="A12" s="3">
         <v>0.5</v>
       </c>
-      <c r="B12" s="7"/>
+      <c r="B12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="11"/>
       <c r="F12" s="5"/>
@@ -3192,7 +3240,7 @@
       <c r="A13" s="3">
         <v>0.53125</v>
       </c>
-      <c r="B13" s="7"/>
+      <c r="B13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="11"/>
       <c r="F13" s="5"/>
@@ -3201,6 +3249,7 @@
       <c r="A14" s="3">
         <v>0.54166666666666696</v>
       </c>
+      <c r="B14" s="5"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -3211,9 +3260,6 @@
       <c r="A16" s="3">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
@@ -3231,9 +3277,6 @@
       <c r="A17" s="3">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="C17" s="5" t="s">
         <v>13</v>
       </c>
@@ -3248,9 +3291,6 @@
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>0.625</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>72</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
@@ -3261,7 +3301,6 @@
       <c r="A19" s="3">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="7"/>
       <c r="E19" s="11"/>
@@ -3271,7 +3310,6 @@
       <c r="A20" s="3">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="7"/>
       <c r="E20" s="11"/>
@@ -3281,7 +3319,6 @@
       <c r="A21" s="3">
         <v>0.6875</v>
       </c>
-      <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="F21" s="5"/>
     </row>
@@ -3289,7 +3326,6 @@
       <c r="A22" s="3">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="F22" s="5"/>
     </row>
@@ -3297,7 +3333,6 @@
       <c r="A23" s="3">
         <v>0.72916666666666696</v>
       </c>
-      <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="F23" s="5"/>
     </row>
@@ -3305,7 +3340,6 @@
       <c r="A24" s="3">
         <v>0.75</v>
       </c>
-      <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="F24" s="5"/>
     </row>
@@ -3313,7 +3347,6 @@
       <c r="A25" s="3">
         <v>0.76041666666666663</v>
       </c>
-      <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="F25" s="5"/>
     </row>
@@ -3404,27 +3437,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="188" priority="10">
+    <cfRule type="expression" dxfId="190" priority="10">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="187" priority="9">
+    <cfRule type="expression" dxfId="189" priority="9">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:F6 B7:D7 F7">
-    <cfRule type="expression" dxfId="186" priority="2">
+  <conditionalFormatting sqref="C4:F6 C7:D7 F7 B15:F15 C16:F25 C8:F14 B4:B14">
+    <cfRule type="expression" dxfId="188" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8:F25">
-    <cfRule type="expression" dxfId="185" priority="1">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="184" priority="8">
+    <cfRule type="expression" dxfId="187" priority="8">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3437,7 +3465,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B5" sqref="B5:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3511,14 +3539,11 @@
       <c r="A4" s="3">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="D4" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>12</v>
@@ -3531,27 +3556,29 @@
       <c r="A5" s="3">
         <v>0.375</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>7</v>
+      <c r="B5" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -3593,7 +3620,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -3639,8 +3666,9 @@
       <c r="A14" s="3">
         <v>0.54166666666666696</v>
       </c>
+      <c r="B14" s="7"/>
       <c r="E14" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -3648,16 +3676,13 @@
         <v>0.5625</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
@@ -3675,9 +3700,6 @@
       <c r="A17" s="3">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="C17" s="5" t="s">
         <v>13</v>
       </c>
@@ -3692,9 +3714,6 @@
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>0.625</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>73</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
@@ -3705,7 +3724,6 @@
       <c r="A19" s="3">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="7"/>
       <c r="E19" s="11"/>
@@ -3715,7 +3733,6 @@
       <c r="A20" s="3">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="7"/>
       <c r="E20" s="11"/>
@@ -3725,10 +3742,9 @@
       <c r="A21" s="3">
         <v>0.6875</v>
       </c>
-      <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="E21" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F21" s="5"/>
     </row>
@@ -3736,10 +3752,9 @@
       <c r="A22" s="3">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="E22" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F22" s="5"/>
     </row>
@@ -3747,7 +3762,6 @@
       <c r="A23" s="3">
         <v>0.72916666666666696</v>
       </c>
-      <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -3756,7 +3770,6 @@
       <c r="A24" s="3">
         <v>0.75</v>
       </c>
-      <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -3765,7 +3778,6 @@
       <c r="A25" s="3">
         <v>0.76041666666666663</v>
       </c>
-      <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -3857,22 +3869,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="183" priority="10">
+    <cfRule type="expression" dxfId="186" priority="10">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="182" priority="9">
+    <cfRule type="expression" dxfId="185" priority="9">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:F13 B14:E14 B15:F25">
-    <cfRule type="expression" dxfId="181" priority="1">
+  <conditionalFormatting sqref="B14:E14 B15:F25 C4:F13 B5:B14">
+    <cfRule type="expression" dxfId="184" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="180" priority="8">
+    <cfRule type="expression" dxfId="183" priority="8">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3885,7 +3897,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B5" sqref="B5:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3959,11 +3971,8 @@
       <c r="A4" s="3">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="D4" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>12</v>
@@ -3976,24 +3985,26 @@
       <c r="A5" s="3">
         <v>0.375</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>7</v>
+      <c r="B5" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="D6" s="5"/>
       <c r="F6" s="5"/>
     </row>
@@ -4001,7 +4012,9 @@
       <c r="A7" s="3">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B7" s="7"/>
+      <c r="B7" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="D7" s="5"/>
       <c r="F7" s="5"/>
       <c r="H7" s="1" t="s">
@@ -4013,7 +4026,7 @@
       <c r="A8" s="3">
         <v>0.4375</v>
       </c>
-      <c r="B8" s="7"/>
+      <c r="B8" s="5"/>
       <c r="D8" s="5"/>
       <c r="F8" s="5"/>
       <c r="H8" s="1" t="s">
@@ -4027,12 +4040,12 @@
       <c r="A9" s="10">
         <v>0.44791666666666669</v>
       </c>
-      <c r="B9" s="7"/>
+      <c r="B9" s="5"/>
       <c r="D9" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -4040,7 +4053,7 @@
       <c r="A10" s="3">
         <v>0.45833333333333398</v>
       </c>
-      <c r="B10" s="7"/>
+      <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
         <v>16</v>
       </c>
@@ -4051,7 +4064,7 @@
       <c r="A11" s="3">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B11" s="7"/>
+      <c r="B11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="11"/>
       <c r="F11" s="5"/>
@@ -4060,7 +4073,7 @@
       <c r="A12" s="3">
         <v>0.5</v>
       </c>
-      <c r="B12" s="7"/>
+      <c r="B12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="11"/>
       <c r="F12" s="5"/>
@@ -4069,7 +4082,7 @@
       <c r="A13" s="3">
         <v>0.53125</v>
       </c>
-      <c r="B13" s="7"/>
+      <c r="B13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="11"/>
       <c r="F13" s="5"/>
@@ -4078,6 +4091,7 @@
       <c r="A14" s="3">
         <v>0.54166666666666696</v>
       </c>
+      <c r="B14" s="5"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -4088,9 +4102,6 @@
       <c r="A16" s="3">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
@@ -4108,9 +4119,6 @@
       <c r="A17" s="3">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="C17" s="5" t="s">
         <v>13</v>
       </c>
@@ -4125,9 +4133,6 @@
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>0.625</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>74</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
@@ -4138,7 +4143,6 @@
       <c r="A19" s="3">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="7"/>
       <c r="E19" s="11"/>
@@ -4148,7 +4152,6 @@
       <c r="A20" s="3">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="7"/>
       <c r="E20" s="11"/>
@@ -4158,7 +4161,6 @@
       <c r="A21" s="3">
         <v>0.6875</v>
       </c>
-      <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="F21" s="5"/>
     </row>
@@ -4166,7 +4168,6 @@
       <c r="A22" s="3">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="F22" s="5"/>
     </row>
@@ -4174,7 +4175,6 @@
       <c r="A23" s="3">
         <v>0.72916666666666696</v>
       </c>
-      <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="F23" s="5"/>
     </row>
@@ -4182,7 +4182,6 @@
       <c r="A24" s="3">
         <v>0.75</v>
       </c>
-      <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="F24" s="5"/>
     </row>
@@ -4190,7 +4189,6 @@
       <c r="A25" s="3">
         <v>0.76041666666666663</v>
       </c>
-      <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="F25" s="5"/>
     </row>
@@ -4281,22 +4279,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="179" priority="15">
+    <cfRule type="expression" dxfId="182" priority="15">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="178" priority="14">
+    <cfRule type="expression" dxfId="181" priority="14">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:F14 B15:E15 B16:F25">
-    <cfRule type="expression" dxfId="177" priority="1">
+  <conditionalFormatting sqref="B15:E15 C16:F25 B4:F14">
+    <cfRule type="expression" dxfId="180" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="176" priority="13">
+    <cfRule type="expression" dxfId="179" priority="13">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4308,8 +4306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D165ECF-F851-45C4-9910-4A8BC8B13718}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4383,14 +4381,11 @@
       <c r="A4" s="3">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="D4" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>12</v>
@@ -4403,27 +4398,29 @@
       <c r="A5" s="3">
         <v>0.375</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>7</v>
+      <c r="B5" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -4465,7 +4462,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -4511,8 +4508,9 @@
       <c r="A14" s="3">
         <v>0.54166666666666696</v>
       </c>
+      <c r="B14" s="7"/>
       <c r="E14" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -4520,16 +4518,13 @@
         <v>0.5625</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
@@ -4547,9 +4542,6 @@
       <c r="A17" s="3">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="C17" s="5" t="s">
         <v>13</v>
       </c>
@@ -4561,12 +4553,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>0.625</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>75</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
@@ -4577,7 +4566,6 @@
       <c r="A19" s="3">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="7"/>
       <c r="E19" s="11"/>
@@ -4587,7 +4575,6 @@
       <c r="A20" s="3">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="7"/>
       <c r="E20" s="11"/>
@@ -4597,10 +4584,9 @@
       <c r="A21" s="3">
         <v>0.6875</v>
       </c>
-      <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="E21" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F21" s="5"/>
     </row>
@@ -4608,10 +4594,9 @@
       <c r="A22" s="3">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="E22" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F22" s="5"/>
     </row>
@@ -4619,7 +4604,6 @@
       <c r="A23" s="3">
         <v>0.72916666666666696</v>
       </c>
-      <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -4628,7 +4612,6 @@
       <c r="A24" s="3">
         <v>0.75</v>
       </c>
-      <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -4637,7 +4620,6 @@
       <c r="A25" s="3">
         <v>0.76041666666666663</v>
       </c>
-      <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -4729,22 +4711,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="175" priority="16">
+    <cfRule type="expression" dxfId="178" priority="16">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="174" priority="15">
+    <cfRule type="expression" dxfId="177" priority="15">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:F14 B15:E15 B16:F25">
-    <cfRule type="expression" dxfId="173" priority="1">
+  <conditionalFormatting sqref="B15:E15 B16:F25 C4:F14 B5:B14">
+    <cfRule type="expression" dxfId="176" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="172" priority="14">
+    <cfRule type="expression" dxfId="175" priority="14">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4757,7 +4739,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B5" sqref="B5:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4831,11 +4813,8 @@
       <c r="A4" s="3">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="D4" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>12</v>
@@ -4848,32 +4827,36 @@
       <c r="A5" s="3">
         <v>0.375</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>7</v>
+      <c r="B5" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="D6" s="5"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B7" s="7"/>
+      <c r="B7" s="21" t="s">
+        <v>69</v>
+      </c>
       <c r="D7" s="5"/>
       <c r="F7" s="5"/>
       <c r="H7" s="1" t="s">
@@ -4885,7 +4868,7 @@
       <c r="A8" s="3">
         <v>0.4375</v>
       </c>
-      <c r="B8" s="7"/>
+      <c r="B8" s="5"/>
       <c r="D8" s="5"/>
       <c r="F8" s="5"/>
       <c r="H8" s="1" t="s">
@@ -4899,12 +4882,12 @@
       <c r="A9" s="10">
         <v>0.44791666666666669</v>
       </c>
-      <c r="B9" s="7"/>
+      <c r="B9" s="5"/>
       <c r="D9" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -4912,7 +4895,7 @@
       <c r="A10" s="3">
         <v>0.45833333333333398</v>
       </c>
-      <c r="B10" s="7"/>
+      <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
         <v>16</v>
       </c>
@@ -4923,7 +4906,7 @@
       <c r="A11" s="3">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B11" s="7"/>
+      <c r="B11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="11"/>
       <c r="F11" s="5"/>
@@ -4932,7 +4915,7 @@
       <c r="A12" s="3">
         <v>0.5</v>
       </c>
-      <c r="B12" s="7"/>
+      <c r="B12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="11"/>
       <c r="F12" s="5"/>
@@ -4941,7 +4924,7 @@
       <c r="A13" s="3">
         <v>0.53125</v>
       </c>
-      <c r="B13" s="7"/>
+      <c r="B13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="11"/>
       <c r="F13" s="5"/>
@@ -4950,6 +4933,7 @@
       <c r="A14" s="3">
         <v>0.54166666666666696</v>
       </c>
+      <c r="B14" s="5"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -4960,9 +4944,6 @@
       <c r="A16" s="3">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
@@ -4980,9 +4961,6 @@
       <c r="A17" s="3">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="C17" s="5" t="s">
         <v>13</v>
       </c>
@@ -4994,12 +4972,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>0.625</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>76</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
@@ -5010,7 +4985,6 @@
       <c r="A19" s="3">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="7"/>
       <c r="E19" s="11"/>
@@ -5020,7 +4994,6 @@
       <c r="A20" s="3">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="7"/>
       <c r="E20" s="11"/>
@@ -5030,7 +5003,6 @@
       <c r="A21" s="3">
         <v>0.6875</v>
       </c>
-      <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="F21" s="5"/>
     </row>
@@ -5038,7 +5010,6 @@
       <c r="A22" s="3">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="F22" s="5"/>
     </row>
@@ -5046,7 +5017,6 @@
       <c r="A23" s="3">
         <v>0.72916666666666696</v>
       </c>
-      <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="F23" s="5"/>
     </row>
@@ -5054,7 +5024,6 @@
       <c r="A24" s="3">
         <v>0.75</v>
       </c>
-      <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="F24" s="5"/>
     </row>
@@ -5062,7 +5031,6 @@
       <c r="A25" s="3">
         <v>0.76041666666666663</v>
       </c>
-      <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="F25" s="5"/>
     </row>
@@ -5085,7 +5053,7 @@
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
       <c r="E28" s="16" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="F28" s="16"/>
     </row>
@@ -5155,22 +5123,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="171" priority="13">
+    <cfRule type="expression" dxfId="174" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="170" priority="12">
+    <cfRule type="expression" dxfId="173" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:F14 B15:D15 F15 B16:F25">
-    <cfRule type="expression" dxfId="169" priority="1">
+  <conditionalFormatting sqref="B15:D15 F15 C16:F25 B4:F14">
+    <cfRule type="expression" dxfId="172" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="168" priority="11">
+    <cfRule type="expression" dxfId="171" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5182,8 +5150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A193F292-483B-4A18-8887-22318DA7062B}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5257,11 +5225,8 @@
       <c r="A4" s="3">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="D4" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>12</v>
@@ -5274,24 +5239,26 @@
       <c r="A5" s="3">
         <v>0.375</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>7</v>
+      <c r="B5" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="D6" s="5"/>
       <c r="F6" s="5"/>
     </row>
@@ -5318,7 +5285,7 @@
         <v>19</v>
       </c>
       <c r="I8" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -5506,19 +5473,19 @@
     <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -5587,22 +5554,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="167" priority="13">
+    <cfRule type="expression" dxfId="170" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="166" priority="12">
+    <cfRule type="expression" dxfId="169" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="165" priority="1">
+    <cfRule type="expression" dxfId="168" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="164" priority="11">
+    <cfRule type="expression" dxfId="167" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5615,7 +5582,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5689,11 +5656,8 @@
       <c r="A4" s="3">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="D4" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>12</v>
@@ -5706,24 +5670,26 @@
       <c r="A5" s="3">
         <v>0.375</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>7</v>
+      <c r="B5" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="D6" s="5"/>
       <c r="F6" s="5"/>
     </row>
@@ -5828,7 +5794,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -5938,19 +5904,19 @@
     <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -6019,22 +5985,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="163" priority="18">
+    <cfRule type="expression" dxfId="166" priority="18">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="162" priority="17">
+    <cfRule type="expression" dxfId="165" priority="17">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="161" priority="6">
+    <cfRule type="expression" dxfId="164" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="160" priority="1">
+    <cfRule type="expression" dxfId="163" priority="1">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6047,7 +6013,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B4" sqref="B4:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6121,11 +6087,8 @@
       <c r="A4" s="3">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="D4" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>12</v>
@@ -6138,24 +6101,20 @@
       <c r="A5" s="3">
         <v>0.375</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>7</v>
-      </c>
       <c r="D5" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B6" s="7"/>
       <c r="D6" s="5"/>
       <c r="F6" s="5"/>
     </row>
@@ -6163,7 +6122,6 @@
       <c r="A7" s="3">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B7" s="7"/>
       <c r="D7" s="5"/>
       <c r="F7" s="5"/>
       <c r="H7" s="1" t="s">
@@ -6175,7 +6133,6 @@
       <c r="A8" s="3">
         <v>0.4375</v>
       </c>
-      <c r="B8" s="7"/>
       <c r="D8" s="5"/>
       <c r="F8" s="5"/>
       <c r="H8" s="1" t="s">
@@ -6189,7 +6146,6 @@
       <c r="A9" s="10">
         <v>0.44791666666666669</v>
       </c>
-      <c r="B9" s="7"/>
       <c r="D9" s="6" t="s">
         <v>14</v>
       </c>
@@ -6202,7 +6158,6 @@
       <c r="A10" s="3">
         <v>0.45833333333333398</v>
       </c>
-      <c r="B10" s="7"/>
       <c r="D10" s="5" t="s">
         <v>16</v>
       </c>
@@ -6213,7 +6168,6 @@
       <c r="A11" s="3">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B11" s="7"/>
       <c r="D11" s="5"/>
       <c r="E11" s="11"/>
       <c r="F11" s="5"/>
@@ -6222,7 +6176,6 @@
       <c r="A12" s="3">
         <v>0.5</v>
       </c>
-      <c r="B12" s="7"/>
       <c r="D12" s="5"/>
       <c r="E12" s="11"/>
       <c r="F12" s="5"/>
@@ -6231,7 +6184,6 @@
       <c r="A13" s="3">
         <v>0.53125</v>
       </c>
-      <c r="B13" s="7"/>
       <c r="D13" s="5"/>
       <c r="E13" s="11"/>
       <c r="F13" s="5"/>
@@ -6250,9 +6202,6 @@
       <c r="A16" s="3">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
@@ -6260,7 +6209,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -6270,9 +6219,6 @@
       <c r="A17" s="3">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="C17" s="5" t="s">
         <v>13</v>
       </c>
@@ -6288,7 +6234,6 @@
       <c r="A18" s="3">
         <v>0.625</v>
       </c>
-      <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
       <c r="E18" s="11"/>
@@ -6298,7 +6243,6 @@
       <c r="A19" s="3">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="7"/>
       <c r="E19" s="11"/>
@@ -6308,7 +6252,6 @@
       <c r="A20" s="3">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="7"/>
       <c r="E20" s="11"/>
@@ -6318,7 +6261,6 @@
       <c r="A21" s="3">
         <v>0.6875</v>
       </c>
-      <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="F21" s="5"/>
     </row>
@@ -6326,7 +6268,6 @@
       <c r="A22" s="3">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="F22" s="5"/>
     </row>
@@ -6334,7 +6275,6 @@
       <c r="A23" s="3">
         <v>0.72916666666666696</v>
       </c>
-      <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="F23" s="5"/>
     </row>
@@ -6342,7 +6282,6 @@
       <c r="A24" s="3">
         <v>0.75</v>
       </c>
-      <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="F24" s="5"/>
     </row>
@@ -6350,7 +6289,6 @@
       <c r="A25" s="3">
         <v>0.76041666666666663</v>
       </c>
-      <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="F25" s="5"/>
     </row>
@@ -6370,19 +6308,19 @@
     <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="19" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -6451,22 +6389,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="159" priority="13">
+    <cfRule type="expression" dxfId="162" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="158" priority="12">
+    <cfRule type="expression" dxfId="161" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:F7 B8:D8 F8 B9:F25">
-    <cfRule type="expression" dxfId="157" priority="1">
+  <conditionalFormatting sqref="C4:F7 C8:D8 F8 B14:F25 C9:F13 B4:B13">
+    <cfRule type="expression" dxfId="160" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="156" priority="11">
+    <cfRule type="expression" dxfId="159" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6479,7 +6417,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B4" sqref="B4:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6553,11 +6491,8 @@
       <c r="A4" s="3">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="D4" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>12</v>
@@ -6570,24 +6505,20 @@
       <c r="A5" s="3">
         <v>0.375</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>7</v>
-      </c>
       <c r="D5" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B6" s="7"/>
       <c r="D6" s="5"/>
       <c r="F6" s="5"/>
     </row>
@@ -6595,7 +6526,6 @@
       <c r="A7" s="3">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B7" s="7"/>
       <c r="D7" s="5"/>
       <c r="F7" s="5"/>
       <c r="H7" s="1" t="s">
@@ -6607,7 +6537,6 @@
       <c r="A8" s="3">
         <v>0.4375</v>
       </c>
-      <c r="B8" s="7"/>
       <c r="D8" s="5"/>
       <c r="F8" s="5"/>
       <c r="H8" s="1" t="s">
@@ -6621,7 +6550,6 @@
       <c r="A9" s="10">
         <v>0.44791666666666669</v>
       </c>
-      <c r="B9" s="7"/>
       <c r="D9" s="6" t="s">
         <v>14</v>
       </c>
@@ -6634,7 +6562,6 @@
       <c r="A10" s="3">
         <v>0.45833333333333398</v>
       </c>
-      <c r="B10" s="7"/>
       <c r="D10" s="5" t="s">
         <v>16</v>
       </c>
@@ -6645,7 +6572,6 @@
       <c r="A11" s="3">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B11" s="7"/>
       <c r="D11" s="5"/>
       <c r="E11" s="11"/>
       <c r="F11" s="5"/>
@@ -6654,7 +6580,6 @@
       <c r="A12" s="3">
         <v>0.5</v>
       </c>
-      <c r="B12" s="7"/>
       <c r="D12" s="5"/>
       <c r="E12" s="11"/>
       <c r="F12" s="5"/>
@@ -6663,7 +6588,6 @@
       <c r="A13" s="3">
         <v>0.53125</v>
       </c>
-      <c r="B13" s="7"/>
       <c r="D13" s="5"/>
       <c r="E13" s="11"/>
       <c r="F13" s="5"/>
@@ -6682,9 +6606,6 @@
       <c r="A16" s="3">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
@@ -6692,7 +6613,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -6702,9 +6623,6 @@
       <c r="A17" s="3">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="C17" s="5" t="s">
         <v>13</v>
       </c>
@@ -6720,7 +6638,6 @@
       <c r="A18" s="3">
         <v>0.625</v>
       </c>
-      <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
       <c r="E18" s="11"/>
@@ -6730,7 +6647,6 @@
       <c r="A19" s="3">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="7"/>
       <c r="E19" s="11"/>
@@ -6740,7 +6656,6 @@
       <c r="A20" s="3">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="7"/>
       <c r="E20" s="11"/>
@@ -6750,7 +6665,6 @@
       <c r="A21" s="3">
         <v>0.6875</v>
       </c>
-      <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="F21" s="5"/>
     </row>
@@ -6758,7 +6672,6 @@
       <c r="A22" s="3">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="F22" s="5"/>
     </row>
@@ -6766,7 +6679,6 @@
       <c r="A23" s="3">
         <v>0.72916666666666696</v>
       </c>
-      <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="F23" s="5"/>
     </row>
@@ -6774,7 +6686,6 @@
       <c r="A24" s="3">
         <v>0.75</v>
       </c>
-      <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="F24" s="5"/>
     </row>
@@ -6782,7 +6693,6 @@
       <c r="A25" s="3">
         <v>0.76041666666666663</v>
       </c>
-      <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="F25" s="5"/>
     </row>
@@ -6802,19 +6712,19 @@
     <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="19" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -6883,22 +6793,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="155" priority="18">
+    <cfRule type="expression" dxfId="158" priority="18">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="154" priority="17">
+    <cfRule type="expression" dxfId="157" priority="17">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:F14 B15:D15 F15 B16:F25">
-    <cfRule type="expression" dxfId="153" priority="6">
+  <conditionalFormatting sqref="B15:D15 F15 B16:F25 B4:F14">
+    <cfRule type="expression" dxfId="156" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="152" priority="1">
+    <cfRule type="expression" dxfId="155" priority="1">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6911,7 +6821,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B4" sqref="B4:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6985,11 +6895,8 @@
       <c r="A4" s="3">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="D4" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>12</v>
@@ -7002,24 +6909,20 @@
       <c r="A5" s="3">
         <v>0.375</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>7</v>
-      </c>
       <c r="D5" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B6" s="7"/>
       <c r="D6" s="5"/>
       <c r="F6" s="5"/>
     </row>
@@ -7027,7 +6930,6 @@
       <c r="A7" s="3">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B7" s="7"/>
       <c r="D7" s="5"/>
       <c r="F7" s="5"/>
       <c r="H7" s="1" t="s">
@@ -7039,7 +6941,6 @@
       <c r="A8" s="3">
         <v>0.4375</v>
       </c>
-      <c r="B8" s="7"/>
       <c r="D8" s="5"/>
       <c r="F8" s="5"/>
       <c r="H8" s="1" t="s">
@@ -7053,7 +6954,6 @@
       <c r="A9" s="10">
         <v>0.44791666666666669</v>
       </c>
-      <c r="B9" s="7"/>
       <c r="D9" s="6" t="s">
         <v>14</v>
       </c>
@@ -7066,7 +6966,6 @@
       <c r="A10" s="3">
         <v>0.45833333333333398</v>
       </c>
-      <c r="B10" s="7"/>
       <c r="D10" s="5" t="s">
         <v>16</v>
       </c>
@@ -7077,7 +6976,6 @@
       <c r="A11" s="3">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B11" s="7"/>
       <c r="D11" s="5"/>
       <c r="E11" s="11"/>
       <c r="F11" s="5"/>
@@ -7086,7 +6984,6 @@
       <c r="A12" s="3">
         <v>0.5</v>
       </c>
-      <c r="B12" s="7"/>
       <c r="D12" s="5"/>
       <c r="E12" s="11"/>
       <c r="F12" s="5"/>
@@ -7095,7 +6992,6 @@
       <c r="A13" s="3">
         <v>0.53125</v>
       </c>
-      <c r="B13" s="7"/>
       <c r="D13" s="5"/>
       <c r="E13" s="11"/>
       <c r="F13" s="5"/>
@@ -7114,9 +7010,6 @@
       <c r="A16" s="3">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
@@ -7124,7 +7017,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -7134,9 +7027,6 @@
       <c r="A17" s="3">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="C17" s="5" t="s">
         <v>13</v>
       </c>
@@ -7152,7 +7042,6 @@
       <c r="A18" s="3">
         <v>0.625</v>
       </c>
-      <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
       <c r="E18" s="11"/>
@@ -7162,7 +7051,6 @@
       <c r="A19" s="3">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="7"/>
       <c r="E19" s="11"/>
@@ -7172,7 +7060,6 @@
       <c r="A20" s="3">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="7"/>
       <c r="E20" s="11"/>
@@ -7182,7 +7069,6 @@
       <c r="A21" s="3">
         <v>0.6875</v>
       </c>
-      <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="F21" s="5"/>
     </row>
@@ -7190,7 +7076,6 @@
       <c r="A22" s="3">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="F22" s="5"/>
     </row>
@@ -7198,7 +7083,6 @@
       <c r="A23" s="3">
         <v>0.72916666666666696</v>
       </c>
-      <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="F23" s="5"/>
     </row>
@@ -7206,7 +7090,6 @@
       <c r="A24" s="3">
         <v>0.75</v>
       </c>
-      <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="F24" s="5"/>
     </row>
@@ -7214,7 +7097,6 @@
       <c r="A25" s="3">
         <v>0.76041666666666663</v>
       </c>
-      <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="F25" s="5"/>
     </row>
@@ -7234,19 +7116,19 @@
     <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -7315,22 +7197,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="151" priority="13">
+    <cfRule type="expression" dxfId="154" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="150" priority="12">
+    <cfRule type="expression" dxfId="153" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:F14 B15:D15 F15 B16:F25">
-    <cfRule type="expression" dxfId="149" priority="1">
+  <conditionalFormatting sqref="B15:D15 F15 B16:F25 B4:F14">
+    <cfRule type="expression" dxfId="152" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="148" priority="11">
+    <cfRule type="expression" dxfId="151" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7342,8 +7224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="89" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7433,7 +7315,7 @@
         <v>7</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -7473,7 +7355,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -7554,7 +7436,7 @@
         <v>13</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>13</v>
@@ -7565,7 +7447,7 @@
         <v>0.625</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
@@ -7599,7 +7481,7 @@
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="E21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F21" s="5"/>
     </row>
@@ -7610,7 +7492,7 @@
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="E22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F22" s="5"/>
     </row>
@@ -7621,7 +7503,7 @@
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="E23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F23" s="5"/>
     </row>
@@ -7657,47 +7539,47 @@
     <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F28" s="23" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="23" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D29" s="19"/>
       <c r="E29" s="23" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="23" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C30" s="23"/>
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>
       <c r="F30" s="23" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -7751,22 +7633,22 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="222" priority="14">
+    <cfRule type="expression" dxfId="227" priority="14">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="221" priority="6">
+    <cfRule type="expression" dxfId="226" priority="6">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="220" priority="15">
+    <cfRule type="expression" dxfId="225" priority="15">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="219" priority="1">
+    <cfRule type="expression" dxfId="224" priority="1">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7780,7 +7662,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B4" sqref="B4:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7854,11 +7736,8 @@
       <c r="A4" s="3">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="D4" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>12</v>
@@ -7871,24 +7750,20 @@
       <c r="A5" s="3">
         <v>0.375</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>7</v>
-      </c>
       <c r="D5" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B6" s="7"/>
       <c r="D6" s="5"/>
       <c r="F6" s="5"/>
     </row>
@@ -7896,7 +7771,6 @@
       <c r="A7" s="3">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B7" s="7"/>
       <c r="D7" s="5"/>
       <c r="F7" s="5"/>
       <c r="H7" s="1" t="s">
@@ -7908,7 +7782,6 @@
       <c r="A8" s="3">
         <v>0.4375</v>
       </c>
-      <c r="B8" s="7"/>
       <c r="D8" s="5"/>
       <c r="F8" s="5"/>
       <c r="H8" s="1" t="s">
@@ -7922,7 +7795,6 @@
       <c r="A9" s="10">
         <v>0.44791666666666669</v>
       </c>
-      <c r="B9" s="7"/>
       <c r="D9" s="6" t="s">
         <v>14</v>
       </c>
@@ -7935,7 +7807,6 @@
       <c r="A10" s="3">
         <v>0.45833333333333398</v>
       </c>
-      <c r="B10" s="7"/>
       <c r="D10" s="5" t="s">
         <v>16</v>
       </c>
@@ -7946,7 +7817,6 @@
       <c r="A11" s="3">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B11" s="7"/>
       <c r="D11" s="5"/>
       <c r="E11" s="11"/>
       <c r="F11" s="5"/>
@@ -7955,7 +7825,6 @@
       <c r="A12" s="3">
         <v>0.5</v>
       </c>
-      <c r="B12" s="7"/>
       <c r="D12" s="5"/>
       <c r="E12" s="11"/>
       <c r="F12" s="5"/>
@@ -7964,7 +7833,6 @@
       <c r="A13" s="3">
         <v>0.53125</v>
       </c>
-      <c r="B13" s="7"/>
       <c r="D13" s="5"/>
       <c r="E13" s="11"/>
       <c r="F13" s="5"/>
@@ -7983,9 +7851,6 @@
       <c r="A16" s="3">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
@@ -7993,7 +7858,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -8003,9 +7868,6 @@
       <c r="A17" s="3">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="C17" s="5" t="s">
         <v>13</v>
       </c>
@@ -8021,7 +7883,6 @@
       <c r="A18" s="3">
         <v>0.625</v>
       </c>
-      <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
       <c r="E18" s="11"/>
@@ -8031,7 +7892,6 @@
       <c r="A19" s="3">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="7"/>
       <c r="E19" s="11"/>
@@ -8041,7 +7901,6 @@
       <c r="A20" s="3">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="7"/>
       <c r="E20" s="11"/>
@@ -8051,7 +7910,6 @@
       <c r="A21" s="3">
         <v>0.6875</v>
       </c>
-      <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="F21" s="5"/>
     </row>
@@ -8059,7 +7917,6 @@
       <c r="A22" s="3">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="F22" s="5"/>
     </row>
@@ -8067,7 +7924,6 @@
       <c r="A23" s="3">
         <v>0.72916666666666696</v>
       </c>
-      <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="F23" s="5"/>
     </row>
@@ -8075,7 +7931,6 @@
       <c r="A24" s="3">
         <v>0.75</v>
       </c>
-      <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="F24" s="5"/>
     </row>
@@ -8083,7 +7938,6 @@
       <c r="A25" s="3">
         <v>0.76041666666666663</v>
       </c>
-      <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="F25" s="5"/>
     </row>
@@ -8103,19 +7957,19 @@
     <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -8184,23 +8038,28 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="147" priority="18">
+    <cfRule type="expression" dxfId="150" priority="19">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="146" priority="17">
+    <cfRule type="expression" dxfId="149" priority="18">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:F13 B14:D14 F14 B15:F25">
-    <cfRule type="expression" dxfId="145" priority="6">
+  <conditionalFormatting sqref="C4:F13 B14:D14 F14 B15:F25">
+    <cfRule type="expression" dxfId="148" priority="7">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="144" priority="1">
+    <cfRule type="expression" dxfId="147" priority="2">
       <formula>NOT(ISBLANK(B28))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:B13">
+    <cfRule type="expression" dxfId="146" priority="1">
+      <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8212,7 +8071,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B4" sqref="B4:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8286,11 +8145,8 @@
       <c r="A4" s="3">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="D4" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>12</v>
@@ -8303,24 +8159,20 @@
       <c r="A5" s="3">
         <v>0.375</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>7</v>
-      </c>
       <c r="D5" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B6" s="7"/>
       <c r="D6" s="5"/>
       <c r="F6" s="5"/>
     </row>
@@ -8328,7 +8180,6 @@
       <c r="A7" s="3">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B7" s="7"/>
       <c r="D7" s="5"/>
       <c r="F7" s="5"/>
       <c r="H7" s="1" t="s">
@@ -8340,7 +8191,6 @@
       <c r="A8" s="3">
         <v>0.4375</v>
       </c>
-      <c r="B8" s="7"/>
       <c r="D8" s="5"/>
       <c r="F8" s="5"/>
       <c r="H8" s="1" t="s">
@@ -8354,7 +8204,6 @@
       <c r="A9" s="10">
         <v>0.44791666666666669</v>
       </c>
-      <c r="B9" s="7"/>
       <c r="D9" s="6" t="s">
         <v>14</v>
       </c>
@@ -8367,7 +8216,6 @@
       <c r="A10" s="3">
         <v>0.45833333333333398</v>
       </c>
-      <c r="B10" s="7"/>
       <c r="D10" s="5" t="s">
         <v>16</v>
       </c>
@@ -8378,7 +8226,6 @@
       <c r="A11" s="3">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B11" s="7"/>
       <c r="D11" s="5"/>
       <c r="E11" s="11"/>
       <c r="F11" s="5"/>
@@ -8387,7 +8234,6 @@
       <c r="A12" s="3">
         <v>0.5</v>
       </c>
-      <c r="B12" s="7"/>
       <c r="D12" s="5"/>
       <c r="E12" s="11"/>
       <c r="F12" s="5"/>
@@ -8396,7 +8242,6 @@
       <c r="A13" s="3">
         <v>0.53125</v>
       </c>
-      <c r="B13" s="7"/>
       <c r="D13" s="5"/>
       <c r="E13" s="11"/>
       <c r="F13" s="5"/>
@@ -8415,9 +8260,6 @@
       <c r="A16" s="3">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
@@ -8425,7 +8267,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -8435,9 +8277,6 @@
       <c r="A17" s="3">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="C17" s="5" t="s">
         <v>13</v>
       </c>
@@ -8453,7 +8292,6 @@
       <c r="A18" s="3">
         <v>0.625</v>
       </c>
-      <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
       <c r="E18" s="11"/>
@@ -8463,7 +8301,6 @@
       <c r="A19" s="3">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="7"/>
       <c r="E19" s="11"/>
@@ -8473,7 +8310,6 @@
       <c r="A20" s="3">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="7"/>
       <c r="E20" s="11"/>
@@ -8483,7 +8319,6 @@
       <c r="A21" s="3">
         <v>0.6875</v>
       </c>
-      <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="F21" s="5"/>
     </row>
@@ -8491,7 +8326,6 @@
       <c r="A22" s="3">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="F22" s="5"/>
     </row>
@@ -8499,7 +8333,6 @@
       <c r="A23" s="3">
         <v>0.72916666666666696</v>
       </c>
-      <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="F23" s="5"/>
     </row>
@@ -8507,7 +8340,6 @@
       <c r="A24" s="3">
         <v>0.75</v>
       </c>
-      <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="F24" s="5"/>
     </row>
@@ -8515,7 +8347,6 @@
       <c r="A25" s="3">
         <v>0.76041666666666663</v>
       </c>
-      <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="F25" s="5"/>
     </row>
@@ -8535,37 +8366,37 @@
     <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -8574,10 +8405,10 @@
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
       <c r="E30" s="19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -8630,23 +8461,28 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="143" priority="13">
+    <cfRule type="expression" dxfId="145" priority="14">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
+    <cfRule type="expression" dxfId="144" priority="13">
+      <formula>B3 = TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:F13 B14:D14 F14 B15:F25">
+    <cfRule type="expression" dxfId="143" priority="2">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:F36">
     <cfRule type="expression" dxfId="142" priority="12">
-      <formula>B3 = TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:F13 B14:D14 F14 B15:F25">
+      <formula>NOT(ISBLANK(B28))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:B13">
     <cfRule type="expression" dxfId="141" priority="1">
       <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="140" priority="11">
-      <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8658,7 +8494,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B5" sqref="B5:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8732,14 +8568,11 @@
       <c r="A4" s="3">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="C4" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>12</v>
@@ -8752,25 +8585,27 @@
       <c r="A5" s="3">
         <v>0.375</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>7</v>
+      <c r="B5" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="C5" s="11"/>
       <c r="E5" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="C6" s="11"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -8810,7 +8645,7 @@
       <c r="B9" s="7"/>
       <c r="C9" s="11"/>
       <c r="D9" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>22</v>
@@ -8824,7 +8659,7 @@
       <c r="B10" s="7"/>
       <c r="C10" s="11"/>
       <c r="D10" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="5"/>
@@ -8863,8 +8698,9 @@
       <c r="A14" s="3">
         <v>0.54166666666666696</v>
       </c>
+      <c r="B14" s="7"/>
       <c r="E14" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -8872,24 +8708,21 @@
         <v>0.5625</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -8899,14 +8732,11 @@
       <c r="A17" s="3">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="C17" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="5" t="s">
@@ -8916,9 +8746,6 @@
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>0.625</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>73</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -8929,7 +8756,6 @@
       <c r="A19" s="3">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="11"/>
@@ -8939,7 +8765,6 @@
       <c r="A20" s="3">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="11"/>
@@ -8949,13 +8774,12 @@
       <c r="A21" s="3">
         <v>0.67708333333333337</v>
       </c>
-      <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F21" s="5"/>
     </row>
@@ -8963,13 +8787,12 @@
       <c r="A22" s="3">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F22" s="5"/>
     </row>
@@ -8977,7 +8800,6 @@
       <c r="A23" s="3">
         <v>0.72916666666666696</v>
       </c>
-      <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -8987,7 +8809,6 @@
       <c r="A24" s="3">
         <v>0.75</v>
       </c>
-      <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -8997,7 +8818,6 @@
       <c r="A25" s="3">
         <v>0.76041666666666663</v>
       </c>
-      <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -9019,7 +8839,7 @@
     <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
@@ -9092,37 +8912,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="139" priority="20">
+    <cfRule type="expression" dxfId="140" priority="20">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="138" priority="19">
+    <cfRule type="expression" dxfId="139" priority="19">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="137" priority="18">
+    <cfRule type="expression" dxfId="138" priority="18">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="136" priority="6">
+  <conditionalFormatting sqref="C4:C13 B5:B25">
+    <cfRule type="expression" dxfId="137" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="135" priority="21">
+    <cfRule type="expression" dxfId="136" priority="21">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="134" priority="14">
+    <cfRule type="expression" dxfId="135" priority="14">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:F14 B4:B25 E15 E16:F25">
-    <cfRule type="expression" dxfId="133" priority="15">
+  <conditionalFormatting sqref="E4:F14 E15 E16:F25">
+    <cfRule type="expression" dxfId="134" priority="15">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9135,7 +8955,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B5" sqref="B5:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9209,9 +9029,6 @@
       <c r="A4" s="3">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="C4" s="12" t="s">
         <v>17</v>
       </c>
@@ -9226,22 +9043,24 @@
       <c r="A5" s="3">
         <v>0.375</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>7</v>
+      <c r="B5" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C5" s="11"/>
       <c r="F5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="C6" s="11"/>
       <c r="F6" s="5"/>
     </row>
@@ -9249,7 +9068,9 @@
       <c r="A7" s="3">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B7" s="7"/>
+      <c r="B7" s="6" t="s">
+        <v>71</v>
+      </c>
       <c r="C7" s="11"/>
       <c r="F7" s="5"/>
       <c r="H7" s="1" t="s">
@@ -9261,7 +9082,7 @@
       <c r="A8" s="3">
         <v>0.4375</v>
       </c>
-      <c r="B8" s="7"/>
+      <c r="B8" s="5"/>
       <c r="C8" s="11"/>
       <c r="F8" s="5"/>
       <c r="H8" s="1" t="s">
@@ -9275,10 +9096,10 @@
       <c r="A9" s="10">
         <v>0.44791666666666669</v>
       </c>
-      <c r="B9" s="7"/>
+      <c r="B9" s="5"/>
       <c r="C9" s="11"/>
       <c r="D9" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>22</v>
@@ -9289,10 +9110,10 @@
       <c r="A10" s="3">
         <v>0.45833333333333398</v>
       </c>
-      <c r="B10" s="7"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="11"/>
       <c r="D10" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="5"/>
@@ -9301,7 +9122,7 @@
       <c r="A11" s="3">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B11" s="7"/>
+      <c r="B11" s="5"/>
       <c r="C11" s="11"/>
       <c r="D11" s="5"/>
       <c r="E11" s="11"/>
@@ -9311,7 +9132,7 @@
       <c r="A12" s="3">
         <v>0.5</v>
       </c>
-      <c r="B12" s="7"/>
+      <c r="B12" s="5"/>
       <c r="C12" s="11"/>
       <c r="D12" s="5"/>
       <c r="E12" s="11"/>
@@ -9321,7 +9142,7 @@
       <c r="A13" s="3">
         <v>0.53125</v>
       </c>
-      <c r="B13" s="7"/>
+      <c r="B13" s="5"/>
       <c r="C13" s="11"/>
       <c r="D13" s="5"/>
       <c r="E13" s="11"/>
@@ -9331,6 +9152,7 @@
       <c r="A14" s="3">
         <v>0.54166666666666696</v>
       </c>
+      <c r="B14" s="5"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -9341,17 +9163,14 @@
       <c r="A16" s="3">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -9361,14 +9180,11 @@
       <c r="A17" s="3">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="C17" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="5" t="s">
@@ -9378,9 +9194,6 @@
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>0.625</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>78</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -9391,7 +9204,6 @@
       <c r="A19" s="3">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="11"/>
@@ -9401,7 +9213,6 @@
       <c r="A20" s="3">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="11"/>
@@ -9411,10 +9222,9 @@
       <c r="A21" s="3">
         <v>0.67708333333333337</v>
       </c>
-      <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F21" s="5"/>
     </row>
@@ -9422,10 +9232,9 @@
       <c r="A22" s="3">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F22" s="5"/>
     </row>
@@ -9433,7 +9242,6 @@
       <c r="A23" s="3">
         <v>0.72916666666666696</v>
       </c>
-      <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="F23" s="5"/>
@@ -9442,7 +9250,6 @@
       <c r="A24" s="3">
         <v>0.75</v>
       </c>
-      <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="F24" s="5"/>
@@ -9451,7 +9258,6 @@
       <c r="A25" s="3">
         <v>0.76041666666666663</v>
       </c>
-      <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="F25" s="5"/>
@@ -9543,37 +9349,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
+    <cfRule type="expression" dxfId="133" priority="18">
+      <formula>B$3 &lt; TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:F3">
     <cfRule type="expression" dxfId="132" priority="17">
-      <formula>B$3 &lt; TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:F3">
+      <formula>B3 = TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:F36">
     <cfRule type="expression" dxfId="131" priority="16">
-      <formula>B3 = TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="130" priority="15">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="129" priority="7">
+  <conditionalFormatting sqref="C4:C13 B5:B15">
+    <cfRule type="expression" dxfId="130" priority="8">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="128" priority="18">
+    <cfRule type="expression" dxfId="129" priority="19">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="127" priority="11">
+    <cfRule type="expression" dxfId="128" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F14 B4:B25 E9:E20 F16:F25">
-    <cfRule type="expression" dxfId="126" priority="12">
+  <conditionalFormatting sqref="F4:F14 E9:E20 F16:F25">
+    <cfRule type="expression" dxfId="127" priority="13">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="expression" dxfId="126" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9586,7 +9397,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B5" sqref="B5:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9660,14 +9471,11 @@
       <c r="A4" s="3">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="C4" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>12</v>
@@ -9680,25 +9488,27 @@
       <c r="A5" s="3">
         <v>0.375</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>7</v>
+      <c r="B5" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="C5" s="11"/>
       <c r="E5" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="C6" s="11"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -9738,7 +9548,7 @@
       <c r="B9" s="7"/>
       <c r="C9" s="11"/>
       <c r="D9" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>22</v>
@@ -9752,7 +9562,7 @@
       <c r="B10" s="7"/>
       <c r="C10" s="11"/>
       <c r="D10" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="5"/>
@@ -9791,8 +9601,9 @@
       <c r="A14" s="3">
         <v>0.54166666666666696</v>
       </c>
+      <c r="B14" s="7"/>
       <c r="E14" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -9800,24 +9611,21 @@
         <v>0.5625</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -9827,14 +9635,11 @@
       <c r="A17" s="3">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="C17" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="5" t="s">
@@ -9844,9 +9649,6 @@
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>0.625</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>79</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -9857,7 +9659,6 @@
       <c r="A19" s="3">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="11"/>
@@ -9867,7 +9668,6 @@
       <c r="A20" s="3">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="11"/>
@@ -9877,13 +9677,12 @@
       <c r="A21" s="3">
         <v>0.67708333333333337</v>
       </c>
-      <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F21" s="5"/>
     </row>
@@ -9891,13 +9690,12 @@
       <c r="A22" s="3">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F22" s="5"/>
     </row>
@@ -9905,7 +9703,6 @@
       <c r="A23" s="3">
         <v>0.72916666666666696</v>
       </c>
-      <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -9915,7 +9712,6 @@
       <c r="A24" s="3">
         <v>0.75</v>
       </c>
-      <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -9925,7 +9721,6 @@
       <c r="A25" s="3">
         <v>0.76041666666666663</v>
       </c>
-      <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -9949,7 +9744,7 @@
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
       <c r="D28" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
@@ -10034,7 +9829,7 @@
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C13">
+  <conditionalFormatting sqref="C4:C13 B5:B25">
     <cfRule type="expression" dxfId="122" priority="9">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
@@ -10049,7 +9844,7 @@
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:F13 B4:B25 E14 E15:F25">
+  <conditionalFormatting sqref="E4:F13 E14 E15:F25">
     <cfRule type="expression" dxfId="119" priority="13">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
@@ -10063,7 +9858,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B5" sqref="B5:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10137,9 +9932,6 @@
       <c r="A4" s="3">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="C4" s="12" t="s">
         <v>17</v>
       </c>
@@ -10154,22 +9946,24 @@
       <c r="A5" s="3">
         <v>0.375</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>7</v>
+      <c r="B5" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C5" s="11"/>
       <c r="F5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="C6" s="11"/>
       <c r="F6" s="5"/>
     </row>
@@ -10177,7 +9971,9 @@
       <c r="A7" s="3">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B7" s="7"/>
+      <c r="B7" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="C7" s="11"/>
       <c r="F7" s="5"/>
       <c r="H7" s="1" t="s">
@@ -10189,7 +9985,7 @@
       <c r="A8" s="3">
         <v>0.4375</v>
       </c>
-      <c r="B8" s="7"/>
+      <c r="B8" s="5"/>
       <c r="C8" s="11"/>
       <c r="F8" s="5"/>
       <c r="H8" s="1" t="s">
@@ -10203,10 +9999,10 @@
       <c r="A9" s="10">
         <v>0.44791666666666669</v>
       </c>
-      <c r="B9" s="7"/>
+      <c r="B9" s="5"/>
       <c r="C9" s="11"/>
       <c r="D9" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>22</v>
@@ -10217,10 +10013,10 @@
       <c r="A10" s="3">
         <v>0.45833333333333398</v>
       </c>
-      <c r="B10" s="7"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="11"/>
       <c r="D10" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="5"/>
@@ -10229,7 +10025,7 @@
       <c r="A11" s="3">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B11" s="7"/>
+      <c r="B11" s="5"/>
       <c r="C11" s="11"/>
       <c r="D11" s="5"/>
       <c r="E11" s="11"/>
@@ -10239,7 +10035,7 @@
       <c r="A12" s="3">
         <v>0.5</v>
       </c>
-      <c r="B12" s="7"/>
+      <c r="B12" s="5"/>
       <c r="C12" s="11"/>
       <c r="D12" s="5"/>
       <c r="E12" s="11"/>
@@ -10249,7 +10045,7 @@
       <c r="A13" s="3">
         <v>0.53125</v>
       </c>
-      <c r="B13" s="7"/>
+      <c r="B13" s="5"/>
       <c r="C13" s="11"/>
       <c r="D13" s="5"/>
       <c r="E13" s="11"/>
@@ -10259,6 +10055,7 @@
       <c r="A14" s="3">
         <v>0.54166666666666696</v>
       </c>
+      <c r="B14" s="5"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -10269,17 +10066,14 @@
       <c r="A16" s="3">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -10289,14 +10083,11 @@
       <c r="A17" s="3">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="C17" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="5" t="s">
@@ -10306,9 +10097,6 @@
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>0.625</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -10319,7 +10107,6 @@
       <c r="A19" s="3">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="11"/>
@@ -10329,7 +10116,6 @@
       <c r="A20" s="3">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="11"/>
@@ -10339,10 +10125,9 @@
       <c r="A21" s="3">
         <v>0.67708333333333337</v>
       </c>
-      <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F21" s="5"/>
     </row>
@@ -10350,10 +10135,9 @@
       <c r="A22" s="3">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F22" s="5"/>
     </row>
@@ -10361,7 +10145,6 @@
       <c r="A23" s="3">
         <v>0.72916666666666696</v>
       </c>
-      <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="F23" s="5"/>
@@ -10370,7 +10153,6 @@
       <c r="A24" s="3">
         <v>0.75</v>
       </c>
-      <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="F24" s="5"/>
@@ -10379,7 +10161,6 @@
       <c r="A25" s="3">
         <v>0.76041666666666663</v>
       </c>
-      <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="F25" s="5"/>
@@ -10485,7 +10266,7 @@
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C13">
+  <conditionalFormatting sqref="C4:C13 B4:B15">
     <cfRule type="expression" dxfId="115" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
@@ -10500,7 +10281,7 @@
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F14 B4:B25 E9:E20 F16:F25">
+  <conditionalFormatting sqref="F4:F14 E9:E20 F16:F25">
     <cfRule type="expression" dxfId="112" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
@@ -10514,7 +10295,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B5" sqref="B5:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10588,14 +10369,11 @@
       <c r="A4" s="3">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="C4" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>12</v>
@@ -10608,25 +10386,27 @@
       <c r="A5" s="3">
         <v>0.375</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>7</v>
+      <c r="B5" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="C5" s="11"/>
       <c r="E5" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="C6" s="11"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -10666,7 +10446,7 @@
       <c r="B9" s="7"/>
       <c r="C9" s="11"/>
       <c r="D9" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>22</v>
@@ -10680,7 +10460,7 @@
       <c r="B10" s="7"/>
       <c r="C10" s="11"/>
       <c r="D10" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="5"/>
@@ -10719,8 +10499,9 @@
       <c r="A14" s="3">
         <v>0.54166666666666696</v>
       </c>
+      <c r="B14" s="7"/>
       <c r="E14" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -10728,24 +10509,21 @@
         <v>0.5625</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -10755,14 +10533,11 @@
       <c r="A17" s="3">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="C17" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="5" t="s">
@@ -10772,9 +10547,6 @@
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>0.625</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>79</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -10785,7 +10557,6 @@
       <c r="A19" s="3">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="11"/>
@@ -10795,7 +10566,6 @@
       <c r="A20" s="3">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="11"/>
@@ -10805,13 +10575,12 @@
       <c r="A21" s="3">
         <v>0.67708333333333337</v>
       </c>
-      <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F21" s="5"/>
     </row>
@@ -10819,13 +10588,12 @@
       <c r="A22" s="3">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F22" s="5"/>
     </row>
@@ -10833,7 +10601,6 @@
       <c r="A23" s="3">
         <v>0.72916666666666696</v>
       </c>
-      <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -10843,7 +10610,6 @@
       <c r="A24" s="3">
         <v>0.75</v>
       </c>
-      <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -10853,7 +10619,6 @@
       <c r="A25" s="3">
         <v>0.76041666666666663</v>
       </c>
-      <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -10960,7 +10725,7 @@
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C13">
+  <conditionalFormatting sqref="C4:C13 B5:B25">
     <cfRule type="expression" dxfId="108" priority="9">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
@@ -10975,7 +10740,7 @@
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:F14 B4:B25 E15 E16:F25">
+  <conditionalFormatting sqref="E4:F14 E15 E16:F25">
     <cfRule type="expression" dxfId="105" priority="13">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
@@ -10989,7 +10754,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B5" sqref="B5:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11063,9 +10828,6 @@
       <c r="A4" s="3">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="C4" s="12" t="s">
         <v>17</v>
       </c>
@@ -11080,22 +10842,24 @@
       <c r="A5" s="3">
         <v>0.375</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>7</v>
+      <c r="B5" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C5" s="11"/>
       <c r="F5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="C6" s="11"/>
       <c r="F6" s="5"/>
     </row>
@@ -11103,7 +10867,9 @@
       <c r="A7" s="3">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B7" s="7"/>
+      <c r="B7" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="C7" s="11"/>
       <c r="F7" s="5"/>
       <c r="H7" s="1" t="s">
@@ -11115,7 +10881,7 @@
       <c r="A8" s="3">
         <v>0.4375</v>
       </c>
-      <c r="B8" s="7"/>
+      <c r="B8" s="5"/>
       <c r="C8" s="11"/>
       <c r="F8" s="5"/>
       <c r="H8" s="1" t="s">
@@ -11129,10 +10895,10 @@
       <c r="A9" s="10">
         <v>0.44791666666666669</v>
       </c>
-      <c r="B9" s="7"/>
+      <c r="B9" s="5"/>
       <c r="C9" s="11"/>
       <c r="D9" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>22</v>
@@ -11143,10 +10909,10 @@
       <c r="A10" s="3">
         <v>0.45833333333333398</v>
       </c>
-      <c r="B10" s="7"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="11"/>
       <c r="D10" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="5"/>
@@ -11155,7 +10921,7 @@
       <c r="A11" s="3">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B11" s="7"/>
+      <c r="B11" s="5"/>
       <c r="C11" s="11"/>
       <c r="D11" s="5"/>
       <c r="E11" s="11"/>
@@ -11165,7 +10931,7 @@
       <c r="A12" s="3">
         <v>0.5</v>
       </c>
-      <c r="B12" s="7"/>
+      <c r="B12" s="5"/>
       <c r="C12" s="11"/>
       <c r="D12" s="5"/>
       <c r="E12" s="11"/>
@@ -11175,7 +10941,7 @@
       <c r="A13" s="3">
         <v>0.53125</v>
       </c>
-      <c r="B13" s="7"/>
+      <c r="B13" s="5"/>
       <c r="C13" s="11"/>
       <c r="D13" s="5"/>
       <c r="E13" s="11"/>
@@ -11185,6 +10951,7 @@
       <c r="A14" s="3">
         <v>0.54166666666666696</v>
       </c>
+      <c r="B14" s="5"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -11195,17 +10962,14 @@
       <c r="A16" s="3">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -11215,14 +10979,11 @@
       <c r="A17" s="3">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="C17" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="5" t="s">
@@ -11232,9 +10993,6 @@
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>0.625</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -11245,7 +11003,6 @@
       <c r="A19" s="3">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="11"/>
@@ -11255,7 +11012,6 @@
       <c r="A20" s="3">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="11"/>
@@ -11265,10 +11021,9 @@
       <c r="A21" s="3">
         <v>0.67708333333333337</v>
       </c>
-      <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F21" s="5"/>
     </row>
@@ -11276,10 +11031,9 @@
       <c r="A22" s="3">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F22" s="5"/>
     </row>
@@ -11287,7 +11041,6 @@
       <c r="A23" s="3">
         <v>0.72916666666666696</v>
       </c>
-      <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="F23" s="5"/>
@@ -11296,7 +11049,6 @@
       <c r="A24" s="3">
         <v>0.75</v>
       </c>
-      <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="F24" s="5"/>
@@ -11305,7 +11057,6 @@
       <c r="A25" s="3">
         <v>0.76041666666666663</v>
       </c>
-      <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="F25" s="5"/>
@@ -11397,37 +11148,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="104" priority="11">
+    <cfRule type="expression" dxfId="104" priority="12">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="103" priority="10">
+    <cfRule type="expression" dxfId="103" priority="11">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="102" priority="9">
+    <cfRule type="expression" dxfId="102" priority="10">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="101" priority="2">
+  <conditionalFormatting sqref="C4:C13 B5:B15">
+    <cfRule type="expression" dxfId="101" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="100" priority="12">
+    <cfRule type="expression" dxfId="100" priority="13">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="99" priority="5">
+    <cfRule type="expression" dxfId="99" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F13 B4:B25 E9:E20 F15:F25">
-    <cfRule type="expression" dxfId="98" priority="6">
+  <conditionalFormatting sqref="F4:F13 E9:E20 F15:F25">
+    <cfRule type="expression" dxfId="98" priority="7">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="expression" dxfId="97" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11440,7 +11196,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B5" sqref="B5:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11514,14 +11270,11 @@
       <c r="A4" s="3">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="C4" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>12</v>
@@ -11534,25 +11287,27 @@
       <c r="A5" s="3">
         <v>0.375</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>7</v>
+      <c r="B5" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="C5" s="11"/>
       <c r="E5" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="C6" s="11"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -11592,7 +11347,7 @@
       <c r="B9" s="7"/>
       <c r="C9" s="11"/>
       <c r="D9" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>22</v>
@@ -11606,7 +11361,7 @@
       <c r="B10" s="7"/>
       <c r="C10" s="11"/>
       <c r="D10" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="5"/>
@@ -11645,8 +11400,9 @@
       <c r="A14" s="3">
         <v>0.54166666666666696</v>
       </c>
+      <c r="B14" s="7"/>
       <c r="E14" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -11654,24 +11410,21 @@
         <v>0.5625</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -11681,14 +11434,11 @@
       <c r="A17" s="3">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="C17" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="5" t="s">
@@ -11698,9 +11448,6 @@
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>0.625</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>79</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -11711,7 +11458,6 @@
       <c r="A19" s="3">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="11"/>
@@ -11721,7 +11467,6 @@
       <c r="A20" s="3">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="11"/>
@@ -11731,13 +11476,12 @@
       <c r="A21" s="3">
         <v>0.67708333333333337</v>
       </c>
-      <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F21" s="5"/>
     </row>
@@ -11745,13 +11489,12 @@
       <c r="A22" s="3">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F22" s="5"/>
     </row>
@@ -11759,7 +11502,6 @@
       <c r="A23" s="3">
         <v>0.72916666666666696</v>
       </c>
-      <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -11769,7 +11511,6 @@
       <c r="A24" s="3">
         <v>0.75</v>
       </c>
-      <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -11779,7 +11520,6 @@
       <c r="A25" s="3">
         <v>0.76041666666666663</v>
       </c>
-      <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -11872,37 +11612,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="97" priority="16">
+    <cfRule type="expression" dxfId="96" priority="16">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="96" priority="15">
+    <cfRule type="expression" dxfId="95" priority="15">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="95" priority="14">
+    <cfRule type="expression" dxfId="94" priority="14">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="94" priority="8">
+  <conditionalFormatting sqref="C4:C13 B5:B25">
+    <cfRule type="expression" dxfId="93" priority="8">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="93" priority="17">
+    <cfRule type="expression" dxfId="92" priority="17">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="92" priority="10">
+    <cfRule type="expression" dxfId="91" priority="10">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:F13 B4:B25 E14 E15:F25">
-    <cfRule type="expression" dxfId="91" priority="11">
+  <conditionalFormatting sqref="E4:F13 E14 E15:F25">
+    <cfRule type="expression" dxfId="90" priority="11">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11914,8 +11654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D95BDF3E-4F1E-435C-89C0-E2ABB3522AAB}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11989,9 +11729,6 @@
       <c r="A4" s="3">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="C4" s="12" t="s">
         <v>17</v>
       </c>
@@ -12006,30 +11743,34 @@
       <c r="A5" s="3">
         <v>0.375</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>7</v>
+      <c r="B5" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C5" s="11"/>
       <c r="F5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="C6" s="11"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B7" s="7"/>
+      <c r="B7" s="21" t="s">
+        <v>73</v>
+      </c>
       <c r="C7" s="11"/>
       <c r="F7" s="5"/>
       <c r="H7" s="1" t="s">
@@ -12041,24 +11782,24 @@
       <c r="A8" s="3">
         <v>0.4375</v>
       </c>
-      <c r="B8" s="7"/>
+      <c r="B8" s="5"/>
       <c r="C8" s="11"/>
       <c r="F8" s="5"/>
       <c r="H8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I8" s="14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>0.44791666666666669</v>
       </c>
-      <c r="B9" s="7"/>
+      <c r="B9" s="5"/>
       <c r="C9" s="11"/>
       <c r="D9" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>22</v>
@@ -12069,10 +11810,10 @@
       <c r="A10" s="3">
         <v>0.45833333333333398</v>
       </c>
-      <c r="B10" s="7"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="11"/>
       <c r="D10" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="5"/>
@@ -12081,7 +11822,7 @@
       <c r="A11" s="3">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B11" s="7"/>
+      <c r="B11" s="5"/>
       <c r="C11" s="11"/>
       <c r="D11" s="5"/>
       <c r="E11" s="11"/>
@@ -12091,7 +11832,7 @@
       <c r="A12" s="3">
         <v>0.5</v>
       </c>
-      <c r="B12" s="7"/>
+      <c r="B12" s="5"/>
       <c r="C12" s="11"/>
       <c r="D12" s="5"/>
       <c r="E12" s="11"/>
@@ -12101,7 +11842,7 @@
       <c r="A13" s="3">
         <v>0.53125</v>
       </c>
-      <c r="B13" s="7"/>
+      <c r="B13" s="5"/>
       <c r="C13" s="11"/>
       <c r="D13" s="5"/>
       <c r="E13" s="11"/>
@@ -12111,6 +11852,7 @@
       <c r="A14" s="3">
         <v>0.54166666666666696</v>
       </c>
+      <c r="B14" s="5"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -12121,17 +11863,14 @@
       <c r="A16" s="3">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -12141,26 +11880,20 @@
       <c r="A17" s="3">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="C17" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>0.625</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>81</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -12171,7 +11904,6 @@
       <c r="A19" s="3">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="11"/>
@@ -12181,7 +11913,6 @@
       <c r="A20" s="3">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="11"/>
@@ -12191,10 +11922,9 @@
       <c r="A21" s="3">
         <v>0.67708333333333337</v>
       </c>
-      <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F21" s="5"/>
     </row>
@@ -12202,10 +11932,9 @@
       <c r="A22" s="3">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F22" s="5"/>
     </row>
@@ -12213,7 +11942,6 @@
       <c r="A23" s="3">
         <v>0.72916666666666696</v>
       </c>
-      <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="F23" s="5"/>
@@ -12222,7 +11950,6 @@
       <c r="A24" s="3">
         <v>0.75</v>
       </c>
-      <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="F24" s="5"/>
@@ -12231,7 +11958,6 @@
       <c r="A25" s="3">
         <v>0.76041666666666663</v>
       </c>
-      <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="F25" s="5"/>
@@ -12252,7 +11978,7 @@
     <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="16" t="s">
-        <v>36</v>
+        <v>114</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
@@ -12261,9 +11987,7 @@
     </row>
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
-      <c r="B29" s="16" t="s">
-        <v>82</v>
-      </c>
+      <c r="B29" s="17"/>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
       <c r="E29" s="17"/>
@@ -12327,32 +12051,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="90" priority="11">
+    <cfRule type="expression" dxfId="89" priority="12">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="89" priority="10">
+    <cfRule type="expression" dxfId="88" priority="11">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="88" priority="6">
+  <conditionalFormatting sqref="B15:F15 C16:F25 C4:F14 B5:B14">
+    <cfRule type="expression" dxfId="87" priority="7">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="87" priority="9">
+    <cfRule type="expression" dxfId="86" priority="10">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="86" priority="2">
+    <cfRule type="expression" dxfId="85" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="85" priority="5">
+    <cfRule type="expression" dxfId="84" priority="6">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="expression" dxfId="83" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12365,7 +12094,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12440,7 +12169,7 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>12</v>
@@ -12454,13 +12183,13 @@
         <v>0.375</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -12501,9 +12230,7 @@
       <c r="D9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>24</v>
-      </c>
+      <c r="E9" s="5"/>
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -12513,7 +12240,7 @@
       <c r="D10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="11"/>
+      <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -12521,7 +12248,7 @@
         <v>0.47916666666666702</v>
       </c>
       <c r="D11" s="5"/>
-      <c r="E11" s="11"/>
+      <c r="E11" s="5"/>
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -12529,7 +12256,7 @@
         <v>0.5</v>
       </c>
       <c r="D12" s="5"/>
-      <c r="E12" s="11"/>
+      <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -12537,10 +12264,10 @@
         <v>0.53125</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="D13" s="5"/>
-      <c r="E13" s="11"/>
+      <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -12548,7 +12275,7 @@
         <v>0.54166666666666696</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -12556,7 +12283,7 @@
         <v>0.5625</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -12615,7 +12342,9 @@
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="11"/>
+      <c r="E20" s="12" t="s">
+        <v>23</v>
+      </c>
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -12623,9 +12352,7 @@
         <v>0.6875</v>
       </c>
       <c r="C21" s="5"/>
-      <c r="E21" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="E21" s="11"/>
       <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -12633,9 +12360,7 @@
         <v>0.70833333333333304</v>
       </c>
       <c r="C22" s="5"/>
-      <c r="E22" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="E22" s="11"/>
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -12643,7 +12368,7 @@
         <v>0.72916666666666696</v>
       </c>
       <c r="C23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="E23" s="11"/>
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -12651,7 +12376,7 @@
         <v>0.75</v>
       </c>
       <c r="C24" s="5"/>
-      <c r="E24" s="5"/>
+      <c r="E24" s="11"/>
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -12659,7 +12384,6 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="C25" s="5"/>
-      <c r="E25" s="5"/>
       <c r="F25" s="5"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -12678,67 +12402,61 @@
     <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="22" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>23</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D28" s="19"/>
       <c r="E28" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="23" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="D29" s="19"/>
-      <c r="E29" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F29" s="16" t="s">
-        <v>23</v>
+      <c r="E29" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>23</v>
+        <v>110</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>108</v>
       </c>
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>
-      <c r="F30" s="19" t="s">
-        <v>106</v>
-      </c>
+      <c r="F30" s="19"/>
     </row>
     <row r="31" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
-      <c r="B31" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>122</v>
-      </c>
+      <c r="B31" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="19"/>
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
       <c r="F31" s="19"/>
     </row>
     <row r="32" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
-      <c r="B32" s="19" t="s">
-        <v>94</v>
+      <c r="B32" s="23" t="s">
+        <v>78</v>
       </c>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
@@ -12747,8 +12465,8 @@
     </row>
     <row r="33" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
-      <c r="B33" s="19" t="s">
-        <v>89</v>
+      <c r="B33" s="23" t="s">
+        <v>79</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
@@ -12757,8 +12475,8 @@
     </row>
     <row r="34" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
-      <c r="B34" s="19" t="s">
-        <v>90</v>
+      <c r="B34" s="22" t="s">
+        <v>119</v>
       </c>
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
@@ -12767,9 +12485,7 @@
     </row>
     <row r="35" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
-      <c r="B35" s="19" t="s">
-        <v>93</v>
-      </c>
+      <c r="B35" s="19"/>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
@@ -12785,33 +12501,48 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="218" priority="9">
+    <cfRule type="expression" dxfId="223" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="217" priority="8">
+    <cfRule type="expression" dxfId="222" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:F12 B4:B13 D13:F13 B14:F15 C16:F25">
-    <cfRule type="expression" dxfId="216" priority="6">
+  <conditionalFormatting sqref="B4:B13 B14:F15 B4:F8 B9:D12 F9:F13 C16:F19 C20:D25 F20:F25 E20:E24 D13:E13">
+    <cfRule type="expression" dxfId="221" priority="10">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B28:F31 B36:F36 C32:F35">
-    <cfRule type="expression" dxfId="215" priority="2">
+  <conditionalFormatting sqref="B28:F36">
+    <cfRule type="expression" dxfId="220" priority="5">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="214" priority="3">
+    <cfRule type="expression" dxfId="219" priority="7">
       <formula>NOT(ISBLANK(C13))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B32:B35">
-    <cfRule type="expression" dxfId="213" priority="1">
-      <formula>NOT(ISBLANK(B32))</formula>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="expression" dxfId="218" priority="4">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="expression" dxfId="217" priority="3">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="expression" dxfId="216" priority="2">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="expression" dxfId="215" priority="1">
+      <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12824,7 +12555,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12898,9 +12629,7 @@
       <c r="A4" s="3">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>11</v>
-      </c>
+      <c r="B4" s="11"/>
       <c r="C4" s="12" t="s">
         <v>17</v>
       </c>
@@ -12915,22 +12644,24 @@
       <c r="A5" s="3">
         <v>0.375</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>7</v>
+      <c r="B5" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="C5" s="11"/>
       <c r="F5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="C6" s="11"/>
       <c r="F6" s="5"/>
     </row>
@@ -12967,7 +12698,7 @@
       <c r="B9" s="7"/>
       <c r="C9" s="11"/>
       <c r="D9" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>22</v>
@@ -12981,7 +12712,7 @@
       <c r="B10" s="7"/>
       <c r="C10" s="11"/>
       <c r="D10" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="5"/>
@@ -13037,10 +12768,10 @@
         <v>12</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -13057,7 +12788,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="5" t="s">
@@ -13101,7 +12832,7 @@
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F21" s="5"/>
     </row>
@@ -13112,7 +12843,7 @@
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F22" s="5"/>
     </row>
@@ -13159,19 +12890,19 @@
     <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13240,32 +12971,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="84" priority="11">
+    <cfRule type="expression" dxfId="82" priority="12">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="83" priority="10">
+    <cfRule type="expression" dxfId="81" priority="11">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="82" priority="6">
+    <cfRule type="expression" dxfId="80" priority="7">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="81" priority="9">
+    <cfRule type="expression" dxfId="79" priority="10">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="80" priority="2">
+    <cfRule type="expression" dxfId="78" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="79" priority="5">
+    <cfRule type="expression" dxfId="77" priority="6">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="expression" dxfId="76" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13278,7 +13014,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13352,9 +13088,7 @@
       <c r="A4" s="3">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>11</v>
-      </c>
+      <c r="B4" s="11"/>
       <c r="C4" s="12" t="s">
         <v>17</v>
       </c>
@@ -13369,22 +13103,24 @@
       <c r="A5" s="3">
         <v>0.375</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>7</v>
+      <c r="B5" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="C5" s="11"/>
       <c r="F5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="C6" s="11"/>
       <c r="F6" s="5"/>
     </row>
@@ -13421,7 +13157,7 @@
       <c r="B9" s="7"/>
       <c r="C9" s="11"/>
       <c r="D9" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>22</v>
@@ -13435,7 +13171,7 @@
       <c r="B10" s="7"/>
       <c r="C10" s="11"/>
       <c r="D10" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="5"/>
@@ -13491,10 +13227,10 @@
         <v>12</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -13511,7 +13247,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="5" t="s">
@@ -13555,7 +13291,7 @@
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F21" s="5"/>
     </row>
@@ -13566,7 +13302,7 @@
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F22" s="5"/>
     </row>
@@ -13613,19 +13349,19 @@
     <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -13694,32 +13430,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="78" priority="16">
+    <cfRule type="expression" dxfId="75" priority="17">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="77" priority="15">
+    <cfRule type="expression" dxfId="74" priority="16">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="76" priority="11">
+    <cfRule type="expression" dxfId="73" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="75" priority="1">
+    <cfRule type="expression" dxfId="72" priority="2">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="74" priority="7">
+    <cfRule type="expression" dxfId="71" priority="8">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="73" priority="10">
+    <cfRule type="expression" dxfId="70" priority="11">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="expression" dxfId="69" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13810,7 +13551,7 @@
         <v>17</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>12</v>
@@ -13825,13 +13566,13 @@
       </c>
       <c r="C5" s="11"/>
       <c r="E5" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -13874,7 +13615,7 @@
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>22</v>
@@ -13887,7 +13628,7 @@
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="5"/>
@@ -13924,7 +13665,7 @@
         <v>0.54166666666666696</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -13932,7 +13673,7 @@
         <v>0.5625</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -13943,10 +13684,10 @@
         <v>12</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -13960,7 +13701,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="5" t="s">
@@ -14000,10 +13741,10 @@
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F21" s="5"/>
     </row>
@@ -14013,10 +13754,10 @@
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F22" s="5"/>
     </row>
@@ -14063,19 +13804,19 @@
     <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -14144,27 +13885,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="72" priority="18">
+    <cfRule type="expression" dxfId="68" priority="18">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="71" priority="17">
+    <cfRule type="expression" dxfId="67" priority="17">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F13 B14:E14 B15:F25">
-    <cfRule type="expression" dxfId="70" priority="1">
+    <cfRule type="expression" dxfId="66" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="69" priority="16">
+    <cfRule type="expression" dxfId="65" priority="16">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="68" priority="12">
+    <cfRule type="expression" dxfId="64" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14177,7 +13918,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B4" sqref="B4:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14251,9 +13992,6 @@
       <c r="A4" s="3">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="C4" s="12" t="s">
         <v>17</v>
       </c>
@@ -14268,22 +14006,18 @@
       <c r="A5" s="3">
         <v>0.375</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>7</v>
-      </c>
       <c r="C5" s="11"/>
       <c r="F5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B6" s="7"/>
       <c r="C6" s="11"/>
       <c r="F6" s="5"/>
     </row>
@@ -14291,7 +14025,6 @@
       <c r="A7" s="3">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B7" s="7"/>
       <c r="C7" s="11"/>
       <c r="F7" s="5"/>
       <c r="H7" s="1" t="s">
@@ -14303,7 +14036,6 @@
       <c r="A8" s="3">
         <v>0.4375</v>
       </c>
-      <c r="B8" s="7"/>
       <c r="C8" s="11"/>
       <c r="F8" s="5"/>
       <c r="H8" s="1" t="s">
@@ -14317,10 +14049,9 @@
       <c r="A9" s="10">
         <v>0.44791666666666669</v>
       </c>
-      <c r="B9" s="7"/>
       <c r="C9" s="11"/>
       <c r="D9" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -14328,10 +14059,9 @@
       <c r="A10" s="3">
         <v>0.45833333333333398</v>
       </c>
-      <c r="B10" s="7"/>
       <c r="C10" s="11"/>
       <c r="D10" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F10" s="5"/>
     </row>
@@ -14339,7 +14069,6 @@
       <c r="A11" s="3">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B11" s="7"/>
       <c r="C11" s="11"/>
       <c r="D11" s="5"/>
       <c r="F11" s="5"/>
@@ -14348,7 +14077,6 @@
       <c r="A12" s="3">
         <v>0.5</v>
       </c>
-      <c r="B12" s="7"/>
       <c r="C12" s="11"/>
       <c r="D12" s="5"/>
       <c r="F12" s="5"/>
@@ -14357,7 +14085,6 @@
       <c r="A13" s="3">
         <v>0.53125</v>
       </c>
-      <c r="B13" s="7"/>
       <c r="C13" s="11"/>
       <c r="D13" s="5"/>
       <c r="F13" s="5"/>
@@ -14376,14 +14103,11 @@
       <c r="A16" s="3">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -14393,25 +14117,19 @@
       <c r="A17" s="3">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="C17" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>0.625</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>83</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -14421,7 +14139,6 @@
       <c r="A19" s="3">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="F19" s="5"/>
@@ -14430,7 +14147,6 @@
       <c r="A20" s="3">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="F20" s="5"/>
@@ -14439,10 +14155,9 @@
       <c r="A21" s="3">
         <v>0.67708333333333337</v>
       </c>
-      <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F21" s="5"/>
     </row>
@@ -14450,10 +14165,9 @@
       <c r="A22" s="3">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F22" s="5"/>
     </row>
@@ -14461,7 +14175,6 @@
       <c r="A23" s="3">
         <v>0.72916666666666696</v>
       </c>
-      <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="F23" s="5"/>
@@ -14470,7 +14183,6 @@
       <c r="A24" s="3">
         <v>0.75</v>
       </c>
-      <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="F24" s="5"/>
@@ -14479,7 +14191,6 @@
       <c r="A25" s="3">
         <v>0.76041666666666663</v>
       </c>
-      <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="F25" s="5"/>
@@ -14503,7 +14214,7 @@
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
       <c r="E28" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F28" s="16"/>
     </row>
@@ -14573,42 +14284,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:D25">
-    <cfRule type="expression" dxfId="67" priority="7">
+    <cfRule type="expression" dxfId="63" priority="7">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="66" priority="23">
+    <cfRule type="expression" dxfId="62" priority="23">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="65" priority="22">
+    <cfRule type="expression" dxfId="61" priority="22">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="64" priority="21">
+    <cfRule type="expression" dxfId="60" priority="21">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="63" priority="15">
+    <cfRule type="expression" dxfId="59" priority="15">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="62" priority="17">
+    <cfRule type="expression" dxfId="58" priority="17">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E26">
-    <cfRule type="expression" dxfId="61" priority="1">
+    <cfRule type="expression" dxfId="57" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F25">
-    <cfRule type="expression" dxfId="60" priority="19">
+    <cfRule type="expression" dxfId="56" priority="19">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14621,7 +14332,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B5" sqref="B5:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14695,14 +14406,11 @@
       <c r="A4" s="3">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="C4" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>12</v>
@@ -14715,25 +14423,27 @@
       <c r="A5" s="3">
         <v>0.375</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>7</v>
+      <c r="B5" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="C5" s="11"/>
       <c r="E5" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="C6" s="11"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -14773,7 +14483,7 @@
       <c r="B9" s="7"/>
       <c r="C9" s="11"/>
       <c r="D9" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>22</v>
@@ -14787,7 +14497,7 @@
       <c r="B10" s="7"/>
       <c r="C10" s="11"/>
       <c r="D10" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="5"/>
@@ -14827,7 +14537,7 @@
         <v>0.54166666666666696</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -14835,7 +14545,7 @@
         <v>0.5625</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -14849,10 +14559,10 @@
         <v>12</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -14869,7 +14579,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="5" t="s">
@@ -14881,7 +14591,7 @@
         <v>0.625</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -14915,10 +14625,10 @@
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F21" s="5"/>
     </row>
@@ -14929,10 +14639,10 @@
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F22" s="5"/>
     </row>
@@ -15053,32 +14763,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="59" priority="25">
+    <cfRule type="expression" dxfId="55" priority="25">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="58" priority="24">
+    <cfRule type="expression" dxfId="54" priority="24">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="57" priority="23">
+    <cfRule type="expression" dxfId="53" priority="23">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="56" priority="18">
+  <conditionalFormatting sqref="C4:C13 B8:D25 C4:D7 B5:B7">
+    <cfRule type="expression" dxfId="52" priority="18">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="55" priority="20">
+    <cfRule type="expression" dxfId="51" priority="20">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F14 B4:D25 E4:E26 F16:F25">
-    <cfRule type="expression" dxfId="54" priority="17">
+  <conditionalFormatting sqref="F4:F14 E4:E26 F16:F25">
+    <cfRule type="expression" dxfId="50" priority="17">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15091,7 +14801,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B5" sqref="B5:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15165,9 +14875,6 @@
       <c r="A4" s="3">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="C4" s="12" t="s">
         <v>17</v>
       </c>
@@ -15182,22 +14889,24 @@
       <c r="A5" s="3">
         <v>0.375</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>7</v>
+      <c r="B5" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="C5" s="11"/>
       <c r="F5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="C6" s="11"/>
       <c r="F6" s="5"/>
     </row>
@@ -15205,7 +14914,9 @@
       <c r="A7" s="3">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B7" s="7"/>
+      <c r="B7" s="9" t="s">
+        <v>115</v>
+      </c>
       <c r="C7" s="11"/>
       <c r="F7" s="5"/>
       <c r="H7" s="1" t="s">
@@ -15234,7 +14945,7 @@
       <c r="B9" s="7"/>
       <c r="C9" s="11"/>
       <c r="D9" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>22</v>
@@ -15248,7 +14959,7 @@
       <c r="B10" s="7"/>
       <c r="C10" s="11"/>
       <c r="D10" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="5"/>
@@ -15304,10 +15015,10 @@
         <v>12</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -15324,7 +15035,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="5" t="s">
@@ -15336,7 +15047,7 @@
         <v>0.625</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -15370,7 +15081,7 @@
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F21" s="5"/>
     </row>
@@ -15381,7 +15092,7 @@
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F22" s="5"/>
     </row>
@@ -15499,37 +15210,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="53" priority="27">
+    <cfRule type="expression" dxfId="49" priority="27">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="52" priority="26">
+    <cfRule type="expression" dxfId="48" priority="26">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="51" priority="25">
+    <cfRule type="expression" dxfId="47" priority="25">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="50" priority="20">
+  <conditionalFormatting sqref="C4:C13 B8:D25 C4:D7 B5:B7">
+    <cfRule type="expression" dxfId="46" priority="20">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="49" priority="22">
+    <cfRule type="expression" dxfId="45" priority="22">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="48" priority="13">
+    <cfRule type="expression" dxfId="44" priority="13">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F14 E4:E20 B4:D25 F16:F25">
-    <cfRule type="expression" dxfId="47" priority="19">
+  <conditionalFormatting sqref="F4:F14 E4:E20 F16:F25">
+    <cfRule type="expression" dxfId="43" priority="19">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15542,7 +15253,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B5" sqref="B5:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15616,9 +15327,6 @@
       <c r="A4" s="3">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="C4" s="12" t="s">
         <v>17</v>
       </c>
@@ -15633,22 +15341,24 @@
       <c r="A5" s="3">
         <v>0.375</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>7</v>
+      <c r="B5" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="C5" s="11"/>
       <c r="F5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="C6" s="11"/>
       <c r="F6" s="5"/>
     </row>
@@ -15685,7 +15395,7 @@
       <c r="B9" s="7"/>
       <c r="C9" s="11"/>
       <c r="D9" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>22</v>
@@ -15699,7 +15409,7 @@
       <c r="B10" s="7"/>
       <c r="C10" s="11"/>
       <c r="D10" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="5"/>
@@ -15755,10 +15465,10 @@
         <v>12</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -15775,7 +15485,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="5" t="s">
@@ -15819,7 +15529,7 @@
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F21" s="5"/>
     </row>
@@ -15830,7 +15540,7 @@
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F22" s="5"/>
     </row>
@@ -15877,7 +15587,7 @@
     <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
@@ -15887,7 +15597,7 @@
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="19" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
@@ -15952,37 +15662,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="46" priority="9">
+    <cfRule type="expression" dxfId="42" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="45" priority="8">
+    <cfRule type="expression" dxfId="41" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="44" priority="7">
+    <cfRule type="expression" dxfId="40" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="43" priority="5">
+  <conditionalFormatting sqref="C4:C13 B7:D25 C4:D6 B5:B6">
+    <cfRule type="expression" dxfId="39" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="42" priority="6">
+    <cfRule type="expression" dxfId="38" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="41" priority="3">
+    <cfRule type="expression" dxfId="37" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F13 E4:E20 B4:D25 F15:F25">
-    <cfRule type="expression" dxfId="40" priority="4">
+  <conditionalFormatting sqref="F4:F13 E4:E20 F15:F25">
+    <cfRule type="expression" dxfId="36" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15995,7 +15705,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16094,7 +15804,7 @@
         <v>13</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -16138,7 +15848,7 @@
       <c r="B9" s="7"/>
       <c r="C9" s="11"/>
       <c r="D9" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>22</v>
@@ -16152,7 +15862,7 @@
       <c r="B10" s="7"/>
       <c r="C10" s="11"/>
       <c r="D10" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="5"/>
@@ -16208,10 +15918,10 @@
         <v>12</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -16228,7 +15938,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="5" t="s">
@@ -16272,7 +15982,7 @@
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F21" s="5"/>
     </row>
@@ -16283,7 +15993,7 @@
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F22" s="5"/>
     </row>
@@ -16330,15 +16040,15 @@
     <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
       <c r="E28" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -16407,37 +16117,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="39" priority="9">
+    <cfRule type="expression" dxfId="35" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="38" priority="8">
+    <cfRule type="expression" dxfId="34" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="37" priority="7">
+    <cfRule type="expression" dxfId="33" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="36" priority="5">
+    <cfRule type="expression" dxfId="32" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="35" priority="6">
+    <cfRule type="expression" dxfId="31" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="34" priority="3">
+    <cfRule type="expression" dxfId="30" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F14 E4:E20 B4:D25 F16:F25">
-    <cfRule type="expression" dxfId="33" priority="4">
+    <cfRule type="expression" dxfId="29" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16549,7 +16259,7 @@
         <v>13</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -16593,7 +16303,7 @@
       <c r="B9" s="7"/>
       <c r="C9" s="11"/>
       <c r="D9" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>22</v>
@@ -16607,7 +16317,7 @@
       <c r="B10" s="7"/>
       <c r="C10" s="11"/>
       <c r="D10" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="5"/>
@@ -16663,10 +16373,10 @@
         <v>12</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -16683,7 +16393,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="5" t="s">
@@ -16727,7 +16437,7 @@
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F21" s="5"/>
     </row>
@@ -16738,7 +16448,7 @@
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F22" s="5"/>
     </row>
@@ -16785,7 +16495,7 @@
     <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
@@ -16858,37 +16568,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="32" priority="9">
+    <cfRule type="expression" dxfId="28" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="31" priority="8">
+    <cfRule type="expression" dxfId="27" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="30" priority="7">
+    <cfRule type="expression" dxfId="26" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="29" priority="5">
+    <cfRule type="expression" dxfId="25" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="28" priority="6">
+    <cfRule type="expression" dxfId="24" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="27" priority="3">
+    <cfRule type="expression" dxfId="23" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F14 E4:E20 B4:D25 F16:F25">
-    <cfRule type="expression" dxfId="26" priority="4">
+    <cfRule type="expression" dxfId="22" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17000,7 +16710,7 @@
         <v>13</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -17044,7 +16754,7 @@
       <c r="B9" s="7"/>
       <c r="C9" s="11"/>
       <c r="D9" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>22</v>
@@ -17058,7 +16768,7 @@
       <c r="B10" s="7"/>
       <c r="C10" s="11"/>
       <c r="D10" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="5"/>
@@ -17114,10 +16824,10 @@
         <v>12</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -17134,7 +16844,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="5" t="s">
@@ -17178,7 +16888,7 @@
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F21" s="5"/>
     </row>
@@ -17189,7 +16899,7 @@
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F22" s="5"/>
     </row>
@@ -17236,25 +16946,25 @@
     <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
@@ -17319,37 +17029,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="25" priority="9">
+    <cfRule type="expression" dxfId="21" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="24" priority="8">
+    <cfRule type="expression" dxfId="20" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="23" priority="7">
+    <cfRule type="expression" dxfId="19" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="22" priority="5">
+    <cfRule type="expression" dxfId="18" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="21" priority="6">
+    <cfRule type="expression" dxfId="17" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="20" priority="3">
+    <cfRule type="expression" dxfId="16" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F14 E4:E20 B4:D25 F16:F25">
-    <cfRule type="expression" dxfId="19" priority="4">
+    <cfRule type="expression" dxfId="15" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17361,8 +17071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141CA38B-DB7C-48AD-8513-9BED1D5E19BB}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B13" sqref="B3:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17436,8 +17146,8 @@
       <c r="A4" s="3">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>11</v>
+      <c r="B4" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>12</v>
@@ -17450,28 +17160,30 @@
       <c r="A5" s="3">
         <v>0.375</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="21" t="s">
+        <v>76</v>
+      </c>
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B7" s="7"/>
+      <c r="B7" s="5"/>
       <c r="F7" s="5"/>
       <c r="H7" s="1" t="s">
         <v>18</v>
@@ -17482,7 +17194,7 @@
       <c r="A8" s="3">
         <v>0.4375</v>
       </c>
-      <c r="B8" s="7"/>
+      <c r="B8" s="5"/>
       <c r="F8" s="5"/>
       <c r="H8" s="1" t="s">
         <v>19</v>
@@ -17495,12 +17207,12 @@
       <c r="A9" s="10">
         <v>0.44791666666666669</v>
       </c>
-      <c r="B9" s="7"/>
+      <c r="B9" s="5"/>
       <c r="D9" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -17508,7 +17220,7 @@
       <c r="A10" s="3">
         <v>0.45833333333333398</v>
       </c>
-      <c r="B10" s="7"/>
+      <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
         <v>16</v>
       </c>
@@ -17519,7 +17231,7 @@
       <c r="A11" s="3">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B11" s="7"/>
+      <c r="B11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="11"/>
       <c r="F11" s="5"/>
@@ -17528,7 +17240,7 @@
       <c r="A12" s="3">
         <v>0.5</v>
       </c>
-      <c r="B12" s="7"/>
+      <c r="B12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="11"/>
       <c r="F12" s="5"/>
@@ -17537,7 +17249,7 @@
       <c r="A13" s="3">
         <v>0.53125</v>
       </c>
-      <c r="B13" s="7"/>
+      <c r="B13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="11"/>
       <c r="F13" s="5"/>
@@ -17556,9 +17268,6 @@
       <c r="A16" s="3">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
@@ -17576,9 +17285,6 @@
       <c r="A17" s="3">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="C17" s="5" t="s">
         <v>13</v>
       </c>
@@ -17590,12 +17296,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>0.625</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>87</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
@@ -17606,7 +17309,6 @@
       <c r="A19" s="3">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="7"/>
       <c r="E19" s="11"/>
@@ -17616,7 +17318,6 @@
       <c r="A20" s="3">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="7"/>
       <c r="E20" s="11"/>
@@ -17626,7 +17327,6 @@
       <c r="A21" s="3">
         <v>0.6875</v>
       </c>
-      <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="F21" s="5"/>
     </row>
@@ -17634,7 +17334,6 @@
       <c r="A22" s="3">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="F22" s="5"/>
     </row>
@@ -17642,7 +17341,6 @@
       <c r="A23" s="3">
         <v>0.72916666666666696</v>
       </c>
-      <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="F23" s="5"/>
     </row>
@@ -17650,7 +17348,6 @@
       <c r="A24" s="3">
         <v>0.75</v>
       </c>
-      <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="F24" s="5"/>
     </row>
@@ -17658,7 +17355,6 @@
       <c r="A25" s="3">
         <v>0.76041666666666663</v>
       </c>
-      <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="F25" s="5"/>
     </row>
@@ -17678,122 +17374,100 @@
     <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="22" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
       <c r="F28" s="16" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
+        <v>113</v>
+      </c>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
     </row>
     <row r="30" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
-      <c r="B30" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
     </row>
     <row r="31" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
     </row>
     <row r="32" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
     </row>
     <row r="33" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
     </row>
     <row r="34" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
     </row>
     <row r="35" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
     </row>
     <row r="36" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="212" priority="9">
+    <cfRule type="expression" dxfId="214" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="211" priority="8">
+    <cfRule type="expression" dxfId="213" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="210" priority="6">
+  <conditionalFormatting sqref="C16:F25 B4:F15">
+    <cfRule type="expression" dxfId="212" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B28:F30 B35:F36 C31:F34">
-    <cfRule type="expression" dxfId="209" priority="5">
+  <conditionalFormatting sqref="B28:F36">
+    <cfRule type="expression" dxfId="211" priority="1">
       <formula>NOT(ISBLANK(B28))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B31">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>NOT(ISBLANK(B31))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B32">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>NOT(ISBLANK(B32))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B33">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>NOT(ISBLANK(B33))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B34">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>NOT(ISBLANK(B34))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17904,7 +17578,7 @@
         <v>13</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -17948,7 +17622,7 @@
       <c r="B9" s="7"/>
       <c r="C9" s="11"/>
       <c r="D9" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>22</v>
@@ -17962,7 +17636,7 @@
       <c r="B10" s="7"/>
       <c r="C10" s="11"/>
       <c r="D10" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="5"/>
@@ -18018,10 +17692,10 @@
         <v>12</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -18038,7 +17712,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="5" t="s">
@@ -18082,7 +17756,7 @@
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F21" s="5"/>
     </row>
@@ -18093,7 +17767,7 @@
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F22" s="5"/>
     </row>
@@ -18140,25 +17814,25 @@
     <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
@@ -18223,37 +17897,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="18" priority="9">
+    <cfRule type="expression" dxfId="14" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="17" priority="8">
+    <cfRule type="expression" dxfId="13" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="16" priority="7">
+    <cfRule type="expression" dxfId="12" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="15" priority="5">
+    <cfRule type="expression" dxfId="11" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="14" priority="6">
+    <cfRule type="expression" dxfId="10" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="13" priority="3">
+    <cfRule type="expression" dxfId="9" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F14 E4:E20 B4:D25 F16:F25">
-    <cfRule type="expression" dxfId="12" priority="4">
+    <cfRule type="expression" dxfId="8" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18365,7 +18039,7 @@
         <v>13</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -18409,7 +18083,7 @@
       <c r="B9" s="7"/>
       <c r="C9" s="11"/>
       <c r="D9" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>22</v>
@@ -18423,7 +18097,7 @@
       <c r="B10" s="7"/>
       <c r="C10" s="11"/>
       <c r="D10" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="5"/>
@@ -18479,10 +18153,10 @@
         <v>12</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -18499,7 +18173,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="5" t="s">
@@ -18543,7 +18217,7 @@
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F21" s="5"/>
     </row>
@@ -18554,7 +18228,7 @@
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F22" s="5"/>
     </row>
@@ -18601,15 +18275,15 @@
     <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
       <c r="E28" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -18619,7 +18293,7 @@
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
       <c r="F29" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -18680,42 +18354,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="11" priority="9">
+    <cfRule type="expression" dxfId="7" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="10" priority="8">
+    <cfRule type="expression" dxfId="6" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="9" priority="7">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="8" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="7" priority="6">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E13 B4:D25 E15:E20">
-    <cfRule type="expression" dxfId="6" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F25">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18727,8 +18401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BECB010-7B12-49C5-982D-18AE879FB3BF}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B14" sqref="B4:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18802,11 +18476,8 @@
       <c r="A4" s="3">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="E4" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>12</v>
@@ -18819,24 +18490,26 @@
       <c r="A5" s="3">
         <v>0.375</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>7</v>
+      <c r="B5" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
     </row>
@@ -18844,7 +18517,9 @@
       <c r="A7" s="3">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B7" s="7"/>
+      <c r="B7" s="9" t="s">
+        <v>117</v>
+      </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="H7" s="1" t="s">
@@ -18875,7 +18550,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -18921,8 +18596,9 @@
       <c r="A14" s="3">
         <v>0.54166666666666696</v>
       </c>
+      <c r="B14" s="7"/>
       <c r="E14" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -18930,16 +18606,13 @@
         <v>0.5625</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
@@ -18957,9 +18630,6 @@
       <c r="A17" s="3">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="C17" s="5" t="s">
         <v>13</v>
       </c>
@@ -18971,12 +18641,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>0.625</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>68</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
@@ -18987,7 +18654,6 @@
       <c r="A19" s="3">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="7"/>
       <c r="E19" s="11"/>
@@ -18997,7 +18663,6 @@
       <c r="A20" s="3">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="7"/>
       <c r="E20" s="11"/>
@@ -19007,10 +18672,9 @@
       <c r="A21" s="3">
         <v>0.6875</v>
       </c>
-      <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="E21" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F21" s="5"/>
     </row>
@@ -19018,10 +18682,9 @@
       <c r="A22" s="3">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="E22" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F22" s="5"/>
     </row>
@@ -19029,7 +18692,6 @@
       <c r="A23" s="3">
         <v>0.72916666666666696</v>
       </c>
-      <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -19038,7 +18700,6 @@
       <c r="A24" s="3">
         <v>0.75</v>
       </c>
-      <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -19047,7 +18708,6 @@
       <c r="A25" s="3">
         <v>0.76041666666666663</v>
       </c>
-      <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -19068,29 +18728,29 @@
     <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="19" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
       <c r="F28" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="19" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="17"/>
       <c r="F29" s="19" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -19151,22 +18811,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="208" priority="6">
+    <cfRule type="expression" dxfId="210" priority="6">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="207" priority="5">
+    <cfRule type="expression" dxfId="209" priority="5">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="206" priority="1">
+  <conditionalFormatting sqref="C16:F25 B16:B26 B15:F15 C4:F14 B5:B14">
+    <cfRule type="expression" dxfId="208" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="205" priority="2">
+    <cfRule type="expression" dxfId="207" priority="2">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19179,8 +18839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C30AA62-9079-4511-A186-E2F20A9CFEA4}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19254,9 +18914,6 @@
       <c r="A4" s="3">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="F4" s="6" t="s">
         <v>12</v>
       </c>
@@ -19268,28 +18925,32 @@
       <c r="A5" s="3">
         <v>0.375</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>7</v>
+      <c r="B5" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B7" s="7"/>
+      <c r="B7" s="21" t="s">
+        <v>66</v>
+      </c>
       <c r="F7" s="5"/>
       <c r="H7" s="1" t="s">
         <v>18</v>
@@ -19300,7 +18961,7 @@
       <c r="A8" s="3">
         <v>0.4375</v>
       </c>
-      <c r="B8" s="7"/>
+      <c r="B8" s="5"/>
       <c r="F8" s="5"/>
       <c r="H8" s="1" t="s">
         <v>19</v>
@@ -19313,12 +18974,12 @@
       <c r="A9" s="10">
         <v>0.44791666666666669</v>
       </c>
-      <c r="B9" s="7"/>
+      <c r="B9" s="5"/>
       <c r="D9" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -19326,7 +18987,7 @@
       <c r="A10" s="3">
         <v>0.45833333333333398</v>
       </c>
-      <c r="B10" s="7"/>
+      <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
         <v>16</v>
       </c>
@@ -19337,7 +18998,7 @@
       <c r="A11" s="3">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B11" s="7"/>
+      <c r="B11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="11"/>
       <c r="F11" s="5"/>
@@ -19346,7 +19007,7 @@
       <c r="A12" s="3">
         <v>0.5</v>
       </c>
-      <c r="B12" s="7"/>
+      <c r="B12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="11"/>
       <c r="F12" s="5"/>
@@ -19355,7 +19016,7 @@
       <c r="A13" s="3">
         <v>0.53125</v>
       </c>
-      <c r="B13" s="7"/>
+      <c r="B13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="11"/>
       <c r="F13" s="5"/>
@@ -19364,6 +19025,7 @@
       <c r="A14" s="3">
         <v>0.54166666666666696</v>
       </c>
+      <c r="B14" s="5"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -19374,9 +19036,6 @@
       <c r="A16" s="3">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
@@ -19394,9 +19053,6 @@
       <c r="A17" s="3">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="C17" s="5" t="s">
         <v>13</v>
       </c>
@@ -19408,12 +19064,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>0.625</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>69</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
@@ -19424,7 +19077,6 @@
       <c r="A19" s="3">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="7"/>
       <c r="E19" s="11"/>
@@ -19434,7 +19086,6 @@
       <c r="A20" s="3">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="7"/>
       <c r="E20" s="11"/>
@@ -19444,7 +19095,6 @@
       <c r="A21" s="3">
         <v>0.6875</v>
       </c>
-      <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="F21" s="5"/>
     </row>
@@ -19452,7 +19102,6 @@
       <c r="A22" s="3">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="F22" s="5"/>
     </row>
@@ -19460,7 +19109,6 @@
       <c r="A23" s="3">
         <v>0.72916666666666696</v>
       </c>
-      <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="F23" s="5"/>
     </row>
@@ -19468,7 +19116,6 @@
       <c r="A24" s="3">
         <v>0.75</v>
       </c>
-      <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="F24" s="5"/>
     </row>
@@ -19476,7 +19123,6 @@
       <c r="A25" s="3">
         <v>0.76041666666666663</v>
       </c>
-      <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="F25" s="5"/>
     </row>
@@ -19495,7 +19141,9 @@
     </row>
     <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
-      <c r="B28" s="16"/>
+      <c r="B28" s="16" t="s">
+        <v>118</v>
+      </c>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
@@ -19567,22 +19215,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="204" priority="6">
+    <cfRule type="expression" dxfId="206" priority="6">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="203" priority="5">
+    <cfRule type="expression" dxfId="205" priority="5">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="202" priority="1">
+  <conditionalFormatting sqref="C16:F25 B4:F15">
+    <cfRule type="expression" dxfId="204" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="201" priority="4">
+    <cfRule type="expression" dxfId="203" priority="4">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19595,7 +19243,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B13" sqref="B4:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19669,9 +19317,6 @@
       <c r="A4" s="3">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="H4" s="7" t="s">
         <v>10</v>
       </c>
@@ -19680,24 +19325,19 @@
       <c r="A5" s="3">
         <v>0.375</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>7</v>
-      </c>
       <c r="H5" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B6" s="7"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B7" s="7"/>
       <c r="H7" s="1" t="s">
         <v>18</v>
       </c>
@@ -19707,7 +19347,6 @@
       <c r="A8" s="3">
         <v>0.4375</v>
       </c>
-      <c r="B8" s="7"/>
       <c r="H8" s="1" t="s">
         <v>19</v>
       </c>
@@ -19719,19 +19358,17 @@
       <c r="A9" s="10">
         <v>0.44791666666666669</v>
       </c>
-      <c r="B9" s="7"/>
       <c r="D9" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>0.45833333333333398</v>
       </c>
-      <c r="B10" s="7"/>
       <c r="D10" s="5" t="s">
         <v>16</v>
       </c>
@@ -19741,7 +19378,6 @@
       <c r="A11" s="3">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B11" s="7"/>
       <c r="D11" s="5"/>
       <c r="E11" s="11"/>
     </row>
@@ -19749,7 +19385,6 @@
       <c r="A12" s="3">
         <v>0.5</v>
       </c>
-      <c r="B12" s="7"/>
       <c r="D12" s="5"/>
       <c r="E12" s="11"/>
     </row>
@@ -19757,7 +19392,6 @@
       <c r="A13" s="3">
         <v>0.53125</v>
       </c>
-      <c r="B13" s="7"/>
       <c r="D13" s="5"/>
       <c r="E13" s="11"/>
     </row>
@@ -19775,9 +19409,6 @@
       <c r="A16" s="3">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
@@ -19792,9 +19423,6 @@
       <c r="A17" s="3">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="C17" s="5" t="s">
         <v>13</v>
       </c>
@@ -19807,9 +19435,6 @@
       <c r="A18" s="3">
         <v>0.625</v>
       </c>
-      <c r="B18" s="21" t="s">
-        <v>70</v>
-      </c>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
       <c r="E18" s="11"/>
@@ -19818,7 +19443,6 @@
       <c r="A19" s="3">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="7"/>
       <c r="E19" s="11"/>
@@ -19827,7 +19451,6 @@
       <c r="A20" s="3">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="7"/>
       <c r="E20" s="11"/>
@@ -19836,35 +19459,30 @@
       <c r="A21" s="3">
         <v>0.6875</v>
       </c>
-      <c r="B21" s="5"/>
       <c r="C21" s="5"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B22" s="5"/>
       <c r="C22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>0.72916666666666696</v>
       </c>
-      <c r="B23" s="5"/>
       <c r="C23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>0.75</v>
       </c>
-      <c r="B24" s="5"/>
       <c r="C24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>0.76041666666666663</v>
       </c>
-      <c r="B25" s="5"/>
       <c r="C25" s="5"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -19883,19 +19501,19 @@
     <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -19964,22 +19582,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="200" priority="5">
+    <cfRule type="expression" dxfId="202" priority="5">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="199" priority="4">
+    <cfRule type="expression" dxfId="201" priority="4">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="198" priority="1">
+    <cfRule type="expression" dxfId="200" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="197" priority="3">
+    <cfRule type="expression" dxfId="199" priority="3">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19992,7 +19610,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="B5" sqref="B5:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20066,11 +19684,8 @@
       <c r="A4" s="3">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="D4" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>10</v>
@@ -20080,21 +19695,23 @@
       <c r="A5" s="3">
         <v>0.375</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>7</v>
+      <c r="B5" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -20164,6 +19781,7 @@
       <c r="A14" s="3">
         <v>0.54166666666666696</v>
       </c>
+      <c r="B14" s="7"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -20174,9 +19792,6 @@
       <c r="A16" s="3">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
@@ -20188,9 +19803,6 @@
       <c r="A17" s="3">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="C17" s="5" t="s">
         <v>13</v>
       </c>
@@ -20202,9 +19814,6 @@
       <c r="A18" s="3">
         <v>0.625</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>71</v>
-      </c>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
     </row>
@@ -20212,7 +19821,6 @@
       <c r="A19" s="3">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="7"/>
     </row>
@@ -20220,7 +19828,6 @@
       <c r="A20" s="3">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="7"/>
     </row>
@@ -20228,35 +19835,30 @@
       <c r="A21" s="3">
         <v>0.6875</v>
       </c>
-      <c r="B21" s="5"/>
       <c r="C21" s="5"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B22" s="5"/>
       <c r="C22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>0.72916666666666696</v>
       </c>
-      <c r="B23" s="5"/>
       <c r="C23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>0.75</v>
       </c>
-      <c r="B24" s="5"/>
       <c r="C24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>0.76041666666666663</v>
       </c>
-      <c r="B25" s="5"/>
       <c r="C25" s="5"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -20278,7 +19880,7 @@
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
       <c r="E28" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F28" s="16"/>
     </row>
@@ -20348,22 +19950,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="196" priority="4">
+    <cfRule type="expression" dxfId="198" priority="4">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="195" priority="3">
+    <cfRule type="expression" dxfId="197" priority="3">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="194" priority="1">
+  <conditionalFormatting sqref="C16:F25 B15:F15 C4:F14 B5:B14">
+    <cfRule type="expression" dxfId="196" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="193" priority="2">
+    <cfRule type="expression" dxfId="195" priority="2">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20451,10 +20053,10 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>12</v>
@@ -20468,16 +20070,16 @@
         <v>0.375</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -20522,7 +20124,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -20565,7 +20167,7 @@
         <v>0.54166666666666696</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -20573,7 +20175,7 @@
         <v>0.5625</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -20641,7 +20243,7 @@
       </c>
       <c r="C21" s="5"/>
       <c r="E21" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F21" s="5"/>
     </row>
@@ -20651,7 +20253,7 @@
       </c>
       <c r="C22" s="5"/>
       <c r="E22" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F22" s="5"/>
     </row>
@@ -20695,7 +20297,7 @@
     <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
@@ -20768,22 +20370,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="192" priority="8">
+    <cfRule type="expression" dxfId="194" priority="8">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="191" priority="7">
+    <cfRule type="expression" dxfId="193" priority="7">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="190" priority="1">
+    <cfRule type="expression" dxfId="192" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="189" priority="6">
+    <cfRule type="expression" dxfId="191" priority="6">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/uurrooster.xlsx
+++ b/uurrooster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LUCA-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54198ED-703C-4C67-9BAB-BBDF0D9F9D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743BD313-8690-46EF-820B-D73D423B6FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="4" r:id="rId1"/>
@@ -670,7 +670,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="228">
+  <dxfs count="225">
     <dxf>
       <font>
         <color theme="1"/>
@@ -1322,16 +1322,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
@@ -1460,6 +1450,16 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
@@ -1598,16 +1598,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
@@ -1672,6 +1662,16 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
@@ -1864,16 +1864,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
@@ -1938,6 +1928,16 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
@@ -1962,16 +1962,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
@@ -2050,6 +2040,16 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
@@ -2118,19 +2118,19 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2254,19 +2254,19 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2322,19 +2322,19 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2356,19 +2356,19 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2424,19 +2424,19 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2526,19 +2526,19 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2594,6 +2594,20 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="1"/>
       </font>
@@ -2605,60 +2619,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
       </font>
@@ -2671,6 +2631,16 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3446,14 +3416,14 @@
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:F6 C7:D7 F7 B15:F15 C16:F25 C8:F14 B4:B14">
-    <cfRule type="expression" dxfId="188" priority="2">
+  <conditionalFormatting sqref="B28:F36">
+    <cfRule type="expression" dxfId="188" priority="8">
+      <formula>NOT(ISBLANK(B28))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:F6 B4:B14 C7:D7 F7 C8:F14 B15:F15 C16:F25">
+    <cfRule type="expression" dxfId="187" priority="2">
       <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="187" priority="8">
-      <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3878,14 +3848,14 @@
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14:E14 B15:F25 C4:F13 B5:B14">
-    <cfRule type="expression" dxfId="184" priority="1">
+  <conditionalFormatting sqref="B28:F36">
+    <cfRule type="expression" dxfId="184" priority="8">
+      <formula>NOT(ISBLANK(B28))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:F13 B5:B14 B14:E14 B15:F25">
+    <cfRule type="expression" dxfId="183" priority="1">
       <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="183" priority="8">
-      <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4288,7 +4258,7 @@
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15:E15 C16:F25 B4:F14">
+  <conditionalFormatting sqref="B4:F14 B15:E15 C16:F25">
     <cfRule type="expression" dxfId="180" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
@@ -4720,14 +4690,14 @@
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15:E15 B16:F25 C4:F14 B5:B14">
-    <cfRule type="expression" dxfId="176" priority="1">
+  <conditionalFormatting sqref="B28:F36">
+    <cfRule type="expression" dxfId="176" priority="14">
+      <formula>NOT(ISBLANK(B28))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:F14 B5:B14 B15:E15 B16:F25">
+    <cfRule type="expression" dxfId="175" priority="1">
       <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="175" priority="14">
-      <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5132,7 +5102,7 @@
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15:D15 F15 C16:F25 B4:F14">
+  <conditionalFormatting sqref="B4:F14 B15:D15 F15 C16:F25">
     <cfRule type="expression" dxfId="172" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
@@ -6398,14 +6368,14 @@
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:F7 C8:D8 F8 B14:F25 C9:F13 B4:B13">
-    <cfRule type="expression" dxfId="160" priority="1">
+  <conditionalFormatting sqref="B28:F36">
+    <cfRule type="expression" dxfId="160" priority="11">
+      <formula>NOT(ISBLANK(B28))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:F7 B4:B13 C8:D8 F8 C9:F13 B14:F25">
+    <cfRule type="expression" dxfId="159" priority="1">
       <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="159" priority="11">
-      <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6802,7 +6772,7 @@
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15:D15 F15 B16:F25 B4:F14">
+  <conditionalFormatting sqref="B4:F14 B15:D15 F15 B16:F25">
     <cfRule type="expression" dxfId="156" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
@@ -7206,7 +7176,7 @@
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15:D15 F15 B16:F25 B4:F14">
+  <conditionalFormatting sqref="B4:F14 B15:D15 F15 B16:F25">
     <cfRule type="expression" dxfId="152" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
@@ -7633,22 +7603,22 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="227" priority="14">
+    <cfRule type="expression" dxfId="224" priority="14">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="226" priority="6">
+    <cfRule type="expression" dxfId="223" priority="6">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="225" priority="15">
+    <cfRule type="expression" dxfId="222" priority="15">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="224" priority="1">
+    <cfRule type="expression" dxfId="221" priority="1">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8037,29 +8007,29 @@
       <c r="F36" s="17"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B14:D14 F14 B15:F25">
+    <cfRule type="expression" dxfId="150" priority="7">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="150" priority="19">
+    <cfRule type="expression" dxfId="149" priority="19">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="149" priority="18">
+    <cfRule type="expression" dxfId="148" priority="18">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:F13 B14:D14 F14 B15:F25">
-    <cfRule type="expression" dxfId="148" priority="7">
+  <conditionalFormatting sqref="B4:F13">
+    <cfRule type="expression" dxfId="147" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="147" priority="2">
+    <cfRule type="expression" dxfId="146" priority="2">
       <formula>NOT(ISBLANK(B28))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B13">
-    <cfRule type="expression" dxfId="146" priority="1">
-      <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8460,29 +8430,29 @@
       <c r="F36" s="19"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B14:D14 F14 B15:F25">
+    <cfRule type="expression" dxfId="145" priority="2">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="145" priority="14">
+    <cfRule type="expression" dxfId="144" priority="14">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="144" priority="13">
+    <cfRule type="expression" dxfId="143" priority="13">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:F13 B14:D14 F14 B15:F25">
-    <cfRule type="expression" dxfId="143" priority="2">
+  <conditionalFormatting sqref="B4:F13">
+    <cfRule type="expression" dxfId="142" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="142" priority="12">
+    <cfRule type="expression" dxfId="141" priority="12">
       <formula>NOT(ISBLANK(B28))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B13">
-    <cfRule type="expression" dxfId="141" priority="1">
-      <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9348,43 +9318,43 @@
       <c r="F36" s="17"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B4:B15">
+    <cfRule type="expression" dxfId="133" priority="1">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="133" priority="18">
+    <cfRule type="expression" dxfId="132" priority="18">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="132" priority="17">
+    <cfRule type="expression" dxfId="131" priority="17">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="131" priority="16">
+    <cfRule type="expression" dxfId="130" priority="16">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C13 B5:B15">
-    <cfRule type="expression" dxfId="130" priority="8">
+  <conditionalFormatting sqref="C4:C13">
+    <cfRule type="expression" dxfId="129" priority="8">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="129" priority="19">
+    <cfRule type="expression" dxfId="128" priority="19">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="128" priority="12">
+    <cfRule type="expression" dxfId="127" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F14 E9:E20 F16:F25">
-    <cfRule type="expression" dxfId="127" priority="13">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4">
-    <cfRule type="expression" dxfId="126" priority="1">
+    <cfRule type="expression" dxfId="126" priority="13">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11147,43 +11117,43 @@
       <c r="F36" s="17"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B4:B15">
+    <cfRule type="expression" dxfId="104" priority="1">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="104" priority="12">
+    <cfRule type="expression" dxfId="103" priority="12">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="103" priority="11">
+    <cfRule type="expression" dxfId="102" priority="11">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="102" priority="10">
+    <cfRule type="expression" dxfId="101" priority="10">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C13 B5:B15">
-    <cfRule type="expression" dxfId="101" priority="3">
+  <conditionalFormatting sqref="C4:C13">
+    <cfRule type="expression" dxfId="100" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="100" priority="13">
+    <cfRule type="expression" dxfId="99" priority="13">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="99" priority="6">
+    <cfRule type="expression" dxfId="98" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F13 E9:E20 F15:F25">
-    <cfRule type="expression" dxfId="98" priority="7">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4">
-    <cfRule type="expression" dxfId="97" priority="1">
+    <cfRule type="expression" dxfId="97" priority="7">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12060,8 +12030,8 @@
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15:F15 C16:F25 C4:F14 B5:B14">
-    <cfRule type="expression" dxfId="87" priority="7">
+  <conditionalFormatting sqref="B4:F15">
+    <cfRule type="expression" dxfId="87" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12075,13 +12045,13 @@
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C16:F25">
+    <cfRule type="expression" dxfId="84" priority="7">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="84" priority="6">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4">
-    <cfRule type="expression" dxfId="83" priority="1">
+    <cfRule type="expression" dxfId="83" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12093,7 +12063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E8F0BC9-EDE6-4632-8A0A-D46DEAFA1848}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -12500,49 +12470,34 @@
       <c r="F36" s="19"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B9:E12">
+    <cfRule type="expression" dxfId="220" priority="1">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="223" priority="13">
+    <cfRule type="expression" dxfId="219" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="222" priority="12">
+    <cfRule type="expression" dxfId="218" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B13 B14:F15 B4:F8 B9:D12 F9:F13 C16:F19 C20:D25 F20:F25 E20:E24 D13:E13">
-    <cfRule type="expression" dxfId="221" priority="10">
+  <conditionalFormatting sqref="B4:F8 B4:B13 F9:F13 D13:E13 B14:F15 C16:F19 E20:E24 C20:D25 F20:F25">
+    <cfRule type="expression" dxfId="217" priority="10">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="220" priority="5">
+    <cfRule type="expression" dxfId="216" priority="5">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="219" priority="7">
+    <cfRule type="expression" dxfId="215" priority="7">
       <formula>NOT(ISBLANK(C13))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="218" priority="4">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="expression" dxfId="217" priority="3">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
-    <cfRule type="expression" dxfId="216" priority="2">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="215" priority="1">
-      <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12970,38 +12925,38 @@
       <c r="F36" s="17"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="expression" dxfId="82" priority="1">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="82" priority="12">
+    <cfRule type="expression" dxfId="81" priority="12">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="81" priority="11">
+    <cfRule type="expression" dxfId="80" priority="11">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="80" priority="7">
+    <cfRule type="expression" dxfId="79" priority="7">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="79" priority="10">
+    <cfRule type="expression" dxfId="78" priority="10">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="78" priority="3">
+    <cfRule type="expression" dxfId="77" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="77" priority="6">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4">
-    <cfRule type="expression" dxfId="76" priority="1">
+    <cfRule type="expression" dxfId="76" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13429,38 +13384,38 @@
       <c r="F36" s="17"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="expression" dxfId="75" priority="1">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="75" priority="17">
+    <cfRule type="expression" dxfId="74" priority="17">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="74" priority="16">
+    <cfRule type="expression" dxfId="73" priority="16">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="73" priority="12">
+    <cfRule type="expression" dxfId="72" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="72" priority="2">
+    <cfRule type="expression" dxfId="71" priority="2">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="71" priority="8">
+    <cfRule type="expression" dxfId="70" priority="8">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="70" priority="11">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4">
-    <cfRule type="expression" dxfId="69" priority="1">
+    <cfRule type="expression" dxfId="69" priority="11">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14777,7 +14732,7 @@
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C13 B8:D25 C4:D7 B5:B7">
+  <conditionalFormatting sqref="C4:D7 C4:C13 B5:B7 B8:D25">
     <cfRule type="expression" dxfId="52" priority="18">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
@@ -15224,7 +15179,7 @@
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C13 B8:D25 C4:D7 B5:B7">
+  <conditionalFormatting sqref="C4:D7 C4:C13 B5:B7 B8:D25">
     <cfRule type="expression" dxfId="46" priority="20">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
@@ -15676,7 +15631,7 @@
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C13 B7:D25 C4:D6 B5:B6">
+  <conditionalFormatting sqref="C4:D6 C4:C13 B5:B6 B7:D25">
     <cfRule type="expression" dxfId="39" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
@@ -17071,8 +17026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141CA38B-DB7C-48AD-8513-9BED1D5E19BB}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B13" sqref="B3:B13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17460,7 +17415,7 @@
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C16:F25 B4:F15">
+  <conditionalFormatting sqref="B4:F15 C16:F25">
     <cfRule type="expression" dxfId="212" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
@@ -18820,14 +18775,14 @@
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C16:F25 B16:B26 B15:F15 C4:F14 B5:B14">
-    <cfRule type="expression" dxfId="208" priority="1">
+  <conditionalFormatting sqref="B28:F36">
+    <cfRule type="expression" dxfId="208" priority="2">
+      <formula>NOT(ISBLANK(B28))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:F14 B5:B14 B15:F15 C16:F25 B16:B26">
+    <cfRule type="expression" dxfId="207" priority="1">
       <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="207" priority="2">
-      <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19224,7 +19179,7 @@
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C16:F25 B4:F15">
+  <conditionalFormatting sqref="B4:F15 C16:F25">
     <cfRule type="expression" dxfId="204" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
@@ -19959,14 +19914,14 @@
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C16:F25 B15:F15 C4:F14 B5:B14">
-    <cfRule type="expression" dxfId="196" priority="1">
+  <conditionalFormatting sqref="B28:F36">
+    <cfRule type="expression" dxfId="196" priority="2">
+      <formula>NOT(ISBLANK(B28))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:F14 B5:B14 B15:F15 C16:F25">
+    <cfRule type="expression" dxfId="195" priority="1">
       <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="195" priority="2">
-      <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/uurrooster.xlsx
+++ b/uurrooster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LUCA-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743BD313-8690-46EF-820B-D73D423B6FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5474E4-4B95-49A2-920D-E6D319CF0D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="4" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="121">
   <si>
     <t>Week</t>
   </si>
@@ -450,6 +450,9 @@
   <si>
     <t>Inschrijven CM: webdesign (16:00)</t>
   </si>
+  <si>
+    <t>Azza meeten 13:00u otaco's</t>
+  </si>
 </sst>
 </file>
 
@@ -12063,8 +12066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E8F0BC9-EDE6-4632-8A0A-D46DEAFA1848}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12234,7 +12237,7 @@
         <v>0.53125</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -17026,7 +17029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141CA38B-DB7C-48AD-8513-9BED1D5E19BB}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>

--- a/uurrooster.xlsx
+++ b/uurrooster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LUCA-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5474E4-4B95-49A2-920D-E6D319CF0D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6938A375-B362-4242-8468-308B8CB792D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="4" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="122">
   <si>
     <t>Week</t>
   </si>
@@ -453,6 +453,9 @@
   <si>
     <t>Azza meeten 13:00u otaco's</t>
   </si>
+  <si>
+    <t>Design thinking voor groepje onderzoek/vragen enzo verzamelen common tere</t>
+  </si>
 </sst>
 </file>
 
@@ -12066,8 +12069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E8F0BC9-EDE6-4632-8A0A-D46DEAFA1848}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12406,7 +12409,7 @@
     </row>
     <row r="30" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="23" t="s">
         <v>110</v>
       </c>
       <c r="C30" s="19" t="s">
@@ -17029,8 +17032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141CA38B-DB7C-48AD-8513-9BED1D5E19BB}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17353,7 +17356,9 @@
     </row>
     <row r="30" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
-      <c r="B30" s="19"/>
+      <c r="B30" s="19" t="s">
+        <v>121</v>
+      </c>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>

--- a/uurrooster.xlsx
+++ b/uurrooster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LUCA-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6938A375-B362-4242-8468-308B8CB792D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E123F83E-97E7-49B7-943C-D62CCB8DAE0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="4" r:id="rId1"/>
@@ -400,9 +400,6 @@
     <t>Design thinking of niet? + waar + voormiddag?</t>
   </si>
   <si>
-    <t xml:space="preserve">Azza meeten 12.45u korenmarkt </t>
-  </si>
-  <si>
     <t>Groepen zouden moeten verdeeld zijn ABCD</t>
   </si>
   <si>
@@ -455,6 +452,9 @@
   </si>
   <si>
     <t>Design thinking voor groepje onderzoek/vragen enzo verzamelen common tere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azza meeten 13.00u korenmarkt </t>
   </si>
 </sst>
 </file>
@@ -3010,7 +3010,7 @@
         <v>77</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -11954,7 +11954,7 @@
     <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
@@ -12069,8 +12069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E8F0BC9-EDE6-4632-8A0A-D46DEAFA1848}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12240,7 +12240,7 @@
         <v>0.53125</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -12298,7 +12298,9 @@
       <c r="A18" s="3">
         <v>0.625</v>
       </c>
-      <c r="C18" s="5"/>
+      <c r="C18" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="D18" s="7"/>
       <c r="E18" s="11"/>
       <c r="F18" s="5"/>
@@ -12380,8 +12382,8 @@
       <c r="B28" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="C28" s="16" t="s">
-        <v>84</v>
+      <c r="C28" s="19" t="s">
+        <v>121</v>
       </c>
       <c r="D28" s="19"/>
       <c r="E28" s="16" t="s">
@@ -12394,14 +12396,14 @@
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D29" s="19"/>
       <c r="E29" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F29" s="19" t="s">
         <v>94</v>
@@ -12410,10 +12412,7 @@
     <row r="30" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>
@@ -12452,7 +12451,7 @@
     <row r="34" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
@@ -12496,7 +12495,7 @@
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B28:F36">
+  <conditionalFormatting sqref="B31:F36 B29:B30 D29:F30 C29 B28:F28">
     <cfRule type="expression" dxfId="216" priority="5">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
@@ -14876,7 +14875,7 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C7" s="11"/>
       <c r="F7" s="5"/>
@@ -15558,7 +15557,7 @@
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
@@ -17032,8 +17031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141CA38B-DB7C-48AD-8513-9BED1D5E19BB}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C32" sqref="C31:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17335,7 +17334,7 @@
     <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
@@ -17346,8 +17345,8 @@
     </row>
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
-      <c r="B29" s="19" t="s">
-        <v>113</v>
+      <c r="B29" s="23" t="s">
+        <v>112</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
@@ -17357,7 +17356,7 @@
     <row r="30" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
@@ -18481,7 +18480,7 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -18691,7 +18690,7 @@
     <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>59</v>
@@ -18705,7 +18704,7 @@
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C29" s="19" t="s">
         <v>87</v>
@@ -18713,7 +18712,7 @@
       <c r="D29" s="17"/>
       <c r="E29" s="17"/>
       <c r="F29" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -19105,7 +19104,7 @@
     <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>

--- a/uurrooster.xlsx
+++ b/uurrooster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LUCA-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E123F83E-97E7-49B7-943C-D62CCB8DAE0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A46C259-640D-43F4-A33F-90B3DD05B20E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12070,7 +12070,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:C29"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12414,6 +12414,7 @@
       <c r="B30" s="23" t="s">
         <v>109</v>
       </c>
+      <c r="C30" s="19"/>
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>
       <c r="F30" s="19"/>
@@ -12495,7 +12496,7 @@
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B31:F36 B29:B30 D29:F30 C29 B28:F28">
+  <conditionalFormatting sqref="B28:F36">
     <cfRule type="expression" dxfId="216" priority="5">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
@@ -17031,7 +17032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141CA38B-DB7C-48AD-8513-9BED1D5E19BB}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C32" sqref="C31:C32"/>
     </sheetView>
   </sheetViews>

--- a/uurrooster.xlsx
+++ b/uurrooster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LUCA-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A46C259-640D-43F4-A33F-90B3DD05B20E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{865E0A7A-707B-4997-A4D3-CEB0B1E28947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -676,7 +676,21 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="225">
+  <dxfs count="237">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="1"/>
@@ -689,56 +703,15 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1"/>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -763,11 +736,27 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1"/>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -780,29 +769,6 @@
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -826,6 +792,20 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="1"/>
       </font>
@@ -837,36 +817,15 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1"/>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -920,6 +879,26 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
@@ -1166,6 +1145,16 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
@@ -1274,19 +1263,29 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1328,19 +1327,19 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1392,19 +1391,19 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1446,26 +1445,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
@@ -1520,29 +1499,19 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1594,19 +1563,19 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1668,19 +1637,19 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1870,6 +1839,16 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
@@ -1934,16 +1913,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
@@ -1968,19 +1937,49 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2012,19 +2011,39 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2056,19 +2075,49 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2142,6 +2191,16 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
       </font>
@@ -2158,6 +2217,16 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
@@ -2226,19 +2295,19 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2260,19 +2329,19 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2328,19 +2397,19 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2464,19 +2533,19 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2607,13 +2676,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="1"/>
       </font>
@@ -2647,6 +2709,64 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3413,22 +3533,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="190" priority="10">
+    <cfRule type="expression" dxfId="208" priority="10">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="189" priority="9">
+    <cfRule type="expression" dxfId="207" priority="9">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="188" priority="8">
+    <cfRule type="expression" dxfId="206" priority="8">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:F6 B4:B14 C7:D7 F7 C8:F14 B15:F15 C16:F25">
-    <cfRule type="expression" dxfId="187" priority="2">
+    <cfRule type="expression" dxfId="205" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3845,22 +3965,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="186" priority="10">
+    <cfRule type="expression" dxfId="204" priority="10">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="185" priority="9">
+    <cfRule type="expression" dxfId="203" priority="9">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="184" priority="8">
+    <cfRule type="expression" dxfId="202" priority="8">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:F13 B5:B14 B14:E14 B15:F25">
-    <cfRule type="expression" dxfId="183" priority="1">
+    <cfRule type="expression" dxfId="201" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4255,22 +4375,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="182" priority="15">
+    <cfRule type="expression" dxfId="200" priority="15">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="181" priority="14">
+    <cfRule type="expression" dxfId="199" priority="14">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F14 B15:E15 C16:F25">
-    <cfRule type="expression" dxfId="180" priority="1">
+    <cfRule type="expression" dxfId="198" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="179" priority="13">
+    <cfRule type="expression" dxfId="197" priority="13">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4687,22 +4807,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="178" priority="16">
+    <cfRule type="expression" dxfId="196" priority="16">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="177" priority="15">
+    <cfRule type="expression" dxfId="195" priority="15">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="176" priority="14">
+    <cfRule type="expression" dxfId="194" priority="14">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:F14 B5:B14 B15:E15 B16:F25">
-    <cfRule type="expression" dxfId="175" priority="1">
+    <cfRule type="expression" dxfId="193" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5099,22 +5219,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="174" priority="13">
+    <cfRule type="expression" dxfId="192" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="173" priority="12">
+    <cfRule type="expression" dxfId="191" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F14 B15:D15 F15 C16:F25">
-    <cfRule type="expression" dxfId="172" priority="1">
+    <cfRule type="expression" dxfId="190" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="171" priority="11">
+    <cfRule type="expression" dxfId="189" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5530,22 +5650,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="170" priority="13">
+    <cfRule type="expression" dxfId="188" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="169" priority="12">
+    <cfRule type="expression" dxfId="187" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="168" priority="1">
+    <cfRule type="expression" dxfId="186" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="167" priority="11">
+    <cfRule type="expression" dxfId="185" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5961,22 +6081,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="166" priority="18">
+    <cfRule type="expression" dxfId="184" priority="18">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="165" priority="17">
+    <cfRule type="expression" dxfId="183" priority="17">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="164" priority="6">
+    <cfRule type="expression" dxfId="182" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="163" priority="1">
+    <cfRule type="expression" dxfId="181" priority="1">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6365,22 +6485,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="162" priority="13">
+    <cfRule type="expression" dxfId="180" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="161" priority="12">
+    <cfRule type="expression" dxfId="179" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="160" priority="11">
+    <cfRule type="expression" dxfId="178" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:F7 B4:B13 C8:D8 F8 C9:F13 B14:F25">
-    <cfRule type="expression" dxfId="159" priority="1">
+    <cfRule type="expression" dxfId="177" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6769,22 +6889,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="158" priority="18">
+    <cfRule type="expression" dxfId="176" priority="18">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="157" priority="17">
+    <cfRule type="expression" dxfId="175" priority="17">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F14 B15:D15 F15 B16:F25">
-    <cfRule type="expression" dxfId="156" priority="6">
+    <cfRule type="expression" dxfId="174" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="155" priority="1">
+    <cfRule type="expression" dxfId="173" priority="1">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7173,22 +7293,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="154" priority="13">
+    <cfRule type="expression" dxfId="172" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="153" priority="12">
+    <cfRule type="expression" dxfId="171" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F14 B15:D15 F15 B16:F25">
-    <cfRule type="expression" dxfId="152" priority="1">
+    <cfRule type="expression" dxfId="170" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="151" priority="11">
+    <cfRule type="expression" dxfId="169" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7609,22 +7729,22 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="224" priority="14">
+    <cfRule type="expression" dxfId="236" priority="14">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="223" priority="6">
+    <cfRule type="expression" dxfId="235" priority="6">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="222" priority="15">
+    <cfRule type="expression" dxfId="234" priority="15">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="221" priority="1">
+    <cfRule type="expression" dxfId="233" priority="1">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8014,27 +8134,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B14:D14 F14 B15:F25">
-    <cfRule type="expression" dxfId="150" priority="7">
+    <cfRule type="expression" dxfId="168" priority="7">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="149" priority="19">
+    <cfRule type="expression" dxfId="167" priority="19">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="148" priority="18">
+    <cfRule type="expression" dxfId="166" priority="18">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F13">
-    <cfRule type="expression" dxfId="147" priority="1">
+    <cfRule type="expression" dxfId="165" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="146" priority="2">
+    <cfRule type="expression" dxfId="164" priority="2">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8437,27 +8557,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B14:D14 F14 B15:F25">
-    <cfRule type="expression" dxfId="145" priority="2">
+    <cfRule type="expression" dxfId="163" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="144" priority="14">
+    <cfRule type="expression" dxfId="162" priority="14">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="143" priority="13">
+    <cfRule type="expression" dxfId="161" priority="13">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F13">
-    <cfRule type="expression" dxfId="142" priority="1">
+    <cfRule type="expression" dxfId="160" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="141" priority="12">
+    <cfRule type="expression" dxfId="159" priority="12">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8888,37 +9008,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="140" priority="20">
+    <cfRule type="expression" dxfId="158" priority="20">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="139" priority="19">
+    <cfRule type="expression" dxfId="157" priority="19">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="138" priority="18">
+    <cfRule type="expression" dxfId="156" priority="18">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13 B5:B25">
-    <cfRule type="expression" dxfId="137" priority="6">
+    <cfRule type="expression" dxfId="155" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="136" priority="21">
+    <cfRule type="expression" dxfId="154" priority="21">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="135" priority="14">
+    <cfRule type="expression" dxfId="153" priority="14">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F14 E15 E16:F25">
-    <cfRule type="expression" dxfId="134" priority="15">
+    <cfRule type="expression" dxfId="152" priority="15">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9325,42 +9445,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:B15">
-    <cfRule type="expression" dxfId="133" priority="1">
+    <cfRule type="expression" dxfId="151" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="132" priority="18">
+    <cfRule type="expression" dxfId="150" priority="18">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="131" priority="17">
+    <cfRule type="expression" dxfId="149" priority="17">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="130" priority="16">
+    <cfRule type="expression" dxfId="148" priority="16">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="129" priority="8">
+    <cfRule type="expression" dxfId="147" priority="8">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="128" priority="19">
+    <cfRule type="expression" dxfId="146" priority="19">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="127" priority="12">
+    <cfRule type="expression" dxfId="145" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F14 E9:E20 F16:F25">
-    <cfRule type="expression" dxfId="126" priority="13">
+    <cfRule type="expression" dxfId="144" priority="13">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9791,37 +9911,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="125" priority="18">
+    <cfRule type="expression" dxfId="143" priority="18">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="124" priority="17">
+    <cfRule type="expression" dxfId="142" priority="17">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="123" priority="16">
+    <cfRule type="expression" dxfId="141" priority="16">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13 B5:B25">
-    <cfRule type="expression" dxfId="122" priority="9">
+    <cfRule type="expression" dxfId="140" priority="9">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="121" priority="19">
+    <cfRule type="expression" dxfId="139" priority="19">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="120" priority="12">
+    <cfRule type="expression" dxfId="138" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F13 E14 E15:F25">
-    <cfRule type="expression" dxfId="119" priority="13">
+    <cfRule type="expression" dxfId="137" priority="13">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10228,37 +10348,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="118" priority="11">
+    <cfRule type="expression" dxfId="136" priority="11">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="117" priority="10">
+    <cfRule type="expression" dxfId="135" priority="10">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="116" priority="9">
+    <cfRule type="expression" dxfId="134" priority="9">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13 B4:B15">
-    <cfRule type="expression" dxfId="115" priority="2">
+    <cfRule type="expression" dxfId="133" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="114" priority="12">
+    <cfRule type="expression" dxfId="132" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="113" priority="5">
+    <cfRule type="expression" dxfId="131" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F14 E9:E20 F16:F25">
-    <cfRule type="expression" dxfId="112" priority="6">
+    <cfRule type="expression" dxfId="130" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10687,37 +10807,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="111" priority="18">
+    <cfRule type="expression" dxfId="129" priority="18">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="110" priority="17">
+    <cfRule type="expression" dxfId="128" priority="17">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="109" priority="16">
+    <cfRule type="expression" dxfId="127" priority="16">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13 B5:B25">
-    <cfRule type="expression" dxfId="108" priority="9">
+    <cfRule type="expression" dxfId="126" priority="9">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="107" priority="19">
+    <cfRule type="expression" dxfId="125" priority="19">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="106" priority="12">
+    <cfRule type="expression" dxfId="124" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F14 E15 E16:F25">
-    <cfRule type="expression" dxfId="105" priority="13">
+    <cfRule type="expression" dxfId="123" priority="13">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11124,42 +11244,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:B15">
-    <cfRule type="expression" dxfId="104" priority="1">
+    <cfRule type="expression" dxfId="122" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="103" priority="12">
+    <cfRule type="expression" dxfId="121" priority="12">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="102" priority="11">
+    <cfRule type="expression" dxfId="120" priority="11">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="101" priority="10">
+    <cfRule type="expression" dxfId="119" priority="10">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="100" priority="3">
+    <cfRule type="expression" dxfId="118" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="99" priority="13">
+    <cfRule type="expression" dxfId="117" priority="13">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="98" priority="6">
+    <cfRule type="expression" dxfId="116" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F13 E9:E20 F15:F25">
-    <cfRule type="expression" dxfId="97" priority="7">
+    <cfRule type="expression" dxfId="115" priority="7">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11588,37 +11708,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="96" priority="16">
+    <cfRule type="expression" dxfId="114" priority="16">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="95" priority="15">
+    <cfRule type="expression" dxfId="113" priority="15">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="94" priority="14">
+    <cfRule type="expression" dxfId="112" priority="14">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13 B5:B25">
-    <cfRule type="expression" dxfId="93" priority="8">
+    <cfRule type="expression" dxfId="111" priority="8">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="92" priority="17">
+    <cfRule type="expression" dxfId="110" priority="17">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="91" priority="10">
+    <cfRule type="expression" dxfId="109" priority="10">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F13 E14 E15:F25">
-    <cfRule type="expression" dxfId="90" priority="11">
+    <cfRule type="expression" dxfId="108" priority="11">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12027,37 +12147,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="89" priority="12">
+    <cfRule type="expression" dxfId="107" priority="12">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="88" priority="11">
+    <cfRule type="expression" dxfId="106" priority="11">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F15">
-    <cfRule type="expression" dxfId="87" priority="1">
+    <cfRule type="expression" dxfId="105" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="86" priority="10">
+    <cfRule type="expression" dxfId="104" priority="10">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="85" priority="3">
+    <cfRule type="expression" dxfId="103" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:F25">
-    <cfRule type="expression" dxfId="84" priority="7">
+    <cfRule type="expression" dxfId="102" priority="7">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="83" priority="6">
+    <cfRule type="expression" dxfId="101" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12070,7 +12190,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12477,32 +12597,30 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B9:E12">
-    <cfRule type="expression" dxfId="220" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="219" priority="13">
+    <cfRule type="expression" dxfId="10" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="218" priority="12">
-      <formula>B3 = TODAY()</formula>
+    <cfRule type="expression" dxfId="6" priority="12">
+      <formula>B$3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F8 B4:B13 F9:F13 D13:E13 B14:F15 C16:F19 E20:E24 C20:D25 F20:F25">
-    <cfRule type="expression" dxfId="217" priority="10">
+    <cfRule type="expression" dxfId="9" priority="10">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="216" priority="5">
+    <cfRule type="expression" dxfId="8" priority="5">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="215" priority="7">
+    <cfRule type="expression" dxfId="7" priority="7">
       <formula>NOT(ISBLANK(C13))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12932,37 +13050,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4">
-    <cfRule type="expression" dxfId="82" priority="1">
+    <cfRule type="expression" dxfId="100" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="81" priority="12">
+    <cfRule type="expression" dxfId="99" priority="12">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="80" priority="11">
+    <cfRule type="expression" dxfId="98" priority="11">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="79" priority="7">
+    <cfRule type="expression" dxfId="97" priority="7">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="78" priority="10">
+    <cfRule type="expression" dxfId="96" priority="10">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="77" priority="3">
+    <cfRule type="expression" dxfId="95" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="76" priority="6">
+    <cfRule type="expression" dxfId="94" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13391,37 +13509,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4">
-    <cfRule type="expression" dxfId="75" priority="1">
+    <cfRule type="expression" dxfId="93" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="74" priority="17">
+    <cfRule type="expression" dxfId="92" priority="17">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="73" priority="16">
+    <cfRule type="expression" dxfId="91" priority="16">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="72" priority="12">
+    <cfRule type="expression" dxfId="90" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="71" priority="2">
+    <cfRule type="expression" dxfId="89" priority="2">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="70" priority="8">
+    <cfRule type="expression" dxfId="88" priority="8">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="69" priority="11">
+    <cfRule type="expression" dxfId="87" priority="11">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13846,27 +13964,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="68" priority="18">
+    <cfRule type="expression" dxfId="86" priority="18">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="67" priority="17">
+    <cfRule type="expression" dxfId="85" priority="17">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F13 B14:E14 B15:F25">
-    <cfRule type="expression" dxfId="66" priority="1">
+    <cfRule type="expression" dxfId="84" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="65" priority="16">
+    <cfRule type="expression" dxfId="83" priority="16">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="64" priority="12">
+    <cfRule type="expression" dxfId="82" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14245,42 +14363,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:D25">
-    <cfRule type="expression" dxfId="63" priority="7">
+    <cfRule type="expression" dxfId="81" priority="7">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="62" priority="23">
+    <cfRule type="expression" dxfId="80" priority="23">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="61" priority="22">
+    <cfRule type="expression" dxfId="79" priority="22">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="60" priority="21">
+    <cfRule type="expression" dxfId="78" priority="21">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="59" priority="15">
+    <cfRule type="expression" dxfId="77" priority="15">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="58" priority="17">
+    <cfRule type="expression" dxfId="76" priority="17">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E26">
-    <cfRule type="expression" dxfId="57" priority="1">
+    <cfRule type="expression" dxfId="75" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F25">
-    <cfRule type="expression" dxfId="56" priority="19">
+    <cfRule type="expression" dxfId="74" priority="19">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14724,32 +14842,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="55" priority="25">
+    <cfRule type="expression" dxfId="73" priority="25">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="54" priority="24">
+    <cfRule type="expression" dxfId="72" priority="24">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="53" priority="23">
+    <cfRule type="expression" dxfId="71" priority="23">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:D7 C4:C13 B5:B7 B8:D25">
-    <cfRule type="expression" dxfId="52" priority="18">
+    <cfRule type="expression" dxfId="70" priority="18">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="51" priority="20">
+    <cfRule type="expression" dxfId="69" priority="20">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F14 E4:E26 F16:F25">
-    <cfRule type="expression" dxfId="50" priority="17">
+    <cfRule type="expression" dxfId="68" priority="17">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15171,37 +15289,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="49" priority="27">
+    <cfRule type="expression" dxfId="67" priority="27">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="48" priority="26">
+    <cfRule type="expression" dxfId="66" priority="26">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="47" priority="25">
+    <cfRule type="expression" dxfId="65" priority="25">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:D7 C4:C13 B5:B7 B8:D25">
-    <cfRule type="expression" dxfId="46" priority="20">
+    <cfRule type="expression" dxfId="64" priority="20">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="45" priority="22">
+    <cfRule type="expression" dxfId="63" priority="22">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="44" priority="13">
+    <cfRule type="expression" dxfId="62" priority="13">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F14 E4:E20 F16:F25">
-    <cfRule type="expression" dxfId="43" priority="19">
+    <cfRule type="expression" dxfId="61" priority="19">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15623,37 +15741,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="42" priority="9">
+    <cfRule type="expression" dxfId="60" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="41" priority="8">
+    <cfRule type="expression" dxfId="59" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="40" priority="7">
+    <cfRule type="expression" dxfId="58" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:D6 C4:C13 B5:B6 B7:D25">
-    <cfRule type="expression" dxfId="39" priority="5">
+    <cfRule type="expression" dxfId="57" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="38" priority="6">
+    <cfRule type="expression" dxfId="56" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="37" priority="3">
+    <cfRule type="expression" dxfId="55" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F13 E4:E20 F15:F25">
-    <cfRule type="expression" dxfId="36" priority="4">
+    <cfRule type="expression" dxfId="54" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16078,37 +16196,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="35" priority="9">
+    <cfRule type="expression" dxfId="53" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="34" priority="8">
+    <cfRule type="expression" dxfId="52" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="33" priority="7">
+    <cfRule type="expression" dxfId="51" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="32" priority="5">
+    <cfRule type="expression" dxfId="50" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="31" priority="6">
+    <cfRule type="expression" dxfId="49" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="30" priority="3">
+    <cfRule type="expression" dxfId="48" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F14 E4:E20 B4:D25 F16:F25">
-    <cfRule type="expression" dxfId="29" priority="4">
+    <cfRule type="expression" dxfId="47" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16529,37 +16647,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="28" priority="9">
+    <cfRule type="expression" dxfId="46" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="27" priority="8">
+    <cfRule type="expression" dxfId="45" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="26" priority="7">
+    <cfRule type="expression" dxfId="44" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="25" priority="5">
+    <cfRule type="expression" dxfId="43" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="24" priority="6">
+    <cfRule type="expression" dxfId="42" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="23" priority="3">
+    <cfRule type="expression" dxfId="41" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F14 E4:E20 B4:D25 F16:F25">
-    <cfRule type="expression" dxfId="22" priority="4">
+    <cfRule type="expression" dxfId="40" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16990,37 +17108,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="21" priority="9">
+    <cfRule type="expression" dxfId="39" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="20" priority="8">
+    <cfRule type="expression" dxfId="38" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="19" priority="7">
+    <cfRule type="expression" dxfId="37" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="18" priority="5">
+    <cfRule type="expression" dxfId="36" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="17" priority="6">
+    <cfRule type="expression" dxfId="35" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="16" priority="3">
+    <cfRule type="expression" dxfId="34" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F14 E4:E20 B4:D25 F16:F25">
-    <cfRule type="expression" dxfId="15" priority="4">
+    <cfRule type="expression" dxfId="33" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17414,22 +17532,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="214" priority="9">
+    <cfRule type="expression" dxfId="232" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="213" priority="8">
+    <cfRule type="expression" dxfId="231" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F15 C16:F25">
-    <cfRule type="expression" dxfId="212" priority="6">
+    <cfRule type="expression" dxfId="230" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="211" priority="1">
+    <cfRule type="expression" dxfId="229" priority="1">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17860,37 +17978,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="14" priority="9">
+    <cfRule type="expression" dxfId="32" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="13" priority="8">
+    <cfRule type="expression" dxfId="31" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="12" priority="7">
+    <cfRule type="expression" dxfId="30" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="11" priority="5">
+    <cfRule type="expression" dxfId="29" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="10" priority="6">
+    <cfRule type="expression" dxfId="28" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="27" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F14 E4:E20 B4:D25 F16:F25">
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="26" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18317,42 +18435,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="7" priority="9">
+    <cfRule type="expression" dxfId="25" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="6" priority="8">
+    <cfRule type="expression" dxfId="24" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="23" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="22" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="21" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E13 B4:D25 E15:E20">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="20" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="19" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F25">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="18" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18774,22 +18892,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="210" priority="6">
+    <cfRule type="expression" dxfId="228" priority="6">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="209" priority="5">
+    <cfRule type="expression" dxfId="227" priority="5">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="208" priority="2">
+    <cfRule type="expression" dxfId="226" priority="2">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:F14 B5:B14 B15:F15 C16:F25 B16:B26">
-    <cfRule type="expression" dxfId="207" priority="1">
+    <cfRule type="expression" dxfId="225" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19178,22 +19296,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="206" priority="6">
+    <cfRule type="expression" dxfId="224" priority="6">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="205" priority="5">
+    <cfRule type="expression" dxfId="223" priority="5">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F15 C16:F25">
-    <cfRule type="expression" dxfId="204" priority="1">
+    <cfRule type="expression" dxfId="222" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="203" priority="4">
+    <cfRule type="expression" dxfId="221" priority="4">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19545,22 +19663,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="202" priority="5">
+    <cfRule type="expression" dxfId="220" priority="5">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="201" priority="4">
+    <cfRule type="expression" dxfId="219" priority="4">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="200" priority="1">
+    <cfRule type="expression" dxfId="218" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="199" priority="3">
+    <cfRule type="expression" dxfId="217" priority="3">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19913,22 +20031,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="198" priority="4">
+    <cfRule type="expression" dxfId="216" priority="4">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="197" priority="3">
+    <cfRule type="expression" dxfId="215" priority="3">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="196" priority="2">
+    <cfRule type="expression" dxfId="214" priority="2">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:F14 B5:B14 B15:F15 C16:F25">
-    <cfRule type="expression" dxfId="195" priority="1">
+    <cfRule type="expression" dxfId="213" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20333,22 +20451,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="194" priority="8">
+    <cfRule type="expression" dxfId="212" priority="8">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="193" priority="7">
+    <cfRule type="expression" dxfId="211" priority="7">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="192" priority="1">
+    <cfRule type="expression" dxfId="210" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="191" priority="6">
+    <cfRule type="expression" dxfId="209" priority="6">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/uurrooster.xlsx
+++ b/uurrooster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LUCA-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{865E0A7A-707B-4997-A4D3-CEB0B1E28947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77C8D11-E4A7-4B64-81AE-74F5AA27274C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="122">
   <si>
     <t>Week</t>
   </si>
@@ -676,21 +676,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="237">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="225">
     <dxf>
       <font>
         <color theme="1"/>
@@ -698,6 +684,1953 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -715,2058 +2648,11 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color theme="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3533,22 +3419,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="208" priority="10">
+    <cfRule type="expression" dxfId="190" priority="10">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="207" priority="9">
+    <cfRule type="expression" dxfId="189" priority="9">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="206" priority="8">
+    <cfRule type="expression" dxfId="188" priority="8">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:F6 B4:B14 C7:D7 F7 C8:F14 B15:F15 C16:F25">
-    <cfRule type="expression" dxfId="205" priority="2">
+    <cfRule type="expression" dxfId="187" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3965,22 +3851,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="204" priority="10">
+    <cfRule type="expression" dxfId="186" priority="10">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="203" priority="9">
+    <cfRule type="expression" dxfId="185" priority="9">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="202" priority="8">
+    <cfRule type="expression" dxfId="184" priority="8">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:F13 B5:B14 B14:E14 B15:F25">
-    <cfRule type="expression" dxfId="201" priority="1">
+    <cfRule type="expression" dxfId="183" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4375,22 +4261,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="200" priority="15">
+    <cfRule type="expression" dxfId="182" priority="15">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="199" priority="14">
+    <cfRule type="expression" dxfId="181" priority="14">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F14 B15:E15 C16:F25">
-    <cfRule type="expression" dxfId="198" priority="1">
+    <cfRule type="expression" dxfId="180" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="197" priority="13">
+    <cfRule type="expression" dxfId="179" priority="13">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4807,22 +4693,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="196" priority="16">
+    <cfRule type="expression" dxfId="178" priority="16">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="195" priority="15">
+    <cfRule type="expression" dxfId="177" priority="15">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="194" priority="14">
+    <cfRule type="expression" dxfId="176" priority="14">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:F14 B5:B14 B15:E15 B16:F25">
-    <cfRule type="expression" dxfId="193" priority="1">
+    <cfRule type="expression" dxfId="175" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5219,22 +5105,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="192" priority="13">
+    <cfRule type="expression" dxfId="174" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="191" priority="12">
+    <cfRule type="expression" dxfId="173" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F14 B15:D15 F15 C16:F25">
-    <cfRule type="expression" dxfId="190" priority="1">
+    <cfRule type="expression" dxfId="172" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="189" priority="11">
+    <cfRule type="expression" dxfId="171" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5650,22 +5536,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="188" priority="13">
+    <cfRule type="expression" dxfId="170" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="187" priority="12">
+    <cfRule type="expression" dxfId="169" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="186" priority="1">
+    <cfRule type="expression" dxfId="168" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="185" priority="11">
+    <cfRule type="expression" dxfId="167" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6081,22 +5967,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="184" priority="18">
+    <cfRule type="expression" dxfId="166" priority="18">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="183" priority="17">
+    <cfRule type="expression" dxfId="165" priority="17">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="182" priority="6">
+    <cfRule type="expression" dxfId="164" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="181" priority="1">
+    <cfRule type="expression" dxfId="163" priority="1">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6485,22 +6371,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="180" priority="13">
+    <cfRule type="expression" dxfId="162" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="179" priority="12">
+    <cfRule type="expression" dxfId="161" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="178" priority="11">
+    <cfRule type="expression" dxfId="160" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:F7 B4:B13 C8:D8 F8 C9:F13 B14:F25">
-    <cfRule type="expression" dxfId="177" priority="1">
+    <cfRule type="expression" dxfId="159" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6889,22 +6775,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="176" priority="18">
+    <cfRule type="expression" dxfId="158" priority="18">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="175" priority="17">
+    <cfRule type="expression" dxfId="157" priority="17">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F14 B15:D15 F15 B16:F25">
-    <cfRule type="expression" dxfId="174" priority="6">
+    <cfRule type="expression" dxfId="156" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="173" priority="1">
+    <cfRule type="expression" dxfId="155" priority="1">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7293,22 +7179,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="172" priority="13">
+    <cfRule type="expression" dxfId="154" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="171" priority="12">
+    <cfRule type="expression" dxfId="153" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F14 B15:D15 F15 B16:F25">
-    <cfRule type="expression" dxfId="170" priority="1">
+    <cfRule type="expression" dxfId="152" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="169" priority="11">
+    <cfRule type="expression" dxfId="151" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7729,22 +7615,22 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="236" priority="14">
+    <cfRule type="expression" dxfId="224" priority="14">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="235" priority="6">
+    <cfRule type="expression" dxfId="223" priority="6">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="234" priority="15">
+    <cfRule type="expression" dxfId="222" priority="15">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="233" priority="1">
+    <cfRule type="expression" dxfId="221" priority="1">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8134,27 +8020,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B14:D14 F14 B15:F25">
-    <cfRule type="expression" dxfId="168" priority="7">
+    <cfRule type="expression" dxfId="150" priority="7">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="167" priority="19">
+    <cfRule type="expression" dxfId="149" priority="19">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="166" priority="18">
+    <cfRule type="expression" dxfId="148" priority="18">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F13">
-    <cfRule type="expression" dxfId="165" priority="1">
+    <cfRule type="expression" dxfId="147" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="164" priority="2">
+    <cfRule type="expression" dxfId="146" priority="2">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8557,27 +8443,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B14:D14 F14 B15:F25">
-    <cfRule type="expression" dxfId="163" priority="2">
+    <cfRule type="expression" dxfId="145" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="162" priority="14">
+    <cfRule type="expression" dxfId="144" priority="14">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="161" priority="13">
+    <cfRule type="expression" dxfId="143" priority="13">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F13">
-    <cfRule type="expression" dxfId="160" priority="1">
+    <cfRule type="expression" dxfId="142" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="159" priority="12">
+    <cfRule type="expression" dxfId="141" priority="12">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9008,37 +8894,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="158" priority="20">
+    <cfRule type="expression" dxfId="140" priority="20">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="157" priority="19">
+    <cfRule type="expression" dxfId="139" priority="19">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="156" priority="18">
+    <cfRule type="expression" dxfId="138" priority="18">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13 B5:B25">
-    <cfRule type="expression" dxfId="155" priority="6">
+    <cfRule type="expression" dxfId="137" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="154" priority="21">
+    <cfRule type="expression" dxfId="136" priority="21">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="153" priority="14">
+    <cfRule type="expression" dxfId="135" priority="14">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F14 E15 E16:F25">
-    <cfRule type="expression" dxfId="152" priority="15">
+    <cfRule type="expression" dxfId="134" priority="15">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9445,42 +9331,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:B15">
-    <cfRule type="expression" dxfId="151" priority="1">
+    <cfRule type="expression" dxfId="133" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="150" priority="18">
+    <cfRule type="expression" dxfId="132" priority="18">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="149" priority="17">
+    <cfRule type="expression" dxfId="131" priority="17">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="148" priority="16">
+    <cfRule type="expression" dxfId="130" priority="16">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="147" priority="8">
+    <cfRule type="expression" dxfId="129" priority="8">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="146" priority="19">
+    <cfRule type="expression" dxfId="128" priority="19">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="145" priority="12">
+    <cfRule type="expression" dxfId="127" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F14 E9:E20 F16:F25">
-    <cfRule type="expression" dxfId="144" priority="13">
+    <cfRule type="expression" dxfId="126" priority="13">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9911,37 +9797,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="143" priority="18">
+    <cfRule type="expression" dxfId="125" priority="18">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="142" priority="17">
+    <cfRule type="expression" dxfId="124" priority="17">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="141" priority="16">
+    <cfRule type="expression" dxfId="123" priority="16">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13 B5:B25">
-    <cfRule type="expression" dxfId="140" priority="9">
+    <cfRule type="expression" dxfId="122" priority="9">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="139" priority="19">
+    <cfRule type="expression" dxfId="121" priority="19">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="138" priority="12">
+    <cfRule type="expression" dxfId="120" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F13 E14 E15:F25">
-    <cfRule type="expression" dxfId="137" priority="13">
+    <cfRule type="expression" dxfId="119" priority="13">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10348,37 +10234,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="136" priority="11">
+    <cfRule type="expression" dxfId="118" priority="11">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="135" priority="10">
+    <cfRule type="expression" dxfId="117" priority="10">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="134" priority="9">
+    <cfRule type="expression" dxfId="116" priority="9">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13 B4:B15">
-    <cfRule type="expression" dxfId="133" priority="2">
+    <cfRule type="expression" dxfId="115" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="132" priority="12">
+    <cfRule type="expression" dxfId="114" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="131" priority="5">
+    <cfRule type="expression" dxfId="113" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F14 E9:E20 F16:F25">
-    <cfRule type="expression" dxfId="130" priority="6">
+    <cfRule type="expression" dxfId="112" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10807,37 +10693,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="129" priority="18">
+    <cfRule type="expression" dxfId="111" priority="18">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="128" priority="17">
+    <cfRule type="expression" dxfId="110" priority="17">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="127" priority="16">
+    <cfRule type="expression" dxfId="109" priority="16">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13 B5:B25">
-    <cfRule type="expression" dxfId="126" priority="9">
+    <cfRule type="expression" dxfId="108" priority="9">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="125" priority="19">
+    <cfRule type="expression" dxfId="107" priority="19">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="124" priority="12">
+    <cfRule type="expression" dxfId="106" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F14 E15 E16:F25">
-    <cfRule type="expression" dxfId="123" priority="13">
+    <cfRule type="expression" dxfId="105" priority="13">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11244,42 +11130,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:B15">
-    <cfRule type="expression" dxfId="122" priority="1">
+    <cfRule type="expression" dxfId="104" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="121" priority="12">
+    <cfRule type="expression" dxfId="103" priority="12">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="120" priority="11">
+    <cfRule type="expression" dxfId="102" priority="11">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="119" priority="10">
+    <cfRule type="expression" dxfId="101" priority="10">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="118" priority="3">
+    <cfRule type="expression" dxfId="100" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="117" priority="13">
+    <cfRule type="expression" dxfId="99" priority="13">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="116" priority="6">
+    <cfRule type="expression" dxfId="98" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F13 E9:E20 F15:F25">
-    <cfRule type="expression" dxfId="115" priority="7">
+    <cfRule type="expression" dxfId="97" priority="7">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11708,37 +11594,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="114" priority="16">
+    <cfRule type="expression" dxfId="96" priority="16">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="113" priority="15">
+    <cfRule type="expression" dxfId="95" priority="15">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="112" priority="14">
+    <cfRule type="expression" dxfId="94" priority="14">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13 B5:B25">
-    <cfRule type="expression" dxfId="111" priority="8">
+    <cfRule type="expression" dxfId="93" priority="8">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="110" priority="17">
+    <cfRule type="expression" dxfId="92" priority="17">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="109" priority="10">
+    <cfRule type="expression" dxfId="91" priority="10">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F13 E14 E15:F25">
-    <cfRule type="expression" dxfId="108" priority="11">
+    <cfRule type="expression" dxfId="90" priority="11">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12147,37 +12033,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="107" priority="12">
+    <cfRule type="expression" dxfId="89" priority="12">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="106" priority="11">
+    <cfRule type="expression" dxfId="88" priority="11">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F15">
-    <cfRule type="expression" dxfId="105" priority="1">
+    <cfRule type="expression" dxfId="87" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="104" priority="10">
+    <cfRule type="expression" dxfId="86" priority="10">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="103" priority="3">
+    <cfRule type="expression" dxfId="85" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:F25">
-    <cfRule type="expression" dxfId="102" priority="7">
+    <cfRule type="expression" dxfId="84" priority="7">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="101" priority="6">
+    <cfRule type="expression" dxfId="83" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12190,7 +12076,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12264,9 +12150,6 @@
       <c r="A4" s="3">
         <v>0.35416666666666669</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="F4" s="6" t="s">
         <v>12</v>
       </c>
@@ -12278,9 +12161,6 @@
       <c r="A5" s="3">
         <v>0.375</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="F5" s="5" t="s">
         <v>13</v>
       </c>
@@ -12292,14 +12172,18 @@
       <c r="A6" s="3">
         <v>0.39583333333333298</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>0.41666666666666702</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="F7" s="5"/>
       <c r="H7" s="1" t="s">
         <v>18</v>
@@ -12370,16 +12254,10 @@
       <c r="A14" s="3">
         <v>0.54166666666666696</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>0.5625</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -12596,31 +12474,31 @@
       <c r="F36" s="19"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B9:E12">
-    <cfRule type="expression" dxfId="11" priority="1">
+  <conditionalFormatting sqref="B9:E12 B4:D5 F4:F5 B6:F8">
+    <cfRule type="expression" dxfId="220" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="10" priority="13">
+    <cfRule type="expression" dxfId="219" priority="12">
+      <formula>B$3 = TODAY()</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="218" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="12">
-      <formula>B$3 = TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:F8 B4:B13 F9:F13 D13:E13 B14:F15 C16:F19 E20:E24 C20:D25 F20:F25">
-    <cfRule type="expression" dxfId="9" priority="10">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:B13 F9:F13 D13:E13 C16:F19 E20:E24 C20:D25 F20:F25 B14:F15">
+    <cfRule type="expression" dxfId="217" priority="10">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="8" priority="5">
+    <cfRule type="expression" dxfId="216" priority="5">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="7" priority="7">
+    <cfRule type="expression" dxfId="215" priority="7">
       <formula>NOT(ISBLANK(C13))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13050,37 +12928,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4">
-    <cfRule type="expression" dxfId="100" priority="1">
+    <cfRule type="expression" dxfId="82" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="99" priority="12">
+    <cfRule type="expression" dxfId="81" priority="12">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="98" priority="11">
+    <cfRule type="expression" dxfId="80" priority="11">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="97" priority="7">
+    <cfRule type="expression" dxfId="79" priority="7">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="96" priority="10">
+    <cfRule type="expression" dxfId="78" priority="10">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="95" priority="3">
+    <cfRule type="expression" dxfId="77" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="94" priority="6">
+    <cfRule type="expression" dxfId="76" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13509,37 +13387,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4">
-    <cfRule type="expression" dxfId="93" priority="1">
+    <cfRule type="expression" dxfId="75" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="92" priority="17">
+    <cfRule type="expression" dxfId="74" priority="17">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="91" priority="16">
+    <cfRule type="expression" dxfId="73" priority="16">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="90" priority="12">
+    <cfRule type="expression" dxfId="72" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="89" priority="2">
+    <cfRule type="expression" dxfId="71" priority="2">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="88" priority="8">
+    <cfRule type="expression" dxfId="70" priority="8">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="87" priority="11">
+    <cfRule type="expression" dxfId="69" priority="11">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13964,27 +13842,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="86" priority="18">
+    <cfRule type="expression" dxfId="68" priority="18">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="85" priority="17">
+    <cfRule type="expression" dxfId="67" priority="17">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F13 B14:E14 B15:F25">
-    <cfRule type="expression" dxfId="84" priority="1">
+    <cfRule type="expression" dxfId="66" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="83" priority="16">
+    <cfRule type="expression" dxfId="65" priority="16">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="82" priority="12">
+    <cfRule type="expression" dxfId="64" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14363,42 +14241,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:D25">
-    <cfRule type="expression" dxfId="81" priority="7">
+    <cfRule type="expression" dxfId="63" priority="7">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="80" priority="23">
+    <cfRule type="expression" dxfId="62" priority="23">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="79" priority="22">
+    <cfRule type="expression" dxfId="61" priority="22">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="78" priority="21">
+    <cfRule type="expression" dxfId="60" priority="21">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="77" priority="15">
+    <cfRule type="expression" dxfId="59" priority="15">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="76" priority="17">
+    <cfRule type="expression" dxfId="58" priority="17">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E26">
-    <cfRule type="expression" dxfId="75" priority="1">
+    <cfRule type="expression" dxfId="57" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F25">
-    <cfRule type="expression" dxfId="74" priority="19">
+    <cfRule type="expression" dxfId="56" priority="19">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14842,32 +14720,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="73" priority="25">
+    <cfRule type="expression" dxfId="55" priority="25">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="72" priority="24">
+    <cfRule type="expression" dxfId="54" priority="24">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="71" priority="23">
+    <cfRule type="expression" dxfId="53" priority="23">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:D7 C4:C13 B5:B7 B8:D25">
-    <cfRule type="expression" dxfId="70" priority="18">
+    <cfRule type="expression" dxfId="52" priority="18">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="69" priority="20">
+    <cfRule type="expression" dxfId="51" priority="20">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F14 E4:E26 F16:F25">
-    <cfRule type="expression" dxfId="68" priority="17">
+    <cfRule type="expression" dxfId="50" priority="17">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15289,37 +15167,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="67" priority="27">
+    <cfRule type="expression" dxfId="49" priority="27">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="66" priority="26">
+    <cfRule type="expression" dxfId="48" priority="26">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="65" priority="25">
+    <cfRule type="expression" dxfId="47" priority="25">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:D7 C4:C13 B5:B7 B8:D25">
-    <cfRule type="expression" dxfId="64" priority="20">
+    <cfRule type="expression" dxfId="46" priority="20">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="63" priority="22">
+    <cfRule type="expression" dxfId="45" priority="22">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="62" priority="13">
+    <cfRule type="expression" dxfId="44" priority="13">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F14 E4:E20 F16:F25">
-    <cfRule type="expression" dxfId="61" priority="19">
+    <cfRule type="expression" dxfId="43" priority="19">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15741,37 +15619,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="60" priority="9">
+    <cfRule type="expression" dxfId="42" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="59" priority="8">
+    <cfRule type="expression" dxfId="41" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="58" priority="7">
+    <cfRule type="expression" dxfId="40" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:D6 C4:C13 B5:B6 B7:D25">
-    <cfRule type="expression" dxfId="57" priority="5">
+    <cfRule type="expression" dxfId="39" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="56" priority="6">
+    <cfRule type="expression" dxfId="38" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="55" priority="3">
+    <cfRule type="expression" dxfId="37" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F13 E4:E20 F15:F25">
-    <cfRule type="expression" dxfId="54" priority="4">
+    <cfRule type="expression" dxfId="36" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16196,37 +16074,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="53" priority="9">
+    <cfRule type="expression" dxfId="35" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="52" priority="8">
+    <cfRule type="expression" dxfId="34" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="51" priority="7">
+    <cfRule type="expression" dxfId="33" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="50" priority="5">
+    <cfRule type="expression" dxfId="32" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="49" priority="6">
+    <cfRule type="expression" dxfId="31" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="48" priority="3">
+    <cfRule type="expression" dxfId="30" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F14 E4:E20 B4:D25 F16:F25">
-    <cfRule type="expression" dxfId="47" priority="4">
+    <cfRule type="expression" dxfId="29" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16647,37 +16525,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="46" priority="9">
+    <cfRule type="expression" dxfId="28" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="45" priority="8">
+    <cfRule type="expression" dxfId="27" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="44" priority="7">
+    <cfRule type="expression" dxfId="26" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="43" priority="5">
+    <cfRule type="expression" dxfId="25" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="42" priority="6">
+    <cfRule type="expression" dxfId="24" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="41" priority="3">
+    <cfRule type="expression" dxfId="23" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F14 E4:E20 B4:D25 F16:F25">
-    <cfRule type="expression" dxfId="40" priority="4">
+    <cfRule type="expression" dxfId="22" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17108,37 +16986,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="39" priority="9">
+    <cfRule type="expression" dxfId="21" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="38" priority="8">
+    <cfRule type="expression" dxfId="20" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="37" priority="7">
+    <cfRule type="expression" dxfId="19" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="36" priority="5">
+    <cfRule type="expression" dxfId="18" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="35" priority="6">
+    <cfRule type="expression" dxfId="17" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="34" priority="3">
+    <cfRule type="expression" dxfId="16" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F14 E4:E20 B4:D25 F16:F25">
-    <cfRule type="expression" dxfId="33" priority="4">
+    <cfRule type="expression" dxfId="15" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17532,22 +17410,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="232" priority="9">
+    <cfRule type="expression" dxfId="214" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="231" priority="8">
+    <cfRule type="expression" dxfId="213" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F15 C16:F25">
-    <cfRule type="expression" dxfId="230" priority="6">
+    <cfRule type="expression" dxfId="212" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="229" priority="1">
+    <cfRule type="expression" dxfId="211" priority="1">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17978,37 +17856,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="32" priority="9">
+    <cfRule type="expression" dxfId="14" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="31" priority="8">
+    <cfRule type="expression" dxfId="13" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="30" priority="7">
+    <cfRule type="expression" dxfId="12" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="29" priority="5">
+    <cfRule type="expression" dxfId="11" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="28" priority="6">
+    <cfRule type="expression" dxfId="10" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="27" priority="3">
+    <cfRule type="expression" dxfId="9" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F14 E4:E20 B4:D25 F16:F25">
-    <cfRule type="expression" dxfId="26" priority="4">
+    <cfRule type="expression" dxfId="8" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18435,42 +18313,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="25" priority="9">
+    <cfRule type="expression" dxfId="7" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="24" priority="8">
+    <cfRule type="expression" dxfId="6" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="23" priority="7">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="22" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="21" priority="6">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E13 B4:D25 E15:E20">
-    <cfRule type="expression" dxfId="20" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="19" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F25">
-    <cfRule type="expression" dxfId="18" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18892,22 +18770,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="228" priority="6">
+    <cfRule type="expression" dxfId="210" priority="6">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="227" priority="5">
+    <cfRule type="expression" dxfId="209" priority="5">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="226" priority="2">
+    <cfRule type="expression" dxfId="208" priority="2">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:F14 B5:B14 B15:F15 C16:F25 B16:B26">
-    <cfRule type="expression" dxfId="225" priority="1">
+    <cfRule type="expression" dxfId="207" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19296,22 +19174,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="224" priority="6">
+    <cfRule type="expression" dxfId="206" priority="6">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="223" priority="5">
+    <cfRule type="expression" dxfId="205" priority="5">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F15 C16:F25">
-    <cfRule type="expression" dxfId="222" priority="1">
+    <cfRule type="expression" dxfId="204" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="221" priority="4">
+    <cfRule type="expression" dxfId="203" priority="4">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19663,22 +19541,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="220" priority="5">
+    <cfRule type="expression" dxfId="202" priority="5">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="219" priority="4">
+    <cfRule type="expression" dxfId="201" priority="4">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="218" priority="1">
+    <cfRule type="expression" dxfId="200" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="217" priority="3">
+    <cfRule type="expression" dxfId="199" priority="3">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20031,22 +19909,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="216" priority="4">
+    <cfRule type="expression" dxfId="198" priority="4">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="215" priority="3">
+    <cfRule type="expression" dxfId="197" priority="3">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="214" priority="2">
+    <cfRule type="expression" dxfId="196" priority="2">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:F14 B5:B14 B15:F15 C16:F25">
-    <cfRule type="expression" dxfId="213" priority="1">
+    <cfRule type="expression" dxfId="195" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20451,22 +20329,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="212" priority="8">
+    <cfRule type="expression" dxfId="194" priority="8">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="211" priority="7">
+    <cfRule type="expression" dxfId="193" priority="7">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="210" priority="1">
+    <cfRule type="expression" dxfId="192" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="209" priority="6">
+    <cfRule type="expression" dxfId="191" priority="6">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/uurrooster.xlsx
+++ b/uurrooster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LUCA-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77C8D11-E4A7-4B64-81AE-74F5AA27274C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B17916-93BB-44F4-BE3C-2D84CF99BB3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2615,16 +2615,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i/>
       </font>
@@ -2643,6 +2633,16 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12076,7 +12076,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12474,22 +12474,22 @@
       <c r="F36" s="19"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B9:E12 B4:D5 F4:F5 B6:F8">
-    <cfRule type="expression" dxfId="220" priority="1">
+  <conditionalFormatting sqref="B4:B13 F9:F13 D13:E13 B14:F15 C16:F19 E20:E24 C20:D25 F20:F25">
+    <cfRule type="expression" dxfId="220" priority="10">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B4:D5 F4:F5 B6:F8 B9:E12">
+    <cfRule type="expression" dxfId="219" priority="1">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="219" priority="12">
+    <cfRule type="expression" dxfId="218" priority="12">
       <formula>B$3 = TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="218" priority="13">
+    <cfRule type="expression" dxfId="217" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B13 F9:F13 D13:E13 C16:F19 E20:E24 C20:D25 F20:F25 B14:F15">
-    <cfRule type="expression" dxfId="217" priority="10">
-      <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">

--- a/uurrooster.xlsx
+++ b/uurrooster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LUCA-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405C49F5-B941-486F-A826-14950D7DC403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385B8288-BB55-4532-9614-DB64C3839E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="4" r:id="rId1"/>
@@ -12078,8 +12078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E8F0BC9-EDE6-4632-8A0A-D46DEAFA1848}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12383,7 +12383,7 @@
       <c r="B28" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="23" t="s">
         <v>120</v>
       </c>
       <c r="D28" s="19"/>
@@ -12399,7 +12399,7 @@
       <c r="B29" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="23" t="s">
         <v>106</v>
       </c>
       <c r="D29" s="19"/>
@@ -17031,8 +17031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141CA38B-DB7C-48AD-8513-9BED1D5E19BB}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/uurrooster.xlsx
+++ b/uurrooster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sethv\Documents\GitHub\LUCA-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20ADFF20-D2A9-424E-8067-1B27F4F44450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF24F69-ECE8-4501-9F04-C07416FAF940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -463,7 +463,7 @@
     <t>Geen C&amp;O, wel video haystack</t>
   </si>
   <si>
-    <t>TERUG TRANSFEREN VAN REVOLUT + GWN EEN FUCKING NOTE ADDEN OP GSM</t>
+    <t>Pas om 11.30 ofzo idk?</t>
   </si>
 </sst>
 </file>
@@ -12392,9 +12392,7 @@
       <c r="C28" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="D28" s="19" t="s">
-        <v>124</v>
-      </c>
+      <c r="D28" s="19"/>
       <c r="E28" s="19" t="s">
         <v>109</v>
       </c>
@@ -17039,8 +17037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141CA38B-DB7C-48AD-8513-9BED1D5E19BB}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -17375,7 +17373,9 @@
     </row>
     <row r="31" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="11"/>
-      <c r="B31" s="19"/>
+      <c r="B31" s="19" t="s">
+        <v>124</v>
+      </c>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>

--- a/uurrooster.xlsx
+++ b/uurrooster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sethv\Documents\GitHub\LUCA-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60913E2-03E0-460F-A6BF-6D16CBF4950C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2249A393-4B7C-4B72-ABAB-AA6B35F8E15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="4" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="126">
   <si>
     <t>Week</t>
   </si>
@@ -465,6 +465,9 @@
   <si>
     <t>5 vragen voorbereiden en kijken of dezelfde vraag er niet twee keer staat op gogogle doc</t>
   </si>
+  <si>
+    <t>Shot opdracht shots analyzeren max 2 min en camerabewegingen enzo</t>
+  </si>
 </sst>
 </file>
 
@@ -627,7 +630,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -687,11 +690,10 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
@@ -709,67 +711,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="326">
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="238">
     <dxf>
       <font>
         <color theme="1"/>
@@ -845,46 +787,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
@@ -939,46 +841,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
@@ -1033,46 +895,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
@@ -1127,46 +949,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
@@ -1231,46 +1013,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
@@ -1335,46 +1077,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
@@ -1439,36 +1141,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
@@ -1523,36 +1195,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
@@ -1597,59 +1239,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1681,46 +1273,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
@@ -1755,66 +1307,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
@@ -1869,69 +1361,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2013,26 +1445,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
@@ -2117,16 +1529,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
@@ -2211,36 +1613,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
@@ -2325,26 +1697,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
@@ -2429,16 +1781,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
@@ -2607,16 +1949,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
@@ -2651,16 +1983,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
@@ -2695,36 +2017,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
@@ -2759,36 +2051,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
@@ -2823,26 +2085,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
@@ -2877,39 +2119,19 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2931,26 +2153,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
@@ -2985,26 +2187,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
@@ -3067,16 +2249,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
       </font>
@@ -3123,6 +2295,16 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
@@ -3175,16 +2357,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
       </font>
@@ -3231,6 +2403,16 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
@@ -3275,16 +2457,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
@@ -3319,16 +2491,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
@@ -3383,16 +2545,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
@@ -3427,16 +2579,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
@@ -3499,16 +2641,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
       </font>
@@ -3555,16 +2687,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
@@ -3589,13 +2711,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="1"/>
       </font>
@@ -3607,6 +2722,23 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
       </font>
@@ -3619,16 +2751,6 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4198,7 +3320,6 @@
       </c>
       <c r="C6" s="28"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="35"/>
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
@@ -4210,7 +3331,6 @@
       </c>
       <c r="C7" s="28"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="35"/>
       <c r="F7" s="5"/>
       <c r="H7" s="1" t="s">
         <v>17</v>
@@ -4224,7 +3344,6 @@
       <c r="B8" s="5"/>
       <c r="C8" s="28"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="35"/>
       <c r="F8" s="5"/>
       <c r="H8" s="1" t="s">
         <v>18</v>
@@ -4242,7 +3361,7 @@
       <c r="D9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="36"/>
+      <c r="E9" s="35"/>
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
@@ -4253,7 +3372,7 @@
       <c r="D10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="37"/>
+      <c r="E10" s="36"/>
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
@@ -4262,7 +3381,7 @@
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="37"/>
+      <c r="E11" s="36"/>
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
@@ -4271,7 +3390,7 @@
       </c>
       <c r="B12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="37"/>
+      <c r="E12" s="36"/>
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
@@ -4280,7 +3399,7 @@
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="37"/>
+      <c r="E13" s="36"/>
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
@@ -4288,13 +3407,11 @@
         <v>0.54166666666666696</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="E14" s="35"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
         <v>0.5625</v>
       </c>
-      <c r="E15" s="35"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
@@ -4332,7 +3449,7 @@
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="37"/>
+      <c r="E18" s="36"/>
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
@@ -4341,7 +3458,7 @@
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="37"/>
+      <c r="E19" s="36"/>
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
@@ -4350,7 +3467,7 @@
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="37"/>
+      <c r="E20" s="36"/>
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
@@ -4358,7 +3475,6 @@
         <v>0.6875</v>
       </c>
       <c r="C21" s="5"/>
-      <c r="E21" s="35"/>
       <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
@@ -4366,7 +3482,6 @@
         <v>0.70833333333333304</v>
       </c>
       <c r="C22" s="5"/>
-      <c r="E22" s="35"/>
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
@@ -4374,7 +3489,6 @@
         <v>0.72916666666666696</v>
       </c>
       <c r="C23" s="5"/>
-      <c r="E23" s="35"/>
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
@@ -4382,7 +3496,6 @@
         <v>0.75</v>
       </c>
       <c r="C24" s="5"/>
-      <c r="E24" s="35"/>
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
@@ -4390,7 +3503,6 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="C25" s="5"/>
-      <c r="E25" s="35"/>
       <c r="F25" s="5"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
@@ -4479,33 +3591,33 @@
       <c r="F36" s="17"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B4:D15">
+    <cfRule type="expression" dxfId="196" priority="2">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="278" priority="12">
+    <cfRule type="expression" dxfId="195" priority="12">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="277" priority="11">
+    <cfRule type="expression" dxfId="194" priority="11">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="276" priority="10">
+    <cfRule type="expression" dxfId="193" priority="10">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B14 C13:D14 B15:D15 C16:D25 D4:D12 F4:F25">
-    <cfRule type="expression" dxfId="275" priority="4">
+  <conditionalFormatting sqref="C16:D25">
+    <cfRule type="expression" dxfId="192" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C12">
-    <cfRule type="expression" dxfId="274" priority="2">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E25">
-    <cfRule type="expression" dxfId="273" priority="1">
+  <conditionalFormatting sqref="E4:F25">
+    <cfRule type="expression" dxfId="191" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4922,32 +4034,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="272" priority="12">
+    <cfRule type="expression" dxfId="190" priority="12">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="271" priority="11">
+    <cfRule type="expression" dxfId="189" priority="11">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="270" priority="10">
+    <cfRule type="expression" dxfId="188" priority="10">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13:D13 B5:B14 B14:D25 D4:D12 F15:F25 F4:F13">
-    <cfRule type="expression" dxfId="269" priority="3">
+  <conditionalFormatting sqref="C4:D13">
+    <cfRule type="expression" dxfId="187" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C12">
-    <cfRule type="expression" dxfId="268" priority="2">
+  <conditionalFormatting sqref="E4:E25">
+    <cfRule type="expression" dxfId="186" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E25">
-    <cfRule type="expression" dxfId="267" priority="1">
+  <conditionalFormatting sqref="F4:F13 B5:B14 B14:D25 F15:F25">
+    <cfRule type="expression" dxfId="185" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5078,7 +4190,6 @@
       </c>
       <c r="C6" s="28"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="35"/>
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
@@ -5090,7 +4201,6 @@
       </c>
       <c r="C7" s="28"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="35"/>
       <c r="F7" s="5"/>
       <c r="H7" s="1" t="s">
         <v>17</v>
@@ -5104,7 +4214,6 @@
       <c r="B8" s="5"/>
       <c r="C8" s="28"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="35"/>
       <c r="F8" s="5"/>
       <c r="H8" s="1" t="s">
         <v>18</v>
@@ -5122,7 +4231,7 @@
       <c r="D9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="36"/>
+      <c r="E9" s="35"/>
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
@@ -5133,7 +4242,7 @@
       <c r="D10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="37"/>
+      <c r="E10" s="36"/>
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
@@ -5142,7 +4251,7 @@
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="37"/>
+      <c r="E11" s="36"/>
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
@@ -5151,7 +4260,7 @@
       </c>
       <c r="B12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="37"/>
+      <c r="E12" s="36"/>
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
@@ -5160,7 +4269,7 @@
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="37"/>
+      <c r="E13" s="36"/>
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
@@ -5168,13 +4277,11 @@
         <v>0.54166666666666696</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="E14" s="35"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
         <v>0.5625</v>
       </c>
-      <c r="E15" s="35"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
@@ -5212,7 +4319,7 @@
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="37"/>
+      <c r="E18" s="36"/>
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
@@ -5221,7 +4328,7 @@
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="37"/>
+      <c r="E19" s="36"/>
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
@@ -5230,7 +4337,7 @@
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="37"/>
+      <c r="E20" s="36"/>
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
@@ -5238,7 +4345,6 @@
         <v>0.6875</v>
       </c>
       <c r="C21" s="5"/>
-      <c r="E21" s="35"/>
       <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
@@ -5246,7 +4352,6 @@
         <v>0.70833333333333304</v>
       </c>
       <c r="C22" s="5"/>
-      <c r="E22" s="35"/>
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
@@ -5254,7 +4359,6 @@
         <v>0.72916666666666696</v>
       </c>
       <c r="C23" s="5"/>
-      <c r="E23" s="35"/>
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
@@ -5262,7 +4366,6 @@
         <v>0.75</v>
       </c>
       <c r="C24" s="5"/>
-      <c r="E24" s="35"/>
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
@@ -5270,7 +4373,6 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="C25" s="5"/>
-      <c r="E25" s="35"/>
       <c r="F25" s="5"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
@@ -5359,33 +4461,33 @@
       <c r="F36" s="17"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B4:D15">
+    <cfRule type="expression" dxfId="184" priority="2">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="266" priority="17">
+    <cfRule type="expression" dxfId="183" priority="17">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="265" priority="16">
+    <cfRule type="expression" dxfId="182" priority="16">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13:D15 C16:D25 B4:B12 D4:D12 F16:F25 F4:F14">
-    <cfRule type="expression" dxfId="264" priority="3">
+  <conditionalFormatting sqref="B28:F36">
+    <cfRule type="expression" dxfId="181" priority="15">
+      <formula>NOT(ISBLANK(B28))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:E25">
+    <cfRule type="expression" dxfId="180" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="263" priority="15">
-      <formula>NOT(ISBLANK(B28))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C12">
-    <cfRule type="expression" dxfId="262" priority="2">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E25">
-    <cfRule type="expression" dxfId="261" priority="1">
+  <conditionalFormatting sqref="F4:F14 C16:D25 F16:F25">
+    <cfRule type="expression" dxfId="179" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5802,32 +4904,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="260" priority="18">
+    <cfRule type="expression" dxfId="178" priority="18">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="259" priority="17">
+    <cfRule type="expression" dxfId="177" priority="17">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="258" priority="16">
+    <cfRule type="expression" dxfId="176" priority="16">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13:D14 B5:B14 B15:D25 D4:D12 F16:F25 F4:F14">
-    <cfRule type="expression" dxfId="257" priority="3">
+  <conditionalFormatting sqref="C4:D14">
+    <cfRule type="expression" dxfId="175" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C12">
-    <cfRule type="expression" dxfId="256" priority="2">
+  <conditionalFormatting sqref="E4:E25">
+    <cfRule type="expression" dxfId="174" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E25">
-    <cfRule type="expression" dxfId="255" priority="1">
+  <conditionalFormatting sqref="F4:F14 B5:B14 B15:D25 F16:F25">
+    <cfRule type="expression" dxfId="173" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5958,7 +5060,6 @@
       </c>
       <c r="C6" s="28"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="35"/>
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
@@ -5970,7 +5071,6 @@
       </c>
       <c r="C7" s="28"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="35"/>
       <c r="F7" s="5"/>
       <c r="H7" s="1" t="s">
         <v>17</v>
@@ -5984,7 +5084,6 @@
       <c r="B8" s="5"/>
       <c r="C8" s="28"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="35"/>
       <c r="F8" s="5"/>
       <c r="H8" s="1" t="s">
         <v>18</v>
@@ -6002,7 +5101,7 @@
       <c r="D9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="36"/>
+      <c r="E9" s="35"/>
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
@@ -6013,7 +5112,7 @@
       <c r="D10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="37"/>
+      <c r="E10" s="36"/>
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
@@ -6022,7 +5121,7 @@
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="37"/>
+      <c r="E11" s="36"/>
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
@@ -6031,7 +5130,7 @@
       </c>
       <c r="B12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="37"/>
+      <c r="E12" s="36"/>
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
@@ -6040,7 +5139,7 @@
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="37"/>
+      <c r="E13" s="36"/>
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
@@ -6048,13 +5147,11 @@
         <v>0.54166666666666696</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="E14" s="35"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
         <v>0.5625</v>
       </c>
-      <c r="E15" s="35"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
@@ -6092,7 +5189,7 @@
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="37"/>
+      <c r="E18" s="36"/>
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
@@ -6101,7 +5198,7 @@
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="37"/>
+      <c r="E19" s="36"/>
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
@@ -6110,7 +5207,7 @@
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="37"/>
+      <c r="E20" s="36"/>
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
@@ -6118,7 +5215,6 @@
         <v>0.6875</v>
       </c>
       <c r="C21" s="5"/>
-      <c r="E21" s="35"/>
       <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
@@ -6126,7 +5222,6 @@
         <v>0.70833333333333304</v>
       </c>
       <c r="C22" s="5"/>
-      <c r="E22" s="35"/>
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
@@ -6134,7 +5229,6 @@
         <v>0.72916666666666696</v>
       </c>
       <c r="C23" s="5"/>
-      <c r="E23" s="35"/>
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
@@ -6142,7 +5236,6 @@
         <v>0.75</v>
       </c>
       <c r="C24" s="5"/>
-      <c r="E24" s="35"/>
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
@@ -6150,7 +5243,6 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="C25" s="5"/>
-      <c r="E25" s="35"/>
       <c r="F25" s="5"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
@@ -6241,33 +5333,33 @@
       <c r="F36" s="17"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B4:D15">
+    <cfRule type="expression" dxfId="172" priority="2">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="254" priority="15">
+    <cfRule type="expression" dxfId="171" priority="15">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="253" priority="14">
+    <cfRule type="expression" dxfId="170" priority="14">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13:D15 C16:D25 B4:B12 D4:D12 F4:F25">
-    <cfRule type="expression" dxfId="252" priority="3">
+  <conditionalFormatting sqref="B28:F36">
+    <cfRule type="expression" dxfId="169" priority="13">
+      <formula>NOT(ISBLANK(B28))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:D25">
+    <cfRule type="expression" dxfId="168" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="251" priority="13">
-      <formula>NOT(ISBLANK(B28))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C12">
-    <cfRule type="expression" dxfId="250" priority="2">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E25">
-    <cfRule type="expression" dxfId="249" priority="1">
+  <conditionalFormatting sqref="E4:F25">
+    <cfRule type="expression" dxfId="167" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6707,33 +5799,23 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="248" priority="15">
+    <cfRule type="expression" dxfId="166" priority="15">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="247" priority="14">
+    <cfRule type="expression" dxfId="165" priority="14">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13:D25 B4:B12 D4:D12 F4:F25">
-    <cfRule type="expression" dxfId="246" priority="3">
+  <conditionalFormatting sqref="B4:F25">
+    <cfRule type="expression" dxfId="164" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="245" priority="13">
+    <cfRule type="expression" dxfId="163" priority="13">
       <formula>NOT(ISBLANK(B28))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C12">
-    <cfRule type="expression" dxfId="244" priority="2">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E25">
-    <cfRule type="expression" dxfId="243" priority="1">
-      <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7172,33 +6254,23 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="242" priority="20">
+    <cfRule type="expression" dxfId="162" priority="20">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="241" priority="19">
+    <cfRule type="expression" dxfId="161" priority="19">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13:D25 B4:B12 D4:D12 F4:F25">
-    <cfRule type="expression" dxfId="240" priority="8">
+  <conditionalFormatting sqref="B4:F25">
+    <cfRule type="expression" dxfId="160" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="239" priority="3">
+    <cfRule type="expression" dxfId="159" priority="3">
       <formula>NOT(ISBLANK(B28))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C12">
-    <cfRule type="expression" dxfId="238" priority="2">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E25">
-    <cfRule type="expression" dxfId="237" priority="1">
-      <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7284,11 +6356,10 @@
       <c r="A4" s="3">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B4" s="35"/>
       <c r="C4" s="33"/>
-      <c r="D4" s="38"/>
+      <c r="D4" s="37"/>
       <c r="E4" s="33"/>
-      <c r="F4" s="38"/>
+      <c r="F4" s="37"/>
       <c r="H4" s="7" t="s">
         <v>10</v>
       </c>
@@ -7297,11 +6368,9 @@
       <c r="A5" s="3">
         <v>0.375</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="39"/>
+      <c r="D5" s="38"/>
       <c r="E5" s="34"/>
-      <c r="F5" s="39"/>
+      <c r="F5" s="38"/>
       <c r="H5" s="11" t="s">
         <v>22</v>
       </c>
@@ -7310,21 +6379,15 @@
       <c r="A6" s="3">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="39"/>
+      <c r="D6" s="38"/>
+      <c r="F6" s="38"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="39"/>
+      <c r="D7" s="38"/>
+      <c r="F7" s="38"/>
       <c r="H7" s="1" t="s">
         <v>17</v>
       </c>
@@ -7334,11 +6397,8 @@
       <c r="A8" s="3">
         <v>0.4375</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="39"/>
+      <c r="D8" s="38"/>
+      <c r="F8" s="38"/>
       <c r="H8" s="1" t="s">
         <v>18</v>
       </c>
@@ -7350,171 +6410,131 @@
       <c r="A9" s="10">
         <v>0.44791666666666669</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="39"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="38"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="3">
         <v>0.45833333333333398</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="39"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="38"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="3">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="39"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="38"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="3">
         <v>0.5</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="39"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="38"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="3">
         <v>0.53125</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="39"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="38"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="3">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
         <v>0.5625</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="40"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="39"/>
       <c r="E16" s="33"/>
-      <c r="F16" s="38"/>
+      <c r="F16" s="37"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="3">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="41"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="40"/>
       <c r="E17" s="34"/>
-      <c r="F17" s="39"/>
+      <c r="F17" s="38"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="3">
         <v>0.625</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="39"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="38"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="3">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="39"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="38"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="3">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="39"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="38"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="3">
         <v>0.6875</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="39"/>
+      <c r="C21" s="38"/>
+      <c r="F21" s="38"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="3">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="39"/>
+      <c r="C22" s="38"/>
+      <c r="F22" s="38"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="3">
         <v>0.72916666666666696</v>
       </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="39"/>
+      <c r="C23" s="38"/>
+      <c r="F23" s="38"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="3">
         <v>0.75</v>
       </c>
-      <c r="B24" s="35"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="39"/>
+      <c r="C24" s="38"/>
+      <c r="F24" s="38"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="3">
         <v>0.76041666666666663</v>
       </c>
-      <c r="B25" s="35"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="39"/>
+      <c r="C25" s="38"/>
+      <c r="F25" s="38"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="2"/>
@@ -7613,33 +6633,23 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="236" priority="15">
+    <cfRule type="expression" dxfId="158" priority="15">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="235" priority="14">
+    <cfRule type="expression" dxfId="157" priority="14">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B4:F25">
+    <cfRule type="expression" dxfId="156" priority="1">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="234" priority="13">
+    <cfRule type="expression" dxfId="155" priority="13">
       <formula>NOT(ISBLANK(B28))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B13 C13:D13 B14:D25 D4:D12 F4:F25">
-    <cfRule type="expression" dxfId="233" priority="3">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C12">
-    <cfRule type="expression" dxfId="232" priority="2">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E25">
-    <cfRule type="expression" dxfId="231" priority="1">
-      <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7725,11 +6735,10 @@
       <c r="A4" s="3">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B4" s="35"/>
       <c r="C4" s="33"/>
-      <c r="D4" s="38"/>
+      <c r="D4" s="37"/>
       <c r="E4" s="33"/>
-      <c r="F4" s="38"/>
+      <c r="F4" s="37"/>
       <c r="H4" s="7" t="s">
         <v>10</v>
       </c>
@@ -7738,11 +6747,9 @@
       <c r="A5" s="3">
         <v>0.375</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="39"/>
+      <c r="D5" s="38"/>
       <c r="E5" s="34"/>
-      <c r="F5" s="39"/>
+      <c r="F5" s="38"/>
       <c r="H5" s="11" t="s">
         <v>22</v>
       </c>
@@ -7751,21 +6758,15 @@
       <c r="A6" s="3">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="39"/>
+      <c r="D6" s="38"/>
+      <c r="F6" s="38"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="39"/>
+      <c r="D7" s="38"/>
+      <c r="F7" s="38"/>
       <c r="H7" s="1" t="s">
         <v>17</v>
       </c>
@@ -7775,11 +6776,8 @@
       <c r="A8" s="3">
         <v>0.4375</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="39"/>
+      <c r="D8" s="38"/>
+      <c r="F8" s="38"/>
       <c r="H8" s="1" t="s">
         <v>18</v>
       </c>
@@ -7791,171 +6789,131 @@
       <c r="A9" s="10">
         <v>0.44791666666666669</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="39"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="38"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="3">
         <v>0.45833333333333398</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="39"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="38"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="3">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="39"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="38"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="3">
         <v>0.5</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="39"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="38"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="3">
         <v>0.53125</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="39"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="38"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="3">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
         <v>0.5625</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="40"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="39"/>
       <c r="E16" s="33"/>
-      <c r="F16" s="38"/>
+      <c r="F16" s="37"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="3">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="41"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="40"/>
       <c r="E17" s="34"/>
-      <c r="F17" s="39"/>
+      <c r="F17" s="38"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="3">
         <v>0.625</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="39"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="38"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="3">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="39"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="38"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="3">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="39"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="38"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="3">
         <v>0.6875</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="39"/>
+      <c r="C21" s="38"/>
+      <c r="F21" s="38"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="3">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="39"/>
+      <c r="C22" s="38"/>
+      <c r="F22" s="38"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="3">
         <v>0.72916666666666696</v>
       </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="39"/>
+      <c r="C23" s="38"/>
+      <c r="F23" s="38"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="3">
         <v>0.75</v>
       </c>
-      <c r="B24" s="35"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="39"/>
+      <c r="C24" s="38"/>
+      <c r="F24" s="38"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="3">
         <v>0.76041666666666663</v>
       </c>
-      <c r="B25" s="35"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="39"/>
+      <c r="C25" s="38"/>
+      <c r="F25" s="38"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="2"/>
@@ -8054,33 +7012,23 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="230" priority="20">
+    <cfRule type="expression" dxfId="154" priority="20">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="229" priority="19">
+    <cfRule type="expression" dxfId="153" priority="19">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13:D25 B4:B12 D4:D12 F4:F25">
-    <cfRule type="expression" dxfId="228" priority="8">
+  <conditionalFormatting sqref="B4:F25">
+    <cfRule type="expression" dxfId="152" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="227" priority="3">
+    <cfRule type="expression" dxfId="151" priority="3">
       <formula>NOT(ISBLANK(B28))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C12">
-    <cfRule type="expression" dxfId="226" priority="2">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E25">
-    <cfRule type="expression" dxfId="225" priority="1">
-      <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8166,11 +7114,10 @@
       <c r="A4" s="3">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B4" s="35"/>
       <c r="C4" s="33"/>
-      <c r="D4" s="38"/>
+      <c r="D4" s="37"/>
       <c r="E4" s="33"/>
-      <c r="F4" s="38"/>
+      <c r="F4" s="37"/>
       <c r="H4" s="7" t="s">
         <v>10</v>
       </c>
@@ -8179,11 +7126,9 @@
       <c r="A5" s="3">
         <v>0.375</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="39"/>
+      <c r="D5" s="38"/>
       <c r="E5" s="34"/>
-      <c r="F5" s="39"/>
+      <c r="F5" s="38"/>
       <c r="H5" s="11" t="s">
         <v>22</v>
       </c>
@@ -8192,21 +7137,15 @@
       <c r="A6" s="3">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="39"/>
+      <c r="D6" s="38"/>
+      <c r="F6" s="38"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="39"/>
+      <c r="D7" s="38"/>
+      <c r="F7" s="38"/>
       <c r="H7" s="1" t="s">
         <v>17</v>
       </c>
@@ -8216,11 +7155,8 @@
       <c r="A8" s="3">
         <v>0.4375</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="39"/>
+      <c r="D8" s="38"/>
+      <c r="F8" s="38"/>
       <c r="H8" s="1" t="s">
         <v>18</v>
       </c>
@@ -8232,171 +7168,131 @@
       <c r="A9" s="10">
         <v>0.44791666666666669</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="39"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="38"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="3">
         <v>0.45833333333333398</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="39"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="38"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="3">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="39"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="38"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="3">
         <v>0.5</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="39"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="38"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="3">
         <v>0.53125</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="39"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="38"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="3">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
         <v>0.5625</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="40"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="39"/>
       <c r="E16" s="33"/>
-      <c r="F16" s="38"/>
+      <c r="F16" s="37"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="3">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="41"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="40"/>
       <c r="E17" s="34"/>
-      <c r="F17" s="39"/>
+      <c r="F17" s="38"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="3">
         <v>0.625</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="39"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="38"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="3">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="39"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="38"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="3">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="39"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="38"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="3">
         <v>0.6875</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="39"/>
+      <c r="C21" s="38"/>
+      <c r="F21" s="38"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="3">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="39"/>
+      <c r="C22" s="38"/>
+      <c r="F22" s="38"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="3">
         <v>0.72916666666666696</v>
       </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="39"/>
+      <c r="C23" s="38"/>
+      <c r="F23" s="38"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="3">
         <v>0.75</v>
       </c>
-      <c r="B24" s="35"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="39"/>
+      <c r="C24" s="38"/>
+      <c r="F24" s="38"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="3">
         <v>0.76041666666666663</v>
       </c>
-      <c r="B25" s="35"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="39"/>
+      <c r="C25" s="38"/>
+      <c r="F25" s="38"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="2"/>
@@ -8495,33 +7391,23 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="224" priority="15">
+    <cfRule type="expression" dxfId="150" priority="15">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="223" priority="14">
+    <cfRule type="expression" dxfId="149" priority="14">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13:D25 B4:B12 D4:D12 F4:F25">
-    <cfRule type="expression" dxfId="222" priority="3">
+  <conditionalFormatting sqref="B4:F25">
+    <cfRule type="expression" dxfId="148" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="221" priority="13">
+    <cfRule type="expression" dxfId="147" priority="13">
       <formula>NOT(ISBLANK(B28))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C12">
-    <cfRule type="expression" dxfId="220" priority="2">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E25">
-    <cfRule type="expression" dxfId="219" priority="1">
-      <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8941,22 +7827,22 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="325" priority="14">
+    <cfRule type="expression" dxfId="237" priority="14">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="324" priority="6">
+    <cfRule type="expression" dxfId="236" priority="6">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="323" priority="15">
+    <cfRule type="expression" dxfId="235" priority="15">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="322" priority="1">
+    <cfRule type="expression" dxfId="234" priority="1">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9044,11 +7930,10 @@
       <c r="A4" s="3">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B4" s="35"/>
       <c r="C4" s="33"/>
-      <c r="D4" s="38"/>
+      <c r="D4" s="37"/>
       <c r="E4" s="33"/>
-      <c r="F4" s="38"/>
+      <c r="F4" s="37"/>
       <c r="H4" s="7" t="s">
         <v>10</v>
       </c>
@@ -9057,11 +7942,9 @@
       <c r="A5" s="3">
         <v>0.375</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="39"/>
+      <c r="D5" s="38"/>
       <c r="E5" s="34"/>
-      <c r="F5" s="39"/>
+      <c r="F5" s="38"/>
       <c r="H5" s="11" t="s">
         <v>22</v>
       </c>
@@ -9070,21 +7953,15 @@
       <c r="A6" s="3">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="39"/>
+      <c r="D6" s="38"/>
+      <c r="F6" s="38"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="39"/>
+      <c r="D7" s="38"/>
+      <c r="F7" s="38"/>
       <c r="H7" s="1" t="s">
         <v>17</v>
       </c>
@@ -9094,11 +7971,8 @@
       <c r="A8" s="3">
         <v>0.4375</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="39"/>
+      <c r="D8" s="38"/>
+      <c r="F8" s="38"/>
       <c r="H8" s="1" t="s">
         <v>18</v>
       </c>
@@ -9110,171 +7984,131 @@
       <c r="A9" s="10">
         <v>0.44791666666666669</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="39"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="38"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="3">
         <v>0.45833333333333398</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="39"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="38"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="3">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="39"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="38"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="3">
         <v>0.5</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="39"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="38"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="3">
         <v>0.53125</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="39"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="38"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="3">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
         <v>0.5625</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="40"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="39"/>
       <c r="E16" s="33"/>
-      <c r="F16" s="38"/>
+      <c r="F16" s="37"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="3">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="41"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="40"/>
       <c r="E17" s="34"/>
-      <c r="F17" s="39"/>
+      <c r="F17" s="38"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="3">
         <v>0.625</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="39"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="38"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="3">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="39"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="38"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="3">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="39"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="38"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="3">
         <v>0.6875</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="39"/>
+      <c r="C21" s="38"/>
+      <c r="F21" s="38"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="3">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="39"/>
+      <c r="C22" s="38"/>
+      <c r="F22" s="38"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="3">
         <v>0.72916666666666696</v>
       </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="39"/>
+      <c r="C23" s="38"/>
+      <c r="F23" s="38"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="3">
         <v>0.75</v>
       </c>
-      <c r="B24" s="35"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="39"/>
+      <c r="C24" s="38"/>
+      <c r="F24" s="38"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="3">
         <v>0.76041666666666663</v>
       </c>
-      <c r="B25" s="35"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="39"/>
+      <c r="C25" s="38"/>
+      <c r="F25" s="38"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="2"/>
@@ -9372,39 +8206,24 @@
       <c r="F36" s="17"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B14:D25 F14:F25">
-    <cfRule type="expression" dxfId="218" priority="9">
+  <conditionalFormatting sqref="B2:F3">
+    <cfRule type="expression" dxfId="146" priority="21">
+      <formula>B$3 &lt; TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:F3">
+    <cfRule type="expression" dxfId="145" priority="20">
+      <formula>B3 = TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:F25">
+    <cfRule type="expression" dxfId="144" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="217" priority="21">
-      <formula>B$3 &lt; TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="216" priority="20">
-      <formula>B3 = TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13:D13 B4:B12 D4:D12 F4:F13">
-    <cfRule type="expression" dxfId="215" priority="3">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="214" priority="4">
+    <cfRule type="expression" dxfId="143" priority="4">
       <formula>NOT(ISBLANK(B28))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C12">
-    <cfRule type="expression" dxfId="213" priority="2">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E25">
-    <cfRule type="expression" dxfId="212" priority="1">
-      <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9490,11 +8309,10 @@
       <c r="A4" s="3">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B4" s="35"/>
       <c r="C4" s="33"/>
-      <c r="D4" s="38"/>
+      <c r="D4" s="37"/>
       <c r="E4" s="33"/>
-      <c r="F4" s="38"/>
+      <c r="F4" s="37"/>
       <c r="H4" s="7" t="s">
         <v>10</v>
       </c>
@@ -9503,11 +8321,9 @@
       <c r="A5" s="3">
         <v>0.375</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="39"/>
+      <c r="D5" s="38"/>
       <c r="E5" s="34"/>
-      <c r="F5" s="39"/>
+      <c r="F5" s="38"/>
       <c r="H5" s="11" t="s">
         <v>22</v>
       </c>
@@ -9516,21 +8332,15 @@
       <c r="A6" s="3">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="39"/>
+      <c r="D6" s="38"/>
+      <c r="F6" s="38"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="39"/>
+      <c r="D7" s="38"/>
+      <c r="F7" s="38"/>
       <c r="H7" s="1" t="s">
         <v>17</v>
       </c>
@@ -9540,11 +8350,8 @@
       <c r="A8" s="3">
         <v>0.4375</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="39"/>
+      <c r="D8" s="38"/>
+      <c r="F8" s="38"/>
       <c r="H8" s="1" t="s">
         <v>18</v>
       </c>
@@ -9556,171 +8363,131 @@
       <c r="A9" s="10">
         <v>0.44791666666666669</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="39"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="38"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="3">
         <v>0.45833333333333398</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="39"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="38"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="3">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="39"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="38"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="3">
         <v>0.5</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="39"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="38"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="3">
         <v>0.53125</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="39"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="38"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="3">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
         <v>0.5625</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="40"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="39"/>
       <c r="E16" s="33"/>
-      <c r="F16" s="38"/>
+      <c r="F16" s="37"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="3">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="41"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="40"/>
       <c r="E17" s="34"/>
-      <c r="F17" s="39"/>
+      <c r="F17" s="38"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="3">
         <v>0.625</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="39"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="38"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="3">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="39"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="38"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="3">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="39"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="38"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="3">
         <v>0.6875</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="39"/>
+      <c r="C21" s="38"/>
+      <c r="F21" s="38"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="3">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="39"/>
+      <c r="C22" s="38"/>
+      <c r="F22" s="38"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="3">
         <v>0.72916666666666696</v>
       </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="39"/>
+      <c r="C23" s="38"/>
+      <c r="F23" s="38"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="3">
         <v>0.75</v>
       </c>
-      <c r="B24" s="35"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="39"/>
+      <c r="C24" s="38"/>
+      <c r="F24" s="38"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="3">
         <v>0.76041666666666663</v>
       </c>
-      <c r="B25" s="35"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="39"/>
+      <c r="C25" s="38"/>
+      <c r="F25" s="38"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="2"/>
@@ -9832,39 +8599,24 @@
       <c r="F36" s="19"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B14:D25 F14:F25">
-    <cfRule type="expression" dxfId="211" priority="4">
+  <conditionalFormatting sqref="B2:F3">
+    <cfRule type="expression" dxfId="142" priority="16">
+      <formula>B$3 &lt; TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:F3">
+    <cfRule type="expression" dxfId="141" priority="15">
+      <formula>B3 = TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:F25">
+    <cfRule type="expression" dxfId="140" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="210" priority="16">
-      <formula>B$3 &lt; TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="209" priority="15">
-      <formula>B3 = TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13:D13 B4:B12 D4:D12 F4:F13">
-    <cfRule type="expression" dxfId="208" priority="3">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="207" priority="14">
+    <cfRule type="expression" dxfId="139" priority="14">
       <formula>NOT(ISBLANK(B28))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C12">
-    <cfRule type="expression" dxfId="206" priority="2">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E25">
-    <cfRule type="expression" dxfId="205" priority="1">
-      <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10281,48 +9033,48 @@
       <c r="F36" s="17"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B5:B25">
+    <cfRule type="expression" dxfId="138" priority="8">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="204" priority="22">
+    <cfRule type="expression" dxfId="137" priority="22">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="203" priority="21">
+    <cfRule type="expression" dxfId="136" priority="21">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="202" priority="20">
+    <cfRule type="expression" dxfId="135" priority="20">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:B25">
-    <cfRule type="expression" dxfId="201" priority="8">
+  <conditionalFormatting sqref="C4:C13">
+    <cfRule type="expression" dxfId="134" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="200" priority="23">
+    <cfRule type="expression" dxfId="133" priority="23">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="199" priority="16">
+    <cfRule type="expression" dxfId="132" priority="16">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E4:E25">
+    <cfRule type="expression" dxfId="131" priority="1">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F4:F14 F16:F25">
-    <cfRule type="expression" dxfId="198" priority="17">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="197" priority="2">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E25">
-    <cfRule type="expression" dxfId="196" priority="1">
+    <cfRule type="expression" dxfId="130" priority="17">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10446,7 +9198,6 @@
         <v>7</v>
       </c>
       <c r="C6" s="28"/>
-      <c r="E6" s="35"/>
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
@@ -10457,7 +9208,6 @@
         <v>67</v>
       </c>
       <c r="C7" s="28"/>
-      <c r="E7" s="35"/>
       <c r="F7" s="5"/>
       <c r="H7" s="1" t="s">
         <v>17</v>
@@ -10470,7 +9220,6 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="28"/>
-      <c r="E8" s="35"/>
       <c r="F8" s="5"/>
       <c r="H8" s="1" t="s">
         <v>18</v>
@@ -10488,7 +9237,7 @@
       <c r="D9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="36"/>
+      <c r="E9" s="35"/>
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
@@ -10499,7 +9248,7 @@
       <c r="D10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="37"/>
+      <c r="E10" s="36"/>
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
@@ -10508,7 +9257,7 @@
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="37"/>
+      <c r="E11" s="36"/>
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
@@ -10517,7 +9266,7 @@
       </c>
       <c r="B12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="37"/>
+      <c r="E12" s="36"/>
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
@@ -10526,7 +9275,7 @@
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="37"/>
+      <c r="E13" s="36"/>
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
@@ -10534,13 +9283,11 @@
         <v>0.54166666666666696</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="E14" s="35"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
         <v>0.5625</v>
       </c>
-      <c r="E15" s="35"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
@@ -10578,7 +9325,7 @@
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="37"/>
+      <c r="E18" s="36"/>
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
@@ -10587,7 +9334,7 @@
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="37"/>
+      <c r="E19" s="36"/>
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
@@ -10596,7 +9343,7 @@
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="37"/>
+      <c r="E20" s="36"/>
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
@@ -10607,7 +9354,6 @@
       <c r="D21" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="35"/>
       <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
@@ -10618,7 +9364,6 @@
       <c r="D22" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="35"/>
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
@@ -10627,7 +9372,6 @@
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="35"/>
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
@@ -10636,7 +9380,6 @@
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="35"/>
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
@@ -10645,7 +9388,6 @@
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="35"/>
       <c r="F25" s="5"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
@@ -10735,52 +9477,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:B15">
-    <cfRule type="expression" dxfId="195" priority="4">
+    <cfRule type="expression" dxfId="129" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="194" priority="21">
+    <cfRule type="expression" dxfId="128" priority="21">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="193" priority="20">
+    <cfRule type="expression" dxfId="127" priority="20">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="192" priority="19">
+    <cfRule type="expression" dxfId="126" priority="19">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C4:C13">
+    <cfRule type="expression" dxfId="125" priority="2">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="191" priority="22">
+    <cfRule type="expression" dxfId="124" priority="22">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="190" priority="15">
+    <cfRule type="expression" dxfId="123" priority="15">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E4:E25">
+    <cfRule type="expression" dxfId="122" priority="1">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F4:F14 F16:F25">
-    <cfRule type="expression" dxfId="189" priority="16">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C9">
-    <cfRule type="expression" dxfId="188" priority="3">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10:C13">
-    <cfRule type="expression" dxfId="187" priority="2">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E25">
-    <cfRule type="expression" dxfId="186" priority="1">
+    <cfRule type="expression" dxfId="121" priority="16">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11198,53 +9935,48 @@
       <c r="F36" s="17"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B5:B25">
+    <cfRule type="expression" dxfId="120" priority="12">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="185" priority="21">
+    <cfRule type="expression" dxfId="119" priority="21">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="184" priority="20">
+    <cfRule type="expression" dxfId="118" priority="20">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="183" priority="19">
+    <cfRule type="expression" dxfId="117" priority="19">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:B25">
-    <cfRule type="expression" dxfId="182" priority="12">
+  <conditionalFormatting sqref="C4:C13">
+    <cfRule type="expression" dxfId="116" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="181" priority="22">
+    <cfRule type="expression" dxfId="115" priority="22">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="180" priority="15">
+    <cfRule type="expression" dxfId="114" priority="15">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E4:E25">
+    <cfRule type="expression" dxfId="113" priority="1">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F4:F13 F15:F25">
-    <cfRule type="expression" dxfId="179" priority="16">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C9">
-    <cfRule type="expression" dxfId="178" priority="3">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10:C13">
-    <cfRule type="expression" dxfId="177" priority="2">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E25">
-    <cfRule type="expression" dxfId="176" priority="1">
+    <cfRule type="expression" dxfId="112" priority="16">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11368,7 +10100,6 @@
         <v>7</v>
       </c>
       <c r="C6" s="28"/>
-      <c r="E6" s="35"/>
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
@@ -11379,7 +10110,6 @@
         <v>68</v>
       </c>
       <c r="C7" s="28"/>
-      <c r="E7" s="35"/>
       <c r="F7" s="5"/>
       <c r="H7" s="1" t="s">
         <v>17</v>
@@ -11392,7 +10122,6 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="28"/>
-      <c r="E8" s="35"/>
       <c r="F8" s="5"/>
       <c r="H8" s="1" t="s">
         <v>18</v>
@@ -11410,7 +10139,7 @@
       <c r="D9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="36"/>
+      <c r="E9" s="35"/>
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
@@ -11421,7 +10150,7 @@
       <c r="D10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="37"/>
+      <c r="E10" s="36"/>
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
@@ -11430,7 +10159,7 @@
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="37"/>
+      <c r="E11" s="36"/>
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
@@ -11439,7 +10168,7 @@
       </c>
       <c r="B12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="37"/>
+      <c r="E12" s="36"/>
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
@@ -11448,7 +10177,7 @@
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="37"/>
+      <c r="E13" s="36"/>
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
@@ -11456,13 +10185,11 @@
         <v>0.54166666666666696</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="E14" s="35"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
         <v>0.5625</v>
       </c>
-      <c r="E15" s="35"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
@@ -11500,7 +10227,7 @@
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="37"/>
+      <c r="E18" s="36"/>
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
@@ -11509,7 +10236,7 @@
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="37"/>
+      <c r="E19" s="36"/>
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
@@ -11518,7 +10245,7 @@
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="37"/>
+      <c r="E20" s="36"/>
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
@@ -11529,7 +10256,6 @@
       <c r="D21" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="35"/>
       <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
@@ -11540,7 +10266,6 @@
       <c r="D22" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="35"/>
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
@@ -11549,7 +10274,6 @@
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="35"/>
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
@@ -11558,7 +10282,6 @@
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="35"/>
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
@@ -11567,7 +10290,6 @@
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="35"/>
       <c r="F25" s="5"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
@@ -11656,58 +10378,48 @@
       <c r="F36" s="17"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B4:B15">
+    <cfRule type="expression" dxfId="111" priority="6">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="175" priority="15">
+    <cfRule type="expression" dxfId="110" priority="15">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="174" priority="14">
+    <cfRule type="expression" dxfId="109" priority="14">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="173" priority="13">
+    <cfRule type="expression" dxfId="108" priority="13">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B15">
-    <cfRule type="expression" dxfId="172" priority="6">
+  <conditionalFormatting sqref="C4:C14">
+    <cfRule type="expression" dxfId="107" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15:D15 H15:H19 C16:C25 J17:J21 D14">
-    <cfRule type="expression" dxfId="171" priority="16">
+  <conditionalFormatting sqref="C15:D15 H15:H19 C16:C25 J17:J21">
+    <cfRule type="expression" dxfId="106" priority="16">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="170" priority="9">
+  <conditionalFormatting sqref="D9:D14">
+    <cfRule type="expression" dxfId="105" priority="9">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E4:E25">
+    <cfRule type="expression" dxfId="104" priority="1">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F4:F14 F16:F25">
-    <cfRule type="expression" dxfId="169" priority="10">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="168" priority="4">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C9">
-    <cfRule type="expression" dxfId="167" priority="3">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10:C13">
-    <cfRule type="expression" dxfId="166" priority="2">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E25">
-    <cfRule type="expression" dxfId="165" priority="1">
+    <cfRule type="expression" dxfId="103" priority="10">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12123,58 +10835,48 @@
       <c r="F36" s="17"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B5:B25">
+    <cfRule type="expression" dxfId="102" priority="13">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="164" priority="22">
+    <cfRule type="expression" dxfId="101" priority="22">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="163" priority="21">
+    <cfRule type="expression" dxfId="100" priority="21">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="162" priority="20">
+    <cfRule type="expression" dxfId="99" priority="20">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:B25">
-    <cfRule type="expression" dxfId="161" priority="13">
+  <conditionalFormatting sqref="C4:C14">
+    <cfRule type="expression" dxfId="98" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15:D15 H15:H19 C16:C25 J17:J21 D14">
-    <cfRule type="expression" dxfId="160" priority="23">
+  <conditionalFormatting sqref="C15:D15 H15:H19 C16:C25 J17:J21">
+    <cfRule type="expression" dxfId="97" priority="23">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="159" priority="16">
+  <conditionalFormatting sqref="D9:D14">
+    <cfRule type="expression" dxfId="96" priority="16">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E4:E25">
+    <cfRule type="expression" dxfId="95" priority="1">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F4:F14 F16:F25">
-    <cfRule type="expression" dxfId="158" priority="17">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="157" priority="4">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C9">
-    <cfRule type="expression" dxfId="156" priority="3">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10:C13">
-    <cfRule type="expression" dxfId="155" priority="2">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E25">
-    <cfRule type="expression" dxfId="154" priority="1">
+    <cfRule type="expression" dxfId="94" priority="17">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12298,7 +11000,6 @@
         <v>7</v>
       </c>
       <c r="C6" s="28"/>
-      <c r="E6" s="35"/>
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
@@ -12309,7 +11010,6 @@
         <v>68</v>
       </c>
       <c r="C7" s="28"/>
-      <c r="E7" s="35"/>
       <c r="F7" s="5"/>
       <c r="H7" s="1" t="s">
         <v>17</v>
@@ -12322,7 +11022,6 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="28"/>
-      <c r="E8" s="35"/>
       <c r="F8" s="5"/>
       <c r="H8" s="1" t="s">
         <v>18</v>
@@ -12340,7 +11039,7 @@
       <c r="D9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="36"/>
+      <c r="E9" s="35"/>
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
@@ -12351,7 +11050,7 @@
       <c r="D10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="37"/>
+      <c r="E10" s="36"/>
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
@@ -12360,7 +11059,7 @@
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="37"/>
+      <c r="E11" s="36"/>
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
@@ -12369,7 +11068,7 @@
       </c>
       <c r="B12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="37"/>
+      <c r="E12" s="36"/>
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
@@ -12378,7 +11077,7 @@
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="37"/>
+      <c r="E13" s="36"/>
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
@@ -12386,13 +11085,11 @@
         <v>0.54166666666666696</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="E14" s="35"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
         <v>0.5625</v>
       </c>
-      <c r="E15" s="35"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
@@ -12430,7 +11127,7 @@
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="37"/>
+      <c r="E18" s="36"/>
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
@@ -12439,7 +11136,7 @@
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="37"/>
+      <c r="E19" s="36"/>
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
@@ -12448,7 +11145,7 @@
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="37"/>
+      <c r="E20" s="36"/>
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
@@ -12459,7 +11156,6 @@
       <c r="D21" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="35"/>
       <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
@@ -12470,7 +11166,6 @@
       <c r="D22" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="35"/>
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
@@ -12479,7 +11174,6 @@
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="35"/>
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
@@ -12488,7 +11182,6 @@
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="35"/>
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
@@ -12497,7 +11190,6 @@
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="35"/>
       <c r="F25" s="5"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
@@ -12587,57 +11279,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:B15">
-    <cfRule type="expression" dxfId="153" priority="5">
+    <cfRule type="expression" dxfId="93" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="152" priority="16">
+    <cfRule type="expression" dxfId="92" priority="16">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="151" priority="15">
+    <cfRule type="expression" dxfId="91" priority="15">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="150" priority="14">
+    <cfRule type="expression" dxfId="90" priority="14">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15:D15 H15:H19 C16:C25 J17:J21 D14">
-    <cfRule type="expression" dxfId="149" priority="17">
+  <conditionalFormatting sqref="C4:C14">
+    <cfRule type="expression" dxfId="89" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="148" priority="10">
+  <conditionalFormatting sqref="C15:D15 H15:H19 C16:C25 J17:J21">
+    <cfRule type="expression" dxfId="88" priority="17">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D9:D14">
+    <cfRule type="expression" dxfId="87" priority="10">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:E25">
+    <cfRule type="expression" dxfId="86" priority="1">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F4:F13 F15:F25">
-    <cfRule type="expression" dxfId="147" priority="11">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="146" priority="4">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C9">
-    <cfRule type="expression" dxfId="145" priority="3">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10:C13">
-    <cfRule type="expression" dxfId="144" priority="2">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E25">
-    <cfRule type="expression" dxfId="143" priority="1">
+    <cfRule type="expression" dxfId="85" priority="11">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13053,58 +11735,48 @@
       <c r="F36" s="17"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B5:B25">
+    <cfRule type="expression" dxfId="84" priority="12">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="142" priority="20">
+    <cfRule type="expression" dxfId="83" priority="20">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="141" priority="19">
+    <cfRule type="expression" dxfId="82" priority="19">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="140" priority="18">
+    <cfRule type="expression" dxfId="81" priority="18">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:B25">
-    <cfRule type="expression" dxfId="139" priority="12">
+  <conditionalFormatting sqref="C4:C14">
+    <cfRule type="expression" dxfId="80" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15:D15 H15:H19 C16:C25 J17:J21 D14">
-    <cfRule type="expression" dxfId="138" priority="21">
+  <conditionalFormatting sqref="C15:D15 H15:H19 C16:C25 J17:J21">
+    <cfRule type="expression" dxfId="79" priority="21">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="137" priority="14">
+  <conditionalFormatting sqref="D9:D14">
+    <cfRule type="expression" dxfId="78" priority="14">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E4:E25">
+    <cfRule type="expression" dxfId="77" priority="1">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F4:F13 F15:F25">
-    <cfRule type="expression" dxfId="136" priority="15">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="135" priority="4">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C9">
-    <cfRule type="expression" dxfId="134" priority="3">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10:C13">
-    <cfRule type="expression" dxfId="133" priority="2">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E25">
-    <cfRule type="expression" dxfId="132" priority="1">
+    <cfRule type="expression" dxfId="76" priority="15">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13524,53 +12196,33 @@
       <c r="F36" s="17"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B4:D15">
+    <cfRule type="expression" dxfId="75" priority="2">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="131" priority="16">
+    <cfRule type="expression" dxfId="74" priority="16">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="130" priority="15">
+    <cfRule type="expression" dxfId="73" priority="15">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15:D15 B4:B14 D4:D14 F4:F15">
-    <cfRule type="expression" dxfId="129" priority="5">
+  <conditionalFormatting sqref="B28:F36">
+    <cfRule type="expression" dxfId="72" priority="14">
+      <formula>NOT(ISBLANK(B28))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:D25">
+    <cfRule type="expression" dxfId="71" priority="11">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="128" priority="14">
-      <formula>NOT(ISBLANK(B28))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16:D25 F16:F25">
-    <cfRule type="expression" dxfId="127" priority="11">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="126" priority="10">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="125" priority="4">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C9">
-    <cfRule type="expression" dxfId="124" priority="3">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10:C13">
-    <cfRule type="expression" dxfId="123" priority="2">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E25">
-    <cfRule type="expression" dxfId="122" priority="1">
+  <conditionalFormatting sqref="E4:F25">
+    <cfRule type="expression" dxfId="70" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13582,8 +12234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E8F0BC9-EDE6-4632-8A0A-D46DEAFA1848}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView zoomScale="77" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -13979,41 +12631,36 @@
       <c r="F36" s="19"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B4:B13 D13 B14:D15 C16:D25 F9:F25">
-    <cfRule type="expression" dxfId="321" priority="12">
+  <conditionalFormatting sqref="B4:B13 D13 B14:D15 C16:D25">
+    <cfRule type="expression" dxfId="233" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:D12 F4:F8">
-    <cfRule type="expression" dxfId="320" priority="3">
+  <conditionalFormatting sqref="B4:D12">
+    <cfRule type="expression" dxfId="232" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="319" priority="14">
+    <cfRule type="expression" dxfId="231" priority="14">
       <formula>B$3 = TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="318" priority="15">
+    <cfRule type="expression" dxfId="230" priority="15">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="317" priority="7">
+    <cfRule type="expression" dxfId="229" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="316" priority="9">
+    <cfRule type="expression" dxfId="228" priority="9">
       <formula>NOT(ISBLANK(C13))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E22">
-    <cfRule type="expression" dxfId="315" priority="2">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23:E25">
-    <cfRule type="expression" dxfId="314" priority="1">
+  <conditionalFormatting sqref="E4:F25">
+    <cfRule type="expression" dxfId="227" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14454,54 +13101,24 @@
       <c r="F36" s="17"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B4">
-    <cfRule type="expression" dxfId="121" priority="5">
+  <conditionalFormatting sqref="B2:F3">
+    <cfRule type="expression" dxfId="69" priority="16">
+      <formula>B$3 &lt; TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:F3">
+    <cfRule type="expression" dxfId="68" priority="15">
+      <formula>B3 = TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:F25">
+    <cfRule type="expression" dxfId="67" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="120" priority="16">
-      <formula>B$3 &lt; TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="119" priority="15">
-      <formula>B3 = TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15:D25 B4:B14 D4:D14 F4:F25">
-    <cfRule type="expression" dxfId="118" priority="11">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="117" priority="14">
+    <cfRule type="expression" dxfId="66" priority="14">
       <formula>NOT(ISBLANK(B28))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="116" priority="10">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="115" priority="4">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C9">
-    <cfRule type="expression" dxfId="114" priority="3">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10:C13">
-    <cfRule type="expression" dxfId="113" priority="2">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E25">
-    <cfRule type="expression" dxfId="112" priority="1">
-      <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14940,54 +13557,24 @@
       <c r="F36" s="17"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B4">
-    <cfRule type="expression" dxfId="111" priority="5">
+  <conditionalFormatting sqref="B2:F3">
+    <cfRule type="expression" dxfId="65" priority="21">
+      <formula>B$3 &lt; TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:F3">
+    <cfRule type="expression" dxfId="64" priority="20">
+      <formula>B3 = TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:F25">
+    <cfRule type="expression" dxfId="63" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="110" priority="21">
-      <formula>B$3 &lt; TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="109" priority="20">
-      <formula>B3 = TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15:D25 B4:B14 D4:D14 F4:F25">
-    <cfRule type="expression" dxfId="108" priority="16">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="107" priority="6">
+    <cfRule type="expression" dxfId="62" priority="6">
       <formula>NOT(ISBLANK(B28))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="106" priority="15">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="105" priority="4">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C9">
-    <cfRule type="expression" dxfId="104" priority="3">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10:C13">
-    <cfRule type="expression" dxfId="103" priority="2">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E25">
-    <cfRule type="expression" dxfId="102" priority="1">
-      <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15398,48 +13985,28 @@
       <c r="F36" s="17"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B4:E25">
+    <cfRule type="expression" dxfId="61" priority="1">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="101" priority="22">
+    <cfRule type="expression" dxfId="60" priority="22">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="100" priority="21">
+    <cfRule type="expression" dxfId="59" priority="21">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B14 B15:D25 D4:D14 F4:F13 F15:F25">
-    <cfRule type="expression" dxfId="99" priority="5">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="98" priority="20">
+    <cfRule type="expression" dxfId="58" priority="20">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="97" priority="16">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="96" priority="4">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C9">
-    <cfRule type="expression" dxfId="95" priority="3">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10:C13">
-    <cfRule type="expression" dxfId="94" priority="2">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E25">
-    <cfRule type="expression" dxfId="93" priority="1">
+  <conditionalFormatting sqref="F4:F13 F15:F25">
+    <cfRule type="expression" dxfId="57" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15815,53 +14382,33 @@
       <c r="F36" s="17"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B15:D25 B4:B14 D4:D14">
-    <cfRule type="expression" dxfId="92" priority="10">
+  <conditionalFormatting sqref="B4:D25">
+    <cfRule type="expression" dxfId="56" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="91" priority="26">
+    <cfRule type="expression" dxfId="55" priority="26">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="90" priority="25">
+    <cfRule type="expression" dxfId="54" priority="25">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="89" priority="24">
+    <cfRule type="expression" dxfId="53" priority="24">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="88" priority="20">
+  <conditionalFormatting sqref="E4:E26">
+    <cfRule type="expression" dxfId="52" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E26">
-    <cfRule type="expression" dxfId="87" priority="4">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F4:F25">
-    <cfRule type="expression" dxfId="86" priority="22">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="85" priority="3">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C9">
-    <cfRule type="expression" dxfId="84" priority="2">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10:C13">
-    <cfRule type="expression" dxfId="83" priority="1">
+    <cfRule type="expression" dxfId="51" priority="22">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16292,53 +14839,38 @@
       <c r="F36" s="17"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B5:B14 B15:D25">
+    <cfRule type="expression" dxfId="50" priority="22">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="82" priority="29">
+    <cfRule type="expression" dxfId="49" priority="29">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="81" priority="28">
+    <cfRule type="expression" dxfId="48" priority="28">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="80" priority="27">
+    <cfRule type="expression" dxfId="47" priority="27">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15:D25 B5:B14 D4:D14">
-    <cfRule type="expression" dxfId="79" priority="22">
+  <conditionalFormatting sqref="C4:D14">
+    <cfRule type="expression" dxfId="46" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="78" priority="24">
+  <conditionalFormatting sqref="E4:E26">
+    <cfRule type="expression" dxfId="45" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F14 E26 F16:F25">
-    <cfRule type="expression" dxfId="77" priority="21">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="76" priority="4">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C9">
-    <cfRule type="expression" dxfId="75" priority="3">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10:C13">
-    <cfRule type="expression" dxfId="74" priority="2">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E25">
-    <cfRule type="expression" dxfId="73" priority="1">
+  <conditionalFormatting sqref="F4:F14 F16:F25">
+    <cfRule type="expression" dxfId="44" priority="21">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16462,7 +14994,6 @@
         <v>7</v>
       </c>
       <c r="C6" s="28"/>
-      <c r="E6" s="35"/>
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
@@ -16473,7 +15004,6 @@
         <v>109</v>
       </c>
       <c r="C7" s="28"/>
-      <c r="E7" s="35"/>
       <c r="F7" s="5"/>
       <c r="H7" s="1" t="s">
         <v>17</v>
@@ -16486,7 +15016,6 @@
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="28"/>
-      <c r="E8" s="35"/>
       <c r="F8" s="5"/>
       <c r="H8" s="1" t="s">
         <v>18</v>
@@ -16504,7 +15033,7 @@
       <c r="D9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="36"/>
+      <c r="E9" s="35"/>
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
@@ -16515,7 +15044,7 @@
       <c r="D10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="37"/>
+      <c r="E10" s="36"/>
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
@@ -16524,7 +15053,7 @@
       </c>
       <c r="B11" s="7"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="37"/>
+      <c r="E11" s="36"/>
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
@@ -16533,7 +15062,7 @@
       </c>
       <c r="B12" s="7"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="37"/>
+      <c r="E12" s="36"/>
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
@@ -16542,20 +15071,18 @@
       </c>
       <c r="B13" s="7"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="37"/>
+      <c r="E13" s="36"/>
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="3">
         <v>0.54166666666666696</v>
       </c>
-      <c r="E14" s="35"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
         <v>0.5625</v>
       </c>
-      <c r="E15" s="35"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
@@ -16602,7 +15129,7 @@
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="37"/>
+      <c r="E18" s="36"/>
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
@@ -16612,7 +15139,7 @@
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="37"/>
+      <c r="E19" s="36"/>
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
@@ -16622,7 +15149,7 @@
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="37"/>
+      <c r="E20" s="36"/>
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
@@ -16634,7 +15161,6 @@
       <c r="D21" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="35"/>
       <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
@@ -16646,7 +15172,6 @@
       <c r="D22" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="35"/>
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
@@ -16656,7 +15181,6 @@
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="35"/>
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
@@ -16666,7 +15190,6 @@
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="35"/>
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
@@ -16676,7 +15199,6 @@
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="35"/>
       <c r="F25" s="5"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
@@ -16765,58 +15287,38 @@
       <c r="F36" s="17"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B5:B14 B15:D25">
+    <cfRule type="expression" dxfId="43" priority="24">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="72" priority="31">
+    <cfRule type="expression" dxfId="42" priority="31">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="71" priority="30">
+    <cfRule type="expression" dxfId="41" priority="30">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="70" priority="29">
+    <cfRule type="expression" dxfId="40" priority="29">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15:D25 B5:B14 D4:D14">
-    <cfRule type="expression" dxfId="69" priority="24">
+  <conditionalFormatting sqref="C4:D14">
+    <cfRule type="expression" dxfId="39" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="68" priority="26">
+  <conditionalFormatting sqref="E4:E26">
+    <cfRule type="expression" dxfId="38" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="67" priority="17">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F4:F14 F16:F25">
-    <cfRule type="expression" dxfId="66" priority="23">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="65" priority="4">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C9">
-    <cfRule type="expression" dxfId="64" priority="3">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10:C13">
-    <cfRule type="expression" dxfId="63" priority="2">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E25">
-    <cfRule type="expression" dxfId="62" priority="1">
+    <cfRule type="expression" dxfId="37" priority="23">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17249,58 +15751,38 @@
       <c r="F36" s="17"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B5:B14 B15:D25">
+    <cfRule type="expression" dxfId="36" priority="9">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="61" priority="13">
+    <cfRule type="expression" dxfId="35" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="60" priority="12">
+    <cfRule type="expression" dxfId="34" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="59" priority="11">
+    <cfRule type="expression" dxfId="33" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15:D25 B5:B14 D4:D14">
-    <cfRule type="expression" dxfId="58" priority="9">
+  <conditionalFormatting sqref="C4:D14">
+    <cfRule type="expression" dxfId="32" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="57" priority="10">
+  <conditionalFormatting sqref="E4:E26">
+    <cfRule type="expression" dxfId="31" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="56" priority="7">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F4:F13 F15:F25">
-    <cfRule type="expression" dxfId="55" priority="8">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="54" priority="4">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C9">
-    <cfRule type="expression" dxfId="53" priority="3">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10:C13">
-    <cfRule type="expression" dxfId="52" priority="2">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E25">
-    <cfRule type="expression" dxfId="51" priority="1">
+    <cfRule type="expression" dxfId="30" priority="8">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17736,53 +16218,33 @@
       <c r="F36" s="17"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B4:D25">
+    <cfRule type="expression" dxfId="29" priority="2">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="50" priority="13">
+    <cfRule type="expression" dxfId="28" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="49" priority="12">
+    <cfRule type="expression" dxfId="27" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="48" priority="11">
+    <cfRule type="expression" dxfId="26" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="47" priority="10">
+  <conditionalFormatting sqref="E4:E26">
+    <cfRule type="expression" dxfId="25" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="46" priority="7">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F14 B15:D25 F16:F25 B4:B14 D4:D14">
-    <cfRule type="expression" dxfId="45" priority="8">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="44" priority="4">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C9">
-    <cfRule type="expression" dxfId="43" priority="3">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10:C13">
-    <cfRule type="expression" dxfId="42" priority="2">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E25">
-    <cfRule type="expression" dxfId="41" priority="1">
+  <conditionalFormatting sqref="F4:F14 F16:F25">
+    <cfRule type="expression" dxfId="24" priority="8">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18214,53 +16676,33 @@
       <c r="F36" s="17"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B4:D25">
+    <cfRule type="expression" dxfId="23" priority="2">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="40" priority="13">
+    <cfRule type="expression" dxfId="22" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="39" priority="12">
+    <cfRule type="expression" dxfId="21" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="38" priority="11">
+    <cfRule type="expression" dxfId="20" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="37" priority="10">
+  <conditionalFormatting sqref="E4:E26">
+    <cfRule type="expression" dxfId="19" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="36" priority="7">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F14 B15:D25 F16:F25 B4:B14 D4:D14">
-    <cfRule type="expression" dxfId="35" priority="8">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="34" priority="4">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C9">
-    <cfRule type="expression" dxfId="33" priority="3">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10:C13">
-    <cfRule type="expression" dxfId="32" priority="2">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E25">
-    <cfRule type="expression" dxfId="31" priority="1">
+  <conditionalFormatting sqref="F4:F14 F16:F25">
+    <cfRule type="expression" dxfId="18" priority="8">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18702,53 +17144,33 @@
       <c r="F36" s="19"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B4:D25">
+    <cfRule type="expression" dxfId="17" priority="2">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="30" priority="13">
+    <cfRule type="expression" dxfId="16" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="29" priority="12">
+    <cfRule type="expression" dxfId="15" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="28" priority="11">
+    <cfRule type="expression" dxfId="14" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="27" priority="10">
+  <conditionalFormatting sqref="E4:E26">
+    <cfRule type="expression" dxfId="13" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="26" priority="7">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F14 B15:D25 F16:F25 B4:B14 D4:D14">
-    <cfRule type="expression" dxfId="25" priority="8">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="24" priority="4">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C9">
-    <cfRule type="expression" dxfId="23" priority="3">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10:C13">
-    <cfRule type="expression" dxfId="22" priority="2">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E25">
-    <cfRule type="expression" dxfId="21" priority="1">
+  <conditionalFormatting sqref="F4:F14 F16:F25">
+    <cfRule type="expression" dxfId="12" priority="8">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18760,7 +17182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141CA38B-DB7C-48AD-8513-9BED1D5E19BB}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="68" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B5" sqref="B5:B14"/>
     </sheetView>
   </sheetViews>
@@ -18838,7 +17260,6 @@
       <c r="C4" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="E4" s="35"/>
       <c r="F4" s="6" t="s">
         <v>12</v>
       </c>
@@ -18872,7 +17293,6 @@
         <v>7</v>
       </c>
       <c r="C6" s="28"/>
-      <c r="E6" s="35"/>
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
@@ -18883,7 +17303,6 @@
         <v>72</v>
       </c>
       <c r="C7" s="28"/>
-      <c r="E7" s="35"/>
       <c r="F7" s="5"/>
       <c r="H7" s="1" t="s">
         <v>17</v>
@@ -18896,7 +17315,6 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="28"/>
-      <c r="E8" s="35"/>
       <c r="F8" s="5"/>
       <c r="H8" s="1" t="s">
         <v>18</v>
@@ -18914,7 +17332,7 @@
       <c r="D9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="36"/>
+      <c r="E9" s="35"/>
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
@@ -18925,7 +17343,7 @@
       <c r="D10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="37"/>
+      <c r="E10" s="36"/>
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
@@ -18934,7 +17352,7 @@
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="37"/>
+      <c r="E11" s="36"/>
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
@@ -18943,7 +17361,7 @@
       </c>
       <c r="B12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="37"/>
+      <c r="E12" s="36"/>
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
@@ -18952,7 +17370,7 @@
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="37"/>
+      <c r="E13" s="36"/>
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
@@ -18960,13 +17378,11 @@
         <v>0.54166666666666696</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="E14" s="35"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
         <v>0.5625</v>
       </c>
-      <c r="E15" s="35"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
@@ -19004,7 +17420,7 @@
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="37"/>
+      <c r="E18" s="36"/>
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
@@ -19013,7 +17429,7 @@
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="37"/>
+      <c r="E19" s="36"/>
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
@@ -19022,7 +17438,7 @@
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="37"/>
+      <c r="E20" s="36"/>
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
@@ -19030,7 +17446,6 @@
         <v>0.6875</v>
       </c>
       <c r="C21" s="5"/>
-      <c r="E21" s="35"/>
       <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
@@ -19038,7 +17453,6 @@
         <v>0.70833333333333304</v>
       </c>
       <c r="C22" s="5"/>
-      <c r="E22" s="35"/>
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
@@ -19046,7 +17460,6 @@
         <v>0.72916666666666696</v>
       </c>
       <c r="C23" s="5"/>
-      <c r="E23" s="35"/>
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
@@ -19054,7 +17467,6 @@
         <v>0.75</v>
       </c>
       <c r="C24" s="5"/>
-      <c r="E24" s="35"/>
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
@@ -19062,7 +17474,6 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="C25" s="5"/>
-      <c r="E25" s="35"/>
       <c r="F25" s="5"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
@@ -19168,23 +17579,23 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="313" priority="9">
+    <cfRule type="expression" dxfId="226" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="312" priority="8">
+    <cfRule type="expression" dxfId="225" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C16:F25 B15:F15 C4:F14 B5:B14">
-    <cfRule type="expression" dxfId="311" priority="6">
+  <conditionalFormatting sqref="B28:F36">
+    <cfRule type="expression" dxfId="224" priority="1">
+      <formula>NOT(ISBLANK(B28))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:F14 B5:B14 B15:F15 C16:F25">
+    <cfRule type="expression" dxfId="223" priority="6">
       <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="310" priority="1">
-      <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19625,53 +18036,33 @@
       <c r="F36" s="19"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B4:D25">
+    <cfRule type="expression" dxfId="11" priority="2">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="20" priority="13">
+    <cfRule type="expression" dxfId="10" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="19" priority="12">
+    <cfRule type="expression" dxfId="9" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="18" priority="11">
+    <cfRule type="expression" dxfId="8" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="17" priority="10">
+  <conditionalFormatting sqref="E4:E26">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="16" priority="7">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F14 B15:D25 F16:F25 B4:B14 D4:D14">
-    <cfRule type="expression" dxfId="15" priority="8">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="14" priority="4">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C9">
-    <cfRule type="expression" dxfId="13" priority="3">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10:C13">
-    <cfRule type="expression" dxfId="12" priority="2">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E25">
-    <cfRule type="expression" dxfId="11" priority="1">
+  <conditionalFormatting sqref="F4:F14 F16:F25">
+    <cfRule type="expression" dxfId="6" priority="8">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20109,58 +18500,33 @@
       <c r="F36" s="19"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B4:D25">
+    <cfRule type="expression" dxfId="5" priority="2">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="10" priority="13">
+    <cfRule type="expression" dxfId="4" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="9" priority="12">
+    <cfRule type="expression" dxfId="3" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="8" priority="11">
+    <cfRule type="expression" dxfId="2" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="7" priority="10">
+  <conditionalFormatting sqref="E4:E26">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15:D25 B4:B14 D4:D14">
-    <cfRule type="expression" dxfId="6" priority="8">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="5" priority="7">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F4:F25">
-    <cfRule type="expression" dxfId="4" priority="6">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C9">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10:C13">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E25">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="0" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20173,7 +18539,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E25"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -20502,7 +18868,9 @@
         <v>55</v>
       </c>
       <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
+      <c r="E28" s="16" t="s">
+        <v>125</v>
+      </c>
       <c r="F28" s="16" t="s">
         <v>56</v>
       </c>
@@ -20578,38 +18946,33 @@
       <c r="F36" s="17"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B5:B14 B15:D15 C16:D25 B16:B26">
+    <cfRule type="expression" dxfId="222" priority="5">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="309" priority="10">
+    <cfRule type="expression" dxfId="221" priority="10">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="308" priority="9">
+    <cfRule type="expression" dxfId="220" priority="9">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="307" priority="6">
+    <cfRule type="expression" dxfId="219" priority="6">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13:D14 B5:B14 B15:D15 C16:D25 B16:B26 D4:D12 F4:F25">
-    <cfRule type="expression" dxfId="306" priority="5">
+  <conditionalFormatting sqref="C4:D14">
+    <cfRule type="expression" dxfId="218" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C12">
-    <cfRule type="expression" dxfId="305" priority="4">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E22">
-    <cfRule type="expression" dxfId="304" priority="2">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23:E25">
-    <cfRule type="expression" dxfId="303" priority="1">
+  <conditionalFormatting sqref="E4:F25">
+    <cfRule type="expression" dxfId="217" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20734,7 +19097,6 @@
         <v>7</v>
       </c>
       <c r="C6" s="28"/>
-      <c r="E6" s="35"/>
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
@@ -20745,7 +19107,6 @@
         <v>62</v>
       </c>
       <c r="C7" s="28"/>
-      <c r="E7" s="35"/>
       <c r="F7" s="5"/>
       <c r="H7" s="1" t="s">
         <v>17</v>
@@ -20758,7 +19119,6 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="28"/>
-      <c r="E8" s="35"/>
       <c r="F8" s="5"/>
       <c r="H8" s="1" t="s">
         <v>18</v>
@@ -20776,7 +19136,7 @@
       <c r="D9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="36"/>
+      <c r="E9" s="35"/>
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
@@ -20787,7 +19147,7 @@
       <c r="D10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="37"/>
+      <c r="E10" s="36"/>
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
@@ -20796,7 +19156,7 @@
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="37"/>
+      <c r="E11" s="36"/>
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
@@ -20805,7 +19165,7 @@
       </c>
       <c r="B12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="37"/>
+      <c r="E12" s="36"/>
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
@@ -20814,7 +19174,7 @@
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="37"/>
+      <c r="E13" s="36"/>
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
@@ -20822,13 +19182,11 @@
         <v>0.54166666666666696</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="E14" s="35"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
         <v>0.5625</v>
       </c>
-      <c r="E15" s="35"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
@@ -20866,7 +19224,7 @@
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="37"/>
+      <c r="E18" s="36"/>
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
@@ -20875,7 +19233,7 @@
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="37"/>
+      <c r="E19" s="36"/>
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
@@ -20884,7 +19242,7 @@
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="37"/>
+      <c r="E20" s="36"/>
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
@@ -20892,7 +19250,6 @@
         <v>0.6875</v>
       </c>
       <c r="C21" s="5"/>
-      <c r="E21" s="35"/>
       <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
@@ -20900,7 +19257,6 @@
         <v>0.70833333333333304</v>
       </c>
       <c r="C22" s="5"/>
-      <c r="E22" s="35"/>
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
@@ -20908,7 +19264,6 @@
         <v>0.72916666666666696</v>
       </c>
       <c r="C23" s="5"/>
-      <c r="E23" s="35"/>
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
@@ -20916,7 +19271,6 @@
         <v>0.75</v>
       </c>
       <c r="C24" s="5"/>
-      <c r="E24" s="35"/>
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
@@ -20924,7 +19278,6 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="C25" s="5"/>
-      <c r="E25" s="35"/>
       <c r="F25" s="5"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
@@ -21017,33 +19370,33 @@
       <c r="F36" s="17"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B4:D15">
+    <cfRule type="expression" dxfId="216" priority="2">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="302" priority="8">
+    <cfRule type="expression" dxfId="215" priority="8">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="301" priority="7">
+    <cfRule type="expression" dxfId="214" priority="7">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13:D15 C16:D25 B4:B12 D4:D12 F4:F25">
-    <cfRule type="expression" dxfId="300" priority="3">
+  <conditionalFormatting sqref="B28:F36">
+    <cfRule type="expression" dxfId="213" priority="6">
+      <formula>NOT(ISBLANK(B28))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:D25">
+    <cfRule type="expression" dxfId="212" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="299" priority="6">
-      <formula>NOT(ISBLANK(B28))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C12">
-    <cfRule type="expression" dxfId="298" priority="2">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E25">
-    <cfRule type="expression" dxfId="297" priority="1">
+  <conditionalFormatting sqref="E4:F25">
+    <cfRule type="expression" dxfId="211" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21130,11 +19483,8 @@
       <c r="A4" s="3">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B4" s="35"/>
       <c r="C4" s="33"/>
-      <c r="D4" s="35"/>
       <c r="E4" s="33"/>
-      <c r="F4" s="35"/>
       <c r="H4" s="7" t="s">
         <v>10</v>
       </c>
@@ -21143,11 +19493,7 @@
       <c r="A5" s="3">
         <v>0.375</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
       <c r="E5" s="34"/>
-      <c r="F5" s="35"/>
       <c r="H5" s="11" t="s">
         <v>22</v>
       </c>
@@ -21156,21 +19502,11 @@
       <c r="A6" s="3">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
       <c r="H7" s="1" t="s">
         <v>17</v>
       </c>
@@ -21180,11 +19516,6 @@
       <c r="A8" s="3">
         <v>0.4375</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
       <c r="H8" s="1" t="s">
         <v>18</v>
       </c>
@@ -21196,171 +19527,116 @@
       <c r="A9" s="10">
         <v>0.44791666666666669</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="35"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="35"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="3">
         <v>0.45833333333333398</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="35"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="36"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="3">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="35"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="36"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="3">
         <v>0.5</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="35"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="36"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="3">
         <v>0.53125</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="35"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="36"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="3">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
         <v>0.5625</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="40"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="39"/>
       <c r="E16" s="33"/>
-      <c r="F16" s="35"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="3">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="41"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="40"/>
       <c r="E17" s="34"/>
-      <c r="F17" s="35"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="3">
         <v>0.625</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="35"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="36"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="3">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="35"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="36"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="3">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="35"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="36"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="3">
         <v>0.6875</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
+      <c r="C21" s="38"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="3">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
+      <c r="C22" s="38"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="3">
         <v>0.72916666666666696</v>
       </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
+      <c r="C23" s="38"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="3">
         <v>0.75</v>
       </c>
-      <c r="B24" s="35"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
+      <c r="C24" s="38"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="3">
         <v>0.76041666666666663</v>
       </c>
-      <c r="B25" s="35"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
+      <c r="C25" s="38"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="2"/>
@@ -21459,33 +19735,23 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="296" priority="7">
+    <cfRule type="expression" dxfId="210" priority="7">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="295" priority="6">
+    <cfRule type="expression" dxfId="209" priority="6">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13:D25 B4:B12 D4:D12 F4:F25">
-    <cfRule type="expression" dxfId="294" priority="3">
+  <conditionalFormatting sqref="B4:F25">
+    <cfRule type="expression" dxfId="208" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="293" priority="5">
+    <cfRule type="expression" dxfId="207" priority="5">
       <formula>NOT(ISBLANK(B28))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C12">
-    <cfRule type="expression" dxfId="292" priority="2">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E25">
-    <cfRule type="expression" dxfId="291" priority="1">
-      <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21609,7 +19875,6 @@
       </c>
       <c r="C6" s="28"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="35"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
@@ -21618,7 +19883,6 @@
       <c r="B7" s="7"/>
       <c r="C7" s="28"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="35"/>
       <c r="H7" s="1" t="s">
         <v>17</v>
       </c>
@@ -21631,7 +19895,6 @@
       <c r="B8" s="7"/>
       <c r="C8" s="28"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="35"/>
       <c r="H8" s="1" t="s">
         <v>18</v>
       </c>
@@ -21648,7 +19911,7 @@
       <c r="D9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="36"/>
+      <c r="E9" s="35"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="3">
@@ -21658,7 +19921,7 @@
       <c r="D10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="37"/>
+      <c r="E10" s="36"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="3">
@@ -21666,7 +19929,7 @@
       </c>
       <c r="B11" s="7"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="37"/>
+      <c r="E11" s="36"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="3">
@@ -21674,7 +19937,7 @@
       </c>
       <c r="B12" s="7"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="37"/>
+      <c r="E12" s="36"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="3">
@@ -21682,20 +19945,18 @@
       </c>
       <c r="B13" s="7"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="37"/>
+      <c r="E13" s="36"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="3">
         <v>0.54166666666666696</v>
       </c>
       <c r="B14" s="7"/>
-      <c r="E14" s="35"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
         <v>0.5625</v>
       </c>
-      <c r="E15" s="35"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
@@ -21727,7 +19988,7 @@
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="37"/>
+      <c r="E18" s="36"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="3">
@@ -21735,7 +19996,7 @@
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="37"/>
+      <c r="E19" s="36"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="3">
@@ -21743,42 +20004,37 @@
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="37"/>
+      <c r="E20" s="36"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="3">
         <v>0.6875</v>
       </c>
       <c r="C21" s="5"/>
-      <c r="E21" s="35"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="3">
         <v>0.70833333333333304</v>
       </c>
       <c r="C22" s="5"/>
-      <c r="E22" s="35"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="3">
         <v>0.72916666666666696</v>
       </c>
       <c r="C23" s="5"/>
-      <c r="E23" s="35"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="3">
         <v>0.75</v>
       </c>
       <c r="C24" s="5"/>
-      <c r="E24" s="35"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="3">
         <v>0.76041666666666663</v>
       </c>
       <c r="C25" s="5"/>
-      <c r="E25" s="35"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="2"/>
@@ -21868,33 +20124,33 @@
       <c r="F36" s="17"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B5:B14 B15:D15 C16:D25">
+    <cfRule type="expression" dxfId="206" priority="3">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="290" priority="6">
+    <cfRule type="expression" dxfId="205" priority="6">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="289" priority="5">
+    <cfRule type="expression" dxfId="204" priority="5">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="288" priority="4">
+    <cfRule type="expression" dxfId="203" priority="4">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13:D14 B5:B14 B15:D15 C16:D25 D4:D12 F4:F25">
-    <cfRule type="expression" dxfId="287" priority="3">
+  <conditionalFormatting sqref="C4:D14">
+    <cfRule type="expression" dxfId="202" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C12">
-    <cfRule type="expression" dxfId="286" priority="2">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E25">
-    <cfRule type="expression" dxfId="285" priority="1">
+  <conditionalFormatting sqref="E4:F25">
+    <cfRule type="expression" dxfId="201" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22299,33 +20555,23 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="284" priority="10">
+    <cfRule type="expression" dxfId="200" priority="10">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="283" priority="9">
+    <cfRule type="expression" dxfId="199" priority="9">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13:D25 B4:B12 D4:D12 F4:F25">
-    <cfRule type="expression" dxfId="282" priority="3">
+  <conditionalFormatting sqref="B4:F25">
+    <cfRule type="expression" dxfId="198" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="281" priority="8">
+    <cfRule type="expression" dxfId="197" priority="8">
       <formula>NOT(ISBLANK(B28))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C12">
-    <cfRule type="expression" dxfId="280" priority="2">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E25">
-    <cfRule type="expression" dxfId="279" priority="1">
-      <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/uurrooster.xlsx
+++ b/uurrooster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sethv\Documents\GitHub\LUCA-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2249A393-4B7C-4B72-ABAB-AA6B35F8E15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18EE5F2-CBED-4AF0-ABB3-59C1F492685B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="124">
   <si>
     <t>Week</t>
   </si>
@@ -442,19 +442,10 @@
     <t xml:space="preserve">Azza meeten 13.00u korenmarkt </t>
   </si>
   <si>
-    <t>Animatie kip geluid opnemen</t>
-  </si>
-  <si>
     <t>geen feedback studio digitaal, wel naar school</t>
   </si>
   <si>
     <t>Geen C&amp;O, wel video haystack</t>
-  </si>
-  <si>
-    <t>9u - 13u</t>
-  </si>
-  <si>
-    <t>Voorbereiden design thinking zie bericht! Veel te doen!</t>
   </si>
   <si>
     <t>CM: Audio</t>
@@ -467,6 +458,9 @@
   </si>
   <si>
     <t>Shot opdracht shots analyzeren max 2 min en camerabewegingen enzo</t>
+  </si>
+  <si>
+    <t>Animatie kip geluid opnemen (zie audioRecordingList.txt)</t>
   </si>
 </sst>
 </file>
@@ -3277,7 +3271,7 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>25</v>
@@ -3705,13 +3699,13 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>12</v>
@@ -3857,7 +3851,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -4147,7 +4141,7 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>25</v>
@@ -4575,13 +4569,13 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>12</v>
@@ -4727,7 +4721,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -5017,7 +5011,7 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>25</v>
@@ -5447,13 +5441,13 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>12</v>
@@ -5601,7 +5595,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -5902,13 +5896,13 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>12</v>
@@ -6056,7 +6050,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -8703,10 +8697,10 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>12</v>
@@ -8846,7 +8840,7 @@
         <v>27</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -9162,7 +9156,7 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E4" s="33"/>
       <c r="F4" s="6" t="s">
@@ -9605,10 +9599,10 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>12</v>
@@ -9748,7 +9742,7 @@
         <v>27</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -10064,7 +10058,7 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E4" s="33"/>
       <c r="F4" s="6" t="s">
@@ -10507,10 +10501,10 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>12</v>
@@ -10650,7 +10644,7 @@
         <v>27</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -10964,7 +10958,7 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E4" s="33"/>
       <c r="F4" s="6" t="s">
@@ -11407,10 +11401,10 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>12</v>
@@ -11550,7 +11544,7 @@
         <v>27</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -11864,10 +11858,10 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>12</v>
@@ -12009,7 +12003,7 @@
         <v>27</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -12234,8 +12228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E8F0BC9-EDE6-4632-8A0A-D46DEAFA1848}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -12310,7 +12304,7 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>12</v>
@@ -12432,7 +12426,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -12544,7 +12538,7 @@
       </c>
       <c r="D28" s="19"/>
       <c r="E28" s="19" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="F28" s="16" t="s">
         <v>81</v>
@@ -12750,10 +12744,10 @@
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="29" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>12</v>
@@ -12895,7 +12889,7 @@
         <v>27</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -13206,10 +13200,10 @@
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="29" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>12</v>
@@ -13351,7 +13345,7 @@
         <v>27</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -13661,10 +13655,10 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>12</v>
@@ -13790,7 +13784,7 @@
         <v>27</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -14094,7 +14088,7 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>12</v>
@@ -14496,10 +14490,10 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>12</v>
@@ -14641,7 +14635,7 @@
         <v>27</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -14958,7 +14952,7 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E4" s="33"/>
       <c r="F4" s="6" t="s">
@@ -15406,10 +15400,10 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>12</v>
@@ -15551,7 +15545,7 @@
         <v>27</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -15873,10 +15867,10 @@
         <v>11</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>12</v>
@@ -16016,7 +16010,7 @@
         <v>27</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -16335,10 +16329,10 @@
         <v>11</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>12</v>
@@ -16478,7 +16472,7 @@
         <v>27</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -16793,10 +16787,10 @@
         <v>11</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>12</v>
@@ -16936,7 +16930,7 @@
         <v>27</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -17182,8 +17176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141CA38B-DB7C-48AD-8513-9BED1D5E19BB}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView zoomScale="68" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B14"/>
+    <sheetView zoomScale="81" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -17258,7 +17252,7 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>12</v>
@@ -17495,7 +17489,7 @@
         <v>99</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
@@ -17515,7 +17509,7 @@
     </row>
     <row r="30" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="11"/>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="23" t="s">
         <v>115</v>
       </c>
       <c r="C30" s="19"/>
@@ -17525,8 +17519,8 @@
     </row>
     <row r="31" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="11"/>
-      <c r="B31" s="19" t="s">
-        <v>120</v>
+      <c r="B31" s="23" t="s">
+        <v>121</v>
       </c>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
@@ -17535,9 +17529,7 @@
     </row>
     <row r="32" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="11"/>
-      <c r="B32" s="19" t="s">
-        <v>121</v>
-      </c>
+      <c r="B32" s="19"/>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
@@ -17545,9 +17537,7 @@
     </row>
     <row r="33" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="11"/>
-      <c r="B33" s="19" t="s">
-        <v>124</v>
-      </c>
+      <c r="B33" s="19"/>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
@@ -17599,6 +17589,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -17685,10 +17676,10 @@
         <v>11</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>12</v>
@@ -17828,7 +17819,7 @@
         <v>27</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -18153,10 +18144,10 @@
         <v>11</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>12</v>
@@ -18296,7 +18287,7 @@
         <v>27</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -18538,7 +18529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BECB010-7B12-49C5-982D-18AE879FB3BF}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
@@ -18614,10 +18605,10 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>12</v>
@@ -18759,7 +18750,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -18869,7 +18860,7 @@
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="16" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F28" s="16" t="s">
         <v>56</v>
@@ -19061,7 +19052,7 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E4" s="33"/>
       <c r="F4" s="6" t="s">
@@ -19300,7 +19291,7 @@
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
@@ -19838,7 +19829,7 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>25</v>
@@ -20238,13 +20229,13 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>12</v>
@@ -20376,7 +20367,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>

--- a/uurrooster.xlsx
+++ b/uurrooster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LUCA-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A9A72B-57BF-4860-A1B3-32C9F6621BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B2C3B2-8CE0-4B47-96E9-8769DAA405C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17061,7 +17061,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17418,7 +17418,7 @@
     </row>
     <row r="32" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="23" t="s">
         <v>125</v>
       </c>
       <c r="C32" s="19"/>

--- a/uurrooster.xlsx
+++ b/uurrooster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LUCA-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B2C3B2-8CE0-4B47-96E9-8769DAA405C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0694656-BA28-46CD-94CB-5504BB362FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="129">
   <si>
     <t>Week</t>
   </si>
@@ -475,7 +475,7 @@
     <t>beginnen 3de animatie en vis animatie afwerken</t>
   </si>
   <si>
-    <t>Vis animatie zoveel mogelijk hebben</t>
+    <t>Vis animatie werken</t>
   </si>
 </sst>
 </file>
@@ -17061,7 +17061,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17428,7 +17428,9 @@
     </row>
     <row r="33" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
-      <c r="B33" s="19"/>
+      <c r="B33" s="19" t="s">
+        <v>128</v>
+      </c>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>

--- a/uurrooster.xlsx
+++ b/uurrooster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sethv\Documents\GitHub\LUCA-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C38D98-045B-422A-BC91-54F873666839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9909B0-4F24-4C5B-990A-6FF061C15C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="4" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="130">
   <si>
     <t>Week</t>
   </si>
@@ -477,6 +477,9 @@
   <si>
     <t>Vis animatie werken</t>
   </si>
+  <si>
+    <t>Lokaal en uren onduidelijk, wachten op antwoord in de klaschat!</t>
+  </si>
 </sst>
 </file>
 
@@ -639,7 +642,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -709,6 +712,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="6" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="20% - Accent2" xfId="3" builtinId="34"/>
@@ -720,7 +725,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="230">
+  <dxfs count="272">
     <dxf>
       <font>
         <color theme="1"/>
@@ -732,6 +737,416 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
@@ -2612,6 +3027,16 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3131,7 +3556,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3286,9 +3711,7 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="28"/>
-      <c r="D9" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="D9" s="5"/>
       <c r="E9" s="35"/>
       <c r="F9" s="5"/>
     </row>
@@ -3297,9 +3720,6 @@
         <v>0.45833333333333398</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="D10" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="E10" s="36"/>
       <c r="F10" s="5"/>
     </row>
@@ -3308,7 +3728,6 @@
         <v>0.47916666666666702</v>
       </c>
       <c r="B11" s="5"/>
-      <c r="D11" s="5"/>
       <c r="E11" s="36"/>
       <c r="F11" s="5"/>
     </row>
@@ -3317,7 +3736,6 @@
         <v>0.5</v>
       </c>
       <c r="B12" s="5"/>
-      <c r="D12" s="5"/>
       <c r="E12" s="36"/>
       <c r="F12" s="5"/>
     </row>
@@ -3326,7 +3744,6 @@
         <v>0.53125</v>
       </c>
       <c r="B13" s="5"/>
-      <c r="D13" s="5"/>
       <c r="E13" s="36"/>
       <c r="F13" s="5"/>
     </row>
@@ -3348,7 +3765,7 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="41" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="33"/>
@@ -3363,8 +3780,8 @@
       <c r="C17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>13</v>
+      <c r="D17" s="42" t="s">
+        <v>16</v>
       </c>
       <c r="E17" s="34"/>
       <c r="F17" s="5" t="s">
@@ -3376,7 +3793,7 @@
         <v>0.625</v>
       </c>
       <c r="C18" s="5"/>
-      <c r="D18" s="7"/>
+      <c r="D18" s="42"/>
       <c r="E18" s="36"/>
       <c r="F18" s="5"/>
     </row>
@@ -3385,7 +3802,7 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="C19" s="5"/>
-      <c r="D19" s="7"/>
+      <c r="D19" s="42"/>
       <c r="E19" s="36"/>
       <c r="F19" s="5"/>
     </row>
@@ -3394,7 +3811,7 @@
         <v>0.66666666666666696</v>
       </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="7"/>
+      <c r="D20" s="42"/>
       <c r="E20" s="36"/>
       <c r="F20" s="5"/>
     </row>
@@ -3403,6 +3820,9 @@
         <v>0.6875</v>
       </c>
       <c r="C21" s="5"/>
+      <c r="D21" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
@@ -3410,6 +3830,9 @@
         <v>0.70833333333333304</v>
       </c>
       <c r="C22" s="5"/>
+      <c r="D22" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
@@ -3417,6 +3840,7 @@
         <v>0.72916666666666696</v>
       </c>
       <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
@@ -3424,6 +3848,7 @@
         <v>0.75</v>
       </c>
       <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
@@ -3431,6 +3856,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
       <c r="F25" s="5"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
@@ -3520,27 +3946,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="191" priority="12">
+    <cfRule type="expression" dxfId="232" priority="16">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="190" priority="11">
+    <cfRule type="expression" dxfId="231" priority="15">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="189" priority="10">
+    <cfRule type="expression" dxfId="230" priority="14">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C16:D25">
-    <cfRule type="expression" dxfId="188" priority="4">
+  <conditionalFormatting sqref="C16:C25">
+    <cfRule type="expression" dxfId="229" priority="8">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E6 B4:D15 F5:F6 E7:F25">
-    <cfRule type="expression" dxfId="187" priority="2">
+  <conditionalFormatting sqref="E4:E6 B4:D8 F5:F6 E7:F25 B9:C15">
+    <cfRule type="expression" dxfId="228" priority="6">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14 D21:D25">
+    <cfRule type="expression" dxfId="31" priority="3">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15 D21:D25">
+    <cfRule type="expression" dxfId="30" priority="4">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:D20">
+    <cfRule type="expression" dxfId="29" priority="2">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3553,7 +3999,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3713,9 +4159,7 @@
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="28"/>
-      <c r="D9" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="D9" s="5"/>
       <c r="E9" s="30"/>
       <c r="F9" s="5"/>
     </row>
@@ -3724,9 +4168,6 @@
         <v>0.45833333333333398</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="D10" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="E10" s="31"/>
       <c r="F10" s="5"/>
     </row>
@@ -3735,7 +4176,6 @@
         <v>0.47916666666666702</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="D11" s="5"/>
       <c r="E11" s="31"/>
       <c r="F11" s="5"/>
     </row>
@@ -3744,7 +4184,6 @@
         <v>0.5</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="D12" s="5"/>
       <c r="E12" s="31"/>
       <c r="F12" s="5"/>
     </row>
@@ -3753,7 +4192,6 @@
         <v>0.53125</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="D13" s="5"/>
       <c r="E13" s="31"/>
       <c r="F13" s="5"/>
     </row>
@@ -3775,7 +4213,7 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="41" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="29" t="s">
@@ -3792,8 +4230,8 @@
       <c r="C17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>13</v>
+      <c r="D17" s="42" t="s">
+        <v>16</v>
       </c>
       <c r="E17" s="32" t="s">
         <v>23</v>
@@ -3807,7 +4245,7 @@
         <v>0.625</v>
       </c>
       <c r="C18" s="5"/>
-      <c r="D18" s="7"/>
+      <c r="D18" s="42"/>
       <c r="E18" s="31"/>
       <c r="F18" s="5"/>
     </row>
@@ -3816,7 +4254,7 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="C19" s="5"/>
-      <c r="D19" s="7"/>
+      <c r="D19" s="42"/>
       <c r="E19" s="31"/>
       <c r="F19" s="5"/>
     </row>
@@ -3825,7 +4263,7 @@
         <v>0.66666666666666696</v>
       </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="7"/>
+      <c r="D20" s="42"/>
       <c r="E20" s="31"/>
       <c r="F20" s="5"/>
     </row>
@@ -3834,6 +4272,9 @@
         <v>0.6875</v>
       </c>
       <c r="C21" s="5"/>
+      <c r="D21" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="E21" s="28"/>
       <c r="F21" s="5"/>
     </row>
@@ -3842,6 +4283,9 @@
         <v>0.70833333333333304</v>
       </c>
       <c r="C22" s="5"/>
+      <c r="D22" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="E22" s="28"/>
       <c r="F22" s="5"/>
     </row>
@@ -3850,6 +4294,7 @@
         <v>0.72916666666666696</v>
       </c>
       <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
       <c r="E23" s="28"/>
       <c r="F23" s="5"/>
     </row>
@@ -3858,6 +4303,7 @@
         <v>0.75</v>
       </c>
       <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
       <c r="E24" s="28"/>
       <c r="F24" s="5"/>
     </row>
@@ -3866,6 +4312,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
       <c r="E25" s="28"/>
       <c r="F25" s="5"/>
     </row>
@@ -3955,33 +4402,53 @@
       <c r="F36" s="17"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B5:B14 B14:D25 F15:F25">
-    <cfRule type="expression" dxfId="186" priority="3">
+  <conditionalFormatting sqref="B5:B14 B14:C25 F15:F25">
+    <cfRule type="expression" dxfId="227" priority="7">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="185" priority="12">
+    <cfRule type="expression" dxfId="226" priority="16">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="184" priority="11">
+    <cfRule type="expression" dxfId="225" priority="15">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="183" priority="10">
+    <cfRule type="expression" dxfId="224" priority="14">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:D13 F5:F13">
-    <cfRule type="expression" dxfId="182" priority="2">
+  <conditionalFormatting sqref="C4:D8 F5:F13 C9:C13">
+    <cfRule type="expression" dxfId="223" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E25">
-    <cfRule type="expression" dxfId="181" priority="1">
+    <cfRule type="expression" dxfId="222" priority="5">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14 D21:D25">
+    <cfRule type="expression" dxfId="28" priority="3">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15 D21:D25">
+    <cfRule type="expression" dxfId="27" priority="4">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:D20">
+    <cfRule type="expression" dxfId="26" priority="2">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3994,7 +4461,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4149,9 +4616,7 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="28"/>
-      <c r="D9" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="D9" s="5"/>
       <c r="E9" s="35"/>
       <c r="F9" s="5"/>
     </row>
@@ -4160,9 +4625,6 @@
         <v>0.45833333333333398</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="D10" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="E10" s="36"/>
       <c r="F10" s="5"/>
     </row>
@@ -4171,7 +4633,6 @@
         <v>0.47916666666666702</v>
       </c>
       <c r="B11" s="5"/>
-      <c r="D11" s="5"/>
       <c r="E11" s="36"/>
       <c r="F11" s="5"/>
     </row>
@@ -4180,7 +4641,6 @@
         <v>0.5</v>
       </c>
       <c r="B12" s="5"/>
-      <c r="D12" s="5"/>
       <c r="E12" s="36"/>
       <c r="F12" s="5"/>
     </row>
@@ -4189,7 +4649,6 @@
         <v>0.53125</v>
       </c>
       <c r="B13" s="5"/>
-      <c r="D13" s="5"/>
       <c r="E13" s="36"/>
       <c r="F13" s="5"/>
     </row>
@@ -4211,7 +4670,7 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="41" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="33"/>
@@ -4226,8 +4685,8 @@
       <c r="C17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>13</v>
+      <c r="D17" s="42" t="s">
+        <v>16</v>
       </c>
       <c r="E17" s="34"/>
       <c r="F17" s="5" t="s">
@@ -4239,7 +4698,7 @@
         <v>0.625</v>
       </c>
       <c r="C18" s="5"/>
-      <c r="D18" s="7"/>
+      <c r="D18" s="42"/>
       <c r="E18" s="36"/>
       <c r="F18" s="5"/>
     </row>
@@ -4248,7 +4707,7 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="C19" s="5"/>
-      <c r="D19" s="7"/>
+      <c r="D19" s="42"/>
       <c r="E19" s="36"/>
       <c r="F19" s="5"/>
     </row>
@@ -4257,7 +4716,7 @@
         <v>0.66666666666666696</v>
       </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="7"/>
+      <c r="D20" s="42"/>
       <c r="E20" s="36"/>
       <c r="F20" s="5"/>
     </row>
@@ -4266,6 +4725,9 @@
         <v>0.6875</v>
       </c>
       <c r="C21" s="5"/>
+      <c r="D21" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
@@ -4273,6 +4735,9 @@
         <v>0.70833333333333304</v>
       </c>
       <c r="C22" s="5"/>
+      <c r="D22" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
@@ -4280,6 +4745,7 @@
         <v>0.72916666666666696</v>
       </c>
       <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
@@ -4287,6 +4753,7 @@
         <v>0.75</v>
       </c>
       <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
@@ -4294,6 +4761,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
       <c r="F25" s="5"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
@@ -4382,33 +4850,53 @@
       <c r="F36" s="17"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B4:D15 F5:F14">
-    <cfRule type="expression" dxfId="180" priority="2">
+  <conditionalFormatting sqref="B4:D8 F5:F14 B9:C15">
+    <cfRule type="expression" dxfId="221" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="179" priority="17">
+    <cfRule type="expression" dxfId="220" priority="21">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="178" priority="16">
+    <cfRule type="expression" dxfId="219" priority="20">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="177" priority="15">
+    <cfRule type="expression" dxfId="218" priority="19">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C16:D25 F16:F25">
-    <cfRule type="expression" dxfId="176" priority="3">
+  <conditionalFormatting sqref="C16:C25 F16:F25">
+    <cfRule type="expression" dxfId="217" priority="7">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E25">
-    <cfRule type="expression" dxfId="175" priority="1">
+    <cfRule type="expression" dxfId="216" priority="5">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14 D21:D25">
+    <cfRule type="expression" dxfId="25" priority="3">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15 D21:D25">
+    <cfRule type="expression" dxfId="24" priority="4">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:D20">
+    <cfRule type="expression" dxfId="23" priority="2">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4421,7 +4909,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4581,9 +5069,7 @@
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="28"/>
-      <c r="D9" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="D9" s="5"/>
       <c r="E9" s="30"/>
       <c r="F9" s="5"/>
     </row>
@@ -4592,9 +5078,6 @@
         <v>0.45833333333333398</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="D10" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="E10" s="31"/>
       <c r="F10" s="5"/>
     </row>
@@ -4603,7 +5086,6 @@
         <v>0.47916666666666702</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="D11" s="5"/>
       <c r="E11" s="31"/>
       <c r="F11" s="5"/>
     </row>
@@ -4612,7 +5094,6 @@
         <v>0.5</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="D12" s="5"/>
       <c r="E12" s="31"/>
       <c r="F12" s="5"/>
     </row>
@@ -4621,7 +5102,6 @@
         <v>0.53125</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="D13" s="5"/>
       <c r="E13" s="31"/>
       <c r="F13" s="5"/>
     </row>
@@ -4643,7 +5123,7 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="41" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="29" t="s">
@@ -4660,8 +5140,8 @@
       <c r="C17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>13</v>
+      <c r="D17" s="42" t="s">
+        <v>16</v>
       </c>
       <c r="E17" s="32" t="s">
         <v>23</v>
@@ -4675,7 +5155,7 @@
         <v>0.625</v>
       </c>
       <c r="C18" s="5"/>
-      <c r="D18" s="7"/>
+      <c r="D18" s="42"/>
       <c r="E18" s="31"/>
       <c r="F18" s="5"/>
     </row>
@@ -4684,7 +5164,7 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="C19" s="5"/>
-      <c r="D19" s="7"/>
+      <c r="D19" s="42"/>
       <c r="E19" s="31"/>
       <c r="F19" s="5"/>
     </row>
@@ -4693,7 +5173,7 @@
         <v>0.66666666666666696</v>
       </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="7"/>
+      <c r="D20" s="42"/>
       <c r="E20" s="31"/>
       <c r="F20" s="5"/>
     </row>
@@ -4702,6 +5182,9 @@
         <v>0.6875</v>
       </c>
       <c r="C21" s="5"/>
+      <c r="D21" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="E21" s="28"/>
       <c r="F21" s="5"/>
     </row>
@@ -4710,6 +5193,9 @@
         <v>0.70833333333333304</v>
       </c>
       <c r="C22" s="5"/>
+      <c r="D22" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="E22" s="28"/>
       <c r="F22" s="5"/>
     </row>
@@ -4718,6 +5204,7 @@
         <v>0.72916666666666696</v>
       </c>
       <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
       <c r="E23" s="28"/>
       <c r="F23" s="5"/>
     </row>
@@ -4726,6 +5213,7 @@
         <v>0.75</v>
       </c>
       <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
       <c r="E24" s="28"/>
       <c r="F24" s="5"/>
     </row>
@@ -4734,6 +5222,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
       <c r="E25" s="28"/>
       <c r="F25" s="5"/>
     </row>
@@ -4823,33 +5312,53 @@
       <c r="F36" s="17"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B5:B14 B15:D25 F16:F25">
-    <cfRule type="expression" dxfId="174" priority="3">
+  <conditionalFormatting sqref="B5:B14 B15:C25 F16:F25">
+    <cfRule type="expression" dxfId="215" priority="7">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="173" priority="18">
+    <cfRule type="expression" dxfId="214" priority="22">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="172" priority="17">
+    <cfRule type="expression" dxfId="213" priority="21">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="171" priority="16">
+    <cfRule type="expression" dxfId="212" priority="20">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:D14 F5:F14">
-    <cfRule type="expression" dxfId="170" priority="2">
+  <conditionalFormatting sqref="C4:D8 F5:F14 C9:C14">
+    <cfRule type="expression" dxfId="211" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E25">
-    <cfRule type="expression" dxfId="169" priority="1">
+    <cfRule type="expression" dxfId="210" priority="5">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14 D21:D25">
+    <cfRule type="expression" dxfId="22" priority="3">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15 D21:D25">
+    <cfRule type="expression" dxfId="21" priority="4">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:D20">
+    <cfRule type="expression" dxfId="20" priority="2">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4862,7 +5371,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5017,9 +5526,7 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="28"/>
-      <c r="D9" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="D9" s="5"/>
       <c r="E9" s="35"/>
       <c r="F9" s="5"/>
     </row>
@@ -5028,9 +5535,6 @@
         <v>0.45833333333333398</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="D10" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="E10" s="36"/>
       <c r="F10" s="5"/>
     </row>
@@ -5039,7 +5543,6 @@
         <v>0.47916666666666702</v>
       </c>
       <c r="B11" s="5"/>
-      <c r="D11" s="5"/>
       <c r="E11" s="36"/>
       <c r="F11" s="5"/>
     </row>
@@ -5048,7 +5551,6 @@
         <v>0.5</v>
       </c>
       <c r="B12" s="5"/>
-      <c r="D12" s="5"/>
       <c r="E12" s="36"/>
       <c r="F12" s="5"/>
     </row>
@@ -5057,7 +5559,6 @@
         <v>0.53125</v>
       </c>
       <c r="B13" s="5"/>
-      <c r="D13" s="5"/>
       <c r="E13" s="36"/>
       <c r="F13" s="5"/>
     </row>
@@ -5079,7 +5580,7 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="41" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="33"/>
@@ -5094,8 +5595,8 @@
       <c r="C17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>13</v>
+      <c r="D17" s="42" t="s">
+        <v>16</v>
       </c>
       <c r="E17" s="34"/>
       <c r="F17" s="5" t="s">
@@ -5107,7 +5608,7 @@
         <v>0.625</v>
       </c>
       <c r="C18" s="5"/>
-      <c r="D18" s="7"/>
+      <c r="D18" s="42"/>
       <c r="E18" s="36"/>
       <c r="F18" s="5"/>
     </row>
@@ -5116,7 +5617,7 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="C19" s="5"/>
-      <c r="D19" s="7"/>
+      <c r="D19" s="42"/>
       <c r="E19" s="36"/>
       <c r="F19" s="5"/>
     </row>
@@ -5125,7 +5626,7 @@
         <v>0.66666666666666696</v>
       </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="7"/>
+      <c r="D20" s="42"/>
       <c r="E20" s="36"/>
       <c r="F20" s="5"/>
     </row>
@@ -5134,6 +5635,9 @@
         <v>0.6875</v>
       </c>
       <c r="C21" s="5"/>
+      <c r="D21" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
@@ -5141,6 +5645,9 @@
         <v>0.70833333333333304</v>
       </c>
       <c r="C22" s="5"/>
+      <c r="D22" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
@@ -5148,6 +5655,7 @@
         <v>0.72916666666666696</v>
       </c>
       <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
@@ -5155,6 +5663,7 @@
         <v>0.75</v>
       </c>
       <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
@@ -5162,6 +5671,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
       <c r="F25" s="5"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
@@ -5253,27 +5763,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="168" priority="15">
+    <cfRule type="expression" dxfId="209" priority="19">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="167" priority="14">
+    <cfRule type="expression" dxfId="208" priority="18">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="166" priority="13">
+    <cfRule type="expression" dxfId="207" priority="17">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C16:D25">
-    <cfRule type="expression" dxfId="165" priority="3">
+  <conditionalFormatting sqref="C16:C25">
+    <cfRule type="expression" dxfId="206" priority="7">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E6 B4:D15 F5:F6 E7:F25">
-    <cfRule type="expression" dxfId="164" priority="2">
+  <conditionalFormatting sqref="E4:E6 B4:D8 F5:F6 E7:F25 B9:C15">
+    <cfRule type="expression" dxfId="205" priority="6">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14 D21:D25">
+    <cfRule type="expression" dxfId="19" priority="3">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15 D21:D25">
+    <cfRule type="expression" dxfId="18" priority="4">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:D20">
+    <cfRule type="expression" dxfId="17" priority="2">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5286,7 +5816,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5446,9 +5976,7 @@
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="28"/>
-      <c r="D9" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="D9" s="5"/>
       <c r="E9" s="30"/>
       <c r="F9" s="5"/>
     </row>
@@ -5457,9 +5985,6 @@
         <v>0.45833333333333398</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="D10" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="E10" s="31"/>
       <c r="F10" s="5"/>
     </row>
@@ -5468,7 +5993,6 @@
         <v>0.47916666666666702</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="D11" s="5"/>
       <c r="E11" s="31"/>
       <c r="F11" s="5"/>
     </row>
@@ -5477,7 +6001,6 @@
         <v>0.5</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="D12" s="5"/>
       <c r="E12" s="31"/>
       <c r="F12" s="5"/>
     </row>
@@ -5486,7 +6009,6 @@
         <v>0.53125</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="D13" s="5"/>
       <c r="E13" s="31"/>
       <c r="F13" s="5"/>
     </row>
@@ -5510,7 +6032,7 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="41" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="29" t="s">
@@ -5530,8 +6052,8 @@
       <c r="C17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>13</v>
+      <c r="D17" s="42" t="s">
+        <v>16</v>
       </c>
       <c r="E17" s="32" t="s">
         <v>23</v>
@@ -5546,7 +6068,7 @@
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="7"/>
+      <c r="D18" s="42"/>
       <c r="E18" s="31"/>
       <c r="F18" s="5"/>
     </row>
@@ -5556,7 +6078,7 @@
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="7"/>
+      <c r="D19" s="42"/>
       <c r="E19" s="31"/>
       <c r="F19" s="5"/>
     </row>
@@ -5566,7 +6088,7 @@
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="7"/>
+      <c r="D20" s="42"/>
       <c r="E20" s="31"/>
       <c r="F20" s="5"/>
     </row>
@@ -5576,6 +6098,9 @@
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
+      <c r="D21" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="E21" s="28"/>
       <c r="F21" s="5"/>
     </row>
@@ -5585,6 +6110,9 @@
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
+      <c r="D22" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="E22" s="28"/>
       <c r="F22" s="5"/>
     </row>
@@ -5594,6 +6122,7 @@
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
       <c r="E23" s="28"/>
       <c r="F23" s="5"/>
     </row>
@@ -5603,6 +6132,7 @@
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
       <c r="E24" s="28"/>
       <c r="F24" s="5"/>
     </row>
@@ -5612,6 +6142,7 @@
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
       <c r="E25" s="28"/>
       <c r="F25" s="5"/>
     </row>
@@ -5711,24 +6242,64 @@
       <c r="F36" s="17"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B4:E6 F5:F6 B7:F25">
-    <cfRule type="expression" dxfId="163" priority="1">
+  <conditionalFormatting sqref="B4:E6 F5:F6 B7:F8 B9:C25 E9:F25">
+    <cfRule type="expression" dxfId="204" priority="9">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="162" priority="15">
+    <cfRule type="expression" dxfId="203" priority="23">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="161" priority="14">
+    <cfRule type="expression" dxfId="202" priority="22">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="160" priority="13">
+    <cfRule type="expression" dxfId="201" priority="21">
       <formula>NOT(ISBLANK(B28))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14 D21:D25">
+    <cfRule type="expression" dxfId="16" priority="7">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15 D21:D25">
+    <cfRule type="expression" dxfId="15" priority="8">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:D20">
+    <cfRule type="expression" dxfId="14" priority="6">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5740,7 +6311,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5900,9 +6471,6 @@
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="28"/>
-      <c r="D9" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="E9" s="30"/>
       <c r="F9" s="5"/>
     </row>
@@ -5911,9 +6479,6 @@
         <v>0.45833333333333398</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="D10" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="E10" s="31"/>
       <c r="F10" s="5"/>
     </row>
@@ -5922,7 +6487,6 @@
         <v>0.47916666666666702</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="D11" s="5"/>
       <c r="E11" s="31"/>
       <c r="F11" s="5"/>
     </row>
@@ -5931,7 +6495,6 @@
         <v>0.5</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="D12" s="5"/>
       <c r="E12" s="31"/>
       <c r="F12" s="5"/>
     </row>
@@ -5940,7 +6503,6 @@
         <v>0.53125</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="D13" s="5"/>
       <c r="E13" s="31"/>
       <c r="F13" s="5"/>
     </row>
@@ -5964,7 +6526,7 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="41" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="29" t="s">
@@ -5984,8 +6546,8 @@
       <c r="C17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>13</v>
+      <c r="D17" s="42" t="s">
+        <v>16</v>
       </c>
       <c r="E17" s="32" t="s">
         <v>23</v>
@@ -6000,7 +6562,7 @@
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="7"/>
+      <c r="D18" s="42"/>
       <c r="E18" s="31"/>
       <c r="F18" s="5"/>
     </row>
@@ -6010,7 +6572,7 @@
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="7"/>
+      <c r="D19" s="42"/>
       <c r="E19" s="31"/>
       <c r="F19" s="5"/>
     </row>
@@ -6020,7 +6582,7 @@
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="7"/>
+      <c r="D20" s="42"/>
       <c r="E20" s="31"/>
       <c r="F20" s="5"/>
     </row>
@@ -6030,6 +6592,9 @@
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
+      <c r="D21" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="E21" s="28"/>
       <c r="F21" s="5"/>
     </row>
@@ -6039,6 +6604,9 @@
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
+      <c r="D22" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="E22" s="28"/>
       <c r="F22" s="5"/>
     </row>
@@ -6048,6 +6616,7 @@
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
       <c r="E23" s="28"/>
       <c r="F23" s="5"/>
     </row>
@@ -6057,6 +6626,7 @@
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
       <c r="E24" s="28"/>
       <c r="F24" s="5"/>
     </row>
@@ -6066,6 +6636,7 @@
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
       <c r="E25" s="28"/>
       <c r="F25" s="5"/>
     </row>
@@ -6165,24 +6736,39 @@
       <c r="F36" s="17"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B4:E6 F5:F6 B7:F25">
-    <cfRule type="expression" dxfId="159" priority="1">
+  <conditionalFormatting sqref="B4:E6 F5:F6 B7:F8 B9:C25 E9:F25">
+    <cfRule type="expression" dxfId="200" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="158" priority="20">
+    <cfRule type="expression" dxfId="199" priority="23">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="157" priority="19">
+    <cfRule type="expression" dxfId="198" priority="22">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="156" priority="3">
+    <cfRule type="expression" dxfId="197" priority="6">
       <formula>NOT(ISBLANK(B28))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21:D25 D9:D14">
+    <cfRule type="expression" dxfId="13" priority="2">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15 D21:D25">
+    <cfRule type="expression" dxfId="12" priority="3">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:D20">
+    <cfRule type="expression" dxfId="11" priority="1">
+      <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6545,22 +7131,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="155" priority="15">
+    <cfRule type="expression" dxfId="196" priority="15">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="154" priority="14">
+    <cfRule type="expression" dxfId="195" priority="14">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="153" priority="1">
+    <cfRule type="expression" dxfId="194" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="152" priority="13">
+    <cfRule type="expression" dxfId="193" priority="13">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6924,22 +7510,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="151" priority="20">
+    <cfRule type="expression" dxfId="192" priority="20">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="150" priority="19">
+    <cfRule type="expression" dxfId="191" priority="19">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="149" priority="1">
+    <cfRule type="expression" dxfId="190" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="148" priority="3">
+    <cfRule type="expression" dxfId="189" priority="3">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7303,22 +7889,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="147" priority="15">
+    <cfRule type="expression" dxfId="188" priority="15">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="146" priority="14">
+    <cfRule type="expression" dxfId="187" priority="14">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="145" priority="1">
+    <cfRule type="expression" dxfId="186" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="144" priority="13">
+    <cfRule type="expression" dxfId="185" priority="13">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7739,22 +8325,22 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="229" priority="14">
+    <cfRule type="expression" dxfId="271" priority="14">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="228" priority="6">
+    <cfRule type="expression" dxfId="270" priority="6">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="227" priority="15">
+    <cfRule type="expression" dxfId="269" priority="15">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="226" priority="1">
+    <cfRule type="expression" dxfId="268" priority="1">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8119,22 +8705,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="143" priority="21">
+    <cfRule type="expression" dxfId="184" priority="21">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="142" priority="20">
+    <cfRule type="expression" dxfId="183" priority="20">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="141" priority="1">
+    <cfRule type="expression" dxfId="182" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="140" priority="4">
+    <cfRule type="expression" dxfId="181" priority="4">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8512,22 +9098,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="139" priority="16">
+    <cfRule type="expression" dxfId="180" priority="16">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="138" priority="15">
+    <cfRule type="expression" dxfId="179" priority="15">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="137" priority="1">
+    <cfRule type="expression" dxfId="178" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="136" priority="14">
+    <cfRule type="expression" dxfId="177" priority="14">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8540,7 +9126,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScale="76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F6"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8945,47 +9531,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="135" priority="22">
+    <cfRule type="expression" dxfId="176" priority="22">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="134" priority="21">
+    <cfRule type="expression" dxfId="175" priority="21">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="133" priority="20">
+    <cfRule type="expression" dxfId="174" priority="20">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="132" priority="2">
+    <cfRule type="expression" dxfId="173" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="131" priority="23">
+    <cfRule type="expression" dxfId="172" priority="23">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="130" priority="16">
+    <cfRule type="expression" dxfId="171" priority="16">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E25">
-    <cfRule type="expression" dxfId="129" priority="1">
+    <cfRule type="expression" dxfId="170" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F14 B5:B25">
-    <cfRule type="expression" dxfId="128" priority="8">
+    <cfRule type="expression" dxfId="169" priority="8">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F25">
-    <cfRule type="expression" dxfId="127" priority="17">
+    <cfRule type="expression" dxfId="168" priority="17">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9387,47 +9973,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:B15 F5:F14">
-    <cfRule type="expression" dxfId="126" priority="4">
+    <cfRule type="expression" dxfId="167" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="125" priority="21">
+    <cfRule type="expression" dxfId="166" priority="21">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="124" priority="20">
+    <cfRule type="expression" dxfId="165" priority="20">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="123" priority="19">
+    <cfRule type="expression" dxfId="164" priority="19">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="122" priority="2">
+    <cfRule type="expression" dxfId="163" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="121" priority="22">
+    <cfRule type="expression" dxfId="162" priority="22">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="120" priority="15">
+    <cfRule type="expression" dxfId="161" priority="15">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E25">
-    <cfRule type="expression" dxfId="119" priority="1">
+    <cfRule type="expression" dxfId="160" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F25">
-    <cfRule type="expression" dxfId="118" priority="16">
+    <cfRule type="expression" dxfId="159" priority="16">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9845,47 +10431,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="117" priority="21">
+    <cfRule type="expression" dxfId="158" priority="21">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="116" priority="20">
+    <cfRule type="expression" dxfId="157" priority="20">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="115" priority="19">
+    <cfRule type="expression" dxfId="156" priority="19">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="114" priority="2">
+    <cfRule type="expression" dxfId="155" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="113" priority="22">
+    <cfRule type="expression" dxfId="154" priority="22">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="112" priority="15">
+    <cfRule type="expression" dxfId="153" priority="15">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E25">
-    <cfRule type="expression" dxfId="111" priority="1">
+    <cfRule type="expression" dxfId="152" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F13 B5:B25">
-    <cfRule type="expression" dxfId="110" priority="12">
+    <cfRule type="expression" dxfId="151" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F25">
-    <cfRule type="expression" dxfId="109" priority="16">
+    <cfRule type="expression" dxfId="150" priority="16">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10287,47 +10873,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:B15 F5:F14">
-    <cfRule type="expression" dxfId="108" priority="6">
+    <cfRule type="expression" dxfId="149" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="107" priority="15">
+    <cfRule type="expression" dxfId="148" priority="15">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="106" priority="14">
+    <cfRule type="expression" dxfId="147" priority="14">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="105" priority="13">
+    <cfRule type="expression" dxfId="146" priority="13">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C14">
-    <cfRule type="expression" dxfId="104" priority="2">
+    <cfRule type="expression" dxfId="145" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="103" priority="16">
+    <cfRule type="expression" dxfId="144" priority="16">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D14">
-    <cfRule type="expression" dxfId="102" priority="9">
+    <cfRule type="expression" dxfId="143" priority="9">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E25">
-    <cfRule type="expression" dxfId="101" priority="1">
+    <cfRule type="expression" dxfId="142" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F25">
-    <cfRule type="expression" dxfId="100" priority="10">
+    <cfRule type="expression" dxfId="141" priority="10">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10743,47 +11329,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="99" priority="22">
+    <cfRule type="expression" dxfId="140" priority="22">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="98" priority="21">
+    <cfRule type="expression" dxfId="139" priority="21">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="97" priority="20">
+    <cfRule type="expression" dxfId="138" priority="20">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C14">
-    <cfRule type="expression" dxfId="96" priority="2">
+    <cfRule type="expression" dxfId="137" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="95" priority="23">
+    <cfRule type="expression" dxfId="136" priority="23">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D14">
-    <cfRule type="expression" dxfId="94" priority="16">
+    <cfRule type="expression" dxfId="135" priority="16">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E25">
-    <cfRule type="expression" dxfId="93" priority="1">
+    <cfRule type="expression" dxfId="134" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F14 B5:B25">
-    <cfRule type="expression" dxfId="92" priority="13">
+    <cfRule type="expression" dxfId="133" priority="13">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F25">
-    <cfRule type="expression" dxfId="91" priority="17">
+    <cfRule type="expression" dxfId="132" priority="17">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11185,47 +11771,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:B15 F5:F13">
-    <cfRule type="expression" dxfId="90" priority="5">
+    <cfRule type="expression" dxfId="131" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="89" priority="16">
+    <cfRule type="expression" dxfId="130" priority="16">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="88" priority="15">
+    <cfRule type="expression" dxfId="129" priority="15">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="87" priority="14">
+    <cfRule type="expression" dxfId="128" priority="14">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C14">
-    <cfRule type="expression" dxfId="86" priority="2">
+    <cfRule type="expression" dxfId="127" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="85" priority="17">
+    <cfRule type="expression" dxfId="126" priority="17">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D14">
-    <cfRule type="expression" dxfId="84" priority="10">
+    <cfRule type="expression" dxfId="125" priority="10">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E25">
-    <cfRule type="expression" dxfId="83" priority="1">
+    <cfRule type="expression" dxfId="124" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F25">
-    <cfRule type="expression" dxfId="82" priority="11">
+    <cfRule type="expression" dxfId="123" priority="11">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11641,47 +12227,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="81" priority="20">
+    <cfRule type="expression" dxfId="122" priority="20">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="80" priority="19">
+    <cfRule type="expression" dxfId="121" priority="19">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="79" priority="18">
+    <cfRule type="expression" dxfId="120" priority="18">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C14">
-    <cfRule type="expression" dxfId="78" priority="2">
+    <cfRule type="expression" dxfId="119" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="77" priority="21">
+    <cfRule type="expression" dxfId="118" priority="21">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D14">
-    <cfRule type="expression" dxfId="76" priority="14">
+    <cfRule type="expression" dxfId="117" priority="14">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E25">
-    <cfRule type="expression" dxfId="75" priority="1">
+    <cfRule type="expression" dxfId="116" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F13 B5:B25">
-    <cfRule type="expression" dxfId="74" priority="12">
+    <cfRule type="expression" dxfId="115" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F25">
-    <cfRule type="expression" dxfId="73" priority="15">
+    <cfRule type="expression" dxfId="114" priority="15">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12101,27 +12687,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="72" priority="16">
+    <cfRule type="expression" dxfId="113" priority="16">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="71" priority="15">
+    <cfRule type="expression" dxfId="112" priority="15">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="70" priority="14">
+    <cfRule type="expression" dxfId="111" priority="14">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:D25">
-    <cfRule type="expression" dxfId="69" priority="11">
+    <cfRule type="expression" dxfId="110" priority="11">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 B4:D15 F5:F6 E7:F25">
-    <cfRule type="expression" dxfId="68" priority="2">
+    <cfRule type="expression" dxfId="109" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12530,30 +13116,30 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:D12">
-    <cfRule type="expression" dxfId="225" priority="3">
+    <cfRule type="expression" dxfId="267" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="224" priority="14">
+    <cfRule type="expression" dxfId="266" priority="14">
       <formula>B$3 = TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="223" priority="15">
+    <cfRule type="expression" dxfId="265" priority="15">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="222" priority="7">
+    <cfRule type="expression" dxfId="264" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="221" priority="9">
+    <cfRule type="expression" dxfId="263" priority="9">
       <formula>NOT(ISBLANK(C13))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 B4:B13 F5:F6 E7:F25 D13 B14:D15 C16:D25">
-    <cfRule type="expression" dxfId="220" priority="12">
+    <cfRule type="expression" dxfId="262" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12994,22 +13580,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:E6 F5:F6 B7:F25">
-    <cfRule type="expression" dxfId="67" priority="1">
+    <cfRule type="expression" dxfId="108" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="66" priority="16">
+    <cfRule type="expression" dxfId="107" priority="16">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="65" priority="15">
+    <cfRule type="expression" dxfId="106" priority="15">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="64" priority="14">
+    <cfRule type="expression" dxfId="105" priority="14">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13449,22 +14035,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:E6 F5:F6 B7:F25">
-    <cfRule type="expression" dxfId="63" priority="1">
+    <cfRule type="expression" dxfId="104" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="62" priority="21">
+    <cfRule type="expression" dxfId="103" priority="21">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="61" priority="20">
+    <cfRule type="expression" dxfId="102" priority="20">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="60" priority="6">
+    <cfRule type="expression" dxfId="101" priority="6">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13876,27 +14462,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:E25 F5:F13">
-    <cfRule type="expression" dxfId="59" priority="1">
+    <cfRule type="expression" dxfId="100" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="58" priority="22">
+    <cfRule type="expression" dxfId="99" priority="22">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="57" priority="21">
+    <cfRule type="expression" dxfId="98" priority="21">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="56" priority="20">
+    <cfRule type="expression" dxfId="97" priority="20">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F25">
-    <cfRule type="expression" dxfId="55" priority="5">
+    <cfRule type="expression" dxfId="96" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14272,27 +14858,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:D25 F5:F25">
-    <cfRule type="expression" dxfId="54" priority="1">
+    <cfRule type="expression" dxfId="95" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="53" priority="26">
+    <cfRule type="expression" dxfId="94" priority="26">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="52" priority="25">
+    <cfRule type="expression" dxfId="93" priority="25">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="51" priority="24">
+    <cfRule type="expression" dxfId="92" priority="24">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E26">
-    <cfRule type="expression" dxfId="50" priority="4">
+    <cfRule type="expression" dxfId="91" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14723,37 +15309,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:B14 F5:F14 B15:D25">
-    <cfRule type="expression" dxfId="49" priority="22">
+    <cfRule type="expression" dxfId="90" priority="22">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="48" priority="29">
+    <cfRule type="expression" dxfId="89" priority="29">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="47" priority="28">
+    <cfRule type="expression" dxfId="88" priority="28">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="46" priority="27">
+    <cfRule type="expression" dxfId="87" priority="27">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:D14">
-    <cfRule type="expression" dxfId="45" priority="2">
+    <cfRule type="expression" dxfId="86" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E26">
-    <cfRule type="expression" dxfId="44" priority="1">
+    <cfRule type="expression" dxfId="85" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F25">
-    <cfRule type="expression" dxfId="43" priority="21">
+    <cfRule type="expression" dxfId="84" priority="21">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15170,37 +15756,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:B14 F5:F14 B15:D25">
-    <cfRule type="expression" dxfId="42" priority="24">
+    <cfRule type="expression" dxfId="83" priority="24">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="41" priority="31">
+    <cfRule type="expression" dxfId="82" priority="31">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="40" priority="30">
+    <cfRule type="expression" dxfId="81" priority="30">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="39" priority="29">
+    <cfRule type="expression" dxfId="80" priority="29">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:D14">
-    <cfRule type="expression" dxfId="38" priority="2">
+    <cfRule type="expression" dxfId="79" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E26">
-    <cfRule type="expression" dxfId="37" priority="1">
+    <cfRule type="expression" dxfId="78" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F25">
-    <cfRule type="expression" dxfId="36" priority="23">
+    <cfRule type="expression" dxfId="77" priority="23">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15633,37 +16219,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="35" priority="13">
+    <cfRule type="expression" dxfId="76" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="34" priority="12">
+    <cfRule type="expression" dxfId="75" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="33" priority="11">
+    <cfRule type="expression" dxfId="74" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:D14">
-    <cfRule type="expression" dxfId="32" priority="2">
+    <cfRule type="expression" dxfId="73" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E26">
-    <cfRule type="expression" dxfId="31" priority="1">
+    <cfRule type="expression" dxfId="72" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F13 B5:B14 B15:D25">
-    <cfRule type="expression" dxfId="30" priority="9">
+    <cfRule type="expression" dxfId="71" priority="9">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F25">
-    <cfRule type="expression" dxfId="29" priority="8">
+    <cfRule type="expression" dxfId="70" priority="8">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16099,32 +16685,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:D25 F5:F14">
-    <cfRule type="expression" dxfId="28" priority="2">
+    <cfRule type="expression" dxfId="69" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="27" priority="13">
+    <cfRule type="expression" dxfId="68" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="26" priority="12">
+    <cfRule type="expression" dxfId="67" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="25" priority="11">
+    <cfRule type="expression" dxfId="66" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E26">
-    <cfRule type="expression" dxfId="24" priority="1">
+    <cfRule type="expression" dxfId="65" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F25">
-    <cfRule type="expression" dxfId="23" priority="8">
+    <cfRule type="expression" dxfId="64" priority="8">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16556,32 +17142,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:D25 F5:F14">
-    <cfRule type="expression" dxfId="22" priority="2">
+    <cfRule type="expression" dxfId="63" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="21" priority="13">
+    <cfRule type="expression" dxfId="62" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="20" priority="12">
+    <cfRule type="expression" dxfId="61" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="19" priority="11">
+    <cfRule type="expression" dxfId="60" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E26">
-    <cfRule type="expression" dxfId="18" priority="1">
+    <cfRule type="expression" dxfId="59" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F25">
-    <cfRule type="expression" dxfId="17" priority="8">
+    <cfRule type="expression" dxfId="58" priority="8">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17023,32 +17609,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:D25 F5:F14">
-    <cfRule type="expression" dxfId="16" priority="2">
+    <cfRule type="expression" dxfId="57" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="15" priority="13">
+    <cfRule type="expression" dxfId="56" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="14" priority="12">
+    <cfRule type="expression" dxfId="55" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="13" priority="11">
+    <cfRule type="expression" dxfId="54" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E26">
-    <cfRule type="expression" dxfId="12" priority="1">
+    <cfRule type="expression" dxfId="53" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F25">
-    <cfRule type="expression" dxfId="11" priority="8">
+    <cfRule type="expression" dxfId="52" priority="8">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17060,8 +17646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141CA38B-DB7C-48AD-8513-9BED1D5E19BB}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -17206,9 +17792,6 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="28"/>
-      <c r="D9" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="E9" s="35"/>
       <c r="F9" s="5"/>
     </row>
@@ -17217,9 +17800,6 @@
         <v>0.45833333333333398</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="D10" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="E10" s="36"/>
       <c r="F10" s="5"/>
     </row>
@@ -17228,7 +17808,6 @@
         <v>0.47916666666666702</v>
       </c>
       <c r="B11" s="5"/>
-      <c r="D11" s="5"/>
       <c r="E11" s="36"/>
       <c r="F11" s="5"/>
     </row>
@@ -17237,7 +17816,6 @@
         <v>0.5</v>
       </c>
       <c r="B12" s="5"/>
-      <c r="D12" s="5"/>
       <c r="E12" s="36"/>
       <c r="F12" s="5"/>
     </row>
@@ -17246,7 +17824,6 @@
         <v>0.53125</v>
       </c>
       <c r="B13" s="5"/>
-      <c r="D13" s="5"/>
       <c r="E13" s="36"/>
       <c r="F13" s="5"/>
     </row>
@@ -17268,7 +17845,7 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="41" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="33"/>
@@ -17283,8 +17860,8 @@
       <c r="C17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>13</v>
+      <c r="D17" s="42" t="s">
+        <v>16</v>
       </c>
       <c r="E17" s="34"/>
       <c r="F17" s="5" t="s">
@@ -17296,7 +17873,7 @@
         <v>0.625</v>
       </c>
       <c r="C18" s="5"/>
-      <c r="D18" s="7"/>
+      <c r="D18" s="42"/>
       <c r="E18" s="36"/>
       <c r="F18" s="5"/>
     </row>
@@ -17305,7 +17882,7 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="C19" s="5"/>
-      <c r="D19" s="7"/>
+      <c r="D19" s="42"/>
       <c r="E19" s="36"/>
       <c r="F19" s="5"/>
     </row>
@@ -17314,7 +17891,7 @@
         <v>0.66666666666666696</v>
       </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="7"/>
+      <c r="D20" s="42"/>
       <c r="E20" s="36"/>
       <c r="F20" s="5"/>
     </row>
@@ -17323,6 +17900,9 @@
         <v>0.6875</v>
       </c>
       <c r="C21" s="5"/>
+      <c r="D21" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
@@ -17330,6 +17910,9 @@
         <v>0.70833333333333304</v>
       </c>
       <c r="C22" s="5"/>
+      <c r="D22" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
@@ -17337,6 +17920,7 @@
         <v>0.72916666666666696</v>
       </c>
       <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
@@ -17344,6 +17928,7 @@
         <v>0.75</v>
       </c>
       <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
@@ -17351,6 +17936,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
       <c r="F25" s="5"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
@@ -17392,7 +17978,9 @@
       <c r="C29" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="D29" s="19"/>
+      <c r="D29" s="19" t="s">
+        <v>129</v>
+      </c>
       <c r="E29" s="19"/>
       <c r="F29" s="19"/>
     </row>
@@ -17462,22 +18050,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="219" priority="9">
+    <cfRule type="expression" dxfId="261" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="218" priority="8">
+    <cfRule type="expression" dxfId="260" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="217" priority="1">
+    <cfRule type="expression" dxfId="259" priority="1">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:E6 F5:F6 B5:B14 C7:F14 B15:F15 C16:F25">
-    <cfRule type="expression" dxfId="216" priority="6">
+  <conditionalFormatting sqref="C4:E6 F5:F6 B5:B14 C7:F8 C9:C13 E9:F13 C14:F14 B15:F15 C16:F25">
+    <cfRule type="expression" dxfId="258" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17920,32 +18508,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:D25 F5:F14">
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="51" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="9" priority="13">
+    <cfRule type="expression" dxfId="50" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="8" priority="12">
+    <cfRule type="expression" dxfId="49" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="7" priority="11">
+    <cfRule type="expression" dxfId="48" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E26">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="47" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F25">
-    <cfRule type="expression" dxfId="5" priority="8">
+    <cfRule type="expression" dxfId="46" priority="8">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18383,27 +18971,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:D25 F5:F25">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="45" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="3" priority="13">
+    <cfRule type="expression" dxfId="44" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="2" priority="12">
+    <cfRule type="expression" dxfId="43" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="1" priority="11">
+    <cfRule type="expression" dxfId="42" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E26">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="41" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18416,7 +19004,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F6"/>
+      <selection activeCell="D4" sqref="D4:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -18569,9 +19157,6 @@
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="28"/>
-      <c r="D9" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="E9" s="30"/>
       <c r="F9" s="5"/>
     </row>
@@ -18580,9 +19165,6 @@
         <v>0.45833333333333398</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="D10" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="E10" s="31"/>
       <c r="F10" s="5"/>
     </row>
@@ -18591,7 +19173,6 @@
         <v>0.47916666666666702</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="D11" s="5"/>
       <c r="E11" s="31"/>
       <c r="F11" s="5"/>
     </row>
@@ -18600,7 +19181,6 @@
         <v>0.5</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="D12" s="5"/>
       <c r="E12" s="31"/>
       <c r="F12" s="5"/>
     </row>
@@ -18609,7 +19189,6 @@
         <v>0.53125</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="D13" s="5"/>
       <c r="E13" s="31"/>
       <c r="F13" s="5"/>
     </row>
@@ -18631,7 +19210,7 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="41" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="29" t="s">
@@ -18648,8 +19227,8 @@
       <c r="C17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>13</v>
+      <c r="D17" s="42" t="s">
+        <v>16</v>
       </c>
       <c r="E17" s="32">
         <v>115</v>
@@ -18663,7 +19242,7 @@
         <v>0.625</v>
       </c>
       <c r="C18" s="5"/>
-      <c r="D18" s="7"/>
+      <c r="D18" s="42"/>
       <c r="E18" s="31"/>
       <c r="F18" s="5"/>
     </row>
@@ -18672,7 +19251,7 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="C19" s="5"/>
-      <c r="D19" s="7"/>
+      <c r="D19" s="42"/>
       <c r="E19" s="31"/>
       <c r="F19" s="5"/>
     </row>
@@ -18681,7 +19260,7 @@
         <v>0.66666666666666696</v>
       </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="7"/>
+      <c r="D20" s="42"/>
       <c r="E20" s="31"/>
       <c r="F20" s="5"/>
     </row>
@@ -18690,6 +19269,9 @@
         <v>0.6875</v>
       </c>
       <c r="C21" s="5"/>
+      <c r="D21" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="E21" s="28"/>
       <c r="F21" s="5"/>
     </row>
@@ -18698,6 +19280,9 @@
         <v>0.70833333333333304</v>
       </c>
       <c r="C22" s="5"/>
+      <c r="D22" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="E22" s="28"/>
       <c r="F22" s="5"/>
     </row>
@@ -18706,6 +19291,7 @@
         <v>0.72916666666666696</v>
       </c>
       <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
@@ -18713,6 +19299,7 @@
         <v>0.75</v>
       </c>
       <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
@@ -18720,6 +19307,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
       <c r="F25" s="5"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
@@ -18825,27 +19413,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="215" priority="10">
+    <cfRule type="expression" dxfId="257" priority="11">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="214" priority="9">
+    <cfRule type="expression" dxfId="256" priority="10">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="213" priority="6">
+    <cfRule type="expression" dxfId="255" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:D14">
-    <cfRule type="expression" dxfId="212" priority="4">
+  <conditionalFormatting sqref="C4:D8 C14:D14 C9:C13 D21:D25">
+    <cfRule type="expression" dxfId="254" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E6 F5:F6 B5:B14 E7:F25 B15:D15 C16:D25 B16:B26">
-    <cfRule type="expression" dxfId="211" priority="5">
+  <conditionalFormatting sqref="E4:E6 F5:F6 B5:B14 E7:F25 B15:D15 C21:D25 B16:B26 C16:C20">
+    <cfRule type="expression" dxfId="253" priority="6">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:D20">
+    <cfRule type="expression" dxfId="252" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18859,7 +19452,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F6"/>
+      <selection activeCell="D4" sqref="D4:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -19005,9 +19598,6 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="28"/>
-      <c r="D9" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="E9" s="35"/>
       <c r="F9" s="5"/>
     </row>
@@ -19016,9 +19606,6 @@
         <v>0.45833333333333398</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="D10" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="E10" s="36"/>
       <c r="F10" s="5"/>
     </row>
@@ -19027,7 +19614,6 @@
         <v>0.47916666666666702</v>
       </c>
       <c r="B11" s="5"/>
-      <c r="D11" s="5"/>
       <c r="E11" s="36"/>
       <c r="F11" s="5"/>
     </row>
@@ -19036,7 +19622,6 @@
         <v>0.5</v>
       </c>
       <c r="B12" s="5"/>
-      <c r="D12" s="5"/>
       <c r="E12" s="36"/>
       <c r="F12" s="5"/>
     </row>
@@ -19045,7 +19630,6 @@
         <v>0.53125</v>
       </c>
       <c r="B13" s="5"/>
-      <c r="D13" s="5"/>
       <c r="E13" s="36"/>
       <c r="F13" s="5"/>
     </row>
@@ -19067,7 +19651,7 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="41" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="33"/>
@@ -19082,8 +19666,8 @@
       <c r="C17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>13</v>
+      <c r="D17" s="42" t="s">
+        <v>16</v>
       </c>
       <c r="E17" s="34"/>
       <c r="F17" s="5" t="s">
@@ -19095,7 +19679,7 @@
         <v>0.625</v>
       </c>
       <c r="C18" s="5"/>
-      <c r="D18" s="7"/>
+      <c r="D18" s="42"/>
       <c r="E18" s="36"/>
       <c r="F18" s="5"/>
     </row>
@@ -19104,7 +19688,7 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="C19" s="5"/>
-      <c r="D19" s="7"/>
+      <c r="D19" s="42"/>
       <c r="E19" s="36"/>
       <c r="F19" s="5"/>
     </row>
@@ -19113,7 +19697,7 @@
         <v>0.66666666666666696</v>
       </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="7"/>
+      <c r="D20" s="42"/>
       <c r="E20" s="36"/>
       <c r="F20" s="5"/>
     </row>
@@ -19122,6 +19706,9 @@
         <v>0.6875</v>
       </c>
       <c r="C21" s="5"/>
+      <c r="D21" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
@@ -19129,6 +19716,9 @@
         <v>0.70833333333333304</v>
       </c>
       <c r="C22" s="5"/>
+      <c r="D22" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
@@ -19136,6 +19726,7 @@
         <v>0.72916666666666696</v>
       </c>
       <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
@@ -19143,6 +19734,7 @@
         <v>0.75</v>
       </c>
       <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
@@ -19150,6 +19742,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
       <c r="F25" s="5"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
@@ -19243,27 +19836,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="210" priority="8">
+    <cfRule type="expression" dxfId="251" priority="11">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="209" priority="7">
+    <cfRule type="expression" dxfId="250" priority="10">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="208" priority="6">
+    <cfRule type="expression" dxfId="249" priority="9">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C16:D25">
-    <cfRule type="expression" dxfId="207" priority="3">
+  <conditionalFormatting sqref="C16:C25">
+    <cfRule type="expression" dxfId="248" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E6 B4:D15 F5:F6 E7:F25">
-    <cfRule type="expression" dxfId="206" priority="2">
+  <conditionalFormatting sqref="E4:E6 B4:C15 F5:F6 E7:F25">
+    <cfRule type="expression" dxfId="247" priority="5">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D8 D14 D21:D25">
+    <cfRule type="expression" dxfId="40" priority="2">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15 D21:D25">
+    <cfRule type="expression" dxfId="39" priority="3">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:D20">
+    <cfRule type="expression" dxfId="38" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19602,22 +20210,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="205" priority="7">
+    <cfRule type="expression" dxfId="246" priority="7">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="204" priority="6">
+    <cfRule type="expression" dxfId="245" priority="6">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="203" priority="1">
+    <cfRule type="expression" dxfId="244" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="202" priority="5">
+    <cfRule type="expression" dxfId="243" priority="5">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19630,7 +20238,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26:E29"/>
+      <selection activeCell="D9" sqref="D9:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -19707,9 +20315,6 @@
       <c r="C4" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="E4" s="33"/>
       <c r="H4" s="7" t="s">
         <v>10</v>
@@ -19725,9 +20330,6 @@
       <c r="C5" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5" s="34"/>
       <c r="H5" s="11" t="s">
         <v>22</v>
@@ -19741,7 +20343,6 @@
         <v>7</v>
       </c>
       <c r="C6" s="28"/>
-      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
@@ -19749,7 +20350,6 @@
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="28"/>
-      <c r="D7" s="5"/>
       <c r="H7" s="1" t="s">
         <v>17</v>
       </c>
@@ -19761,7 +20361,6 @@
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="28"/>
-      <c r="D8" s="5"/>
       <c r="H8" s="1" t="s">
         <v>18</v>
       </c>
@@ -19775,9 +20374,6 @@
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="28"/>
-      <c r="D9" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="E9" s="35"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
@@ -19785,9 +20381,6 @@
         <v>0.45833333333333398</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="D10" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="E10" s="36"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
@@ -19795,7 +20388,6 @@
         <v>0.47916666666666702</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="D11" s="5"/>
       <c r="E11" s="36"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
@@ -19803,7 +20395,6 @@
         <v>0.5</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="D12" s="5"/>
       <c r="E12" s="36"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
@@ -19811,7 +20402,6 @@
         <v>0.53125</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="D13" s="5"/>
       <c r="E13" s="36"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
@@ -19832,7 +20422,7 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="41" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="33"/>
@@ -19844,8 +20434,8 @@
       <c r="C17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>13</v>
+      <c r="D17" s="42" t="s">
+        <v>16</v>
       </c>
       <c r="E17" s="34"/>
     </row>
@@ -19854,7 +20444,7 @@
         <v>0.625</v>
       </c>
       <c r="C18" s="5"/>
-      <c r="D18" s="7"/>
+      <c r="D18" s="42"/>
       <c r="E18" s="36"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
@@ -19862,7 +20452,7 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="C19" s="5"/>
-      <c r="D19" s="7"/>
+      <c r="D19" s="42"/>
       <c r="E19" s="36"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
@@ -19870,7 +20460,7 @@
         <v>0.66666666666666696</v>
       </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="7"/>
+      <c r="D20" s="42"/>
       <c r="E20" s="36"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
@@ -19878,30 +20468,39 @@
         <v>0.6875</v>
       </c>
       <c r="C21" s="5"/>
+      <c r="D21" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="3">
         <v>0.70833333333333304</v>
       </c>
       <c r="C22" s="5"/>
+      <c r="D22" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="3">
         <v>0.72916666666666696</v>
       </c>
       <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="3">
         <v>0.75</v>
       </c>
       <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="3">
         <v>0.76041666666666663</v>
       </c>
       <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="2"/>
@@ -19991,33 +20590,48 @@
       <c r="F36" s="17"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B5:B14 B15:D15 C16:D25">
-    <cfRule type="expression" dxfId="201" priority="3">
+  <conditionalFormatting sqref="B5:B14 B15:C15 C16:C25">
+    <cfRule type="expression" dxfId="242" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="200" priority="6">
+    <cfRule type="expression" dxfId="241" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="199" priority="5">
+    <cfRule type="expression" dxfId="240" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="198" priority="4">
+    <cfRule type="expression" dxfId="239" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:D14">
-    <cfRule type="expression" dxfId="197" priority="2">
+  <conditionalFormatting sqref="C4:C14">
+    <cfRule type="expression" dxfId="238" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F25">
-    <cfRule type="expression" dxfId="196" priority="1">
+    <cfRule type="expression" dxfId="237" priority="4">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D8 D14 D21:D25">
+    <cfRule type="expression" dxfId="37" priority="2">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15 D21:D25">
+    <cfRule type="expression" dxfId="36" priority="3">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:D20">
+    <cfRule type="expression" dxfId="35" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20029,8 +20643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F26818F-6F37-424F-AADD-481E51211030}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F6"/>
+    <sheetView zoomScale="71" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -20181,9 +20795,7 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="C9" s="28"/>
-      <c r="D9" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="D9" s="5"/>
       <c r="E9" s="30"/>
       <c r="F9" s="5"/>
     </row>
@@ -20191,9 +20803,6 @@
       <c r="A10" s="3">
         <v>0.45833333333333398</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="E10" s="31"/>
       <c r="F10" s="5"/>
     </row>
@@ -20201,7 +20810,6 @@
       <c r="A11" s="3">
         <v>0.47916666666666702</v>
       </c>
-      <c r="D11" s="5"/>
       <c r="E11" s="31"/>
       <c r="F11" s="5"/>
     </row>
@@ -20209,7 +20817,6 @@
       <c r="A12" s="3">
         <v>0.5</v>
       </c>
-      <c r="D12" s="5"/>
       <c r="E12" s="31"/>
       <c r="F12" s="5"/>
     </row>
@@ -20217,7 +20824,6 @@
       <c r="A13" s="3">
         <v>0.53125</v>
       </c>
-      <c r="D13" s="5"/>
       <c r="E13" s="31"/>
       <c r="F13" s="5"/>
     </row>
@@ -20238,7 +20844,7 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="41" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="29" t="s">
@@ -20255,8 +20861,8 @@
       <c r="C17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>13</v>
+      <c r="D17" s="42" t="s">
+        <v>16</v>
       </c>
       <c r="E17" s="32" t="s">
         <v>23</v>
@@ -20270,7 +20876,7 @@
         <v>0.625</v>
       </c>
       <c r="C18" s="5"/>
-      <c r="D18" s="7"/>
+      <c r="D18" s="42"/>
       <c r="E18" s="31"/>
       <c r="F18" s="5"/>
     </row>
@@ -20279,7 +20885,7 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="C19" s="5"/>
-      <c r="D19" s="7"/>
+      <c r="D19" s="42"/>
       <c r="E19" s="31"/>
       <c r="F19" s="5"/>
     </row>
@@ -20288,7 +20894,7 @@
         <v>0.66666666666666696</v>
       </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="7"/>
+      <c r="D20" s="42"/>
       <c r="E20" s="31"/>
       <c r="F20" s="5"/>
     </row>
@@ -20297,6 +20903,9 @@
         <v>0.6875</v>
       </c>
       <c r="C21" s="5"/>
+      <c r="D21" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="E21" s="28"/>
       <c r="F21" s="5"/>
     </row>
@@ -20305,6 +20914,9 @@
         <v>0.70833333333333304</v>
       </c>
       <c r="C22" s="5"/>
+      <c r="D22" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="E22" s="28"/>
       <c r="F22" s="5"/>
     </row>
@@ -20313,6 +20925,7 @@
         <v>0.72916666666666696</v>
       </c>
       <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
       <c r="E23" s="28"/>
       <c r="F23" s="5"/>
     </row>
@@ -20321,6 +20934,7 @@
         <v>0.75</v>
       </c>
       <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
       <c r="E24" s="28"/>
       <c r="F24" s="5"/>
     </row>
@@ -20329,6 +20943,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
       <c r="E25" s="28"/>
       <c r="F25" s="5"/>
     </row>
@@ -20420,24 +21035,44 @@
       <c r="F36" s="19"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B4:E6 F5:F6 B7:F25">
-    <cfRule type="expression" dxfId="195" priority="1">
+  <conditionalFormatting sqref="B4:E6 F5:F6 B7:F8 B9:C25 E9:F25">
+    <cfRule type="expression" dxfId="236" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="194" priority="10">
+    <cfRule type="expression" dxfId="235" priority="14">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="193" priority="9">
+    <cfRule type="expression" dxfId="234" priority="13">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="192" priority="8">
+    <cfRule type="expression" dxfId="233" priority="12">
       <formula>NOT(ISBLANK(B28))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14 D21:D25">
+    <cfRule type="expression" dxfId="34" priority="3">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15 D21:D25">
+    <cfRule type="expression" dxfId="33" priority="4">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:D20">
+    <cfRule type="expression" dxfId="32" priority="2">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="expression" dxfId="10" priority="1">
+      <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/uurrooster.xlsx
+++ b/uurrooster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sethv\Documents\GitHub\LUCA-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9909B0-4F24-4C5B-990A-6FF061C15C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33AB6110-34F8-464B-8BAD-588227B6192A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="136">
   <si>
     <t>Week</t>
   </si>
@@ -480,6 +480,24 @@
   <si>
     <t>Lokaal en uren onduidelijk, wachten op antwoord in de klaschat!</t>
   </si>
+  <si>
+    <t>Crossmedia audio geen les? Maar wel opdracht online om te doen</t>
+  </si>
+  <si>
+    <t>Crossmedia audio les 1 &amp; 2 inhalen</t>
+  </si>
+  <si>
+    <t>Luisteren naar audio ding gemaakt</t>
+  </si>
+  <si>
+    <t>Brk</t>
+  </si>
+  <si>
+    <t>Dingen kopen</t>
+  </si>
+  <si>
+    <t>was crossmedia eigenlijk les 3 of 2?</t>
+  </si>
 </sst>
 </file>
 
@@ -725,417 +743,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="272">
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="249">
     <dxf>
       <font>
         <color theme="1"/>
@@ -2555,6 +2163,16 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
       </font>
@@ -2589,6 +2207,16 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
       </font>
@@ -2635,6 +2263,26 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
@@ -2679,6 +2327,26 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
@@ -2733,6 +2401,26 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
@@ -2787,6 +2475,16 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
@@ -2841,6 +2539,36 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
@@ -2865,6 +2593,26 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
@@ -2919,6 +2667,26 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
@@ -2983,6 +2751,26 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3946,47 +3734,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="232" priority="16">
+    <cfRule type="expression" dxfId="203" priority="16">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="231" priority="15">
+    <cfRule type="expression" dxfId="202" priority="15">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="230" priority="14">
+    <cfRule type="expression" dxfId="201" priority="14">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C25">
-    <cfRule type="expression" dxfId="229" priority="8">
+    <cfRule type="expression" dxfId="200" priority="8">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="expression" dxfId="199" priority="1">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14:D25">
+    <cfRule type="expression" dxfId="198" priority="2">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 B4:D8 F5:F6 E7:F25 B9:C15">
-    <cfRule type="expression" dxfId="228" priority="6">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14 D21:D25">
-    <cfRule type="expression" dxfId="31" priority="3">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15 D21:D25">
-    <cfRule type="expression" dxfId="30" priority="4">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16:D20">
-    <cfRule type="expression" dxfId="29" priority="2">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="197" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4402,53 +4180,43 @@
       <c r="F36" s="17"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B5:B14 B14:C25 F15:F25">
-    <cfRule type="expression" dxfId="227" priority="7">
+  <conditionalFormatting sqref="B5:B14 F15:F25">
+    <cfRule type="expression" dxfId="196" priority="7">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B14:D25">
+    <cfRule type="expression" dxfId="195" priority="2">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="226" priority="16">
+    <cfRule type="expression" dxfId="194" priority="16">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="225" priority="15">
+    <cfRule type="expression" dxfId="193" priority="15">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="224" priority="14">
+    <cfRule type="expression" dxfId="192" priority="14">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:D8 F5:F13 C9:C13">
-    <cfRule type="expression" dxfId="223" priority="6">
+    <cfRule type="expression" dxfId="191" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="expression" dxfId="190" priority="1">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E4:E25">
-    <cfRule type="expression" dxfId="222" priority="5">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14 D21:D25">
-    <cfRule type="expression" dxfId="28" priority="3">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15 D21:D25">
-    <cfRule type="expression" dxfId="27" priority="4">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16:D20">
-    <cfRule type="expression" dxfId="26" priority="2">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="189" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4851,52 +4619,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:D8 F5:F14 B9:C15">
-    <cfRule type="expression" dxfId="221" priority="6">
+    <cfRule type="expression" dxfId="188" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="220" priority="21">
+    <cfRule type="expression" dxfId="187" priority="21">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="219" priority="20">
+    <cfRule type="expression" dxfId="186" priority="20">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="218" priority="19">
+    <cfRule type="expression" dxfId="185" priority="19">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C25 F16:F25">
-    <cfRule type="expression" dxfId="217" priority="7">
+    <cfRule type="expression" dxfId="184" priority="7">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="expression" dxfId="183" priority="1">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14:D25">
+    <cfRule type="expression" dxfId="182" priority="2">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E4:E25">
-    <cfRule type="expression" dxfId="216" priority="5">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14 D21:D25">
-    <cfRule type="expression" dxfId="25" priority="3">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15 D21:D25">
-    <cfRule type="expression" dxfId="24" priority="4">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16:D20">
-    <cfRule type="expression" dxfId="23" priority="2">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="181" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5313,52 +5071,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:B14 B15:C25 F16:F25">
-    <cfRule type="expression" dxfId="215" priority="7">
+    <cfRule type="expression" dxfId="180" priority="7">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="214" priority="22">
+    <cfRule type="expression" dxfId="179" priority="22">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="213" priority="21">
+    <cfRule type="expression" dxfId="178" priority="21">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="212" priority="20">
+    <cfRule type="expression" dxfId="177" priority="20">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:D8 F5:F14 C9:C14">
-    <cfRule type="expression" dxfId="211" priority="6">
+    <cfRule type="expression" dxfId="176" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="expression" dxfId="175" priority="1">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14:D25">
+    <cfRule type="expression" dxfId="174" priority="2">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E4:E25">
-    <cfRule type="expression" dxfId="210" priority="5">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14 D21:D25">
-    <cfRule type="expression" dxfId="22" priority="3">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15 D21:D25">
-    <cfRule type="expression" dxfId="21" priority="4">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16:D20">
-    <cfRule type="expression" dxfId="20" priority="2">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="173" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5763,47 +5511,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="209" priority="19">
+    <cfRule type="expression" dxfId="172" priority="19">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="208" priority="18">
+    <cfRule type="expression" dxfId="171" priority="18">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="207" priority="17">
+    <cfRule type="expression" dxfId="170" priority="17">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C25">
-    <cfRule type="expression" dxfId="206" priority="7">
+    <cfRule type="expression" dxfId="169" priority="7">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="expression" dxfId="168" priority="1">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14:D25">
+    <cfRule type="expression" dxfId="167" priority="2">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 B4:D8 F5:F6 E7:F25 B9:C15">
-    <cfRule type="expression" dxfId="205" priority="6">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14 D21:D25">
-    <cfRule type="expression" dxfId="19" priority="3">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15 D21:D25">
-    <cfRule type="expression" dxfId="18" priority="4">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16:D20">
-    <cfRule type="expression" dxfId="17" priority="2">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="166" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6242,64 +5980,29 @@
       <c r="F36" s="17"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B4:E6 F5:F6 B7:F8 B9:C25 E9:F25">
-    <cfRule type="expression" dxfId="204" priority="9">
+  <conditionalFormatting sqref="B4:E6 F5:F6">
+    <cfRule type="expression" dxfId="165" priority="9">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="203" priority="23">
+    <cfRule type="expression" dxfId="164" priority="23">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="202" priority="22">
+    <cfRule type="expression" dxfId="163" priority="22">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B7:F25">
+    <cfRule type="expression" dxfId="162" priority="1">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="201" priority="21">
+    <cfRule type="expression" dxfId="161" priority="21">
       <formula>NOT(ISBLANK(B28))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14 D21:D25">
-    <cfRule type="expression" dxfId="16" priority="7">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15 D21:D25">
-    <cfRule type="expression" dxfId="15" priority="8">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16:D20">
-    <cfRule type="expression" dxfId="14" priority="6">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6736,39 +6439,29 @@
       <c r="F36" s="17"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B4:E6 F5:F6 B7:F8 B9:C25 E9:F25">
-    <cfRule type="expression" dxfId="200" priority="4">
+  <conditionalFormatting sqref="B4:E6 F5:F6">
+    <cfRule type="expression" dxfId="160" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="199" priority="23">
+    <cfRule type="expression" dxfId="159" priority="23">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="198" priority="22">
+    <cfRule type="expression" dxfId="158" priority="22">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B7:F25">
+    <cfRule type="expression" dxfId="157" priority="1">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="197" priority="6">
+    <cfRule type="expression" dxfId="156" priority="6">
       <formula>NOT(ISBLANK(B28))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21:D25 D9:D14">
-    <cfRule type="expression" dxfId="13" priority="2">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15 D21:D25">
-    <cfRule type="expression" dxfId="12" priority="3">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16:D20">
-    <cfRule type="expression" dxfId="11" priority="1">
-      <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7131,22 +6824,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="196" priority="15">
+    <cfRule type="expression" dxfId="155" priority="15">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="195" priority="14">
+    <cfRule type="expression" dxfId="154" priority="14">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="194" priority="1">
+    <cfRule type="expression" dxfId="153" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="193" priority="13">
+    <cfRule type="expression" dxfId="152" priority="13">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7510,22 +7203,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="192" priority="20">
+    <cfRule type="expression" dxfId="151" priority="20">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="191" priority="19">
+    <cfRule type="expression" dxfId="150" priority="19">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="190" priority="1">
+    <cfRule type="expression" dxfId="149" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="189" priority="3">
+    <cfRule type="expression" dxfId="148" priority="3">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7889,22 +7582,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="188" priority="15">
+    <cfRule type="expression" dxfId="147" priority="15">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="187" priority="14">
+    <cfRule type="expression" dxfId="146" priority="14">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="186" priority="1">
+    <cfRule type="expression" dxfId="145" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="185" priority="13">
+    <cfRule type="expression" dxfId="144" priority="13">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8325,22 +8018,22 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="271" priority="14">
+    <cfRule type="expression" dxfId="248" priority="14">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="270" priority="6">
+    <cfRule type="expression" dxfId="247" priority="6">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="269" priority="15">
+    <cfRule type="expression" dxfId="246" priority="15">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="268" priority="1">
+    <cfRule type="expression" dxfId="245" priority="1">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8705,22 +8398,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="184" priority="21">
+    <cfRule type="expression" dxfId="143" priority="21">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="183" priority="20">
+    <cfRule type="expression" dxfId="142" priority="20">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="182" priority="1">
+    <cfRule type="expression" dxfId="141" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="181" priority="4">
+    <cfRule type="expression" dxfId="140" priority="4">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9098,22 +8791,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="180" priority="16">
+    <cfRule type="expression" dxfId="139" priority="16">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="179" priority="15">
+    <cfRule type="expression" dxfId="138" priority="15">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="178" priority="1">
+    <cfRule type="expression" dxfId="137" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="177" priority="14">
+    <cfRule type="expression" dxfId="136" priority="14">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9531,47 +9224,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="176" priority="22">
+    <cfRule type="expression" dxfId="135" priority="22">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="175" priority="21">
+    <cfRule type="expression" dxfId="134" priority="21">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="174" priority="20">
+    <cfRule type="expression" dxfId="133" priority="20">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="173" priority="2">
+    <cfRule type="expression" dxfId="132" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="172" priority="23">
+    <cfRule type="expression" dxfId="131" priority="23">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="171" priority="16">
+    <cfRule type="expression" dxfId="130" priority="16">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E25">
-    <cfRule type="expression" dxfId="170" priority="1">
+    <cfRule type="expression" dxfId="129" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F14 B5:B25">
-    <cfRule type="expression" dxfId="169" priority="8">
+    <cfRule type="expression" dxfId="128" priority="8">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F25">
-    <cfRule type="expression" dxfId="168" priority="17">
+    <cfRule type="expression" dxfId="127" priority="17">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9973,47 +9666,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:B15 F5:F14">
-    <cfRule type="expression" dxfId="167" priority="4">
+    <cfRule type="expression" dxfId="126" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="166" priority="21">
+    <cfRule type="expression" dxfId="125" priority="21">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="165" priority="20">
+    <cfRule type="expression" dxfId="124" priority="20">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="164" priority="19">
+    <cfRule type="expression" dxfId="123" priority="19">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="163" priority="2">
+    <cfRule type="expression" dxfId="122" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="162" priority="22">
+    <cfRule type="expression" dxfId="121" priority="22">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="161" priority="15">
+    <cfRule type="expression" dxfId="120" priority="15">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E25">
-    <cfRule type="expression" dxfId="160" priority="1">
+    <cfRule type="expression" dxfId="119" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F25">
-    <cfRule type="expression" dxfId="159" priority="16">
+    <cfRule type="expression" dxfId="118" priority="16">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10431,47 +10124,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="158" priority="21">
+    <cfRule type="expression" dxfId="117" priority="21">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="157" priority="20">
+    <cfRule type="expression" dxfId="116" priority="20">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="156" priority="19">
+    <cfRule type="expression" dxfId="115" priority="19">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="155" priority="2">
+    <cfRule type="expression" dxfId="114" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="154" priority="22">
+    <cfRule type="expression" dxfId="113" priority="22">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="153" priority="15">
+    <cfRule type="expression" dxfId="112" priority="15">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E25">
-    <cfRule type="expression" dxfId="152" priority="1">
+    <cfRule type="expression" dxfId="111" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F13 B5:B25">
-    <cfRule type="expression" dxfId="151" priority="12">
+    <cfRule type="expression" dxfId="110" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F25">
-    <cfRule type="expression" dxfId="150" priority="16">
+    <cfRule type="expression" dxfId="109" priority="16">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10873,47 +10566,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:B15 F5:F14">
-    <cfRule type="expression" dxfId="149" priority="6">
+    <cfRule type="expression" dxfId="108" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="148" priority="15">
+    <cfRule type="expression" dxfId="107" priority="15">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="147" priority="14">
+    <cfRule type="expression" dxfId="106" priority="14">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="146" priority="13">
+    <cfRule type="expression" dxfId="105" priority="13">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C14">
-    <cfRule type="expression" dxfId="145" priority="2">
+    <cfRule type="expression" dxfId="104" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="144" priority="16">
+    <cfRule type="expression" dxfId="103" priority="16">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D14">
-    <cfRule type="expression" dxfId="143" priority="9">
+    <cfRule type="expression" dxfId="102" priority="9">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E25">
-    <cfRule type="expression" dxfId="142" priority="1">
+    <cfRule type="expression" dxfId="101" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F25">
-    <cfRule type="expression" dxfId="141" priority="10">
+    <cfRule type="expression" dxfId="100" priority="10">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11329,47 +11022,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="140" priority="22">
+    <cfRule type="expression" dxfId="99" priority="22">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="139" priority="21">
+    <cfRule type="expression" dxfId="98" priority="21">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="138" priority="20">
+    <cfRule type="expression" dxfId="97" priority="20">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C14">
-    <cfRule type="expression" dxfId="137" priority="2">
+    <cfRule type="expression" dxfId="96" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="136" priority="23">
+    <cfRule type="expression" dxfId="95" priority="23">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D14">
-    <cfRule type="expression" dxfId="135" priority="16">
+    <cfRule type="expression" dxfId="94" priority="16">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E25">
-    <cfRule type="expression" dxfId="134" priority="1">
+    <cfRule type="expression" dxfId="93" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F14 B5:B25">
-    <cfRule type="expression" dxfId="133" priority="13">
+    <cfRule type="expression" dxfId="92" priority="13">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F25">
-    <cfRule type="expression" dxfId="132" priority="17">
+    <cfRule type="expression" dxfId="91" priority="17">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11771,47 +11464,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:B15 F5:F13">
-    <cfRule type="expression" dxfId="131" priority="5">
+    <cfRule type="expression" dxfId="90" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="130" priority="16">
+    <cfRule type="expression" dxfId="89" priority="16">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="129" priority="15">
+    <cfRule type="expression" dxfId="88" priority="15">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="128" priority="14">
+    <cfRule type="expression" dxfId="87" priority="14">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C14">
-    <cfRule type="expression" dxfId="127" priority="2">
+    <cfRule type="expression" dxfId="86" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="126" priority="17">
+    <cfRule type="expression" dxfId="85" priority="17">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D14">
-    <cfRule type="expression" dxfId="125" priority="10">
+    <cfRule type="expression" dxfId="84" priority="10">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E25">
-    <cfRule type="expression" dxfId="124" priority="1">
+    <cfRule type="expression" dxfId="83" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F25">
-    <cfRule type="expression" dxfId="123" priority="11">
+    <cfRule type="expression" dxfId="82" priority="11">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12227,47 +11920,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="122" priority="20">
+    <cfRule type="expression" dxfId="81" priority="20">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="121" priority="19">
+    <cfRule type="expression" dxfId="80" priority="19">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="120" priority="18">
+    <cfRule type="expression" dxfId="79" priority="18">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C14">
-    <cfRule type="expression" dxfId="119" priority="2">
+    <cfRule type="expression" dxfId="78" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="118" priority="21">
+    <cfRule type="expression" dxfId="77" priority="21">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D14">
-    <cfRule type="expression" dxfId="117" priority="14">
+    <cfRule type="expression" dxfId="76" priority="14">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E25">
-    <cfRule type="expression" dxfId="116" priority="1">
+    <cfRule type="expression" dxfId="75" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F13 B5:B25">
-    <cfRule type="expression" dxfId="115" priority="12">
+    <cfRule type="expression" dxfId="74" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F25">
-    <cfRule type="expression" dxfId="114" priority="15">
+    <cfRule type="expression" dxfId="73" priority="15">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12687,27 +12380,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="113" priority="16">
+    <cfRule type="expression" dxfId="72" priority="16">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="112" priority="15">
+    <cfRule type="expression" dxfId="71" priority="15">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="111" priority="14">
+    <cfRule type="expression" dxfId="70" priority="14">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:D25">
-    <cfRule type="expression" dxfId="110" priority="11">
+    <cfRule type="expression" dxfId="69" priority="11">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 B4:D15 F5:F6 E7:F25">
-    <cfRule type="expression" dxfId="109" priority="2">
+    <cfRule type="expression" dxfId="68" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13116,30 +12809,30 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:D12">
-    <cfRule type="expression" dxfId="267" priority="3">
+    <cfRule type="expression" dxfId="244" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="266" priority="14">
+    <cfRule type="expression" dxfId="243" priority="14">
       <formula>B$3 = TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="265" priority="15">
+    <cfRule type="expression" dxfId="242" priority="15">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="264" priority="7">
+    <cfRule type="expression" dxfId="241" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="263" priority="9">
+    <cfRule type="expression" dxfId="240" priority="9">
       <formula>NOT(ISBLANK(C13))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 B4:B13 F5:F6 E7:F25 D13 B14:D15 C16:D25">
-    <cfRule type="expression" dxfId="262" priority="12">
+    <cfRule type="expression" dxfId="239" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13580,22 +13273,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:E6 F5:F6 B7:F25">
-    <cfRule type="expression" dxfId="108" priority="1">
+    <cfRule type="expression" dxfId="67" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="107" priority="16">
+    <cfRule type="expression" dxfId="66" priority="16">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="106" priority="15">
+    <cfRule type="expression" dxfId="65" priority="15">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="105" priority="14">
+    <cfRule type="expression" dxfId="64" priority="14">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14035,22 +13728,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:E6 F5:F6 B7:F25">
-    <cfRule type="expression" dxfId="104" priority="1">
+    <cfRule type="expression" dxfId="63" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="103" priority="21">
+    <cfRule type="expression" dxfId="62" priority="21">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="102" priority="20">
+    <cfRule type="expression" dxfId="61" priority="20">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="101" priority="6">
+    <cfRule type="expression" dxfId="60" priority="6">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14462,27 +14155,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:E25 F5:F13">
-    <cfRule type="expression" dxfId="100" priority="1">
+    <cfRule type="expression" dxfId="59" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="99" priority="22">
+    <cfRule type="expression" dxfId="58" priority="22">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="98" priority="21">
+    <cfRule type="expression" dxfId="57" priority="21">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="97" priority="20">
+    <cfRule type="expression" dxfId="56" priority="20">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F25">
-    <cfRule type="expression" dxfId="96" priority="5">
+    <cfRule type="expression" dxfId="55" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14858,27 +14551,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:D25 F5:F25">
-    <cfRule type="expression" dxfId="95" priority="1">
+    <cfRule type="expression" dxfId="54" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="94" priority="26">
+    <cfRule type="expression" dxfId="53" priority="26">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="93" priority="25">
+    <cfRule type="expression" dxfId="52" priority="25">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="92" priority="24">
+    <cfRule type="expression" dxfId="51" priority="24">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E26">
-    <cfRule type="expression" dxfId="91" priority="4">
+    <cfRule type="expression" dxfId="50" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15309,37 +15002,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:B14 F5:F14 B15:D25">
-    <cfRule type="expression" dxfId="90" priority="22">
+    <cfRule type="expression" dxfId="49" priority="22">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="89" priority="29">
+    <cfRule type="expression" dxfId="48" priority="29">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="88" priority="28">
+    <cfRule type="expression" dxfId="47" priority="28">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="87" priority="27">
+    <cfRule type="expression" dxfId="46" priority="27">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:D14">
-    <cfRule type="expression" dxfId="86" priority="2">
+    <cfRule type="expression" dxfId="45" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E26">
-    <cfRule type="expression" dxfId="85" priority="1">
+    <cfRule type="expression" dxfId="44" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F25">
-    <cfRule type="expression" dxfId="84" priority="21">
+    <cfRule type="expression" dxfId="43" priority="21">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15756,37 +15449,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:B14 F5:F14 B15:D25">
-    <cfRule type="expression" dxfId="83" priority="24">
+    <cfRule type="expression" dxfId="42" priority="24">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="82" priority="31">
+    <cfRule type="expression" dxfId="41" priority="31">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="81" priority="30">
+    <cfRule type="expression" dxfId="40" priority="30">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="80" priority="29">
+    <cfRule type="expression" dxfId="39" priority="29">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:D14">
-    <cfRule type="expression" dxfId="79" priority="2">
+    <cfRule type="expression" dxfId="38" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E26">
-    <cfRule type="expression" dxfId="78" priority="1">
+    <cfRule type="expression" dxfId="37" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F25">
-    <cfRule type="expression" dxfId="77" priority="23">
+    <cfRule type="expression" dxfId="36" priority="23">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16219,37 +15912,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="76" priority="13">
+    <cfRule type="expression" dxfId="35" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="75" priority="12">
+    <cfRule type="expression" dxfId="34" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="74" priority="11">
+    <cfRule type="expression" dxfId="33" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:D14">
-    <cfRule type="expression" dxfId="73" priority="2">
+    <cfRule type="expression" dxfId="32" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E26">
-    <cfRule type="expression" dxfId="72" priority="1">
+    <cfRule type="expression" dxfId="31" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F13 B5:B14 B15:D25">
-    <cfRule type="expression" dxfId="71" priority="9">
+    <cfRule type="expression" dxfId="30" priority="9">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F25">
-    <cfRule type="expression" dxfId="70" priority="8">
+    <cfRule type="expression" dxfId="29" priority="8">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16685,32 +16378,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:D25 F5:F14">
-    <cfRule type="expression" dxfId="69" priority="2">
+    <cfRule type="expression" dxfId="28" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="68" priority="13">
+    <cfRule type="expression" dxfId="27" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="67" priority="12">
+    <cfRule type="expression" dxfId="26" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="66" priority="11">
+    <cfRule type="expression" dxfId="25" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E26">
-    <cfRule type="expression" dxfId="65" priority="1">
+    <cfRule type="expression" dxfId="24" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F25">
-    <cfRule type="expression" dxfId="64" priority="8">
+    <cfRule type="expression" dxfId="23" priority="8">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17142,32 +16835,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:D25 F5:F14">
-    <cfRule type="expression" dxfId="63" priority="2">
+    <cfRule type="expression" dxfId="22" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="62" priority="13">
+    <cfRule type="expression" dxfId="21" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="61" priority="12">
+    <cfRule type="expression" dxfId="20" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="60" priority="11">
+    <cfRule type="expression" dxfId="19" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E26">
-    <cfRule type="expression" dxfId="59" priority="1">
+    <cfRule type="expression" dxfId="18" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F25">
-    <cfRule type="expression" dxfId="58" priority="8">
+    <cfRule type="expression" dxfId="17" priority="8">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17609,32 +17302,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:D25 F5:F14">
-    <cfRule type="expression" dxfId="57" priority="2">
+    <cfRule type="expression" dxfId="16" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="56" priority="13">
+    <cfRule type="expression" dxfId="15" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="55" priority="12">
+    <cfRule type="expression" dxfId="14" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="54" priority="11">
+    <cfRule type="expression" dxfId="13" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E26">
-    <cfRule type="expression" dxfId="53" priority="1">
+    <cfRule type="expression" dxfId="12" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F25">
-    <cfRule type="expression" dxfId="52" priority="8">
+    <cfRule type="expression" dxfId="11" priority="8">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17646,8 +17339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141CA38B-DB7C-48AD-8513-9BED1D5E19BB}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:D25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="83" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -17981,7 +17674,9 @@
       <c r="D29" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="E29" s="19"/>
+      <c r="E29" s="19" t="s">
+        <v>131</v>
+      </c>
       <c r="F29" s="19"/>
     </row>
     <row r="30" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
@@ -17989,9 +17684,13 @@
       <c r="B30" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="C30" s="19"/>
+      <c r="C30" s="19" t="s">
+        <v>132</v>
+      </c>
       <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
+      <c r="E30" s="19" t="s">
+        <v>135</v>
+      </c>
       <c r="F30" s="19"/>
     </row>
     <row r="31" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
@@ -17999,7 +17698,9 @@
       <c r="B31" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="C31" s="19"/>
+      <c r="C31" s="19" t="s">
+        <v>133</v>
+      </c>
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
       <c r="F31" s="19"/>
@@ -18009,16 +17710,16 @@
       <c r="B32" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="C32" s="19"/>
+      <c r="C32" s="19" t="s">
+        <v>134</v>
+      </c>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
       <c r="F32" s="19"/>
     </row>
     <row r="33" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="11"/>
-      <c r="B33" s="19" t="s">
-        <v>128</v>
-      </c>
+      <c r="B33" s="19"/>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
@@ -18050,22 +17751,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="261" priority="9">
+    <cfRule type="expression" dxfId="238" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="260" priority="8">
+    <cfRule type="expression" dxfId="237" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="259" priority="1">
+    <cfRule type="expression" dxfId="236" priority="1">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:E6 F5:F6 B5:B14 C7:F8 C9:C13 E9:F13 C14:F14 B15:F15 C16:F25">
-    <cfRule type="expression" dxfId="258" priority="6">
+    <cfRule type="expression" dxfId="235" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18508,32 +18209,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:D25 F5:F14">
-    <cfRule type="expression" dxfId="51" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="50" priority="13">
+    <cfRule type="expression" dxfId="9" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="49" priority="12">
+    <cfRule type="expression" dxfId="8" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="48" priority="11">
+    <cfRule type="expression" dxfId="7" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E26">
-    <cfRule type="expression" dxfId="47" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F25">
-    <cfRule type="expression" dxfId="46" priority="8">
+    <cfRule type="expression" dxfId="5" priority="8">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18971,27 +18672,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:D25 F5:F25">
-    <cfRule type="expression" dxfId="45" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="44" priority="13">
+    <cfRule type="expression" dxfId="3" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="43" priority="12">
+    <cfRule type="expression" dxfId="2" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="42" priority="11">
+    <cfRule type="expression" dxfId="1" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E26">
-    <cfRule type="expression" dxfId="41" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19004,7 +18705,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D25"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -19358,7 +19059,9 @@
     <row r="30" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="11"/>
       <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
+      <c r="C30" s="19" t="s">
+        <v>130</v>
+      </c>
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>
       <c r="F30" s="19"/>
@@ -19413,32 +19116,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="257" priority="11">
+    <cfRule type="expression" dxfId="234" priority="11">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="256" priority="10">
+    <cfRule type="expression" dxfId="233" priority="10">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="255" priority="7">
+    <cfRule type="expression" dxfId="232" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:D8 C14:D14 C9:C13 D21:D25">
-    <cfRule type="expression" dxfId="254" priority="5">
+  <conditionalFormatting sqref="C4:D8 C9:C13 C14:D14">
+    <cfRule type="expression" dxfId="231" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E6 F5:F6 B5:B14 E7:F25 B15:D15 C21:D25 B16:B26 C16:C20">
-    <cfRule type="expression" dxfId="253" priority="6">
+  <conditionalFormatting sqref="D16:D25">
+    <cfRule type="expression" dxfId="230" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16:D20">
-    <cfRule type="expression" dxfId="252" priority="1">
+  <conditionalFormatting sqref="E4:E6 F5:F6 B5:B14 E7:F25 B15:D15 C16:C20 B16:B26 C21:D25">
+    <cfRule type="expression" dxfId="229" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19836,42 +19539,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="251" priority="11">
+    <cfRule type="expression" dxfId="228" priority="11">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="250" priority="10">
+    <cfRule type="expression" dxfId="227" priority="10">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="249" priority="9">
+    <cfRule type="expression" dxfId="226" priority="9">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C25">
-    <cfRule type="expression" dxfId="248" priority="6">
+    <cfRule type="expression" dxfId="225" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D8">
+    <cfRule type="expression" dxfId="224" priority="2">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14:D25">
+    <cfRule type="expression" dxfId="223" priority="1">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 B4:C15 F5:F6 E7:F25">
-    <cfRule type="expression" dxfId="247" priority="5">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D8 D14 D21:D25">
-    <cfRule type="expression" dxfId="40" priority="2">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15 D21:D25">
-    <cfRule type="expression" dxfId="39" priority="3">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16:D20">
-    <cfRule type="expression" dxfId="38" priority="1">
+    <cfRule type="expression" dxfId="222" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20210,22 +19908,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="246" priority="7">
+    <cfRule type="expression" dxfId="221" priority="7">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="245" priority="6">
+    <cfRule type="expression" dxfId="220" priority="6">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="244" priority="1">
+    <cfRule type="expression" dxfId="219" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="243" priority="5">
+    <cfRule type="expression" dxfId="218" priority="5">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20591,47 +20289,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:B14 B15:C15 C16:C25">
-    <cfRule type="expression" dxfId="242" priority="6">
+    <cfRule type="expression" dxfId="217" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="241" priority="9">
+    <cfRule type="expression" dxfId="216" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="240" priority="8">
+    <cfRule type="expression" dxfId="215" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="239" priority="7">
+    <cfRule type="expression" dxfId="214" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C14">
-    <cfRule type="expression" dxfId="238" priority="5">
+    <cfRule type="expression" dxfId="213" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D8">
+    <cfRule type="expression" dxfId="212" priority="2">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14:D25">
+    <cfRule type="expression" dxfId="211" priority="1">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E4:F25">
-    <cfRule type="expression" dxfId="237" priority="4">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D8 D14 D21:D25">
-    <cfRule type="expression" dxfId="37" priority="2">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15 D21:D25">
-    <cfRule type="expression" dxfId="36" priority="3">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16:D20">
-    <cfRule type="expression" dxfId="35" priority="1">
+    <cfRule type="expression" dxfId="210" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21036,42 +20729,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:E6 F5:F6 B7:F8 B9:C25 E9:F25">
-    <cfRule type="expression" dxfId="236" priority="5">
+    <cfRule type="expression" dxfId="209" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="235" priority="14">
+    <cfRule type="expression" dxfId="208" priority="14">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="234" priority="13">
+    <cfRule type="expression" dxfId="207" priority="13">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="233" priority="12">
+    <cfRule type="expression" dxfId="206" priority="12">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14 D21:D25">
-    <cfRule type="expression" dxfId="34" priority="3">
+  <conditionalFormatting sqref="D9">
+    <cfRule type="expression" dxfId="205" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15 D21:D25">
-    <cfRule type="expression" dxfId="33" priority="4">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16:D20">
-    <cfRule type="expression" dxfId="32" priority="2">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="10" priority="1">
+  <conditionalFormatting sqref="D14:D25">
+    <cfRule type="expression" dxfId="204" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>

--- a/uurrooster.xlsx
+++ b/uurrooster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LUCA-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392512FE-D203-482E-B650-E1068BD42CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4298BE-AE12-403F-B6AF-15F73DF90976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="4" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="144">
   <si>
     <t>Week</t>
   </si>
@@ -510,6 +510,18 @@
   <si>
     <t>Korenmarkt 12.30</t>
   </si>
+  <si>
+    <t>Animatie 1, 2, 3 storyboard + animatie 1 visueel maken</t>
+  </si>
+  <si>
+    <t>Animatie 2 visueel maken</t>
+  </si>
+  <si>
+    <t>Animatie 3 maken</t>
+  </si>
+  <si>
+    <t>Animaties geluid adden + samengevoegde animatie + indienen</t>
+  </si>
 </sst>
 </file>
 
@@ -17352,7 +17364,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141CA38B-DB7C-48AD-8513-9BED1D5E19BB}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -17786,7 +17798,7 @@
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:E6 F5:F6 B5:B14 C7:F8 C9:C13 C14:F14 B15:F15 C16:F25 E9:F13">
+  <conditionalFormatting sqref="C4:E6 F5:F6 B5:B14 C7:F8 C9:C13 E9:F13 C14:F14 B15:F15 C16:F25">
     <cfRule type="expression" dxfId="235" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
@@ -18725,8 +18737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BECB010-7B12-49C5-982D-18AE879FB3BF}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19053,7 +19065,9 @@
       <c r="C28" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="16"/>
+      <c r="D28" s="16" t="s">
+        <v>142</v>
+      </c>
       <c r="E28" s="16" t="s">
         <v>120</v>
       </c>
@@ -19079,18 +19093,24 @@
     </row>
     <row r="30" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
-      <c r="B30" s="19"/>
+      <c r="B30" s="19" t="s">
+        <v>140</v>
+      </c>
       <c r="C30" s="19" t="s">
         <v>126</v>
       </c>
       <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
+      <c r="E30" s="19" t="s">
+        <v>143</v>
+      </c>
       <c r="F30" s="19"/>
     </row>
     <row r="31" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
+      <c r="C31" s="19" t="s">
+        <v>141</v>
+      </c>
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
       <c r="F31" s="19"/>

--- a/uurrooster.xlsx
+++ b/uurrooster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sethv\Documents\GitHub\LUCA-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2B6606-3F78-499A-B3BB-089E968162F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5FBD73-FA43-4394-A6F7-0AB2F3FD0EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="4" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="145">
   <si>
     <t>Week</t>
   </si>
@@ -241,9 +241,6 @@
   </si>
   <si>
     <t>Valt weg wegens US BY NIGHT</t>
-  </si>
-  <si>
-    <t>Info-avond internationalisering</t>
   </si>
   <si>
     <t>Speeddate feedback alle studenten</t>
@@ -505,9 +502,6 @@
     <t>3de animatie volledig maken (audiolist maken)</t>
   </si>
   <si>
-    <t>Geluid toevoegen op animaties + export + indienen</t>
-  </si>
-  <si>
     <t>Korenmarkt 12.30</t>
   </si>
   <si>
@@ -521,6 +515,15 @@
   </si>
   <si>
     <t>Animaties geluid adden + samengevoegde animatie + indienen</t>
+  </si>
+  <si>
+    <t>Animaties exporteren en indienen</t>
+  </si>
+  <si>
+    <t>Geluid toevoegen op animaties</t>
+  </si>
+  <si>
+    <t>Al doen voor morgen: Shot opdracht shots analyzeren max 2 min en camerabewegingen enzo</t>
   </si>
 </sst>
 </file>
@@ -768,7 +771,42 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="249">
+  <dxfs count="254">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="1"/>
@@ -3329,10 +3367,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>90</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
@@ -3345,18 +3383,18 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>92</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -3444,7 +3482,7 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>25</v>
@@ -3493,7 +3531,7 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" s="28"/>
       <c r="D7" s="5"/>
@@ -3759,37 +3797,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="203" priority="16">
+    <cfRule type="expression" dxfId="208" priority="16">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="202" priority="15">
+    <cfRule type="expression" dxfId="207" priority="15">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="201" priority="14">
+    <cfRule type="expression" dxfId="206" priority="14">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C25">
-    <cfRule type="expression" dxfId="200" priority="8">
+    <cfRule type="expression" dxfId="205" priority="8">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="199" priority="1">
+    <cfRule type="expression" dxfId="204" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:D25">
-    <cfRule type="expression" dxfId="198" priority="2">
+    <cfRule type="expression" dxfId="203" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 B4:D8 F5:F6 E7:F25 B9:C15">
-    <cfRule type="expression" dxfId="197" priority="6">
+    <cfRule type="expression" dxfId="202" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3877,13 +3915,13 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>10</v>
@@ -4020,7 +4058,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -4206,42 +4244,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:B14 F15:F25">
-    <cfRule type="expression" dxfId="196" priority="7">
+    <cfRule type="expression" dxfId="201" priority="7">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:D25">
-    <cfRule type="expression" dxfId="195" priority="2">
+    <cfRule type="expression" dxfId="200" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="194" priority="16">
+    <cfRule type="expression" dxfId="199" priority="16">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="193" priority="15">
+    <cfRule type="expression" dxfId="198" priority="15">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="192" priority="14">
+    <cfRule type="expression" dxfId="197" priority="14">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:D8 F5:F13 C9:C13">
-    <cfRule type="expression" dxfId="191" priority="6">
+    <cfRule type="expression" dxfId="196" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="190" priority="1">
+    <cfRule type="expression" dxfId="195" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E25">
-    <cfRule type="expression" dxfId="189" priority="5">
+    <cfRule type="expression" dxfId="194" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4329,7 +4367,7 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>25</v>
@@ -4378,7 +4416,7 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" s="28"/>
       <c r="D7" s="5"/>
@@ -4644,42 +4682,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:D8 F5:F14 B9:C15">
-    <cfRule type="expression" dxfId="188" priority="6">
+    <cfRule type="expression" dxfId="193" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="187" priority="21">
+    <cfRule type="expression" dxfId="192" priority="21">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="186" priority="20">
+    <cfRule type="expression" dxfId="191" priority="20">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="185" priority="19">
+    <cfRule type="expression" dxfId="190" priority="19">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C25 F16:F25">
-    <cfRule type="expression" dxfId="184" priority="7">
+    <cfRule type="expression" dxfId="189" priority="7">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="183" priority="1">
+    <cfRule type="expression" dxfId="188" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:D25">
-    <cfRule type="expression" dxfId="182" priority="2">
+    <cfRule type="expression" dxfId="187" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E25">
-    <cfRule type="expression" dxfId="181" priority="5">
+    <cfRule type="expression" dxfId="186" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4767,13 +4805,13 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>10</v>
@@ -4910,7 +4948,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -5096,42 +5134,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:B14 B15:C25 F16:F25">
-    <cfRule type="expression" dxfId="180" priority="7">
+    <cfRule type="expression" dxfId="185" priority="7">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="179" priority="22">
+    <cfRule type="expression" dxfId="184" priority="22">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="178" priority="21">
+    <cfRule type="expression" dxfId="183" priority="21">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="177" priority="20">
+    <cfRule type="expression" dxfId="182" priority="20">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:D8 F5:F14 C9:C14">
-    <cfRule type="expression" dxfId="176" priority="6">
+    <cfRule type="expression" dxfId="181" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="175" priority="1">
+    <cfRule type="expression" dxfId="180" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:D25">
-    <cfRule type="expression" dxfId="174" priority="2">
+    <cfRule type="expression" dxfId="179" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E25">
-    <cfRule type="expression" dxfId="173" priority="5">
+    <cfRule type="expression" dxfId="178" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5219,7 +5257,7 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>25</v>
@@ -5268,7 +5306,7 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="28"/>
       <c r="D7" s="5"/>
@@ -5466,7 +5504,7 @@
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
       <c r="E28" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F28" s="16"/>
     </row>
@@ -5536,37 +5574,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="172" priority="19">
+    <cfRule type="expression" dxfId="177" priority="19">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="171" priority="18">
+    <cfRule type="expression" dxfId="176" priority="18">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="170" priority="17">
+    <cfRule type="expression" dxfId="175" priority="17">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C25">
-    <cfRule type="expression" dxfId="169" priority="7">
+    <cfRule type="expression" dxfId="174" priority="7">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="168" priority="1">
+    <cfRule type="expression" dxfId="173" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:D25">
-    <cfRule type="expression" dxfId="167" priority="2">
+    <cfRule type="expression" dxfId="172" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 B4:D8 F5:F6 E7:F25 B9:C15">
-    <cfRule type="expression" dxfId="166" priority="6">
+    <cfRule type="expression" dxfId="171" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5654,13 +5692,13 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>10</v>
@@ -5799,7 +5837,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -6006,27 +6044,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:E6 F5:F6">
-    <cfRule type="expression" dxfId="165" priority="9">
+    <cfRule type="expression" dxfId="170" priority="9">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="164" priority="23">
+    <cfRule type="expression" dxfId="169" priority="23">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="163" priority="22">
+    <cfRule type="expression" dxfId="168" priority="22">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:F25">
-    <cfRule type="expression" dxfId="162" priority="1">
+    <cfRule type="expression" dxfId="167" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="161" priority="21">
+    <cfRule type="expression" dxfId="166" priority="21">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6114,13 +6152,13 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>10</v>
@@ -6258,7 +6296,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -6465,27 +6503,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:E6 F5:F6">
-    <cfRule type="expression" dxfId="160" priority="4">
+    <cfRule type="expression" dxfId="165" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="159" priority="23">
+    <cfRule type="expression" dxfId="164" priority="23">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="158" priority="22">
+    <cfRule type="expression" dxfId="163" priority="22">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:F25">
-    <cfRule type="expression" dxfId="157" priority="1">
+    <cfRule type="expression" dxfId="162" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="156" priority="6">
+    <cfRule type="expression" dxfId="161" priority="6">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6768,19 +6806,19 @@
     <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="15"/>
       <c r="B28" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
@@ -6849,22 +6887,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="155" priority="15">
+    <cfRule type="expression" dxfId="160" priority="15">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="154" priority="14">
+    <cfRule type="expression" dxfId="159" priority="14">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="153" priority="1">
+    <cfRule type="expression" dxfId="158" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="152" priority="13">
+    <cfRule type="expression" dxfId="157" priority="13">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7147,19 +7185,19 @@
     <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="15"/>
       <c r="B28" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
@@ -7228,22 +7266,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="151" priority="20">
+    <cfRule type="expression" dxfId="156" priority="20">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="150" priority="19">
+    <cfRule type="expression" dxfId="155" priority="19">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="149" priority="1">
+    <cfRule type="expression" dxfId="154" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="148" priority="3">
+    <cfRule type="expression" dxfId="153" priority="3">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7607,22 +7645,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="147" priority="15">
+    <cfRule type="expression" dxfId="152" priority="15">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="146" priority="14">
+    <cfRule type="expression" dxfId="151" priority="14">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="145" priority="1">
+    <cfRule type="expression" dxfId="150" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="144" priority="13">
+    <cfRule type="expression" dxfId="149" priority="13">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7765,7 +7803,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
@@ -7857,7 +7895,7 @@
         <v>0.625</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
@@ -7952,44 +7990,44 @@
         <v>31</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F28" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="11"/>
       <c r="B29" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D29" s="19"/>
       <c r="E29" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="11"/>
       <c r="B30" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C30" s="23"/>
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>
       <c r="F30" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
@@ -8043,22 +8081,22 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="248" priority="14">
+    <cfRule type="expression" dxfId="253" priority="14">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="247" priority="6">
+    <cfRule type="expression" dxfId="252" priority="6">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="246" priority="15">
+    <cfRule type="expression" dxfId="251" priority="15">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="245" priority="1">
+    <cfRule type="expression" dxfId="250" priority="1">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8423,22 +8461,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="143" priority="21">
+    <cfRule type="expression" dxfId="148" priority="21">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="142" priority="20">
+    <cfRule type="expression" dxfId="147" priority="20">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="141" priority="1">
+    <cfRule type="expression" dxfId="146" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="140" priority="4">
+    <cfRule type="expression" dxfId="145" priority="4">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8739,19 +8777,19 @@
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="11"/>
       <c r="B29" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
@@ -8760,10 +8798,10 @@
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
       <c r="E30" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" s="19" t="s">
         <v>58</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
@@ -8816,22 +8854,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="139" priority="16">
+    <cfRule type="expression" dxfId="144" priority="16">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="138" priority="15">
+    <cfRule type="expression" dxfId="143" priority="15">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="137" priority="1">
+    <cfRule type="expression" dxfId="142" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="136" priority="14">
+    <cfRule type="expression" dxfId="141" priority="14">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8919,10 +8957,10 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="C4" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="29" t="s">
         <v>117</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>118</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>10</v>
@@ -9061,7 +9099,7 @@
         <v>27</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -9249,47 +9287,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="135" priority="22">
+    <cfRule type="expression" dxfId="140" priority="22">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="134" priority="21">
+    <cfRule type="expression" dxfId="139" priority="21">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="133" priority="20">
+    <cfRule type="expression" dxfId="138" priority="20">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="132" priority="2">
+    <cfRule type="expression" dxfId="137" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="131" priority="23">
+    <cfRule type="expression" dxfId="136" priority="23">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="130" priority="16">
+    <cfRule type="expression" dxfId="135" priority="16">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E25">
-    <cfRule type="expression" dxfId="129" priority="1">
+    <cfRule type="expression" dxfId="134" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F14 B5:B25">
-    <cfRule type="expression" dxfId="128" priority="8">
+    <cfRule type="expression" dxfId="133" priority="8">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F25">
-    <cfRule type="expression" dxfId="127" priority="17">
+    <cfRule type="expression" dxfId="132" priority="17">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9377,7 +9415,7 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E4" s="33"/>
       <c r="H4" s="7" t="s">
@@ -9419,7 +9457,7 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" s="28"/>
       <c r="F7" s="5"/>
@@ -9691,47 +9729,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:B15 F5:F14">
-    <cfRule type="expression" dxfId="126" priority="4">
+    <cfRule type="expression" dxfId="131" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="125" priority="21">
+    <cfRule type="expression" dxfId="130" priority="21">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="124" priority="20">
+    <cfRule type="expression" dxfId="129" priority="20">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="123" priority="19">
+    <cfRule type="expression" dxfId="128" priority="19">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="122" priority="2">
+    <cfRule type="expression" dxfId="127" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="121" priority="22">
+    <cfRule type="expression" dxfId="126" priority="22">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="120" priority="15">
+    <cfRule type="expression" dxfId="125" priority="15">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E25">
-    <cfRule type="expression" dxfId="119" priority="1">
+    <cfRule type="expression" dxfId="124" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F25">
-    <cfRule type="expression" dxfId="118" priority="16">
+    <cfRule type="expression" dxfId="123" priority="16">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9819,10 +9857,10 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="C4" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="29" t="s">
         <v>117</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>118</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>10</v>
@@ -9961,7 +9999,7 @@
         <v>27</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -10149,47 +10187,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="117" priority="21">
+    <cfRule type="expression" dxfId="122" priority="21">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="116" priority="20">
+    <cfRule type="expression" dxfId="121" priority="20">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="115" priority="19">
+    <cfRule type="expression" dxfId="120" priority="19">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="114" priority="2">
+    <cfRule type="expression" dxfId="119" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="113" priority="22">
+    <cfRule type="expression" dxfId="118" priority="22">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="112" priority="15">
+    <cfRule type="expression" dxfId="117" priority="15">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E25">
-    <cfRule type="expression" dxfId="111" priority="1">
+    <cfRule type="expression" dxfId="116" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F13 B5:B25">
-    <cfRule type="expression" dxfId="110" priority="12">
+    <cfRule type="expression" dxfId="115" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F25">
-    <cfRule type="expression" dxfId="109" priority="16">
+    <cfRule type="expression" dxfId="114" priority="16">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10277,7 +10315,7 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E4" s="33"/>
       <c r="H4" s="7" t="s">
@@ -10319,7 +10357,7 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" s="28"/>
       <c r="F7" s="5"/>
@@ -10591,47 +10629,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:B15 F5:F14">
-    <cfRule type="expression" dxfId="108" priority="6">
+    <cfRule type="expression" dxfId="113" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="107" priority="15">
+    <cfRule type="expression" dxfId="112" priority="15">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="106" priority="14">
+    <cfRule type="expression" dxfId="111" priority="14">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="105" priority="13">
+    <cfRule type="expression" dxfId="110" priority="13">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C14">
-    <cfRule type="expression" dxfId="104" priority="2">
+    <cfRule type="expression" dxfId="109" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="103" priority="16">
+    <cfRule type="expression" dxfId="108" priority="16">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D14">
-    <cfRule type="expression" dxfId="102" priority="9">
+    <cfRule type="expression" dxfId="107" priority="9">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E25">
-    <cfRule type="expression" dxfId="101" priority="1">
+    <cfRule type="expression" dxfId="106" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F25">
-    <cfRule type="expression" dxfId="100" priority="10">
+    <cfRule type="expression" dxfId="105" priority="10">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10719,10 +10757,10 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="C4" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="29" t="s">
         <v>117</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>118</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>10</v>
@@ -10861,7 +10899,7 @@
         <v>27</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -11047,47 +11085,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="99" priority="22">
+    <cfRule type="expression" dxfId="104" priority="22">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="98" priority="21">
+    <cfRule type="expression" dxfId="103" priority="21">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="97" priority="20">
+    <cfRule type="expression" dxfId="102" priority="20">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C14">
-    <cfRule type="expression" dxfId="96" priority="2">
+    <cfRule type="expression" dxfId="101" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="95" priority="23">
+    <cfRule type="expression" dxfId="100" priority="23">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D14">
-    <cfRule type="expression" dxfId="94" priority="16">
+    <cfRule type="expression" dxfId="99" priority="16">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E25">
-    <cfRule type="expression" dxfId="93" priority="1">
+    <cfRule type="expression" dxfId="98" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F14 B5:B25">
-    <cfRule type="expression" dxfId="92" priority="13">
+    <cfRule type="expression" dxfId="97" priority="13">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F25">
-    <cfRule type="expression" dxfId="91" priority="17">
+    <cfRule type="expression" dxfId="96" priority="17">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11175,7 +11213,7 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E4" s="33"/>
       <c r="H4" s="7" t="s">
@@ -11217,7 +11255,7 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" s="28"/>
       <c r="F7" s="5"/>
@@ -11489,47 +11527,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:B15 F5:F13">
-    <cfRule type="expression" dxfId="90" priority="5">
+    <cfRule type="expression" dxfId="95" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="89" priority="16">
+    <cfRule type="expression" dxfId="94" priority="16">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="88" priority="15">
+    <cfRule type="expression" dxfId="93" priority="15">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="87" priority="14">
+    <cfRule type="expression" dxfId="92" priority="14">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C14">
-    <cfRule type="expression" dxfId="86" priority="2">
+    <cfRule type="expression" dxfId="91" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="85" priority="17">
+    <cfRule type="expression" dxfId="90" priority="17">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D14">
-    <cfRule type="expression" dxfId="84" priority="10">
+    <cfRule type="expression" dxfId="89" priority="10">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E25">
-    <cfRule type="expression" dxfId="83" priority="1">
+    <cfRule type="expression" dxfId="88" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F25">
-    <cfRule type="expression" dxfId="82" priority="11">
+    <cfRule type="expression" dxfId="87" priority="11">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11617,10 +11655,10 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="C4" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="29" t="s">
         <v>117</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>118</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>10</v>
@@ -11759,7 +11797,7 @@
         <v>27</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -11945,47 +11983,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="81" priority="20">
+    <cfRule type="expression" dxfId="86" priority="20">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="80" priority="19">
+    <cfRule type="expression" dxfId="85" priority="19">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="79" priority="18">
+    <cfRule type="expression" dxfId="84" priority="18">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C14">
-    <cfRule type="expression" dxfId="78" priority="2">
+    <cfRule type="expression" dxfId="83" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="77" priority="21">
+    <cfRule type="expression" dxfId="82" priority="21">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D14">
-    <cfRule type="expression" dxfId="76" priority="14">
+    <cfRule type="expression" dxfId="81" priority="14">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E25">
-    <cfRule type="expression" dxfId="75" priority="1">
+    <cfRule type="expression" dxfId="80" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F13 B5:B25">
-    <cfRule type="expression" dxfId="74" priority="12">
+    <cfRule type="expression" dxfId="79" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F25">
-    <cfRule type="expression" dxfId="73" priority="15">
+    <cfRule type="expression" dxfId="78" priority="15">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12073,10 +12111,10 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="C4" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="29" t="s">
         <v>117</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>118</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>10</v>
@@ -12120,7 +12158,7 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" s="28"/>
       <c r="E7" s="28"/>
@@ -12217,7 +12255,7 @@
         <v>27</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -12332,7 +12370,7 @@
     <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="15"/>
       <c r="B28" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
@@ -12405,27 +12443,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="72" priority="16">
+    <cfRule type="expression" dxfId="77" priority="16">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="71" priority="15">
+    <cfRule type="expression" dxfId="76" priority="15">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="70" priority="14">
+    <cfRule type="expression" dxfId="75" priority="14">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:D25">
-    <cfRule type="expression" dxfId="69" priority="11">
+    <cfRule type="expression" dxfId="74" priority="11">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 B4:D15 F5:F6 E7:F25">
-    <cfRule type="expression" dxfId="68" priority="2">
+    <cfRule type="expression" dxfId="73" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12513,7 +12551,7 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>10</v>
@@ -12607,7 +12645,7 @@
         <v>0.53125</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="31"/>
@@ -12634,7 +12672,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -12662,7 +12700,7 @@
         <v>0.625</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="31"/>
@@ -12739,26 +12777,26 @@
     <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="15"/>
       <c r="B28" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D28" s="19"/>
       <c r="E28" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="11"/>
       <c r="B29" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
@@ -12767,10 +12805,10 @@
     <row r="30" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="11"/>
       <c r="B30" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>
@@ -12779,7 +12817,7 @@
     <row r="31" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="11"/>
       <c r="B31" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
@@ -12789,7 +12827,7 @@
     <row r="32" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="11"/>
       <c r="B32" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
@@ -12799,7 +12837,7 @@
     <row r="33" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="11"/>
       <c r="B33" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
@@ -12809,7 +12847,7 @@
     <row r="34" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="11"/>
       <c r="B34" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
@@ -12834,30 +12872,30 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:D12">
-    <cfRule type="expression" dxfId="244" priority="3">
+    <cfRule type="expression" dxfId="249" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="243" priority="14">
+    <cfRule type="expression" dxfId="248" priority="14">
       <formula>B$3 = TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="242" priority="15">
+    <cfRule type="expression" dxfId="247" priority="15">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="241" priority="7">
+    <cfRule type="expression" dxfId="246" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="240" priority="9">
+    <cfRule type="expression" dxfId="245" priority="9">
       <formula>NOT(ISBLANK(C13))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 B4:B13 F5:F6 E7:F25 D13 B14:D15 C16:D25">
-    <cfRule type="expression" dxfId="239" priority="12">
+    <cfRule type="expression" dxfId="244" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12947,10 +12985,10 @@
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="29" t="s">
         <v>117</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>118</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>10</v>
@@ -13091,7 +13129,7 @@
         <v>27</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -13298,22 +13336,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:E6 F5:F6 B7:F25">
-    <cfRule type="expression" dxfId="67" priority="1">
+    <cfRule type="expression" dxfId="72" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="66" priority="16">
+    <cfRule type="expression" dxfId="71" priority="16">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="65" priority="15">
+    <cfRule type="expression" dxfId="70" priority="15">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="64" priority="14">
+    <cfRule type="expression" dxfId="69" priority="14">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13402,10 +13440,10 @@
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="29" t="s">
         <v>117</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>118</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>10</v>
@@ -13546,7 +13584,7 @@
         <v>27</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -13753,22 +13791,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:E6 F5:F6 B7:F25">
-    <cfRule type="expression" dxfId="63" priority="1">
+    <cfRule type="expression" dxfId="68" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="62" priority="21">
+    <cfRule type="expression" dxfId="67" priority="21">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="61" priority="20">
+    <cfRule type="expression" dxfId="66" priority="20">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="60" priority="6">
+    <cfRule type="expression" dxfId="65" priority="6">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13856,10 +13894,10 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="C4" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="29" t="s">
         <v>117</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>118</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>10</v>
@@ -13984,7 +14022,7 @@
         <v>27</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -14180,27 +14218,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:E25 F5:F13">
-    <cfRule type="expression" dxfId="59" priority="1">
+    <cfRule type="expression" dxfId="64" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="58" priority="22">
+    <cfRule type="expression" dxfId="63" priority="22">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="57" priority="21">
+    <cfRule type="expression" dxfId="62" priority="21">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="56" priority="20">
+    <cfRule type="expression" dxfId="61" priority="20">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F25">
-    <cfRule type="expression" dxfId="55" priority="5">
+    <cfRule type="expression" dxfId="60" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14288,7 +14326,7 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>10</v>
@@ -14576,27 +14614,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:D25 F5:F25">
-    <cfRule type="expression" dxfId="54" priority="1">
+    <cfRule type="expression" dxfId="59" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="53" priority="26">
+    <cfRule type="expression" dxfId="58" priority="26">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="52" priority="25">
+    <cfRule type="expression" dxfId="57" priority="25">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="51" priority="24">
+    <cfRule type="expression" dxfId="56" priority="24">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E26">
-    <cfRule type="expression" dxfId="50" priority="4">
+    <cfRule type="expression" dxfId="55" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14684,10 +14722,10 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="C4" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="29" t="s">
         <v>117</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>118</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>10</v>
@@ -14828,7 +14866,7 @@
         <v>27</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -14859,7 +14897,7 @@
         <v>0.625</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -15027,37 +15065,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:B14 F5:F14 B15:D25">
-    <cfRule type="expression" dxfId="49" priority="22">
+    <cfRule type="expression" dxfId="54" priority="22">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="48" priority="29">
+    <cfRule type="expression" dxfId="53" priority="29">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="47" priority="28">
+    <cfRule type="expression" dxfId="52" priority="28">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="46" priority="27">
+    <cfRule type="expression" dxfId="51" priority="27">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:D14">
-    <cfRule type="expression" dxfId="45" priority="2">
+    <cfRule type="expression" dxfId="50" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E26">
-    <cfRule type="expression" dxfId="44" priority="1">
+    <cfRule type="expression" dxfId="49" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F25">
-    <cfRule type="expression" dxfId="43" priority="21">
+    <cfRule type="expression" dxfId="48" priority="21">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15145,7 +15183,7 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E4" s="33"/>
       <c r="H4" s="7" t="s">
@@ -15187,7 +15225,7 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C7" s="28"/>
       <c r="F7" s="5"/>
@@ -15311,7 +15349,7 @@
         <v>0.625</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -15474,37 +15512,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:B14 F5:F14 B15:D25">
-    <cfRule type="expression" dxfId="42" priority="24">
+    <cfRule type="expression" dxfId="47" priority="24">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="41" priority="31">
+    <cfRule type="expression" dxfId="46" priority="31">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="40" priority="30">
+    <cfRule type="expression" dxfId="45" priority="30">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="39" priority="29">
+    <cfRule type="expression" dxfId="44" priority="29">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:D14">
-    <cfRule type="expression" dxfId="38" priority="2">
+    <cfRule type="expression" dxfId="43" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E26">
-    <cfRule type="expression" dxfId="37" priority="1">
+    <cfRule type="expression" dxfId="42" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F25">
-    <cfRule type="expression" dxfId="36" priority="23">
+    <cfRule type="expression" dxfId="41" priority="23">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15592,10 +15630,10 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="C4" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="29" t="s">
         <v>117</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>118</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>10</v>
@@ -15736,7 +15774,7 @@
         <v>27</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -15872,7 +15910,7 @@
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="11"/>
       <c r="B29" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
@@ -15937,37 +15975,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="35" priority="13">
+    <cfRule type="expression" dxfId="40" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="34" priority="12">
+    <cfRule type="expression" dxfId="39" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="33" priority="11">
+    <cfRule type="expression" dxfId="38" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:D14">
-    <cfRule type="expression" dxfId="32" priority="2">
+    <cfRule type="expression" dxfId="37" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E26">
-    <cfRule type="expression" dxfId="31" priority="1">
+    <cfRule type="expression" dxfId="36" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F13 B5:B14 B15:D25">
-    <cfRule type="expression" dxfId="30" priority="9">
+    <cfRule type="expression" dxfId="35" priority="9">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F25">
-    <cfRule type="expression" dxfId="29" priority="8">
+    <cfRule type="expression" dxfId="34" priority="8">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16058,10 +16096,10 @@
         <v>11</v>
       </c>
       <c r="C4" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="29" t="s">
         <v>117</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>118</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>10</v>
@@ -16200,7 +16238,7 @@
         <v>27</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -16403,32 +16441,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:D25 F5:F14">
-    <cfRule type="expression" dxfId="28" priority="2">
+    <cfRule type="expression" dxfId="33" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="27" priority="13">
+    <cfRule type="expression" dxfId="32" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="26" priority="12">
+    <cfRule type="expression" dxfId="31" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="25" priority="11">
+    <cfRule type="expression" dxfId="30" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E26">
-    <cfRule type="expression" dxfId="24" priority="1">
+    <cfRule type="expression" dxfId="29" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F25">
-    <cfRule type="expression" dxfId="23" priority="8">
+    <cfRule type="expression" dxfId="28" priority="8">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16519,10 +16557,10 @@
         <v>11</v>
       </c>
       <c r="C4" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="29" t="s">
         <v>117</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>118</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>10</v>
@@ -16661,7 +16699,7 @@
         <v>27</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -16860,32 +16898,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:D25 F5:F14">
-    <cfRule type="expression" dxfId="22" priority="2">
+    <cfRule type="expression" dxfId="27" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="21" priority="13">
+    <cfRule type="expression" dxfId="26" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="20" priority="12">
+    <cfRule type="expression" dxfId="25" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="19" priority="11">
+    <cfRule type="expression" dxfId="24" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E26">
-    <cfRule type="expression" dxfId="18" priority="1">
+    <cfRule type="expression" dxfId="23" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F25">
-    <cfRule type="expression" dxfId="17" priority="8">
+    <cfRule type="expression" dxfId="22" priority="8">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16976,10 +17014,10 @@
         <v>11</v>
       </c>
       <c r="C4" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="29" t="s">
         <v>117</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>118</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>10</v>
@@ -17118,7 +17156,7 @@
         <v>27</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -17327,32 +17365,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:D25 F5:F14">
-    <cfRule type="expression" dxfId="16" priority="2">
+    <cfRule type="expression" dxfId="21" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="15" priority="13">
+    <cfRule type="expression" dxfId="20" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="14" priority="12">
+    <cfRule type="expression" dxfId="19" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="13" priority="11">
+    <cfRule type="expression" dxfId="18" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E26">
-    <cfRule type="expression" dxfId="12" priority="1">
+    <cfRule type="expression" dxfId="17" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F25">
-    <cfRule type="expression" dxfId="11" priority="8">
+    <cfRule type="expression" dxfId="16" priority="8">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17364,8 +17402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141CA38B-DB7C-48AD-8513-9BED1D5E19BB}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -17440,7 +17478,7 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>10</v>
@@ -17481,7 +17519,7 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" s="28"/>
       <c r="F7" s="5"/>
@@ -17543,7 +17581,7 @@
       </c>
       <c r="B13" s="5"/>
       <c r="E13" s="36" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F13" s="5"/>
     </row>
@@ -17593,7 +17631,7 @@
         <v>0.625</v>
       </c>
       <c r="C18" s="43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D18" s="42"/>
       <c r="E18" s="36"/>
@@ -17604,7 +17642,7 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D19" s="42"/>
       <c r="E19" s="36"/>
@@ -17645,7 +17683,7 @@
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F23" s="5"/>
     </row>
@@ -17681,69 +17719,71 @@
     <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="15"/>
       <c r="B28" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="11"/>
       <c r="B29" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="11"/>
       <c r="B30" s="23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
       <c r="E30" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="11"/>
       <c r="B31" s="23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
-      <c r="E31" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="F31" s="19"/>
+      <c r="E31" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="32" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="11"/>
       <c r="B32" s="23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
@@ -17784,22 +17824,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="238" priority="9">
+    <cfRule type="expression" dxfId="243" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="237" priority="8">
+    <cfRule type="expression" dxfId="242" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="236" priority="1">
+    <cfRule type="expression" dxfId="241" priority="1">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:E6 F5:F6 B5:B14 C7:F8 C9:C13 E9:F13 C14:F14 B15:F15 C16:F25">
-    <cfRule type="expression" dxfId="235" priority="6">
+    <cfRule type="expression" dxfId="240" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17891,10 +17931,10 @@
         <v>11</v>
       </c>
       <c r="C4" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="29" t="s">
         <v>117</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>118</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>10</v>
@@ -18033,7 +18073,7 @@
         <v>27</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -18242,32 +18282,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:D25 F5:F14">
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="15" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="9" priority="13">
+    <cfRule type="expression" dxfId="14" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="8" priority="12">
+    <cfRule type="expression" dxfId="13" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="7" priority="11">
+    <cfRule type="expression" dxfId="12" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E26">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F25">
-    <cfRule type="expression" dxfId="5" priority="8">
+    <cfRule type="expression" dxfId="10" priority="8">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18358,10 +18398,10 @@
         <v>11</v>
       </c>
       <c r="C4" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="29" t="s">
         <v>117</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>118</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>10</v>
@@ -18500,7 +18540,7 @@
         <v>27</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -18631,7 +18671,7 @@
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
       <c r="E28" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F28" s="16" t="s">
         <v>50</v>
@@ -18644,7 +18684,7 @@
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
       <c r="F29" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
@@ -18705,27 +18745,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:D25 F5:F25">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="3" priority="13">
+    <cfRule type="expression" dxfId="8" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="2" priority="12">
+    <cfRule type="expression" dxfId="7" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="1" priority="11">
+    <cfRule type="expression" dxfId="6" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E26">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18737,8 +18777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BECB010-7B12-49C5-982D-18AE879FB3BF}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -18813,10 +18853,10 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="C4" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="29" t="s">
         <v>117</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>118</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>10</v>
@@ -18860,7 +18900,7 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C7" s="28"/>
       <c r="E7" s="28"/>
@@ -18948,7 +18988,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -19060,48 +19100,50 @@
     <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="15"/>
       <c r="B28" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="C28" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="F28" s="16" t="s">
         <v>55</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="11"/>
       <c r="B29" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="19"/>
+        <v>125</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>144</v>
+      </c>
       <c r="E29" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="11"/>
       <c r="B30" s="19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="D30" s="19"/>
       <c r="E30" s="19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F30" s="19"/>
     </row>
@@ -19109,7 +19151,7 @@
       <c r="A31" s="11"/>
       <c r="B31" s="19"/>
       <c r="C31" s="19" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
@@ -19118,7 +19160,9 @@
     <row r="32" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="11"/>
       <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
+      <c r="C32" s="19" t="s">
+        <v>128</v>
+      </c>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
       <c r="F32" s="19"/>
@@ -19157,33 +19201,48 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
+    <cfRule type="expression" dxfId="239" priority="16">
+      <formula>B$3 &lt; TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:F3">
+    <cfRule type="expression" dxfId="238" priority="15">
+      <formula>B3 = TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:F28 B29:C30 E29:F30 B33:F36 C28:C30 B31:B32 D31:F32">
+    <cfRule type="expression" dxfId="237" priority="12">
+      <formula>NOT(ISBLANK(B28))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:D8 C9:C13 C14:D14">
+    <cfRule type="expression" dxfId="236" priority="10">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:D25">
+    <cfRule type="expression" dxfId="235" priority="6">
+      <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:E6 F5:F6 B5:B14 E7:F25 B15:D15 C16:C20 B16:B26 C21:D25">
     <cfRule type="expression" dxfId="234" priority="11">
-      <formula>B$3 &lt; TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="233" priority="10">
-      <formula>B3 = TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="232" priority="7">
-      <formula>NOT(ISBLANK(B28))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:D8 C9:C13 C14:D14">
-    <cfRule type="expression" dxfId="231" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16:D25">
-    <cfRule type="expression" dxfId="230" priority="1">
-      <formula>$I$8 = TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E6 F5:F6 B5:B14 E7:F25 B15:D15 C16:C20 B16:B26 C21:D25">
-    <cfRule type="expression" dxfId="229" priority="6">
-      <formula>$I$8 = TRUE</formula>
+  <conditionalFormatting sqref="C31:C32">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>NOT(ISBLANK(C31))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>NOT(ISBLANK(D30))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>NOT(ISBLANK(D29))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19271,7 +19330,7 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E4" s="33"/>
       <c r="H4" s="7" t="s">
@@ -19313,7 +19372,7 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" s="28"/>
       <c r="F7" s="5"/>
@@ -19505,11 +19564,11 @@
     <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="15"/>
       <c r="B28" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
@@ -19580,37 +19639,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="228" priority="11">
+    <cfRule type="expression" dxfId="233" priority="11">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="227" priority="10">
+    <cfRule type="expression" dxfId="232" priority="10">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="226" priority="9">
+    <cfRule type="expression" dxfId="231" priority="9">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C25">
-    <cfRule type="expression" dxfId="225" priority="6">
+    <cfRule type="expression" dxfId="230" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D8">
-    <cfRule type="expression" dxfId="224" priority="2">
+    <cfRule type="expression" dxfId="229" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:D25">
-    <cfRule type="expression" dxfId="223" priority="1">
+    <cfRule type="expression" dxfId="228" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 B4:C15 F5:F6 E7:F25">
-    <cfRule type="expression" dxfId="222" priority="5">
+    <cfRule type="expression" dxfId="227" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19949,22 +20008,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="221" priority="7">
+    <cfRule type="expression" dxfId="226" priority="7">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="220" priority="6">
+    <cfRule type="expression" dxfId="225" priority="6">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="219" priority="1">
+    <cfRule type="expression" dxfId="224" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="218" priority="5">
+    <cfRule type="expression" dxfId="223" priority="5">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20052,7 +20111,7 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E4" s="33"/>
       <c r="H4" s="7" t="s">
@@ -20330,42 +20389,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:B14 B15:C15 C16:C25">
-    <cfRule type="expression" dxfId="217" priority="6">
+    <cfRule type="expression" dxfId="222" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="216" priority="9">
+    <cfRule type="expression" dxfId="221" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="215" priority="8">
+    <cfRule type="expression" dxfId="220" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="214" priority="7">
+    <cfRule type="expression" dxfId="219" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C14">
-    <cfRule type="expression" dxfId="213" priority="5">
+    <cfRule type="expression" dxfId="218" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D8">
-    <cfRule type="expression" dxfId="212" priority="2">
+    <cfRule type="expression" dxfId="217" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:D25">
-    <cfRule type="expression" dxfId="211" priority="1">
+    <cfRule type="expression" dxfId="216" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F25">
-    <cfRule type="expression" dxfId="210" priority="4">
+    <cfRule type="expression" dxfId="215" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20453,13 +20512,13 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>10</v>
@@ -20582,7 +20641,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -20770,32 +20829,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:E6 F5:F6 B7:F8 B9:C25 E9:F25">
-    <cfRule type="expression" dxfId="209" priority="5">
+    <cfRule type="expression" dxfId="214" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="208" priority="14">
+    <cfRule type="expression" dxfId="213" priority="14">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="207" priority="13">
+    <cfRule type="expression" dxfId="212" priority="13">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="206" priority="12">
+    <cfRule type="expression" dxfId="211" priority="12">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="205" priority="1">
+    <cfRule type="expression" dxfId="210" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:D25">
-    <cfRule type="expression" dxfId="204" priority="2">
+    <cfRule type="expression" dxfId="209" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>

--- a/uurrooster.xlsx
+++ b/uurrooster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LUCA-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD004358-F864-4B89-9EB3-C3D18FC75366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E56BBDA-8A24-4AC7-AAC7-AAF9C9043369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14910" windowHeight="15585" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14910" windowHeight="15585" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="4" r:id="rId1"/>
@@ -696,7 +696,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -769,9 +769,6 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="6" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="5" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="20% - Accent2" xfId="3" builtinId="34"/>
@@ -783,7 +780,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="252">
+  <dxfs count="253">
     <dxf>
       <fill>
         <patternFill>
@@ -2872,6 +2869,13 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -8079,22 +8083,22 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="251" priority="14">
+    <cfRule type="expression" dxfId="252" priority="14">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="250" priority="6">
+    <cfRule type="expression" dxfId="251" priority="6">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="249" priority="15">
+    <cfRule type="expression" dxfId="250" priority="15">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="248" priority="1">
+    <cfRule type="expression" dxfId="249" priority="1">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12870,30 +12874,30 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:D12">
-    <cfRule type="expression" dxfId="247" priority="3">
+    <cfRule type="expression" dxfId="248" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="246" priority="14">
+    <cfRule type="expression" dxfId="247" priority="14">
       <formula>B$3 = TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="245" priority="15">
+    <cfRule type="expression" dxfId="246" priority="15">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="244" priority="7">
+    <cfRule type="expression" dxfId="245" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="243" priority="9">
+    <cfRule type="expression" dxfId="244" priority="9">
       <formula>NOT(ISBLANK(C13))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 B4:B13 F5:F6 E7:F25 D13 B14:D15 C16:D25">
-    <cfRule type="expression" dxfId="242" priority="12">
+    <cfRule type="expression" dxfId="243" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17400,7 +17404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141CA38B-DB7C-48AD-8513-9BED1D5E19BB}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
@@ -17770,9 +17774,7 @@
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
-      <c r="F31" s="19" t="s">
-        <v>138</v>
-      </c>
+      <c r="F31" s="19"/>
     </row>
     <row r="32" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
@@ -17818,22 +17820,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="241" priority="9">
+    <cfRule type="expression" dxfId="242" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="240" priority="8">
+    <cfRule type="expression" dxfId="241" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="239" priority="1">
+    <cfRule type="expression" dxfId="240" priority="1">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:E6 F5:F6 B5:B14 C7:F8 C9:C13 E9:F13 C14:F14 B15:F15 C16:F25">
-    <cfRule type="expression" dxfId="238" priority="6">
+    <cfRule type="expression" dxfId="239" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18771,8 +18773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BECB010-7B12-49C5-982D-18AE879FB3BF}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19136,7 +19138,7 @@
         <v>146</v>
       </c>
       <c r="D30" s="19"/>
-      <c r="E30" s="44" t="s">
+      <c r="E30" s="19" t="s">
         <v>137</v>
       </c>
       <c r="F30" s="19"/>
@@ -19150,7 +19152,9 @@
         <v>141</v>
       </c>
       <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
+      <c r="E31" s="19" t="s">
+        <v>138</v>
+      </c>
       <c r="F31" s="19"/>
     </row>
     <row r="32" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -19200,49 +19204,54 @@
       <c r="F36" s="19"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B31:B32 D31:F32 B34:F36 C33:F33">
-    <cfRule type="expression" dxfId="237" priority="14">
+  <conditionalFormatting sqref="B31:B33">
+    <cfRule type="expression" dxfId="238" priority="2">
       <formula>NOT(ISBLANK(B31))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
+    <cfRule type="expression" dxfId="237" priority="19">
+      <formula>B$3 &lt; TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:F3">
     <cfRule type="expression" dxfId="236" priority="18">
-      <formula>B$3 &lt; TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="235" priority="17">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F30">
+    <cfRule type="expression" dxfId="235" priority="4">
+      <formula>NOT(ISBLANK(B28))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28:C32">
     <cfRule type="expression" dxfId="234" priority="3">
-      <formula>NOT(ISBLANK(B28))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28:C32">
-    <cfRule type="expression" dxfId="233" priority="2">
       <formula>NOT(ISBLANK(C28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:D8 C9:C13 C14:D14">
-    <cfRule type="expression" dxfId="232" priority="12">
+    <cfRule type="expression" dxfId="233" priority="13">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:D25">
-    <cfRule type="expression" dxfId="231" priority="8">
+    <cfRule type="expression" dxfId="232" priority="9">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D32:F32 C33:F33 B34:F36 D31 F31">
+    <cfRule type="expression" dxfId="231" priority="15">
+      <formula>NOT(ISBLANK(B31))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 F5:F6 B5:B14 E7:F25 B15:D15 C16:C20 B16:B26 C21:D25">
-    <cfRule type="expression" dxfId="230" priority="13">
+    <cfRule type="expression" dxfId="230" priority="14">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B33">
+  <conditionalFormatting sqref="E31">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>NOT(ISBLANK(B33))</formula>
+      <formula>NOT(ISBLANK(E31))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/uurrooster.xlsx
+++ b/uurrooster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sethv\Documents\GitHub\LUCA-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B863CC-B6A5-4371-8426-3BC0227C83AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9B6C25-15FF-4626-A030-2FDBDC06FB79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="150">
   <si>
     <t>Week</t>
   </si>
@@ -537,6 +537,9 @@
   <si>
     <t>animaties fixen</t>
   </si>
+  <si>
+    <t>Naar feedback!</t>
+  </si>
 </sst>
 </file>
 
@@ -18778,8 +18781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BECB010-7B12-49C5-982D-18AE879FB3BF}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -19155,7 +19158,9 @@
       <c r="B31" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="C31" s="19"/>
+      <c r="C31" s="19" t="s">
+        <v>149</v>
+      </c>
       <c r="D31" s="19"/>
       <c r="E31" s="19" t="s">
         <v>138</v>

--- a/uurrooster.xlsx
+++ b/uurrooster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LUCA-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289E1917-6915-4DB9-AB0E-7825594E76D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8952767A-BAAF-4607-A4BA-50562FD691EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -535,13 +535,13 @@
     <t>animaties fixen</t>
   </si>
   <si>
-    <t>Naar feedback!</t>
-  </si>
-  <si>
     <t>20 tal vellen tekenpapier nodig hebben - min A4 - en potlood, stift en pen, indien mogelijk verschillende diktes van elk…</t>
   </si>
   <si>
     <t>nieuwe pennenzak nodig</t>
+  </si>
+  <si>
+    <t>Common terre moodboard en ideeen verzamelen! (zie kernwoorden)</t>
   </si>
 </sst>
 </file>
@@ -789,7 +789,21 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="253">
+  <dxfs count="255">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="1"/>
@@ -3808,37 +3822,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="203" priority="16">
+    <cfRule type="expression" dxfId="205" priority="16">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="202" priority="15">
+    <cfRule type="expression" dxfId="204" priority="15">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="201" priority="14">
+    <cfRule type="expression" dxfId="203" priority="14">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C25">
-    <cfRule type="expression" dxfId="200" priority="8">
+    <cfRule type="expression" dxfId="202" priority="8">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="199" priority="1">
+    <cfRule type="expression" dxfId="201" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:D25">
-    <cfRule type="expression" dxfId="198" priority="2">
+    <cfRule type="expression" dxfId="200" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 B4:D8 F5:F6 E7:F25 B9:C15">
-    <cfRule type="expression" dxfId="197" priority="6">
+    <cfRule type="expression" dxfId="199" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4255,42 +4269,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:B14 F15:F25">
-    <cfRule type="expression" dxfId="196" priority="7">
+    <cfRule type="expression" dxfId="198" priority="7">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:D25">
-    <cfRule type="expression" dxfId="195" priority="2">
+    <cfRule type="expression" dxfId="197" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="194" priority="16">
+    <cfRule type="expression" dxfId="196" priority="16">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="193" priority="15">
+    <cfRule type="expression" dxfId="195" priority="15">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="192" priority="14">
+    <cfRule type="expression" dxfId="194" priority="14">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:D8 F5:F13 C9:C13">
-    <cfRule type="expression" dxfId="191" priority="6">
+    <cfRule type="expression" dxfId="193" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="190" priority="1">
+    <cfRule type="expression" dxfId="192" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E25">
-    <cfRule type="expression" dxfId="189" priority="5">
+    <cfRule type="expression" dxfId="191" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4693,42 +4707,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:D8 F5:F14 B9:C15">
-    <cfRule type="expression" dxfId="188" priority="6">
+    <cfRule type="expression" dxfId="190" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="187" priority="21">
+    <cfRule type="expression" dxfId="189" priority="21">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="186" priority="20">
+    <cfRule type="expression" dxfId="188" priority="20">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="185" priority="19">
+    <cfRule type="expression" dxfId="187" priority="19">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C25 F16:F25">
-    <cfRule type="expression" dxfId="184" priority="7">
+    <cfRule type="expression" dxfId="186" priority="7">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="183" priority="1">
+    <cfRule type="expression" dxfId="185" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:D25">
-    <cfRule type="expression" dxfId="182" priority="2">
+    <cfRule type="expression" dxfId="184" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E25">
-    <cfRule type="expression" dxfId="181" priority="5">
+    <cfRule type="expression" dxfId="183" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5145,42 +5159,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:B14 B15:C25 F16:F25">
-    <cfRule type="expression" dxfId="180" priority="7">
+    <cfRule type="expression" dxfId="182" priority="7">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="179" priority="22">
+    <cfRule type="expression" dxfId="181" priority="22">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="178" priority="21">
+    <cfRule type="expression" dxfId="180" priority="21">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="177" priority="20">
+    <cfRule type="expression" dxfId="179" priority="20">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:D8 F5:F14 C9:C14">
-    <cfRule type="expression" dxfId="176" priority="6">
+    <cfRule type="expression" dxfId="178" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="175" priority="1">
+    <cfRule type="expression" dxfId="177" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:D25">
-    <cfRule type="expression" dxfId="174" priority="2">
+    <cfRule type="expression" dxfId="176" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E25">
-    <cfRule type="expression" dxfId="173" priority="5">
+    <cfRule type="expression" dxfId="175" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5585,37 +5599,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="172" priority="19">
+    <cfRule type="expression" dxfId="174" priority="19">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="171" priority="18">
+    <cfRule type="expression" dxfId="173" priority="18">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="170" priority="17">
+    <cfRule type="expression" dxfId="172" priority="17">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C25">
-    <cfRule type="expression" dxfId="169" priority="7">
+    <cfRule type="expression" dxfId="171" priority="7">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="168" priority="1">
+    <cfRule type="expression" dxfId="170" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:D25">
-    <cfRule type="expression" dxfId="167" priority="2">
+    <cfRule type="expression" dxfId="169" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 B4:D8 F5:F6 E7:F25 B9:C15">
-    <cfRule type="expression" dxfId="166" priority="6">
+    <cfRule type="expression" dxfId="168" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6055,27 +6069,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:E6 F5:F6">
-    <cfRule type="expression" dxfId="165" priority="9">
+    <cfRule type="expression" dxfId="167" priority="9">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="164" priority="23">
+    <cfRule type="expression" dxfId="166" priority="23">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="163" priority="22">
+    <cfRule type="expression" dxfId="165" priority="22">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:F25">
-    <cfRule type="expression" dxfId="162" priority="1">
+    <cfRule type="expression" dxfId="164" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="161" priority="21">
+    <cfRule type="expression" dxfId="163" priority="21">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6514,27 +6528,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:E6 F5:F6">
-    <cfRule type="expression" dxfId="160" priority="4">
+    <cfRule type="expression" dxfId="162" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="159" priority="23">
+    <cfRule type="expression" dxfId="161" priority="23">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="158" priority="22">
+    <cfRule type="expression" dxfId="160" priority="22">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:F25">
-    <cfRule type="expression" dxfId="157" priority="1">
+    <cfRule type="expression" dxfId="159" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="156" priority="6">
+    <cfRule type="expression" dxfId="158" priority="6">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6898,22 +6912,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="155" priority="15">
+    <cfRule type="expression" dxfId="157" priority="15">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="154" priority="14">
+    <cfRule type="expression" dxfId="156" priority="14">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="153" priority="1">
+    <cfRule type="expression" dxfId="155" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="152" priority="13">
+    <cfRule type="expression" dxfId="154" priority="13">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7277,22 +7291,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="151" priority="20">
+    <cfRule type="expression" dxfId="153" priority="20">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="150" priority="19">
+    <cfRule type="expression" dxfId="152" priority="19">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="149" priority="1">
+    <cfRule type="expression" dxfId="151" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="148" priority="3">
+    <cfRule type="expression" dxfId="150" priority="3">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7656,22 +7670,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="147" priority="15">
+    <cfRule type="expression" dxfId="149" priority="15">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="146" priority="14">
+    <cfRule type="expression" dxfId="148" priority="14">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="145" priority="1">
+    <cfRule type="expression" dxfId="147" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="144" priority="13">
+    <cfRule type="expression" dxfId="146" priority="13">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8092,22 +8106,22 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="252" priority="14">
+    <cfRule type="expression" dxfId="254" priority="14">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="251" priority="6">
+    <cfRule type="expression" dxfId="253" priority="6">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="250" priority="15">
+    <cfRule type="expression" dxfId="252" priority="15">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="249" priority="1">
+    <cfRule type="expression" dxfId="251" priority="1">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8472,22 +8486,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="143" priority="21">
+    <cfRule type="expression" dxfId="145" priority="21">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="142" priority="20">
+    <cfRule type="expression" dxfId="144" priority="20">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="141" priority="1">
+    <cfRule type="expression" dxfId="143" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="140" priority="4">
+    <cfRule type="expression" dxfId="142" priority="4">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8865,22 +8879,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="139" priority="16">
+    <cfRule type="expression" dxfId="141" priority="16">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="138" priority="15">
+    <cfRule type="expression" dxfId="140" priority="15">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="137" priority="1">
+    <cfRule type="expression" dxfId="139" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="136" priority="14">
+    <cfRule type="expression" dxfId="138" priority="14">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9298,47 +9312,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="135" priority="22">
+    <cfRule type="expression" dxfId="137" priority="22">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="134" priority="21">
+    <cfRule type="expression" dxfId="136" priority="21">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="133" priority="20">
+    <cfRule type="expression" dxfId="135" priority="20">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="132" priority="2">
+    <cfRule type="expression" dxfId="134" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="131" priority="23">
+    <cfRule type="expression" dxfId="133" priority="23">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="130" priority="16">
+    <cfRule type="expression" dxfId="132" priority="16">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E25">
-    <cfRule type="expression" dxfId="129" priority="1">
+    <cfRule type="expression" dxfId="131" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F14 B5:B25">
-    <cfRule type="expression" dxfId="128" priority="8">
+    <cfRule type="expression" dxfId="130" priority="8">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F25">
-    <cfRule type="expression" dxfId="127" priority="17">
+    <cfRule type="expression" dxfId="129" priority="17">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9740,47 +9754,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:B15 F5:F14">
-    <cfRule type="expression" dxfId="126" priority="4">
+    <cfRule type="expression" dxfId="128" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="125" priority="21">
+    <cfRule type="expression" dxfId="127" priority="21">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="124" priority="20">
+    <cfRule type="expression" dxfId="126" priority="20">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="123" priority="19">
+    <cfRule type="expression" dxfId="125" priority="19">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="122" priority="2">
+    <cfRule type="expression" dxfId="124" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="121" priority="22">
+    <cfRule type="expression" dxfId="123" priority="22">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="120" priority="15">
+    <cfRule type="expression" dxfId="122" priority="15">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E25">
-    <cfRule type="expression" dxfId="119" priority="1">
+    <cfRule type="expression" dxfId="121" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F25">
-    <cfRule type="expression" dxfId="118" priority="16">
+    <cfRule type="expression" dxfId="120" priority="16">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10198,47 +10212,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="117" priority="21">
+    <cfRule type="expression" dxfId="119" priority="21">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="116" priority="20">
+    <cfRule type="expression" dxfId="118" priority="20">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="115" priority="19">
+    <cfRule type="expression" dxfId="117" priority="19">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C13">
-    <cfRule type="expression" dxfId="114" priority="2">
+    <cfRule type="expression" dxfId="116" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="113" priority="22">
+    <cfRule type="expression" dxfId="115" priority="22">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="112" priority="15">
+    <cfRule type="expression" dxfId="114" priority="15">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E25">
-    <cfRule type="expression" dxfId="111" priority="1">
+    <cfRule type="expression" dxfId="113" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F13 B5:B25">
-    <cfRule type="expression" dxfId="110" priority="12">
+    <cfRule type="expression" dxfId="112" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F25">
-    <cfRule type="expression" dxfId="109" priority="16">
+    <cfRule type="expression" dxfId="111" priority="16">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10640,47 +10654,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:B15 F5:F14">
-    <cfRule type="expression" dxfId="108" priority="6">
+    <cfRule type="expression" dxfId="110" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="107" priority="15">
+    <cfRule type="expression" dxfId="109" priority="15">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="106" priority="14">
+    <cfRule type="expression" dxfId="108" priority="14">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="105" priority="13">
+    <cfRule type="expression" dxfId="107" priority="13">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C14">
-    <cfRule type="expression" dxfId="104" priority="2">
+    <cfRule type="expression" dxfId="106" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="103" priority="16">
+    <cfRule type="expression" dxfId="105" priority="16">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D14">
-    <cfRule type="expression" dxfId="102" priority="9">
+    <cfRule type="expression" dxfId="104" priority="9">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E25">
-    <cfRule type="expression" dxfId="101" priority="1">
+    <cfRule type="expression" dxfId="103" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F25">
-    <cfRule type="expression" dxfId="100" priority="10">
+    <cfRule type="expression" dxfId="102" priority="10">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11096,47 +11110,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="99" priority="22">
+    <cfRule type="expression" dxfId="101" priority="22">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="98" priority="21">
+    <cfRule type="expression" dxfId="100" priority="21">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="97" priority="20">
+    <cfRule type="expression" dxfId="99" priority="20">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C14">
-    <cfRule type="expression" dxfId="96" priority="2">
+    <cfRule type="expression" dxfId="98" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="95" priority="23">
+    <cfRule type="expression" dxfId="97" priority="23">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D14">
-    <cfRule type="expression" dxfId="94" priority="16">
+    <cfRule type="expression" dxfId="96" priority="16">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E25">
-    <cfRule type="expression" dxfId="93" priority="1">
+    <cfRule type="expression" dxfId="95" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F14 B5:B25">
-    <cfRule type="expression" dxfId="92" priority="13">
+    <cfRule type="expression" dxfId="94" priority="13">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F25">
-    <cfRule type="expression" dxfId="91" priority="17">
+    <cfRule type="expression" dxfId="93" priority="17">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11538,47 +11552,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:B15 F5:F13">
-    <cfRule type="expression" dxfId="90" priority="5">
+    <cfRule type="expression" dxfId="92" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="89" priority="16">
+    <cfRule type="expression" dxfId="91" priority="16">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="88" priority="15">
+    <cfRule type="expression" dxfId="90" priority="15">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="87" priority="14">
+    <cfRule type="expression" dxfId="89" priority="14">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C14">
-    <cfRule type="expression" dxfId="86" priority="2">
+    <cfRule type="expression" dxfId="88" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="85" priority="17">
+    <cfRule type="expression" dxfId="87" priority="17">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D14">
-    <cfRule type="expression" dxfId="84" priority="10">
+    <cfRule type="expression" dxfId="86" priority="10">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E25">
-    <cfRule type="expression" dxfId="83" priority="1">
+    <cfRule type="expression" dxfId="85" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F25">
-    <cfRule type="expression" dxfId="82" priority="11">
+    <cfRule type="expression" dxfId="84" priority="11">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11994,47 +12008,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="81" priority="20">
+    <cfRule type="expression" dxfId="83" priority="20">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="80" priority="19">
+    <cfRule type="expression" dxfId="82" priority="19">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="79" priority="18">
+    <cfRule type="expression" dxfId="81" priority="18">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C14">
-    <cfRule type="expression" dxfId="78" priority="2">
+    <cfRule type="expression" dxfId="80" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:D15 H15:H19 C16:C25 J17:J21">
-    <cfRule type="expression" dxfId="77" priority="21">
+    <cfRule type="expression" dxfId="79" priority="21">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D14">
-    <cfRule type="expression" dxfId="76" priority="14">
+    <cfRule type="expression" dxfId="78" priority="14">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E25">
-    <cfRule type="expression" dxfId="75" priority="1">
+    <cfRule type="expression" dxfId="77" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F13 B5:B25">
-    <cfRule type="expression" dxfId="74" priority="12">
+    <cfRule type="expression" dxfId="76" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F25">
-    <cfRule type="expression" dxfId="73" priority="15">
+    <cfRule type="expression" dxfId="75" priority="15">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12454,27 +12468,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="72" priority="16">
+    <cfRule type="expression" dxfId="74" priority="16">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="71" priority="15">
+    <cfRule type="expression" dxfId="73" priority="15">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="70" priority="14">
+    <cfRule type="expression" dxfId="72" priority="14">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:D25">
-    <cfRule type="expression" dxfId="69" priority="11">
+    <cfRule type="expression" dxfId="71" priority="11">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 B4:D15 F5:F6 E7:F25">
-    <cfRule type="expression" dxfId="68" priority="2">
+    <cfRule type="expression" dxfId="70" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12883,30 +12897,30 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:D12">
-    <cfRule type="expression" dxfId="248" priority="3">
+    <cfRule type="expression" dxfId="250" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="247" priority="14">
+    <cfRule type="expression" dxfId="249" priority="14">
       <formula>B$3 = TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="246" priority="15">
+    <cfRule type="expression" dxfId="248" priority="15">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="245" priority="7">
+    <cfRule type="expression" dxfId="247" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="244" priority="9">
+    <cfRule type="expression" dxfId="246" priority="9">
       <formula>NOT(ISBLANK(C13))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 B4:B13 F5:F6 E7:F25 D13 B14:D15 C16:D25">
-    <cfRule type="expression" dxfId="243" priority="12">
+    <cfRule type="expression" dxfId="245" priority="12">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13347,22 +13361,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:E6 F5:F6 B7:F25">
-    <cfRule type="expression" dxfId="67" priority="1">
+    <cfRule type="expression" dxfId="69" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="66" priority="16">
+    <cfRule type="expression" dxfId="68" priority="16">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="65" priority="15">
+    <cfRule type="expression" dxfId="67" priority="15">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="64" priority="14">
+    <cfRule type="expression" dxfId="66" priority="14">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13802,22 +13816,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:E6 F5:F6 B7:F25">
-    <cfRule type="expression" dxfId="63" priority="1">
+    <cfRule type="expression" dxfId="65" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="62" priority="21">
+    <cfRule type="expression" dxfId="64" priority="21">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="61" priority="20">
+    <cfRule type="expression" dxfId="63" priority="20">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="60" priority="6">
+    <cfRule type="expression" dxfId="62" priority="6">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14229,27 +14243,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:E25 F5:F13">
-    <cfRule type="expression" dxfId="59" priority="1">
+    <cfRule type="expression" dxfId="61" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="58" priority="22">
+    <cfRule type="expression" dxfId="60" priority="22">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="57" priority="21">
+    <cfRule type="expression" dxfId="59" priority="21">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="56" priority="20">
+    <cfRule type="expression" dxfId="58" priority="20">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F25">
-    <cfRule type="expression" dxfId="55" priority="5">
+    <cfRule type="expression" dxfId="57" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14625,27 +14639,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:D25 F5:F25">
-    <cfRule type="expression" dxfId="54" priority="1">
+    <cfRule type="expression" dxfId="56" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="53" priority="26">
+    <cfRule type="expression" dxfId="55" priority="26">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="52" priority="25">
+    <cfRule type="expression" dxfId="54" priority="25">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="51" priority="24">
+    <cfRule type="expression" dxfId="53" priority="24">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E26">
-    <cfRule type="expression" dxfId="50" priority="4">
+    <cfRule type="expression" dxfId="52" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15076,37 +15090,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:B14 F5:F14 B15:D25">
-    <cfRule type="expression" dxfId="49" priority="22">
+    <cfRule type="expression" dxfId="51" priority="22">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="48" priority="29">
+    <cfRule type="expression" dxfId="50" priority="29">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="47" priority="28">
+    <cfRule type="expression" dxfId="49" priority="28">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="46" priority="27">
+    <cfRule type="expression" dxfId="48" priority="27">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:D14">
-    <cfRule type="expression" dxfId="45" priority="2">
+    <cfRule type="expression" dxfId="47" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E26">
-    <cfRule type="expression" dxfId="44" priority="1">
+    <cfRule type="expression" dxfId="46" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F25">
-    <cfRule type="expression" dxfId="43" priority="21">
+    <cfRule type="expression" dxfId="45" priority="21">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15523,37 +15537,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:B14 F5:F14 B15:D25">
-    <cfRule type="expression" dxfId="42" priority="24">
+    <cfRule type="expression" dxfId="44" priority="24">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="41" priority="31">
+    <cfRule type="expression" dxfId="43" priority="31">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="40" priority="30">
+    <cfRule type="expression" dxfId="42" priority="30">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="39" priority="29">
+    <cfRule type="expression" dxfId="41" priority="29">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:D14">
-    <cfRule type="expression" dxfId="38" priority="2">
+    <cfRule type="expression" dxfId="40" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E26">
-    <cfRule type="expression" dxfId="37" priority="1">
+    <cfRule type="expression" dxfId="39" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F25">
-    <cfRule type="expression" dxfId="36" priority="23">
+    <cfRule type="expression" dxfId="38" priority="23">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15986,37 +16000,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="35" priority="13">
+    <cfRule type="expression" dxfId="37" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="34" priority="12">
+    <cfRule type="expression" dxfId="36" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="33" priority="11">
+    <cfRule type="expression" dxfId="35" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:D14">
-    <cfRule type="expression" dxfId="32" priority="2">
+    <cfRule type="expression" dxfId="34" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E26">
-    <cfRule type="expression" dxfId="31" priority="1">
+    <cfRule type="expression" dxfId="33" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F13 B5:B14 B15:D25">
-    <cfRule type="expression" dxfId="30" priority="9">
+    <cfRule type="expression" dxfId="32" priority="9">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F25">
-    <cfRule type="expression" dxfId="29" priority="8">
+    <cfRule type="expression" dxfId="31" priority="8">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16452,32 +16466,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:D25 F5:F14">
-    <cfRule type="expression" dxfId="28" priority="2">
+    <cfRule type="expression" dxfId="30" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="27" priority="13">
+    <cfRule type="expression" dxfId="29" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="26" priority="12">
+    <cfRule type="expression" dxfId="28" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="25" priority="11">
+    <cfRule type="expression" dxfId="27" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E26">
-    <cfRule type="expression" dxfId="24" priority="1">
+    <cfRule type="expression" dxfId="26" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F25">
-    <cfRule type="expression" dxfId="23" priority="8">
+    <cfRule type="expression" dxfId="25" priority="8">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16909,32 +16923,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:D25 F5:F14">
-    <cfRule type="expression" dxfId="22" priority="2">
+    <cfRule type="expression" dxfId="24" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="21" priority="13">
+    <cfRule type="expression" dxfId="23" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="20" priority="12">
+    <cfRule type="expression" dxfId="22" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="19" priority="11">
+    <cfRule type="expression" dxfId="21" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E26">
-    <cfRule type="expression" dxfId="18" priority="1">
+    <cfRule type="expression" dxfId="20" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F25">
-    <cfRule type="expression" dxfId="17" priority="8">
+    <cfRule type="expression" dxfId="19" priority="8">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17376,32 +17390,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:D25 F5:F14">
-    <cfRule type="expression" dxfId="16" priority="2">
+    <cfRule type="expression" dxfId="18" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="15" priority="13">
+    <cfRule type="expression" dxfId="17" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="14" priority="12">
+    <cfRule type="expression" dxfId="16" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="13" priority="11">
+    <cfRule type="expression" dxfId="15" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E26">
-    <cfRule type="expression" dxfId="12" priority="1">
+    <cfRule type="expression" dxfId="14" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F25">
-    <cfRule type="expression" dxfId="11" priority="8">
+    <cfRule type="expression" dxfId="13" priority="8">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17831,22 +17845,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="242" priority="10">
+    <cfRule type="expression" dxfId="244" priority="10">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="241" priority="9">
+    <cfRule type="expression" dxfId="243" priority="9">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="240" priority="1">
+    <cfRule type="expression" dxfId="242" priority="1">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:E6 F5:F6 B5:B14 C7:F8 C9:C13 E9:F13 C14:F14 B15:F15 C16:F25">
-    <cfRule type="expression" dxfId="239" priority="7">
+    <cfRule type="expression" dxfId="241" priority="7">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18289,32 +18303,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:D25 F5:F14">
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="9" priority="13">
+    <cfRule type="expression" dxfId="11" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="8" priority="12">
+    <cfRule type="expression" dxfId="10" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="7" priority="11">
+    <cfRule type="expression" dxfId="9" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E26">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F25">
-    <cfRule type="expression" dxfId="5" priority="8">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18752,27 +18766,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:D25 F5:F25">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="3" priority="13">
+    <cfRule type="expression" dxfId="5" priority="13">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="2" priority="12">
+    <cfRule type="expression" dxfId="4" priority="12">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="1" priority="11">
+    <cfRule type="expression" dxfId="3" priority="11">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E26">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18785,7 +18799,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19125,7 +19139,7 @@
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C29" s="19" t="s">
         <v>124</v>
@@ -19162,7 +19176,7 @@
         <v>143</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D31" s="19"/>
       <c r="E31" s="19" t="s">
@@ -19175,9 +19189,7 @@
       <c r="B32" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="C32" s="19" t="s">
-        <v>150</v>
-      </c>
+      <c r="C32" s="19"/>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
       <c r="F32" s="19"/>
@@ -19218,53 +19230,58 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B30:B32">
-    <cfRule type="expression" dxfId="238" priority="5">
+    <cfRule type="expression" dxfId="240" priority="7">
       <formula>NOT(ISBLANK(B30))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="237" priority="22">
+    <cfRule type="expression" dxfId="239" priority="24">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="236" priority="21">
+    <cfRule type="expression" dxfId="238" priority="23">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F29 C30:F30">
-    <cfRule type="expression" dxfId="235" priority="7">
+    <cfRule type="expression" dxfId="237" priority="9">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33:F36">
+    <cfRule type="expression" dxfId="236" priority="20">
+      <formula>NOT(ISBLANK(B33))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28:C31">
+    <cfRule type="expression" dxfId="235" priority="4">
+      <formula>NOT(ISBLANK(C28))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:D8 C9:C13 C14:D14">
     <cfRule type="expression" dxfId="234" priority="18">
-      <formula>NOT(ISBLANK(B33))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28:C32">
-    <cfRule type="expression" dxfId="233" priority="2">
-      <formula>NOT(ISBLANK(C28))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:D8 C9:C13 C14:D14">
-    <cfRule type="expression" dxfId="232" priority="16">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:D25">
-    <cfRule type="expression" dxfId="231" priority="12">
+    <cfRule type="expression" dxfId="233" priority="14">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:F32">
-    <cfRule type="expression" dxfId="230" priority="4">
+    <cfRule type="expression" dxfId="232" priority="6">
       <formula>NOT(ISBLANK(D31))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 F5:F6 B5:B14 E7:F25 B15:D15 C16:C20 B16:B26 C21:D25">
-    <cfRule type="expression" dxfId="229" priority="17">
+    <cfRule type="expression" dxfId="231" priority="19">
       <formula>$I$8 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>NOT(ISBLANK(C32))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19276,8 +19293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C30AA62-9079-4511-A186-E2F20A9CFEA4}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28:E29"/>
+    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19599,7 +19616,9 @@
     </row>
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
-      <c r="B29" s="17"/>
+      <c r="B29" s="19" t="s">
+        <v>150</v>
+      </c>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
       <c r="E29" s="19" t="s">
@@ -19665,37 +19684,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="228" priority="12">
+    <cfRule type="expression" dxfId="230" priority="12">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="227" priority="11">
+    <cfRule type="expression" dxfId="229" priority="11">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="226" priority="1">
+    <cfRule type="expression" dxfId="228" priority="1">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C25">
-    <cfRule type="expression" dxfId="225" priority="7">
+    <cfRule type="expression" dxfId="227" priority="7">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D8">
-    <cfRule type="expression" dxfId="224" priority="3">
+    <cfRule type="expression" dxfId="226" priority="3">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:D25">
-    <cfRule type="expression" dxfId="223" priority="2">
+    <cfRule type="expression" dxfId="225" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 B4:C15 F5:F6 E7:F25">
-    <cfRule type="expression" dxfId="222" priority="6">
+    <cfRule type="expression" dxfId="224" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20034,22 +20053,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="221" priority="7">
+    <cfRule type="expression" dxfId="223" priority="7">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="220" priority="6">
+    <cfRule type="expression" dxfId="222" priority="6">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F25">
-    <cfRule type="expression" dxfId="219" priority="1">
+    <cfRule type="expression" dxfId="221" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="218" priority="5">
+    <cfRule type="expression" dxfId="220" priority="5">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20415,42 +20434,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:B14 B15:C15 C16:C25">
-    <cfRule type="expression" dxfId="217" priority="6">
+    <cfRule type="expression" dxfId="219" priority="6">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="216" priority="9">
+    <cfRule type="expression" dxfId="218" priority="9">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="215" priority="8">
+    <cfRule type="expression" dxfId="217" priority="8">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="214" priority="7">
+    <cfRule type="expression" dxfId="216" priority="7">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C14">
-    <cfRule type="expression" dxfId="213" priority="5">
+    <cfRule type="expression" dxfId="215" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D8">
-    <cfRule type="expression" dxfId="212" priority="2">
+    <cfRule type="expression" dxfId="214" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:D25">
-    <cfRule type="expression" dxfId="211" priority="1">
+    <cfRule type="expression" dxfId="213" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F25">
-    <cfRule type="expression" dxfId="210" priority="4">
+    <cfRule type="expression" dxfId="212" priority="4">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20855,32 +20874,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:E6 F5:F6 B7:F8 B9:C25 E9:F25">
-    <cfRule type="expression" dxfId="209" priority="5">
+    <cfRule type="expression" dxfId="211" priority="5">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="208" priority="14">
+    <cfRule type="expression" dxfId="210" priority="14">
       <formula>B$3 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="expression" dxfId="207" priority="13">
+    <cfRule type="expression" dxfId="209" priority="13">
       <formula>B3 = TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F36">
-    <cfRule type="expression" dxfId="206" priority="12">
+    <cfRule type="expression" dxfId="208" priority="12">
       <formula>NOT(ISBLANK(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="205" priority="1">
+    <cfRule type="expression" dxfId="207" priority="1">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:D25">
-    <cfRule type="expression" dxfId="204" priority="2">
+    <cfRule type="expression" dxfId="206" priority="2">
       <formula>$I$8 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>

--- a/uurrooster.xlsx
+++ b/uurrooster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sethv\Documents\GitHub\LUCA-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E40D4E9-EB32-47E6-A615-EB63DB136487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2197C7C-B98A-4764-93C4-23642D751D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="4" r:id="rId1"/>
@@ -321,9 +321,6 @@
     <t>Feedback animatie 2&amp;3</t>
   </si>
   <si>
-    <t>Feedback animatie 4, 5, 6</t>
-  </si>
-  <si>
     <t>In de ochtend aan animaties werken en inschrijven feedback morgen als ik al iets heb</t>
   </si>
   <si>
@@ -535,9 +532,6 @@
     <t>animaties fixen</t>
   </si>
   <si>
-    <t>Naar feedback!</t>
-  </si>
-  <si>
     <t>20 tal vellen tekenpapier nodig hebben - min A4 - en potlood, stift en pen, indien mogelijk verschillende diktes van elk…</t>
   </si>
   <si>
@@ -548,6 +542,12 @@
   </si>
   <si>
     <t>fake geld voor morgen al klaarleggen</t>
+  </si>
+  <si>
+    <t>oortjes voor crossmedia kopen</t>
+  </si>
+  <si>
+    <t>design thinking voorbereiden dingen zie whatsapp!</t>
   </si>
 </sst>
 </file>
@@ -803,7 +803,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="253">
+  <dxfs count="252">
     <dxf>
       <font>
         <color theme="1"/>
@@ -2912,13 +2912,6 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3392,10 +3385,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>89</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
@@ -3411,15 +3404,15 @@
         <v>72</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>91</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -3507,7 +3500,7 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>25</v>
@@ -3940,13 +3933,13 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>10</v>
@@ -4083,7 +4076,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -4392,7 +4385,7 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>25</v>
@@ -4830,13 +4823,13 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>10</v>
@@ -4973,7 +4966,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -5282,7 +5275,7 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>25</v>
@@ -5529,7 +5522,7 @@
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
       <c r="E28" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F28" s="16"/>
     </row>
@@ -5717,13 +5710,13 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>10</v>
@@ -5862,7 +5855,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -6177,13 +6170,13 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>10</v>
@@ -6321,7 +6314,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -7828,7 +7821,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
@@ -8015,16 +8008,16 @@
         <v>31</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F28" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
@@ -8037,10 +8030,10 @@
       </c>
       <c r="D29" s="19"/>
       <c r="E29" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
@@ -8052,7 +8045,7 @@
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>
       <c r="F30" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
@@ -8106,22 +8099,22 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="B2:F3">
-    <cfRule type="expression" dxfId="252" pri